--- a/doc/super-duper-nes-architecture.xlsx
+++ b/doc/super-duper-nes-architecture.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\999.my-proj\001.nes-fpga\repo\super-duper-nes\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\daisuke\nes\super-duper-nes\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="architecture" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="block diagram" sheetId="2" r:id="rId2"/>
+    <sheet name="memory map" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Fami con cartlidge I/F</t>
   </si>
@@ -45,29 +45,226 @@
   <si>
     <t>IDE 40 pins flat cable I/F</t>
   </si>
+  <si>
+    <t>NES cartridge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I/F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0800</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x2000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x2008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x4000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x4020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x6000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x8000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x10000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0xc000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mirror</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0000-0x07ff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>io reg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>io reg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x2000-0x2007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expantion rom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sram</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prog rom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lower bank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upper bank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU space</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memory map</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ram</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>duper io reg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reset vector</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fifo status register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r: pop fifo register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w: push fifo register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0xfffa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0xfff9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0xfff8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>firo status register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>write fifo empty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>write fifo full</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read fifo empty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read fifo full</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>always 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -75,15 +272,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -115,7 +395,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -174,7 +460,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -234,7 +526,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -289,7 +587,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -344,7 +648,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -399,7 +709,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -454,7 +770,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -509,7 +831,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -564,20 +892,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="Group 32"/>
+        <xdr:cNvPr id="33" name="Group 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2008909" y="1050858"/>
-          <a:ext cx="277091" cy="473142"/>
+          <a:off x="2320636" y="964267"/>
+          <a:ext cx="346364" cy="421188"/>
           <a:chOff x="2024495" y="1143000"/>
           <a:chExt cx="280555" cy="762000"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15" name="Group 14"/>
+          <xdr:cNvPr id="15" name="Group 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -590,7 +930,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="9" name="Straight Connector 8"/>
+            <xdr:cNvPr id="9" name="Straight Connector 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -619,7 +965,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="10" name="Straight Connector 9"/>
+            <xdr:cNvPr id="10" name="Straight Connector 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -648,7 +1000,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="11" name="Straight Connector 10"/>
+            <xdr:cNvPr id="11" name="Straight Connector 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -677,7 +1035,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="12" name="Straight Connector 11"/>
+            <xdr:cNvPr id="12" name="Straight Connector 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -706,7 +1070,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="13" name="Straight Connector 12"/>
+            <xdr:cNvPr id="13" name="Straight Connector 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -735,7 +1105,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="14" name="Straight Connector 13"/>
+            <xdr:cNvPr id="14" name="Straight Connector 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -765,7 +1141,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="26" name="Group 25"/>
+          <xdr:cNvPr id="26" name="Group 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -778,7 +1160,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="27" name="Straight Connector 26"/>
+            <xdr:cNvPr id="27" name="Straight Connector 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -807,7 +1195,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="28" name="Straight Connector 27"/>
+            <xdr:cNvPr id="28" name="Straight Connector 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -836,7 +1230,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="29" name="Straight Connector 28"/>
+            <xdr:cNvPr id="29" name="Straight Connector 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -865,7 +1265,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="30" name="Straight Connector 29"/>
+            <xdr:cNvPr id="30" name="Straight Connector 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -894,7 +1300,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="31" name="Straight Connector 30"/>
+            <xdr:cNvPr id="31" name="Straight Connector 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -923,7 +1335,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="32" name="Straight Connector 31"/>
+            <xdr:cNvPr id="32" name="Straight Connector 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -969,20 +1387,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="Group 33"/>
+        <xdr:cNvPr id="34" name="Group 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2008909" y="1570071"/>
-          <a:ext cx="277091" cy="473142"/>
+          <a:off x="2320636" y="1431526"/>
+          <a:ext cx="346364" cy="438505"/>
           <a:chOff x="2024495" y="1143000"/>
           <a:chExt cx="280555" cy="762000"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="35" name="Group 34"/>
+          <xdr:cNvPr id="35" name="Group 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -995,7 +1425,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="43" name="Straight Connector 42"/>
+            <xdr:cNvPr id="43" name="Straight Connector 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1024,7 +1460,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="44" name="Straight Connector 43"/>
+            <xdr:cNvPr id="44" name="Straight Connector 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1053,7 +1495,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="45" name="Straight Connector 44"/>
+            <xdr:cNvPr id="45" name="Straight Connector 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1082,7 +1530,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="46" name="Straight Connector 45"/>
+            <xdr:cNvPr id="46" name="Straight Connector 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1111,7 +1565,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="47" name="Straight Connector 46"/>
+            <xdr:cNvPr id="47" name="Straight Connector 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1140,7 +1600,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="48" name="Straight Connector 47"/>
+            <xdr:cNvPr id="48" name="Straight Connector 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1170,7 +1636,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="36" name="Group 35"/>
+          <xdr:cNvPr id="36" name="Group 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1183,7 +1655,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="37" name="Straight Connector 36"/>
+            <xdr:cNvPr id="37" name="Straight Connector 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1212,7 +1690,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="38" name="Straight Connector 37"/>
+            <xdr:cNvPr id="38" name="Straight Connector 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1241,7 +1725,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="39" name="Straight Connector 38"/>
+            <xdr:cNvPr id="39" name="Straight Connector 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1270,7 +1760,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="40" name="Straight Connector 39"/>
+            <xdr:cNvPr id="40" name="Straight Connector 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1299,7 +1795,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="41" name="Straight Connector 40"/>
+            <xdr:cNvPr id="41" name="Straight Connector 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1328,7 +1830,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="42" name="Straight Connector 41"/>
+            <xdr:cNvPr id="42" name="Straight Connector 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1374,7 +1882,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvPr id="49" name="Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1429,7 +1943,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rounded Rectangle 49"/>
+        <xdr:cNvPr id="50" name="Rounded Rectangle 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1484,7 +2004,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Straight Connector 51"/>
+        <xdr:cNvPr id="52" name="Straight Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -1530,7 +2056,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rectangle 50"/>
+        <xdr:cNvPr id="51" name="Rectangle 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1590,7 +2122,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Rectangle 52"/>
+        <xdr:cNvPr id="53" name="Rectangle 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1645,20 +2183,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Group 2"/>
+        <xdr:cNvPr id="3" name="Group 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="5226593" y="2167891"/>
-          <a:ext cx="571502" cy="45719"/>
+          <a:off x="6153115" y="1968732"/>
+          <a:ext cx="519548" cy="45719"/>
           <a:chOff x="6705600" y="1333500"/>
           <a:chExt cx="1047750" cy="76200"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="55" name="Straight Connector 54"/>
+          <xdr:cNvPr id="55" name="Straight Connector 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1687,7 +2237,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="56" name="Straight Connector 55"/>
+          <xdr:cNvPr id="56" name="Straight Connector 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1732,7 +2288,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Rectangle 60"/>
+        <xdr:cNvPr id="61" name="Rectangle 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1792,20 +2354,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="76" name="Group 75"/>
+        <xdr:cNvPr id="76" name="Group 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3119004" y="1524000"/>
-          <a:ext cx="1538721" cy="952501"/>
+          <a:off x="3603913" y="1385455"/>
+          <a:ext cx="1815812" cy="865910"/>
           <a:chOff x="3160272" y="1524000"/>
           <a:chExt cx="1562304" cy="952501"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="20" name="Straight Connector 19"/>
+          <xdr:cNvPr id="20" name="Straight Connector 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1834,7 +2408,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="21" name="Straight Connector 20"/>
+          <xdr:cNvPr id="21" name="Straight Connector 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1863,7 +2443,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="22" name="Straight Connector 21"/>
+          <xdr:cNvPr id="22" name="Straight Connector 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1892,7 +2478,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="23" name="Straight Connector 22"/>
+          <xdr:cNvPr id="23" name="Straight Connector 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1921,7 +2513,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="24" name="Straight Connector 23"/>
+          <xdr:cNvPr id="24" name="Straight Connector 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1950,7 +2548,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="25" name="Straight Connector 24"/>
+          <xdr:cNvPr id="25" name="Straight Connector 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1979,7 +2583,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="58" name="Straight Connector 57"/>
+          <xdr:cNvPr id="58" name="Straight Connector 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2008,7 +2618,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="59" name="Straight Connector 58"/>
+          <xdr:cNvPr id="59" name="Straight Connector 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2037,7 +2653,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="60" name="Straight Connector 59"/>
+          <xdr:cNvPr id="60" name="Straight Connector 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2066,7 +2688,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="62" name="Straight Connector 61"/>
+          <xdr:cNvPr id="62" name="Straight Connector 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2095,7 +2723,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="63" name="Straight Connector 62"/>
+          <xdr:cNvPr id="63" name="Straight Connector 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2124,7 +2758,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="64" name="Straight Connector 63"/>
+          <xdr:cNvPr id="64" name="Straight Connector 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2169,7 +2809,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="AutoShape 3" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.%284%29.jpg"/>
+        <xdr:cNvPr id="1027" name="AutoShape 3" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.%284%29.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2211,7 +2857,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="AutoShape 4" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.(4).jpg"/>
+        <xdr:cNvPr id="1028" name="AutoShape 4" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.(4).jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2253,7 +2905,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1029" name="AutoShape 5" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.(4).jpg"/>
+        <xdr:cNvPr id="1029" name="AutoShape 5" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.(4).jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2295,7 +2953,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76"/>
+        <xdr:cNvPr id="77" name="Picture 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2322,6 +2986,1489 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2247679-251F-4D88-8F07-EBF546E0DA7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362199" y="1362074"/>
+          <a:ext cx="2657475" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7926CF31-A546-41A3-A15E-4DE17B509DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514599" y="1704975"/>
+          <a:ext cx="1028701" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CPU 6502</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FA88FD-76BF-4D56-B4F1-2D57299C29D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514599" y="2733675"/>
+          <a:ext cx="1028701" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PPU</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A881FC7-CB09-4132-9927-9B06F74FBAC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="1714500"/>
+          <a:ext cx="1028701" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>RAM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2k</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACFA3D8-FD6C-4C3C-9596-F9638F17BCD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133851" y="1371600"/>
+          <a:ext cx="3543300" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DE0-CV</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357D6DFE-DB23-4599-8D0E-C7E8AC62484B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="1714500"/>
+          <a:ext cx="1028701" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>32k</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480753E1-924B-401E-83E1-0CBF6C2188C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="2733675"/>
+          <a:ext cx="1028701" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>8k</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917DB88B-F309-458C-AD46-850FBC2B7944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="1714500"/>
+          <a:ext cx="733426" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>FIFO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>256</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> byte</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA1A6A1-6BA6-4AE9-9F42-196036AF39CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534274" y="2733675"/>
+          <a:ext cx="733426" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>FIFO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>256</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> byte</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB6A670-37C2-488C-9D57-63BA8A7B60C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562975" y="2228850"/>
+          <a:ext cx="590550" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>I2C</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Slave</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65B060D-433B-402F-AFD7-22C6564EEE99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="2733675"/>
+          <a:ext cx="1028701" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>VRAM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2k</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A178BF2-AD68-4847-AD0B-CA631F33E095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562974" y="1362075"/>
+          <a:ext cx="4429125" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Beagle bone</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEEB55E-E5CD-4A51-8DDF-551E4BE83633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010649" y="1714500"/>
+          <a:ext cx="1028701" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CPU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AM3358</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4312F7-7630-4D28-AFF7-2E9465A12464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010649" y="2733675"/>
+          <a:ext cx="1028701" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DDR3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>512MB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC88A48A-853C-46DD-84FB-8B63D6F573F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="1714500"/>
+          <a:ext cx="1028701" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>EEPROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4k</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A2A49E-0EDF-4834-BA90-2B39D7E01C4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11668124" y="1714500"/>
+          <a:ext cx="1028701" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>onboard</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> NAND</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>eMMC 4GB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520241A1-91AC-40D3-AEFC-3B6EDFC9C203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876799" y="3600451"/>
+          <a:ext cx="1914526" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GPIO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6C182F-89E5-4134-A625-076B97F1A078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11372849" y="3086100"/>
+          <a:ext cx="1323976" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GPIO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC6B2AD-7AFB-4F1F-BA4F-D8A81C7D71CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="2733675"/>
+          <a:ext cx="590550" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>I2C</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0DE781-A5A9-4D1C-98EA-5EA777BB4999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248024" y="2566987"/>
+          <a:ext cx="885827" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C42186A-D4F8-4097-86DB-3963A51FE7C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="2409825"/>
+          <a:ext cx="0" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990E9ABF-DDA1-496F-A306-1C4028430B36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677151" y="2566987"/>
+          <a:ext cx="885823" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0601CF1-55BD-4263-86F9-F8C5122A8EEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124824" y="2400300"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2589,21 +4736,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="H8:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AO14" sqref="AO14"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="8" spans="11:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="11:28" x14ac:dyDescent="0.15">
       <c r="Q8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="11:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="11:28" x14ac:dyDescent="0.15">
       <c r="K12" t="s">
         <v>0</v>
       </c>
@@ -2611,47 +4758,380 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="11:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="11:28" x14ac:dyDescent="0.15">
       <c r="K13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="11:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="11:28" x14ac:dyDescent="0.15">
       <c r="K14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H22" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="L17:AB18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="17" spans="12:28" x14ac:dyDescent="0.15">
+      <c r="L17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="12:28" x14ac:dyDescent="0.15">
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="3.875" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="F14" s="10">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="F15" s="10">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="10">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="10">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="F18" s="10">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="10">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C20" s="1"/>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C26" s="1"/>
+      <c r="D26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C27" s="1"/>
+      <c r="D27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C32" s="1"/>
+      <c r="D32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C33" s="1"/>
+      <c r="D33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/super-duper-nes-architecture.xlsx
+++ b/doc/super-duper-nes-architecture.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="architecture" sheetId="1" r:id="rId1"/>
     <sheet name="block diagram" sheetId="2" r:id="rId2"/>
     <sheet name="memory map" sheetId="3" r:id="rId3"/>
+    <sheet name="nes-bbb-if" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -4474,6 +4475,1435 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8955E15-C818-4052-9C19-D8FF9B82FF30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000126" y="857250"/>
+          <a:ext cx="1200150" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5713A0F4-827F-4C67-B3DD-F632AD6C7D79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="342900"/>
+          <a:ext cx="5400676" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DE0-CV</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820767D0-A403-4007-A7F1-C06E192A4F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="857250"/>
+          <a:ext cx="1200150" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BBB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F36E6E7-DA55-4C11-A7E9-796EBC9DA1CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400426" y="685800"/>
+          <a:ext cx="4400550" cy="2543176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Duper Cartridge</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896D09C2-970F-4850-AE42-A3B5D7CF8E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400425" y="3771900"/>
+          <a:ext cx="1400175" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CHRROM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2ECDDA-35B8-43FE-8CDC-14E9E7B04708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="1028700"/>
+          <a:ext cx="2200275" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Duper ROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- fifo status reg</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- fifo read reg</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- fifo write reg</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7232F4-E500-43DD-A84A-0CD5E1976F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="2400300"/>
+          <a:ext cx="1400175" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>I2C</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Slave</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA2C098-97DA-42DE-B1C8-C5EEB1E7D9A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="1028700"/>
+          <a:ext cx="1400175" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>FIFO IN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE53571D-D08A-4208-A789-A7E9DE084E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="1714500"/>
+          <a:ext cx="1400175" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>FIFO OUT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3C8D36-9973-45F2-947C-AFD9F613B0E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="2228850"/>
+          <a:ext cx="1400175" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PRGROM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4573CB36-553A-4896-9393-D4D1F8EB78D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4600575" y="1285875"/>
+          <a:ext cx="1400175" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EE5112-0BB7-497B-B845-1B5A76EC248E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="1371600"/>
+          <a:ext cx="1400175" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235B674C-8406-4421-86C1-22C3E27A332E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4600575" y="1457325"/>
+          <a:ext cx="1400175" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3686753-0F3D-4780-89E8-32BBD14393D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="1714501"/>
+          <a:ext cx="1400175" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72910D1-106A-48F3-9336-46056147D7C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="1314450"/>
+          <a:ext cx="638175" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GPIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D464D33-B14E-4B55-9B1B-DE556B0FBB96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="1285875"/>
+          <a:ext cx="2800350" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8566BEBE-CE20-4E1D-91A2-AA2DFB64934C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7400925" y="1514475"/>
+          <a:ext cx="2800350" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F5110-16E5-4762-9032-73D1CCC95069}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="2000250"/>
+          <a:ext cx="638175" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>I2C Master</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC82FDF8-D793-4A32-BC15-BEE240655175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7400925" y="2286000"/>
+          <a:ext cx="2800350" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2544D606-B49D-46F3-898B-3B4C8E08C8DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1200150"/>
+          <a:ext cx="600075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CPU</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F1ECFD-B4CE-47A1-9EF8-0B149F2B7120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1714500"/>
+          <a:ext cx="600075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PPU</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840AA9AC-88C6-4C07-80B0-4035C76069D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="1371600"/>
+          <a:ext cx="1800225" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD17308-82AC-48FF-BE04-FFDA927110D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="1885950"/>
+          <a:ext cx="1600200" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4817,7 +6247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5134,4 +6564,20 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB27B8FE-7E65-4D10-B775-6603DAD80D23}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB37" sqref="AB37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/super-duper-nes-architecture.xlsx
+++ b/doc/super-duper-nes-architecture.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="architecture" sheetId="1" r:id="rId1"/>
     <sheet name="block diagram" sheetId="2" r:id="rId2"/>
     <sheet name="memory map" sheetId="3" r:id="rId3"/>
     <sheet name="nes-bbb-if" sheetId="4" r:id="rId4"/>
+    <sheet name="fpga-rtl" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Fami con cartlidge I/F</t>
   </si>
@@ -228,6 +229,50 @@
   </si>
   <si>
     <t>always 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/empty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/full</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/addr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/scl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/sda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gpio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/i2c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/i2c_data_in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/i2c_data_out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/composite</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5904,6 +5949,1663 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7340808D-B02E-4ADA-A3D2-12C114518764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18440400" y="3429000"/>
+          <a:ext cx="2095500" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AM3359</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B41102-BD15-4B8D-A8FE-56F95518384D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11106150" y="342900"/>
+          <a:ext cx="7962900" cy="5657850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>de0-cv</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE56944-E785-422E-AC0B-330F7732DF15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="685800"/>
+          <a:ext cx="1257300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>prgrom</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD54228A-90DD-4B55-95DD-792104F01CAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11734800" y="3943350"/>
+          <a:ext cx="1257300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>chrrom</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B6A153-AB83-4B25-816A-4BA191604DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12363450" y="4800600"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F322D273-1E8E-483E-86D0-2616452A6613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="1543050"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A3DD3E-9A9A-4A89-B0AD-A1E844E05679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="2571750"/>
+          <a:ext cx="1257300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i2c_slave</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88841D87-5E7B-4ECB-9F4D-160B4FCAB580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="2057400"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82768FD-B4F3-4B94-B639-4C850B9B5A82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="2571750"/>
+          <a:ext cx="1257300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fifo_in</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13BA419-B17D-4C57-8E2B-43B95013F224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657850" y="2057400"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14CE2C1-A8DA-4C29-AEF4-DC1113ED3448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="2571750"/>
+          <a:ext cx="1257300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fifo_out</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FF3C7D-B8B3-4B30-95C8-33683BA16A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="2057400"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8164CB4-C0A6-45B5-83A0-1F4FC860F3E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657850" y="3429000"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44966D97-8850-48B1-BAD3-74C85954AB25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="3429000"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67B8748-7FEA-4E93-A811-8DEE3F2E3BED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="3429000"/>
+          <a:ext cx="0" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB7F798-3D4B-423A-B024-48F08C5D4698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18230850" y="3086100"/>
+          <a:ext cx="2095500" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>bbb</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B7E65A-9681-4E3A-8D86-C3F668682A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18421350" y="4286250"/>
+          <a:ext cx="857250" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i2c_master</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01FCFE90-26F7-4121-B994-90BD062BB74B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12153900" y="4457700"/>
+          <a:ext cx="6267450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23BAFA1-E226-45A0-BA91-C111B7B78FF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20535900" y="3771900"/>
+          <a:ext cx="628650" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>gpio</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B153635-017C-4323-BA05-1C1CC64D68B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15716250" y="3943350"/>
+          <a:ext cx="4819650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3F18D6-BDFC-4820-A255-89D3659CC2C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="1371600"/>
+          <a:ext cx="1676400" cy="4629150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>nes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D163874-8179-432D-9A37-EBDAEAA05FDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591550" y="1714500"/>
+          <a:ext cx="1257300" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>cpu</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF5B67D-59A5-406C-8121-AE56AFD3A597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591550" y="4972050"/>
+          <a:ext cx="1257300" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ppu</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AB4AAA-FC9A-4804-B621-BC81E1FC75D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="2057400"/>
+          <a:ext cx="8801100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55EB6B21-CFFE-4002-A0A6-2A9BC85985B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="5314950"/>
+          <a:ext cx="4191000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D73108-23E7-4C47-95B7-E9CC28F77833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="2400300"/>
+          <a:ext cx="0" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264658E5-CF3A-4035-8D4E-8E0B93CE422C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="4972050"/>
+          <a:ext cx="1257300" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>tv</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DEC997-0EE5-4E83-AB34-EB62764DC302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="5314950"/>
+          <a:ext cx="1257300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6215,7 +7917,7 @@
   <dimension ref="L17:AB18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6570,8 +8272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB27B8FE-7E65-4D10-B775-6603DAD80D23}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB37" sqref="AB37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6580,4 +8282,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42FBB49-54EB-467B-B773-562DC57E2882}">
+  <dimension ref="J11:BM32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="11" spans="27:57" x14ac:dyDescent="0.15">
+      <c r="AA11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="27:57" x14ac:dyDescent="0.15">
+      <c r="AA12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="27:57" x14ac:dyDescent="0.15">
+      <c r="AM13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="27:57" x14ac:dyDescent="0.15">
+      <c r="AM14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="10:65" x14ac:dyDescent="0.15">
+      <c r="AM21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="10:65" x14ac:dyDescent="0.15">
+      <c r="AM22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="10:65" x14ac:dyDescent="0.15">
+      <c r="BM23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="10:65" x14ac:dyDescent="0.15">
+      <c r="BM26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="10:65" x14ac:dyDescent="0.15">
+      <c r="AA30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="10:65" x14ac:dyDescent="0.15">
+      <c r="AA31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="10:65" x14ac:dyDescent="0.15">
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/super-duper-nes-architecture.xlsx
+++ b/doc/super-duper-nes-architecture.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="architecture" sheetId="1" r:id="rId1"/>
+    <sheet name="overview" sheetId="1" r:id="rId1"/>
     <sheet name="block diagram" sheetId="2" r:id="rId2"/>
     <sheet name="memory map" sheetId="3" r:id="rId3"/>
     <sheet name="nes-bbb-if" sheetId="4" r:id="rId4"/>
-    <sheet name="fpga-rtl" sheetId="5" r:id="rId5"/>
+    <sheet name="bus" sheetId="5" r:id="rId5"/>
+    <sheet name="duper cartridge rtl" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>Fami con cartlidge I/F</t>
   </si>
@@ -273,6 +274,62 @@
   </si>
   <si>
     <t>/composite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rom read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fifo status read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fifo read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fifo write</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fifo status read (gpio)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i2c data read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i2c data write</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composite out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keypad input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>linux command send</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>console display</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>linux terminal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i2c i/o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>duper state machine</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7594,6 +7651,1608 @@
           <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F6FDA3-32AD-4E9B-AFA8-645E3AFA1001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="1200150"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFBD111-B9EC-4925-A0CE-AF259F9FEB1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="1200150"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Duper Cartridge</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A03CEE-3285-4856-9CD8-81B128D10081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381875" y="1200150"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BBB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 左右 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43DAD4E-B7F8-4302-9328-8AF8BB7858D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3095625" y="1371600"/>
+          <a:ext cx="952500" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 左右 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA690AA-B24A-40DB-B919-6DC85D822E87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476874" y="1371600"/>
+          <a:ext cx="1666875" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B83578F-5B3D-41BB-AEB0-068E470D1169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="1200150"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TV</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矢印: 左右 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927C59B8-8F01-4AAC-9CEA-EA09E275ABB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="1371600"/>
+          <a:ext cx="952500" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF49119-7B5D-49A6-8020-C622FB42AED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="2228850"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>joypad</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="4114800"/>
+          <a:ext cx="952500" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>idle</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>92285</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>81675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104985</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>102475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="コネクタ: 曲線 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A624380-5E2B-4678-834A-476892BCCEF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="7"/>
+          <a:endCxn id="10" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5869910" y="4371975"/>
+          <a:ext cx="363700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62854"/>
+            <a:gd name="adj2" fmla="val 8201654"/>
+            <a:gd name="adj3" fmla="val 162854"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBF912D-6800-4D42-8220-A23EDD2DC92F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="4114800"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>rom read</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCB4EB7-785B-4398-A15B-CC7BC68DAA29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9286875" y="3943350"/>
+          <a:ext cx="952500" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fifo status read</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC49D81A-BCC0-490C-A998-6FBE5DF41FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10715625" y="4114800"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fifo read</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{908379EE-4A8F-4385-B88E-BB12CEC20A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12144375" y="4114800"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fifo write</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98634</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>75326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>139489</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100434</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="コネクタ: 曲線 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33BF03F-8024-4679-92C9-75EB3BD59A10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="7"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7012133" y="3229752"/>
+          <a:ext cx="25108" cy="1945855"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1210471"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98634</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>125542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>139489</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>75326</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="コネクタ: 曲線 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EC8487-DC45-4AA2-9A64-E7C72FE98DE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="7"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7678445" y="2442206"/>
+          <a:ext cx="121234" cy="3374605"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 392114"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98634</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>75326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>139489</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100434</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="コネクタ: 曲線 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6937307-1045-4C20-A873-1C3460E531F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="7"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8440883" y="1801002"/>
+          <a:ext cx="25108" cy="4803355"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2917604"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98634</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>75326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>139489</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100434</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="コネクタ: 曲線 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D853A7-7F2F-4A63-B771-98C2C3271078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="7"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9155258" y="1086627"/>
+          <a:ext cx="25108" cy="6232105"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4359176"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98634</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>139489</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71017</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="コネクタ: 曲線 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A56AAA-BA4D-44F6-95D5-3531DC1CA5FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="5"/>
+          <a:endCxn id="14" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6951516" y="3654068"/>
+          <a:ext cx="146342" cy="1945855"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 324838"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98634</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>139489</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45909</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="コネクタ: 曲線 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D59F30-FB28-4465-8198-FF556618DB62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="5"/>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7678445" y="2927139"/>
+          <a:ext cx="121234" cy="3374605"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 564963"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98634</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>139489</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71017</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="コネクタ: 曲線 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6821B165-0DF6-4851-ABC8-35263234A5EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="5"/>
+          <a:endCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8380266" y="2225318"/>
+          <a:ext cx="146342" cy="4803355"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 643765"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98634</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>139489</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71017</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="コネクタ: 曲線 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072F0FF8-8CEF-44BC-905D-1D705D03F07B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="5"/>
+          <a:endCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9094641" y="1510943"/>
+          <a:ext cx="146342" cy="6232105"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 871571"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="楕円 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A4AD05-310A-4C5B-9539-259F4FC7BE15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12144375" y="6343650"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>bbb</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i2c read</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="楕円 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{025F8ECD-E2A5-46DC-B4E7-4513594B202C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10715625" y="6343650"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>bbb i2c write</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7082B3C5-5CEA-461E-AE6D-BF713323704D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="4"/>
+          <a:endCxn id="51" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11191875" y="4800600"/>
+          <a:ext cx="0" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C7C802-2E56-4516-9249-3DB0A980120B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="4"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12620625" y="4800600"/>
+          <a:ext cx="0" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -8288,7 +9947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42FBB49-54EB-467B-B773-562DC57E2882}">
   <dimension ref="J11:BM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
@@ -8366,4 +10025,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88CBFEC-A20F-44E2-9A89-ADFAF373EA5B}">
+  <dimension ref="H5:AJ19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="5" spans="8:36" x14ac:dyDescent="0.15">
+      <c r="M5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="8:36" x14ac:dyDescent="0.15">
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="8:36" x14ac:dyDescent="0.15">
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="8:36" x14ac:dyDescent="0.15">
+      <c r="R12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="8:36" x14ac:dyDescent="0.15">
+      <c r="R13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="8:36" x14ac:dyDescent="0.15">
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="23:23" x14ac:dyDescent="0.15">
+      <c r="W19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/super-duper-nes-architecture.xlsx
+++ b/doc/super-duper-nes-architecture.xlsx
@@ -8459,13 +8459,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8483,7 +8483,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12144375" y="4114800"/>
+          <a:off x="15240000" y="4114800"/>
           <a:ext cx="952500" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8708,15 +8708,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>98634</xdr:colOff>
+      <xdr:colOff>98635</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>75326</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>139489</xdr:colOff>
+      <xdr:rowOff>75325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>139490</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>100434</xdr:rowOff>
+      <xdr:rowOff>100433</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8734,12 +8734,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9155258" y="1086627"/>
-          <a:ext cx="25108" cy="6232105"/>
+          <a:off x="10703071" y="-461186"/>
+          <a:ext cx="25108" cy="9327730"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -4359176"/>
+            <a:gd name="adj1" fmla="val -3714254"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8863,7 +8863,7 @@
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 564963"/>
+            <a:gd name="adj1" fmla="val 392114"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8899,7 +8899,7 @@
       <xdr:rowOff>96125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>139489</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>71017</xdr:rowOff>
@@ -8915,17 +8915,17 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="5"/>
-          <a:endCxn id="16" idx="3"/>
+          <a:endCxn id="30" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8380266" y="2225318"/>
-          <a:ext cx="146342" cy="4803355"/>
+          <a:off x="9570891" y="1034693"/>
+          <a:ext cx="146342" cy="7184605"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 643765"/>
+            <a:gd name="adj1" fmla="val 324838"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8956,13 +8956,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>98634</xdr:colOff>
+      <xdr:colOff>98635</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>96125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>139489</xdr:colOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>139490</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>71017</xdr:rowOff>
     </xdr:to>
@@ -8977,17 +8977,17 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="5"/>
-          <a:endCxn id="17" idx="3"/>
+          <a:endCxn id="44" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9094641" y="1510943"/>
-          <a:ext cx="146342" cy="6232105"/>
+          <a:off x="11833079" y="-1227494"/>
+          <a:ext cx="146342" cy="11708980"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 871571"/>
+            <a:gd name="adj1" fmla="val 630748"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9017,13 +9017,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9041,7 +9041,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12144375" y="6343650"/>
+          <a:off x="15240000" y="6343650"/>
           <a:ext cx="952500" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -9207,13 +9207,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9234,7 +9234,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12620625" y="4800600"/>
+          <a:off x="15716250" y="4800600"/>
           <a:ext cx="0" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -9242,6 +9242,622 @@
         </a:prstGeom>
         <a:ln>
           <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5553E96-8785-41AE-9C67-BF2FDD0FFD26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906250" y="4114800"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fifo pop</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="楕円 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2EFB9C-B4D2-4697-90A8-A4FD4B79FED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="4114800"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fifo read ok</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>104984</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>94084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>145839</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106784</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="コネクタ: 曲線 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E94192-955E-4141-9A1E-7BCB8A922426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="7"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="11787187" y="3956681"/>
+          <a:ext cx="12700" cy="517105"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2590811"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>104984</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>94084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>145839</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106784</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="コネクタ: 曲線 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501E4B56-0819-4FD1-9ACC-1599D0F51507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="7"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="12977812" y="3956681"/>
+          <a:ext cx="12700" cy="517105"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2590811"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>92285</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>104985</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>77367</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="コネクタ: 曲線 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C018E2-ADED-44C0-AF56-563DABE33CF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="7"/>
+          <a:endCxn id="30" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13667418" y="4457700"/>
+          <a:ext cx="484934" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47140"/>
+            <a:gd name="adj2" fmla="val 8201654"/>
+            <a:gd name="adj3" fmla="val 147140"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="楕円 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B4E926-0762-4832-800A-D5F663D11DA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16430625" y="4114800"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fifo push</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="楕円 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794AD72E-7D1C-4101-8957-74F96AEB3147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17621250" y="4114800"/>
+          <a:ext cx="952500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fifo write ok</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>104984</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>94084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>145839</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106784</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="コネクタ: 曲線 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468D0F7F-35BA-4071-8DB1-E9A87F05AC70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="7"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="16311562" y="3956681"/>
+          <a:ext cx="12700" cy="517105"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2590811"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>104984</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>94084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>145839</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106784</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="コネクタ: 曲線 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2B56E2-BE96-480C-A1F7-94DC556582E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="7"/>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="17502187" y="3956681"/>
+          <a:ext cx="12700" cy="517105"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2590811"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>92285</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>104985</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>77367</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="コネクタ: 曲線 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E384624-0762-4127-A63B-4DE9E4272DA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="7"/>
+          <a:endCxn id="44" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="18191793" y="4457700"/>
+          <a:ext cx="484934" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47140"/>
+            <a:gd name="adj2" fmla="val 8201654"/>
+            <a:gd name="adj3" fmla="val 147140"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -10031,8 +10647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88CBFEC-A20F-44E2-9A89-ADFAF373EA5B}">
   <dimension ref="H5:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY34" sqref="AY34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/super-duper-nes-architecture.xlsx
+++ b/doc/super-duper-nes-architecture.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="bus" sheetId="5" r:id="rId5"/>
     <sheet name="duper cartridge rtl" sheetId="6" r:id="rId6"/>
     <sheet name="fifo" sheetId="8" r:id="rId7"/>
+    <sheet name="bus seq" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="136">
   <si>
     <t>Fami con cartlidge I/F</t>
   </si>
@@ -489,12 +490,73 @@
     <t>fifo push</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>ack</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Ack</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R/W = 0 (Write)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Start seq</t>
+  </si>
+  <si>
+    <t>Data = ‘d’ (0x64, 0110 0100)</t>
+  </si>
+  <si>
+    <t>Address = 0x44 ( 100 0100)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +585,30 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="TakaoPGothic"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="TakaoPGothic"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="TakaoPGothic"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -657,13 +743,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -698,10 +785,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{58996D63-4133-4F7B-B878-9DA3CD6D078A}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{31C84B1B-62AF-449F-8A86-B4689E2B0D52}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -24283,6 +24380,5271 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="531105" y="509760"/>
+    <xdr:ext cx="5550885" cy="1701960"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="画像 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C437E868-BB38-486A-8A21-C79364787D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="1937" t="26807" r="1724" b="11589"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="531105" y="509760"/>
+          <a:ext cx="5550885" cy="1701960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="6882840" y="654960"/>
+    <xdr:ext cx="6656400" cy="1347480"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="画像 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843307F5-4A92-405E-8012-3F12E6C62793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect l="-229" t="36566" r="3286" b="14639"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6882840" y="654960"/>
+          <a:ext cx="6656400" cy="1347480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="587010" y="7729080"/>
+    <xdr:ext cx="1627395" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E064301B-81DD-4965-8E4B-A6C361503422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="587010" y="7729080"/>
+          <a:ext cx="1627395" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="587370" y="9108675"/>
+    <xdr:ext cx="3633045" cy="29880"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B601C4-4F9C-43DD-B00E-5AD95D07C60D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="587370" y="9108675"/>
+          <a:ext cx="3633045" cy="29880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="2214405" y="7699200"/>
+    <xdr:ext cx="9165" cy="1044795"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC47F31-AECB-48C8-AC07-0E7CF60CD9D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2214405" y="7699200"/>
+          <a:ext cx="9165" cy="1044795"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="2205600" y="8714115"/>
+    <xdr:ext cx="3320130" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16FD91A-778C-43B1-A355-78C6E23D31A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2205600" y="8714115"/>
+          <a:ext cx="3320130" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="473505" y="4565760"/>
+    <xdr:ext cx="5618925" cy="1008120"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="画像 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E6F8EE-7193-4942-9FA8-1EA7B7B1E933}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect l="1655" t="41756" r="7351" b="28687"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="473505" y="4565760"/>
+          <a:ext cx="5618925" cy="1008120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="6386655" y="3660840"/>
+    <xdr:ext cx="8576295" cy="3261600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="画像 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABB616B-E2DA-4236-8B69-19BFA0D194AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect l="2271" t="14552"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6386655" y="3660840"/>
+          <a:ext cx="8576295" cy="3261600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="4220055" y="9096795"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9313EC1B-ECE2-4793-8557-3D8CCDFE8463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4220055" y="9096795"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="4220775" y="10686390"/>
+    <xdr:ext cx="1588950" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4D8E81-D39E-40F5-89B9-4A8CF1A2F7DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4220775" y="10686390"/>
+          <a:ext cx="1588950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="6566655" y="9090675"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE7ED60-0DD3-461C-8C93-E211351ACA05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6566655" y="9090675"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="5809005" y="9069075"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F743D999-E4AE-4454-A67F-59BF7363011E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5809005" y="9069075"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="5809005" y="9080955"/>
+    <xdr:ext cx="757650" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1688B424-5FEE-4DA9-9FD5-B8AE43C4CFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5809005" y="9080955"/>
+          <a:ext cx="757650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="6566295" y="10719870"/>
+    <xdr:ext cx="700155" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA20598-F7C1-4B0B-A1E9-B62C1156E65A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6566295" y="10719870"/>
+          <a:ext cx="700155" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="5524065" y="7630800"/>
+    <xdr:ext cx="360" cy="1044795"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E5DC773-04C9-4DF9-999D-8A34494C7380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5524065" y="7630800"/>
+          <a:ext cx="360" cy="1044795"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="5524065" y="7712880"/>
+    <xdr:ext cx="1305495" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9993E7BC-ED04-442D-81FF-02CF3A80C16B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524065" y="7712880"/>
+          <a:ext cx="1305495" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="8014050" y="9090675"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41CC502-6FFA-4D1B-8D28-155BD8B5B6B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8014050" y="9090675"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7266090" y="9069075"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DC4A61-F832-495E-8C10-F849B484DD46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7266090" y="9069075"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7266090" y="9080955"/>
+    <xdr:ext cx="747960" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034AFE29-9612-4E35-BF6E-D0DAF61164C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7266090" y="9080955"/>
+          <a:ext cx="747960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="8013690" y="10719870"/>
+    <xdr:ext cx="719565" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C49169-ACEE-427E-952A-5F540268FD90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8013690" y="10719870"/>
+          <a:ext cx="719565" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="9441330" y="9102555"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A396AB-7B24-407C-B36C-BB2947E5B6BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9441330" y="9102555"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="8741175" y="9080955"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C85E4C-D6D7-46E1-9C81-FADD0DCD830E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8741175" y="9080955"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="8741175" y="9092835"/>
+    <xdr:ext cx="700155" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9A3CCC-89ED-4C89-8835-FC2FCC90D1FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8741175" y="9092835"/>
+          <a:ext cx="700155" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="9440970" y="10731750"/>
+    <xdr:ext cx="767010" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99BFEA2D-566C-41B7-B1D4-7C254F4D4B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9440970" y="10731750"/>
+          <a:ext cx="767010" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10900215" y="9102555"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBB493B-945B-49DB-9C5A-F49BFB354252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10900215" y="9102555"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10199700" y="9080955"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2875BC5-B7D0-4533-9CD2-1CC4A620319C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10199700" y="9080955"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10199700" y="9092835"/>
+    <xdr:ext cx="700515" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8987E004-14FC-42D4-9B1D-33E3942BBD8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10199700" y="9092835"/>
+          <a:ext cx="700515" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10899855" y="10731750"/>
+    <xdr:ext cx="709875" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA30F38-5B65-4E0F-B706-B46B193FBAB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10899855" y="10731750"/>
+          <a:ext cx="709875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="12343260" y="9089595"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BE5407-BC21-47DD-9BCB-294A8687C83A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12343260" y="9089595"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="11605005" y="9067995"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20302BB-5990-49DD-9FAE-34A71CD397CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11605005" y="9067995"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="11605005" y="9079875"/>
+    <xdr:ext cx="738255" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A63A47D2-C776-4AC8-8B39-2C81CC6C6F70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11605005" y="9079875"/>
+          <a:ext cx="738255" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="12342900" y="10718790"/>
+    <xdr:ext cx="700515" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A745EB-BE05-4FB6-AE70-FB6F194FFA28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12342900" y="10718790"/>
+          <a:ext cx="700515" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="13810065" y="9089595"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7979308C-D89D-4BBD-95BA-C821C1732E55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13810065" y="9089595"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="13043055" y="9067995"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC7E0EA-14E9-43FA-898B-6496A22D375A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13043055" y="9067995"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="13043055" y="9079875"/>
+    <xdr:ext cx="767010" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96E2782-7519-4890-9465-E50A01B8E5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13043055" y="9079875"/>
+          <a:ext cx="767010" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="13809705" y="10718790"/>
+    <xdr:ext cx="700155" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43350510-45D7-4246-9082-A9727824F47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13809705" y="10718790"/>
+          <a:ext cx="700155" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="15218295" y="9101475"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D268C9-F95D-4359-B55E-38291689E586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15218295" y="9101475"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="14517780" y="9079875"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D363F0B9-A16E-4B4F-9F4B-898D07DCE0F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14517780" y="9079875"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="14517780" y="9091755"/>
+    <xdr:ext cx="700515" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A985FA03-A611-4D9A-A6C2-AC17DD10AD89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14517780" y="9091755"/>
+          <a:ext cx="700515" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="15217935" y="10730670"/>
+    <xdr:ext cx="767010" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BFAFE1-64CC-44C5-8F84-B01F861CEC3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15217935" y="10730670"/>
+          <a:ext cx="767010" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="16676820" y="9101475"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01187D83-5347-43FE-94EF-22819B43BB2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16676820" y="9101475"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="15976665" y="9079875"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E73C49F-EF61-4D77-A24B-EA08DDEC78C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15976665" y="9079875"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="15976665" y="9091755"/>
+    <xdr:ext cx="700155" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9E74C5-4CCA-4F0B-99F0-2941DB86EB19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15976665" y="9091755"/>
+          <a:ext cx="700155" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="16676460" y="10730670"/>
+    <xdr:ext cx="728910" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AF8A37-223E-4A2D-A17C-638AD4BAC27A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16676460" y="10730670"/>
+          <a:ext cx="728910" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="6829560" y="7630800"/>
+    <xdr:ext cx="360" cy="1044795"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EF1CFA-2408-4726-9324-3BF9BA71DDCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6829560" y="7630800"/>
+          <a:ext cx="360" cy="1044795"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="6830280" y="8723475"/>
+    <xdr:ext cx="4332480" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91432C70-A7F4-44EA-816E-1031F9AE892F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6830280" y="8723475"/>
+          <a:ext cx="4332480" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="11162400" y="7690560"/>
+    <xdr:ext cx="360" cy="1044795"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E597AE-FCB8-4A70-B06C-3D929E9836E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11162400" y="7690560"/>
+          <a:ext cx="360" cy="1044795"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="11162400" y="7772640"/>
+    <xdr:ext cx="1286805" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E0CD14-F75D-4BE6-8B74-F5A74710BA5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11162400" y="7772640"/>
+          <a:ext cx="1286805" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="12449205" y="7690560"/>
+    <xdr:ext cx="360" cy="1044795"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72737E41-6EF4-4DC7-853D-E1A1E81C12F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12449205" y="7690560"/>
+          <a:ext cx="360" cy="1044795"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="12480525" y="8683515"/>
+    <xdr:ext cx="3225675" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64D80C1-49E6-4EB0-92A7-24A44DCE23BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12480525" y="8683515"/>
+          <a:ext cx="3225675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36000" tIns="36000" rIns="36000" bIns="36000" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>v</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="15705840" y="8658465"/>
+    <xdr:ext cx="1286805" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF68FEC5-CA5C-44FD-ADCB-AD3F74B0E8EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15705840" y="8658465"/>
+          <a:ext cx="1286805" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="17024685" y="7711080"/>
+    <xdr:ext cx="360" cy="1044795"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827A3DDC-DE5A-4424-8F9E-B7CF92F05184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17024685" y="7711080"/>
+          <a:ext cx="360" cy="1044795"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="FF3300"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="16958370" y="8670150"/>
+    <xdr:ext cx="1286445" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AF36A3-C540-4EE9-907C-4F17AB59AEC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16958370" y="8670150"/>
+          <a:ext cx="1286445" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="FF3300"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="18311130" y="7711080"/>
+    <xdr:ext cx="360" cy="1044795"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABA6A74-267C-4512-8E8D-F82A103EBD65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18311130" y="7711080"/>
+          <a:ext cx="360" cy="1044795"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="FF3300"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="21799350" y="4968600"/>
+    <xdr:ext cx="1286805" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B21FC8-7DDA-4DA2-8936-AB37B0017212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21799350" y="4968600"/>
+          <a:ext cx="1286805" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="23086155" y="4886520"/>
+    <xdr:ext cx="360" cy="1607880"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDD1548-1B70-48F0-9E22-1C930FD701FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23086155" y="4886520"/>
+          <a:ext cx="360" cy="1607880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="23035395" y="6492960"/>
+    <xdr:ext cx="2072175" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DFCAA7-B421-4743-B54E-8F479ACD744C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23035395" y="6492960"/>
+          <a:ext cx="2072175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="18143985" y="9100395"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B765C305-E733-4E49-A428-1C25CF32D0F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18143985" y="9100395"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="17405370" y="9078795"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513E6EE3-C4B8-47BE-BDF7-AAFA562166E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17405370" y="9078795"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="17405370" y="9090675"/>
+    <xdr:ext cx="738615" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD297D1-7D0F-4989-B14E-57CF9371042F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17405370" y="9090675"/>
+          <a:ext cx="738615" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="18143625" y="10729590"/>
+    <xdr:ext cx="700155" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272C5969-5DAC-4148-BD42-859471EDAC03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18143625" y="10729590"/>
+          <a:ext cx="700155" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="19611150" y="9099315"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6B24BE-C24D-493C-B41A-97F1E2E45026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19611150" y="9099315"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="18844140" y="9077715"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23799EE7-5FC1-45AB-B7D0-D50B777DD5C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18844140" y="9077715"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="18844140" y="9089595"/>
+    <xdr:ext cx="767010" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BF46CA-6B18-42FC-B14B-6717A0AC6A35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18844140" y="9089595"/>
+          <a:ext cx="767010" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="19610790" y="10728510"/>
+    <xdr:ext cx="700515" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A05B181-EC08-4E52-9481-3239FAC9AC78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19610790" y="10728510"/>
+          <a:ext cx="700515" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="21003180" y="9099315"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9A5679-222F-4CDF-975C-98E4EDC7F54A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="21003180" y="9099315"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="20303025" y="9077715"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8471F68-F520-43A7-A474-C48C6546D0CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20303025" y="9077715"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="20303025" y="9089595"/>
+    <xdr:ext cx="700155" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D55D23D-BFC6-46DB-A479-F90A85C7B50C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20303025" y="9089595"/>
+          <a:ext cx="700155" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="21002820" y="10728510"/>
+    <xdr:ext cx="767010" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05869EB5-FAF9-4358-A1FC-07A007D691F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21002820" y="10728510"/>
+          <a:ext cx="767010" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="22446585" y="9086355"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC483B59-8CFA-43D1-BE47-F5817EE8ABB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="22446585" y="9086355"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="21746070" y="9064755"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D571B8A-37A1-449E-A102-FFAB9423F09A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="21746070" y="9064755"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="21746070" y="9076635"/>
+    <xdr:ext cx="700515" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE7A5D1-F294-4698-90C2-8456A4ACC4D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21746070" y="9076635"/>
+          <a:ext cx="700515" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="22446225" y="10715550"/>
+    <xdr:ext cx="757485" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C5289F-FC7C-4214-A5CA-4DB096CF1053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22446225" y="10715550"/>
+          <a:ext cx="757485" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="23913030" y="9086355"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D697564-01BB-42DD-AB93-943C6A3D1673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23913030" y="9086355"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="23203350" y="9064755"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6C1775-8274-48C9-B8EC-87995372362A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23203350" y="9064755"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="23203350" y="9076635"/>
+    <xdr:ext cx="709680" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71861F59-DDF6-4778-8ECC-E06C9DC2DB42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23203350" y="9076635"/>
+          <a:ext cx="709680" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="23912670" y="10715550"/>
+    <xdr:ext cx="700515" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B533EAF1-5CDF-4395-A0F8-B8E09F718A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23912670" y="10715550"/>
+          <a:ext cx="700515" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="25388115" y="9098235"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A5806F-BE52-4457-9301-2B040E6C0E0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="25388115" y="9098235"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="24621105" y="9076635"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47409DAE-CF59-4923-AADA-8274CC0B2405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="24621105" y="9076635"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="24621105" y="9088515"/>
+    <xdr:ext cx="767010" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353B9031-DF22-41CD-9F87-01585887EA6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24621105" y="9088515"/>
+          <a:ext cx="767010" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="25387755" y="10727430"/>
+    <xdr:ext cx="700155" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85508AB0-999C-46CF-8AB0-B43A6FA6FA9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25387755" y="10727430"/>
+          <a:ext cx="700155" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="26789490" y="9098235"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95E4083-B506-4BE1-ADEE-A5EA14CF8686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26789490" y="9098235"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="26079630" y="9076635"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A269AB-6560-4501-A132-95C8DC829E2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26079630" y="9076635"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="26079630" y="9088515"/>
+    <xdr:ext cx="709860" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F0BCF6-1E10-4574-A0E7-2C6B31D05132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26079630" y="9088515"/>
+          <a:ext cx="709860" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="26789130" y="10727430"/>
+    <xdr:ext cx="757665" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A07FA64-2286-4B60-9636-9599137C539D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26789130" y="10727430"/>
+          <a:ext cx="757665" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="28246950" y="9097155"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB53E90-E86A-4F05-8BF7-BB2E456B89CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="28246950" y="9097155"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="27546795" y="9075555"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CD607A-0185-401F-BBCB-13501CC2B22F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="27546795" y="9075555"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="27546795" y="9087435"/>
+    <xdr:ext cx="700155" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88AE6C5-F3C6-4496-931A-1707147C702C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27546795" y="9087435"/>
+          <a:ext cx="700155" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="28246590" y="10726350"/>
+    <xdr:ext cx="757485" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE20BC8-7C9C-4DEC-AF74-A20CFBB35908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28246590" y="10726350"/>
+          <a:ext cx="757485" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="18347490" y="8755875"/>
+    <xdr:ext cx="1398765" cy="2355"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8DCF5E-78CF-4726-95B9-6EAAE69CF133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18347490" y="8755875"/>
+          <a:ext cx="1398765" cy="2355"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="18367290" y="7755360"/>
+    <xdr:ext cx="360" cy="997170"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7617C891-8068-4A7B-9C42-D33462B55E30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18367290" y="7755360"/>
+          <a:ext cx="360" cy="997170"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="19746255" y="7740240"/>
+    <xdr:ext cx="360" cy="1016220"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7293531A-C3E1-4F32-A30F-EA3F17CFB406}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19746255" y="7740240"/>
+          <a:ext cx="360" cy="1016220"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="19746255" y="7769790"/>
+    <xdr:ext cx="3046395" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D03BE40-2911-42DF-BF9F-E58EC094BA2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19746255" y="7769790"/>
+          <a:ext cx="3046395" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="22792290" y="7768020"/>
+    <xdr:ext cx="360" cy="987645"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF21BD71-DB13-40FE-BADD-604CF5D2C124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="22792290" y="7768020"/>
+          <a:ext cx="360" cy="987645"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="22792650" y="8753895"/>
+    <xdr:ext cx="3046755" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E571C9D5-C966-4248-B563-BBBFA02CFE30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22792650" y="8753895"/>
+          <a:ext cx="3046755" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="25839045" y="7774005"/>
+    <xdr:ext cx="360" cy="978120"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905DA2F7-AD29-4965-A6E6-B76D000DFB6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="25839045" y="7774005"/>
+          <a:ext cx="360" cy="978120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="25839405" y="7773915"/>
+    <xdr:ext cx="1398405" cy="2355"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7851CA9F-2C06-47DA-B5EB-72FD64F0AD8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25839405" y="7773915"/>
+          <a:ext cx="1398405" cy="2355"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="27237810" y="7772145"/>
+    <xdr:ext cx="360" cy="978120"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192963AB-77E5-4CF1-9D5A-D1812501BB5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="27237810" y="7772145"/>
+          <a:ext cx="360" cy="978120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="27238170" y="8758020"/>
+    <xdr:ext cx="2934435" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA8CF33-073F-4ACA-B79F-E72697BB114C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27238170" y="8758020"/>
+          <a:ext cx="2934435" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="29729595" y="9098955"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F392D7E4-F1EE-4D9F-B4B7-1BD0EB1C2971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="29729595" y="9098955"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="29000505" y="9077355"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EC61BE-4B18-4DF4-8FA9-83770893923E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="29000505" y="9077355"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="29000505" y="9089235"/>
+    <xdr:ext cx="729090" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B80A1F-D783-42E6-B28F-7423CEB25693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29000505" y="9089235"/>
+          <a:ext cx="729090" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="29729235" y="10728150"/>
+    <xdr:ext cx="700155" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B274DA0-A65F-4081-BEC3-6D95DB05F7C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29729235" y="10728150"/>
+          <a:ext cx="700155" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="31152120" y="9100755"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF55FAF9-4654-4A6D-A4A9-242D76105D48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="31152120" y="9100755"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="30385110" y="9079155"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2784E05F-8130-4BD8-A9F4-0061ACEE4091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="30385110" y="9079155"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="30385110" y="9091035"/>
+    <xdr:ext cx="767010" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D00DD02-A40D-4C00-8621-8BA036E0C3B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30385110" y="9091035"/>
+          <a:ext cx="767010" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="31151760" y="10729950"/>
+    <xdr:ext cx="700515" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D682ABFB-3EC9-44A2-A272-B916480190A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31151760" y="10729950"/>
+          <a:ext cx="700515" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="30172605" y="7768020"/>
+    <xdr:ext cx="360" cy="987645"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37379052-FF52-49F2-A744-D7BCF02A548B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="30172605" y="7768020"/>
+          <a:ext cx="360" cy="987645"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="30172605" y="7768020"/>
+    <xdr:ext cx="360" cy="987645"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B22648F-CA39-4685-B5EB-FBCEA77A92AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="30172605" y="7768020"/>
+          <a:ext cx="360" cy="987645"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="FF3300"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="30172965" y="8736615"/>
+    <xdr:ext cx="1315200" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C1FB88-81FB-4272-A962-2DCA7A25F5CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30172965" y="8736615"/>
+          <a:ext cx="1315200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="FF3300"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="31487805" y="7768020"/>
+    <xdr:ext cx="360" cy="987645"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D1AE6B-22DA-4944-96AF-E4334DD7684C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="31487805" y="7768020"/>
+          <a:ext cx="360" cy="987645"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="FF3300"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="31487805" y="8750265"/>
+    <xdr:ext cx="1379355" cy="2355"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D128277E-73B3-4BFC-9D9D-62D9BE5451A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="31487805" y="8750265"/>
+          <a:ext cx="1379355" cy="2355"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="31852275" y="9118035"/>
+    <xdr:ext cx="360" cy="1629195"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B03C479-DD59-4E54-91B4-EC703693D414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="31852275" y="9118035"/>
+          <a:ext cx="360" cy="1629195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="31852635" y="9072675"/>
+    <xdr:ext cx="2833170" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65032EDE-0484-4B22-A1A1-DC7D34D68DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31852635" y="9072675"/>
+          <a:ext cx="2833170" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="32866800" y="7772730"/>
+    <xdr:ext cx="360" cy="978120"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EC058F-AE62-4DC7-962C-7CF30FA9A6A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="32866800" y="7772730"/>
+          <a:ext cx="360" cy="978120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="32866800" y="7769685"/>
+    <xdr:ext cx="1389060" cy="2355"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2261E2A1-961B-4A52-B91A-C52877AD4117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="32866800" y="7769685"/>
+          <a:ext cx="1389060" cy="2355"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="1466805" y="6844200"/>
+    <xdr:ext cx="1579590" cy="3954510"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5FABF2-F437-4C81-BE5F-7FA8E7B4B3D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466805" y="6844200"/>
+          <a:ext cx="1579590" cy="3954510"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="108000" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FF3300"/>
+          </a:solidFill>
+          <a:custDash>
+            <a:ds d="100000" sp="100000"/>
+          </a:custDash>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="32318685" y="7183920"/>
+    <xdr:ext cx="1646085" cy="3944190"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8DC3CA-89E7-41B6-A39E-BC1EFBBC0B1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32318685" y="7183920"/>
+          <a:ext cx="1646085" cy="3944190"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="108000" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FF3300"/>
+          </a:solidFill>
+          <a:custDash>
+            <a:ds d="100000" sp="100000"/>
+          </a:custDash>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="303225" y="11710230"/>
+    <xdr:ext cx="13759305" cy="1032240"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="画像 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6B5AD8-5DA6-44AB-9DEF-4FA81DCCCDD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect t="37316" r="2174" b="38126"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="303225" y="11710230"/>
+          <a:ext cx="13759305" cy="1032240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6638925" cy="7134225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24946333-9CF3-422D-890B-BF77426600FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="13716000"/>
+          <a:ext cx="6638925" cy="7134225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -24552,14 +29914,14 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="8" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="8" spans="11:28">
       <c r="Q8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="12" spans="11:28">
       <c r="K12" t="s">
         <v>0</v>
       </c>
@@ -24567,17 +29929,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="13" spans="11:28">
       <c r="K13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="14" spans="11:28">
       <c r="K14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="8:8">
       <c r="H22" t="s">
         <v>3</v>
       </c>
@@ -24597,9 +29959,9 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="17" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="17" spans="12:28">
       <c r="L17" t="s">
         <v>6</v>
       </c>
@@ -24607,7 +29969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="18" spans="12:28">
       <c r="L18" t="s">
         <v>7</v>
       </c>
@@ -24630,7 +29992,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
@@ -24640,7 +30002,7 @@
     <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -24650,7 +30012,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -24662,7 +30024,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -24677,14 +30039,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="G6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>31</v>
@@ -24696,34 +30058,34 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="G10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="F11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
         <v>31</v>
@@ -24735,7 +30097,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="C13" s="1"/>
       <c r="D13" s="2" t="s">
         <v>32</v>
@@ -24747,7 +30109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="F14" s="10">
@@ -24757,7 +30119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -24770,7 +30132,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="F16" s="10">
@@ -24780,7 +30142,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="C17" s="1"/>
       <c r="D17" s="2" t="s">
         <v>30</v>
@@ -24792,7 +30154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -24805,7 +30167,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="F19" s="10">
@@ -24815,24 +30177,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="C20" s="1"/>
       <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7">
       <c r="B23" t="s">
         <v>18</v>
       </c>
@@ -24841,38 +30203,38 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7">
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7">
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7">
       <c r="C26" s="1"/>
       <c r="D26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7">
       <c r="C27" s="1"/>
       <c r="D27" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7">
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7">
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7">
       <c r="B30" t="s">
         <v>16</v>
       </c>
@@ -24881,38 +30243,38 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7">
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7">
       <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4">
       <c r="C33" s="1"/>
       <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4">
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4">
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
         <v>14</v>
       </c>
@@ -24921,7 +30283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4">
       <c r="B38" t="s">
         <v>13</v>
       </c>
@@ -24930,7 +30292,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
         <v>12</v>
       </c>
@@ -24953,7 +30315,7 @@
       <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24969,19 +30331,19 @@
       <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="11" spans="27:57" x14ac:dyDescent="0.15">
+    <row r="11" spans="27:57">
       <c r="AA11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="27:57" x14ac:dyDescent="0.15">
+    <row r="12" spans="27:57">
       <c r="AA12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="27:57" x14ac:dyDescent="0.15">
+    <row r="13" spans="27:57">
       <c r="AM13" t="s">
         <v>60</v>
       </c>
@@ -24992,12 +30354,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="27:57" x14ac:dyDescent="0.15">
+    <row r="14" spans="27:57">
       <c r="AM14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="10:65" x14ac:dyDescent="0.15">
+    <row r="21" spans="10:65">
       <c r="AM21" t="s">
         <v>56</v>
       </c>
@@ -25008,32 +30370,32 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="10:65" x14ac:dyDescent="0.15">
+    <row r="22" spans="10:65">
       <c r="AM22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="10:65" x14ac:dyDescent="0.15">
+    <row r="23" spans="10:65">
       <c r="BM23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="10:65" x14ac:dyDescent="0.15">
+    <row r="26" spans="10:65">
       <c r="BM26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="10:65" x14ac:dyDescent="0.15">
+    <row r="30" spans="10:65">
       <c r="AA30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="10:65" x14ac:dyDescent="0.15">
+    <row r="31" spans="10:65">
       <c r="AA31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="10:65" x14ac:dyDescent="0.15">
+    <row r="32" spans="10:65">
       <c r="J32" t="s">
         <v>62</v>
       </c>
@@ -25049,13 +30411,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88CBFEC-A20F-44E2-9A89-ADFAF373EA5B}">
   <dimension ref="F5:BP69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="AK46" sqref="AK46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="5" spans="8:36" x14ac:dyDescent="0.15">
+    <row r="5" spans="8:36">
       <c r="M5" t="s">
         <v>72</v>
       </c>
@@ -25063,7 +30425,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="8:36" x14ac:dyDescent="0.15">
+    <row r="6" spans="8:36">
       <c r="M6" t="s">
         <v>73</v>
       </c>
@@ -25071,7 +30433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="8:36" x14ac:dyDescent="0.15">
+    <row r="11" spans="8:36">
       <c r="H11" t="s">
         <v>70</v>
       </c>
@@ -25082,7 +30444,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="8:36" x14ac:dyDescent="0.15">
+    <row r="12" spans="8:36">
       <c r="R12" t="s">
         <v>64</v>
       </c>
@@ -25090,7 +30452,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="8:36" x14ac:dyDescent="0.15">
+    <row r="13" spans="8:36">
       <c r="R13" t="s">
         <v>65</v>
       </c>
@@ -25098,7 +30460,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="8:36" x14ac:dyDescent="0.15">
+    <row r="14" spans="8:36">
       <c r="H14" t="s">
         <v>71</v>
       </c>
@@ -25106,12 +30468,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="23:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="23:23">
       <c r="W19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="6:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:24">
       <c r="F35" t="s">
         <v>97</v>
       </c>
@@ -25119,17 +30481,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="6:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:24">
       <c r="F37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="6:24" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:24">
       <c r="X38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="6:24" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:24">
       <c r="F39" t="s">
         <v>98</v>
       </c>
@@ -25137,17 +30499,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="6:24" x14ac:dyDescent="0.15">
+    <row r="48" spans="6:24">
       <c r="J48" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="6:68" x14ac:dyDescent="0.15">
+    <row r="54" spans="6:68">
       <c r="J54" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="6:68" x14ac:dyDescent="0.15">
+    <row r="59" spans="6:68">
       <c r="F59" t="s">
         <v>107</v>
       </c>
@@ -25161,7 +30523,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="6:68" x14ac:dyDescent="0.15">
+    <row r="60" spans="6:68">
       <c r="F60" t="s">
         <v>108</v>
       </c>
@@ -25193,22 +30555,22 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="6:68" x14ac:dyDescent="0.15">
+    <row r="61" spans="6:68">
       <c r="AT61" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="6:68" x14ac:dyDescent="0.15">
+    <row r="62" spans="6:68">
       <c r="AS62" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="6:68" x14ac:dyDescent="0.15">
+    <row r="64" spans="6:68">
       <c r="J64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="14:45" x14ac:dyDescent="0.15">
+    <row r="69" spans="14:45">
       <c r="N69" t="s">
         <v>113</v>
       </c>
@@ -25231,24 +30593,24 @@
       <selection activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:35">
       <c r="B3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:35" s="11" customFormat="1">
       <c r="D5" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:35" s="11" customFormat="1">
       <c r="F6" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F7" s="14"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -25280,7 +30642,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F8" s="16"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -25312,7 +30674,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="2:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:35" s="11" customFormat="1">
       <c r="F9" s="11" t="s">
         <v>77</v>
       </c>
@@ -25320,19 +30682,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:35" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="2:35" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:35" s="11" customFormat="1"/>
+    <row r="11" spans="2:35" s="11" customFormat="1"/>
+    <row r="12" spans="2:35" s="11" customFormat="1">
       <c r="D12" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="2:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:35" s="11" customFormat="1">
       <c r="J13" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F14" s="17"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -25364,7 +30726,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F15" s="16"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -25396,7 +30758,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="2:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:35" s="11" customFormat="1">
       <c r="F16" s="11" t="s">
         <v>77</v>
       </c>
@@ -25404,20 +30766,20 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="4:35" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:35">
       <c r="F17" s="11"/>
     </row>
-    <row r="19" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:35" s="11" customFormat="1">
       <c r="D19" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:35" s="11" customFormat="1">
       <c r="J20" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="17"/>
@@ -25449,7 +30811,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="16"/>
@@ -25481,7 +30843,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:35" s="11" customFormat="1">
       <c r="H23" s="11" t="s">
         <v>77</v>
       </c>
@@ -25489,17 +30851,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:35" s="11" customFormat="1">
       <c r="D26" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:35" s="11" customFormat="1">
       <c r="J27" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -25531,7 +30893,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -25563,7 +30925,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:35" s="11" customFormat="1">
       <c r="J30" s="11" t="s">
         <v>77</v>
       </c>
@@ -25571,12 +30933,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:35" s="11" customFormat="1">
       <c r="D33" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:35" s="11" customFormat="1">
       <c r="M34" s="11" t="s">
         <v>89</v>
       </c>
@@ -25584,7 +30946,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -25616,7 +30978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -25648,7 +31010,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:35" s="11" customFormat="1">
       <c r="J37" s="11" t="s">
         <v>77</v>
       </c>
@@ -25656,17 +31018,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:35" s="11" customFormat="1">
       <c r="D40" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:35" s="11" customFormat="1">
       <c r="I41" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -25698,7 +31060,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -25730,7 +31092,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:35" s="11" customFormat="1">
       <c r="J44" s="11" t="s">
         <v>77</v>
       </c>
@@ -25738,17 +31100,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:35" s="11" customFormat="1">
       <c r="D47" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:35" s="11" customFormat="1">
       <c r="I48" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -25780,7 +31142,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -25812,7 +31174,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:35" s="11" customFormat="1">
       <c r="L51" s="11" t="s">
         <v>77</v>
       </c>
@@ -25820,17 +31182,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:35" s="11" customFormat="1">
       <c r="D54" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:35" s="11" customFormat="1">
       <c r="I55" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
@@ -25862,7 +31224,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -25894,7 +31256,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="4:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:35" s="11" customFormat="1">
       <c r="I58" s="11" t="s">
         <v>77</v>
       </c>
@@ -25906,4 +31268,182 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B437FFD9-859C-40BE-A265-40ADB9507666}">
+  <dimension ref="A47:DP82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
+      <selection activeCell="A31" sqref="A31"/>
+      <selection pane="topRight" activeCell="BL37" sqref="BL37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="47" spans="18:69" ht="18">
+      <c r="R47" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ47" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:120" ht="18">
+      <c r="H49" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="V49" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV49" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="21">
+        <v>0</v>
+      </c>
+      <c r="BG49" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL49" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ49" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT49" s="21"/>
+      <c r="BV49" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA49" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF49" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL49" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="CQ49" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="CV49" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA49" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="DG49" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="DP49" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:120">
+      <c r="A51" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:120" ht="29.25" customHeight="1"/>
+    <row r="58" spans="1:120" ht="29.25" customHeight="1"/>
+    <row r="59" spans="1:120">
+      <c r="A59" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="16:42" s="20" customFormat="1">
+      <c r="U81" s="20">
+        <v>1</v>
+      </c>
+      <c r="V81" s="20">
+        <v>0</v>
+      </c>
+      <c r="W81" s="20">
+        <v>0</v>
+      </c>
+      <c r="X81" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="20">
+        <v>0</v>
+      </c>
+      <c r="AM81" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP81" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="16:42" s="19" customFormat="1">
+      <c r="P82" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="19">
+        <v>1</v>
+      </c>
+      <c r="S82" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA82" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB82" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE82" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF82" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/super-duper-nes-architecture.xlsx
+++ b/doc/super-duper-nes-architecture.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="141">
   <si>
     <t>Fami con cartlidge I/F</t>
   </si>
@@ -551,6 +551,26 @@
   <si>
     <t>Address = 0x44 ( 100 0100)</t>
   </si>
+  <si>
+    <t>idle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i2c xfer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i2c ack</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i2c idle</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -611,7 +631,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,6 +653,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +788,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -794,6 +832,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -24377,6 +24421,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>77875</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>21841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>138254</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>144069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="495" name="矢印: 上 494">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC96DBAB-5DAE-4DDD-AFE6-E6B01DD7F3F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8812120" y="13509600"/>
+          <a:ext cx="60379" cy="805153"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -30409,10 +30513,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88CBFEC-A20F-44E2-9A89-ADFAF373EA5B}">
-  <dimension ref="F5:BP69"/>
+  <dimension ref="F5:BP85"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="AK46" sqref="AK46"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="AN82" sqref="AN82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
@@ -30570,13 +30674,200 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="14:45">
+    <row r="69" spans="14:53">
       <c r="N69" t="s">
         <v>113</v>
       </c>
       <c r="AS69" t="s">
         <v>114</v>
       </c>
+    </row>
+    <row r="79" spans="14:53">
+      <c r="N79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="O79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="P79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="R79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="S79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="T79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="U79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="V79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="W79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="X79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AY79" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA79" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="14:53" s="28" customFormat="1"/>
+    <row r="81" spans="6:58" s="28" customFormat="1"/>
+    <row r="82" spans="6:58" s="28" customFormat="1"/>
+    <row r="83" spans="6:58" s="28" customFormat="1"/>
+    <row r="85" spans="6:58">
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="O85" s="23"/>
+      <c r="P85" s="23"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="23"/>
+      <c r="S85" s="23"/>
+      <c r="T85" s="23"/>
+      <c r="U85" s="23"/>
+      <c r="V85" s="23"/>
+      <c r="W85" s="23"/>
+      <c r="X85" s="23"/>
+      <c r="Y85" s="23"/>
+      <c r="Z85" s="23"/>
+      <c r="AA85" s="23"/>
+      <c r="AB85" s="23"/>
+      <c r="AC85" s="23"/>
+      <c r="AD85" s="23"/>
+      <c r="AE85" s="23"/>
+      <c r="AF85" s="23"/>
+      <c r="AG85" s="23"/>
+      <c r="AH85" s="23"/>
+      <c r="AI85" s="23"/>
+      <c r="AJ85" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK85" s="25"/>
+      <c r="AL85" s="25"/>
+      <c r="AM85" s="25"/>
+      <c r="AN85" s="25"/>
+      <c r="AO85" s="25"/>
+      <c r="AP85" s="25"/>
+      <c r="AQ85" s="25"/>
+      <c r="AR85" s="25"/>
+      <c r="AS85" s="25"/>
+      <c r="AT85" s="25"/>
+      <c r="AU85" s="25"/>
+      <c r="AV85" s="25"/>
+      <c r="AW85" s="25"/>
+      <c r="AX85" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY85" s="27"/>
+      <c r="AZ85" s="27"/>
+      <c r="BA85" s="27"/>
+      <c r="BB85" s="27"/>
+      <c r="BC85" s="27"/>
+      <c r="BD85" s="27"/>
+      <c r="BE85" s="27"/>
+      <c r="BF85" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -31274,7 +31565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B437FFD9-859C-40BE-A265-40ADB9507666}">
   <dimension ref="A47:DP82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
       <selection activeCell="A31" sqref="A31"/>
       <selection pane="topRight" activeCell="BL37" sqref="BL37"/>
@@ -31439,11 +31730,11 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/super-duper-nes-architecture.xlsx
+++ b/doc/super-duper-nes-architecture.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\daisuke\nes\super-duper-nes\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\970.moto-proj\super-duper-nes\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="145">
   <si>
     <t>Fami con cartlidge I/F</t>
   </si>
@@ -52,443 +52,443 @@
   </si>
   <si>
     <t>NES cartridge</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>I/F</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>I2C</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>GPIO</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>zp</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>stack</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0x0800</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0x2000</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0x2008</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0x4000</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0x4020</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0x6000</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0x8000</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0x10000</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0xc000</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>mirror</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0x0000-0x07ff</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>io reg</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>io reg</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0x2000-0x2007</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>expantion rom</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>sram</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>prog rom</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>lower bank</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>upper bank</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>CPU space</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>memory map</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ram</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>duper io reg</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>reset vector</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>fifo status register</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>r: pop fifo register</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>w: push fifo register</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0xfffa</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0xfff9</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0xfff8</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>firo status register</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>bit</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>write fifo empty</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>write fifo full</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>read fifo empty</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>read fifo full</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>always 0</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>/empty</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>/full</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>/data</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>/addr</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>/scl</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>/sda</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>/gpio</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>/i2c</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>/i2c_data_in</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>/i2c_data_out</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>/composite</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>rom read</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>fifo status read</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>fifo read</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>fifo write</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>fifo status read (gpio)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>i2c data read</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>i2c data write</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>composite out</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>keypad input</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>linux command send</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>console display</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>linux terminal</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>i2c i/o</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>duper state machine</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>fifo head</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>fifo tail</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>push x 4</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>init:</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>pop x 2</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>empty = 1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>full = 0</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>empty = 0</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>size = 0</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>size = 4</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>size = 2</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>push x 10</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・・・・・・</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>size = 10</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>push x 246</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>size = 256</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>full = 1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>size = 254</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>pop x 254</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>fifo</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>de0-cv base clock = 50 MHz</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>i2c clock = 100 KHz</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>nes cpu clock = 1.789773 MHz</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>x 27.93 times</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>x 500 times</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>x 17.89 times</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>base clock</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>nes clock</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>rom read</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>idle</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>instruction</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>state machie</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>nop</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>lda $50</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>lda $ff25</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>i2c clock</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">i2c transfer </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>i2c done</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>fifo push</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>S</t>
@@ -540,7 +540,7 @@
   </si>
   <si>
     <t>R/W = 0 (Write)</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Start seq</t>
@@ -553,55 +553,83 @@
   </si>
   <si>
     <t>idle</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>rom</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>i2c xfer</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>i2c ack</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>i2c idle</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NES &gt; BBB</t>
+  </si>
+  <si>
+    <t>duper state machine</t>
+  </si>
+  <si>
+    <t>notify via gpio</t>
+  </si>
+  <si>
+    <t>i2c serial xfer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -783,12 +811,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -802,47 +830,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{58996D63-4133-4F7B-B878-9DA3CD6D078A}"/>
-    <cellStyle name="標準 3" xfId="2" xr:uid="{31C84B1B-62AF-449F-8A86-B4689E2B0D52}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -877,7 +911,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -942,7 +976,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1008,7 +1042,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1069,7 +1103,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1130,7 +1164,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1225,7 @@
         <xdr:cNvPr id="16" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1252,7 +1286,7 @@
         <xdr:cNvPr id="17" name="Rectangle 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1347,7 @@
         <xdr:cNvPr id="18" name="Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1408,7 @@
         <xdr:cNvPr id="33" name="Group 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1427,7 @@
           <xdr:cNvPr id="15" name="Group 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1446,7 @@
             <xdr:cNvPr id="9" name="Straight Connector 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1447,7 +1481,7 @@
             <xdr:cNvPr id="10" name="Straight Connector 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1482,7 +1516,7 @@
             <xdr:cNvPr id="11" name="Straight Connector 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1517,7 +1551,7 @@
             <xdr:cNvPr id="12" name="Straight Connector 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1552,7 +1586,7 @@
             <xdr:cNvPr id="13" name="Straight Connector 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1587,7 +1621,7 @@
             <xdr:cNvPr id="14" name="Straight Connector 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1623,7 +1657,7 @@
           <xdr:cNvPr id="26" name="Group 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1642,7 +1676,7 @@
             <xdr:cNvPr id="27" name="Straight Connector 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1677,7 +1711,7 @@
             <xdr:cNvPr id="28" name="Straight Connector 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1712,7 +1746,7 @@
             <xdr:cNvPr id="29" name="Straight Connector 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1747,7 +1781,7 @@
             <xdr:cNvPr id="30" name="Straight Connector 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1782,7 +1816,7 @@
             <xdr:cNvPr id="31" name="Straight Connector 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1817,7 +1851,7 @@
             <xdr:cNvPr id="32" name="Straight Connector 31">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1869,7 +1903,7 @@
         <xdr:cNvPr id="34" name="Group 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +1922,7 @@
           <xdr:cNvPr id="35" name="Group 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1907,7 +1941,7 @@
             <xdr:cNvPr id="43" name="Straight Connector 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1942,7 +1976,7 @@
             <xdr:cNvPr id="44" name="Straight Connector 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1977,7 +2011,7 @@
             <xdr:cNvPr id="45" name="Straight Connector 44">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2012,7 +2046,7 @@
             <xdr:cNvPr id="46" name="Straight Connector 45">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2047,7 +2081,7 @@
             <xdr:cNvPr id="47" name="Straight Connector 46">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2082,7 +2116,7 @@
             <xdr:cNvPr id="48" name="Straight Connector 47">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2118,7 +2152,7 @@
           <xdr:cNvPr id="36" name="Group 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2137,7 +2171,7 @@
             <xdr:cNvPr id="37" name="Straight Connector 36">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2172,7 +2206,7 @@
             <xdr:cNvPr id="38" name="Straight Connector 37">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2207,7 +2241,7 @@
             <xdr:cNvPr id="39" name="Straight Connector 38">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2242,7 +2276,7 @@
             <xdr:cNvPr id="40" name="Straight Connector 39">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2277,7 +2311,7 @@
             <xdr:cNvPr id="41" name="Straight Connector 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2312,7 +2346,7 @@
             <xdr:cNvPr id="42" name="Straight Connector 41">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2364,7 +2398,7 @@
         <xdr:cNvPr id="49" name="Rectangle 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2459,7 @@
         <xdr:cNvPr id="50" name="Rounded Rectangle 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2520,7 @@
         <xdr:cNvPr id="52" name="Straight Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2572,7 @@
         <xdr:cNvPr id="51" name="Rectangle 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,7 +2638,7 @@
         <xdr:cNvPr id="53" name="Rectangle 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +2699,7 @@
         <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2718,7 @@
           <xdr:cNvPr id="55" name="Straight Connector 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2719,7 +2753,7 @@
           <xdr:cNvPr id="56" name="Straight Connector 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2770,7 +2804,7 @@
         <xdr:cNvPr id="61" name="Rectangle 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2870,7 @@
         <xdr:cNvPr id="76" name="Group 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2889,7 @@
           <xdr:cNvPr id="20" name="Straight Connector 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2890,7 +2924,7 @@
           <xdr:cNvPr id="21" name="Straight Connector 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2925,7 +2959,7 @@
           <xdr:cNvPr id="22" name="Straight Connector 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2960,7 +2994,7 @@
           <xdr:cNvPr id="23" name="Straight Connector 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2995,7 +3029,7 @@
           <xdr:cNvPr id="24" name="Straight Connector 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3030,7 +3064,7 @@
           <xdr:cNvPr id="25" name="Straight Connector 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3065,7 +3099,7 @@
           <xdr:cNvPr id="58" name="Straight Connector 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3100,7 +3134,7 @@
           <xdr:cNvPr id="59" name="Straight Connector 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3135,7 +3169,7 @@
           <xdr:cNvPr id="60" name="Straight Connector 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3170,7 +3204,7 @@
           <xdr:cNvPr id="62" name="Straight Connector 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3205,7 +3239,7 @@
           <xdr:cNvPr id="63" name="Straight Connector 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3240,7 +3274,7 @@
           <xdr:cNvPr id="64" name="Straight Connector 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3291,7 +3325,7 @@
         <xdr:cNvPr id="1027" name="AutoShape 3" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.%284%29.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3339,7 +3373,7 @@
         <xdr:cNvPr id="1028" name="AutoShape 4" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.(4).jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3387,7 +3421,7 @@
         <xdr:cNvPr id="1029" name="AutoShape 5" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.(4).jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3435,7 +3469,7 @@
         <xdr:cNvPr id="77" name="Picture 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3490,7 +3524,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2247679-251F-4D88-8F07-EBF546E0DA7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2247679-251F-4D88-8F07-EBF546E0DA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3552,7 +3586,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7926CF31-A546-41A3-A15E-4DE17B509DFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7926CF31-A546-41A3-A15E-4DE17B509DFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3614,7 +3648,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FA88FD-76BF-4D56-B4F1-2D57299C29D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84FA88FD-76BF-4D56-B4F1-2D57299C29D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3676,7 +3710,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A881FC7-CB09-4132-9927-9B06F74FBAC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A881FC7-CB09-4132-9927-9B06F74FBAC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3745,7 +3779,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACFA3D8-FD6C-4C3C-9596-F9638F17BCD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FACFA3D8-FD6C-4C3C-9596-F9638F17BCD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3807,7 +3841,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357D6DFE-DB23-4599-8D0E-C7E8AC62484B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{357D6DFE-DB23-4599-8D0E-C7E8AC62484B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3876,7 +3910,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480753E1-924B-401E-83E1-0CBF6C2188C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{480753E1-924B-401E-83E1-0CBF6C2188C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3945,7 +3979,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917DB88B-F309-458C-AD46-850FBC2B7944}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{917DB88B-F309-458C-AD46-850FBC2B7944}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4018,7 +4052,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA1A6A1-6BA6-4AE9-9F42-196036AF39CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBA1A6A1-6BA6-4AE9-9F42-196036AF39CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4091,7 +4125,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB6A670-37C2-488C-9D57-63BA8A7B60C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFB6A670-37C2-488C-9D57-63BA8A7B60C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4160,7 +4194,7 @@
         <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65B060D-433B-402F-AFD7-22C6564EEE99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A65B060D-433B-402F-AFD7-22C6564EEE99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4229,7 +4263,7 @@
         <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A178BF2-AD68-4847-AD0B-CA631F33E095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A178BF2-AD68-4847-AD0B-CA631F33E095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4291,7 +4325,7 @@
         <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEEB55E-E5CD-4A51-8DDF-551E4BE83633}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAEEB55E-E5CD-4A51-8DDF-551E4BE83633}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4360,7 +4394,7 @@
         <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4312F7-7630-4D28-AFF7-2E9465A12464}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA4312F7-7630-4D28-AFF7-2E9465A12464}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4429,7 +4463,7 @@
         <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC88A48A-853C-46DD-84FB-8B63D6F573F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC88A48A-853C-46DD-84FB-8B63D6F573F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4498,7 +4532,7 @@
         <xdr:cNvPr id="17" name="正方形/長方形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A2A49E-0EDF-4834-BA90-2B39D7E01C4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47A2A49E-0EDF-4834-BA90-2B39D7E01C4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4571,7 +4605,7 @@
         <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520241A1-91AC-40D3-AEFC-3B6EDFC9C203}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{520241A1-91AC-40D3-AEFC-3B6EDFC9C203}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4633,7 +4667,7 @@
         <xdr:cNvPr id="19" name="正方形/長方形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6C182F-89E5-4134-A625-076B97F1A078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E6C182F-89E5-4134-A625-076B97F1A078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4695,7 +4729,7 @@
         <xdr:cNvPr id="20" name="正方形/長方形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC6B2AD-7AFB-4F1F-BA4F-D8A81C7D71CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AC6B2AD-7AFB-4F1F-BA4F-D8A81C7D71CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4764,7 +4798,7 @@
         <xdr:cNvPr id="22" name="直線コネクタ 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0DE781-A5A9-4D1C-98EA-5EA777BB4999}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB0DE781-A5A9-4D1C-98EA-5EA777BB4999}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4816,7 +4850,7 @@
         <xdr:cNvPr id="23" name="直線コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C42186A-D4F8-4097-86DB-3963A51FE7C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C42186A-D4F8-4097-86DB-3963A51FE7C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4866,7 +4900,7 @@
         <xdr:cNvPr id="27" name="直線コネクタ 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990E9ABF-DDA1-496F-A306-1C4028430B36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{990E9ABF-DDA1-496F-A306-1C4028430B36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4918,7 +4952,7 @@
         <xdr:cNvPr id="28" name="直線コネクタ 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0601CF1-55BD-4263-86F9-F8C5122A8EEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0601CF1-55BD-4263-86F9-F8C5122A8EEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4973,7 +5007,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8955E15-C818-4052-9C19-D8FF9B82FF30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8955E15-C818-4052-9C19-D8FF9B82FF30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5034,7 +5068,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5713A0F4-827F-4C67-B3DD-F632AD6C7D79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5713A0F4-827F-4C67-B3DD-F632AD6C7D79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5095,7 +5129,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820767D0-A403-4007-A7F1-C06E192A4F8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{820767D0-A403-4007-A7F1-C06E192A4F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5156,7 +5190,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F36E6E7-DA55-4C11-A7E9-796EBC9DA1CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F36E6E7-DA55-4C11-A7E9-796EBC9DA1CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5217,7 +5251,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896D09C2-970F-4850-AE42-A3B5D7CF8E76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{896D09C2-970F-4850-AE42-A3B5D7CF8E76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5278,7 +5312,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2ECDDA-35B8-43FE-8CDC-14E9E7B04708}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F2ECDDA-35B8-43FE-8CDC-14E9E7B04708}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5397,7 +5431,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7232F4-E500-43DD-A84A-0CD5E1976F64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF7232F4-E500-43DD-A84A-0CD5E1976F64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5465,7 +5499,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA2C098-97DA-42DE-B1C8-C5EEB1E7D9A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA2C098-97DA-42DE-B1C8-C5EEB1E7D9A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5526,7 +5560,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE53571D-D08A-4208-A789-A7E9DE084E02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE53571D-D08A-4208-A789-A7E9DE084E02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5587,7 +5621,7 @@
         <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3C8D36-9973-45F2-947C-AFD9F613B0E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A3C8D36-9973-45F2-947C-AFD9F613B0E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,7 +5682,7 @@
         <xdr:cNvPr id="14" name="直線コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4573CB36-553A-4896-9393-D4D1F8EB78D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4573CB36-553A-4896-9393-D4D1F8EB78D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5704,7 +5738,7 @@
         <xdr:cNvPr id="15" name="直線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EE5112-0BB7-497B-B845-1B5A76EC248E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37EE5112-0BB7-497B-B845-1B5A76EC248E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5760,7 +5794,7 @@
         <xdr:cNvPr id="18" name="直線コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235B674C-8406-4421-86C1-22C3E27A332E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{235B674C-8406-4421-86C1-22C3E27A332E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5814,7 +5848,7 @@
         <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3686753-0F3D-4780-89E8-32BBD14393D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3686753-0F3D-4780-89E8-32BBD14393D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5868,7 +5902,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72910D1-106A-48F3-9336-46056147D7C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F72910D1-106A-48F3-9336-46056147D7C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5929,7 +5963,7 @@
         <xdr:cNvPr id="23" name="直線コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D464D33-B14E-4B55-9B1B-DE556B0FBB96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D464D33-B14E-4B55-9B1B-DE556B0FBB96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5986,7 +6020,7 @@
         <xdr:cNvPr id="24" name="直線コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8566BEBE-CE20-4E1D-91A2-AA2DFB64934C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8566BEBE-CE20-4E1D-91A2-AA2DFB64934C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6043,7 +6077,7 @@
         <xdr:cNvPr id="29" name="正方形/長方形 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F5110-16E5-4762-9032-73D1CCC95069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C0F5110-16E5-4762-9032-73D1CCC95069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6104,7 +6138,7 @@
         <xdr:cNvPr id="30" name="直線コネクタ 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC82FDF8-D793-4A32-BC15-BEE240655175}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC82FDF8-D793-4A32-BC15-BEE240655175}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6161,7 +6195,7 @@
         <xdr:cNvPr id="33" name="正方形/長方形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2544D606-B49D-46F3-898B-3B4C8E08C8DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2544D606-B49D-46F3-898B-3B4C8E08C8DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6222,7 +6256,7 @@
         <xdr:cNvPr id="34" name="正方形/長方形 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F1ECFD-B4CE-47A1-9EF8-0B149F2B7120}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71F1ECFD-B4CE-47A1-9EF8-0B149F2B7120}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6283,7 +6317,7 @@
         <xdr:cNvPr id="35" name="直線コネクタ 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840AA9AC-88C6-4C07-80B0-4035C76069D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{840AA9AC-88C6-4C07-80B0-4035C76069D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6340,7 +6374,7 @@
         <xdr:cNvPr id="38" name="直線コネクタ 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD17308-82AC-48FF-BE04-FFDA927110D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD17308-82AC-48FF-BE04-FFDA927110D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6402,7 +6436,7 @@
         <xdr:cNvPr id="70" name="正方形/長方形 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7340808D-B02E-4ADA-A3D2-12C114518764}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7340808D-B02E-4ADA-A3D2-12C114518764}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6464,7 +6498,7 @@
         <xdr:cNvPr id="51" name="正方形/長方形 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B41102-BD15-4B8D-A8FE-56F95518384D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5B41102-BD15-4B8D-A8FE-56F95518384D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6527,7 +6561,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE56944-E785-422E-AC0B-330F7732DF15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EDE56944-E785-422E-AC0B-330F7732DF15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6589,7 +6623,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD54228A-90DD-4B55-95DD-792104F01CAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD54228A-90DD-4B55-95DD-792104F01CAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6651,7 +6685,7 @@
         <xdr:cNvPr id="9" name="直線コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B6A153-AB83-4B25-816A-4BA191604DFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20B6A153-AB83-4B25-816A-4BA191604DFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6708,7 +6742,7 @@
         <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F322D273-1E8E-483E-86D0-2616452A6613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F322D273-1E8E-483E-86D0-2616452A6613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6761,7 +6795,7 @@
         <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A3DD3E-9A9A-4A89-B0AD-A1E844E05679}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70A3DD3E-9A9A-4A89-B0AD-A1E844E05679}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6823,7 +6857,7 @@
         <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88841D87-5E7B-4ECB-9F4D-160B4FCAB580}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88841D87-5E7B-4ECB-9F4D-160B4FCAB580}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6876,7 +6910,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82768FD-B4F3-4B94-B639-4C850B9B5A82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F82768FD-B4F3-4B94-B639-4C850B9B5A82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6937,7 +6971,7 @@
         <xdr:cNvPr id="23" name="直線コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13BA419-B17D-4C57-8E2B-43B95013F224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D13BA419-B17D-4C57-8E2B-43B95013F224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6990,7 +7024,7 @@
         <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14CE2C1-A8DA-4C29-AEF4-DC1113ED3448}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F14CE2C1-A8DA-4C29-AEF4-DC1113ED3448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7052,7 +7086,7 @@
         <xdr:cNvPr id="25" name="直線コネクタ 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FF3C7D-B8B3-4B30-95C8-33683BA16A80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3FF3C7D-B8B3-4B30-95C8-33683BA16A80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7105,7 +7139,7 @@
         <xdr:cNvPr id="27" name="直線コネクタ 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8164CB4-C0A6-45B5-83A0-1F4FC860F3E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8164CB4-C0A6-45B5-83A0-1F4FC860F3E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7158,7 +7192,7 @@
         <xdr:cNvPr id="29" name="直線コネクタ 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44966D97-8850-48B1-BAD3-74C85954AB25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44966D97-8850-48B1-BAD3-74C85954AB25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7211,7 +7245,7 @@
         <xdr:cNvPr id="33" name="直線コネクタ 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67B8748-7FEA-4E93-A811-8DEE3F2E3BED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A67B8748-7FEA-4E93-A811-8DEE3F2E3BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7268,7 +7302,7 @@
         <xdr:cNvPr id="38" name="正方形/長方形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB7F798-3D4B-423A-B024-48F08C5D4698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAB7F798-3D4B-423A-B024-48F08C5D4698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7331,7 +7365,7 @@
         <xdr:cNvPr id="42" name="正方形/長方形 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B7E65A-9681-4E3A-8D86-C3F668682A36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62B7E65A-9681-4E3A-8D86-C3F668682A36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7393,7 +7427,7 @@
         <xdr:cNvPr id="32" name="直線コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01FCFE90-26F7-4121-B994-90BD062BB74B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01FCFE90-26F7-4121-B994-90BD062BB74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7452,7 +7486,7 @@
         <xdr:cNvPr id="48" name="正方形/長方形 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23BAFA1-E226-45A0-BA91-C111B7B78FF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E23BAFA1-E226-45A0-BA91-C111B7B78FF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7514,7 +7548,7 @@
         <xdr:cNvPr id="26" name="直線コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B153635-017C-4323-BA05-1C1CC64D68B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B153635-017C-4323-BA05-1C1CC64D68B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7570,7 +7604,7 @@
         <xdr:cNvPr id="54" name="正方形/長方形 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3F18D6-BDFC-4820-A255-89D3659CC2C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B3F18D6-BDFC-4820-A255-89D3659CC2C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7633,7 +7667,7 @@
         <xdr:cNvPr id="56" name="正方形/長方形 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D163874-8179-432D-9A37-EBDAEAA05FDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D163874-8179-432D-9A37-EBDAEAA05FDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7695,7 +7729,7 @@
         <xdr:cNvPr id="58" name="正方形/長方形 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF5B67D-59A5-406C-8121-AE56AFD3A597}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AF5B67D-59A5-406C-8121-AE56AFD3A597}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7757,7 +7791,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AB4AAA-FC9A-4804-B621-BC81E1FC75D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AB4AAA-FC9A-4804-B621-BC81E1FC75D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7813,7 +7847,7 @@
         <xdr:cNvPr id="8" name="直線コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55EB6B21-CFFE-4002-A0A6-2A9BC85985B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55EB6B21-CFFE-4002-A0A6-2A9BC85985B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7872,7 +7906,7 @@
         <xdr:cNvPr id="62" name="直線コネクタ 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D73108-23E7-4C47-95B7-E9CC28F77833}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2D73108-23E7-4C47-95B7-E9CC28F77833}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7932,7 +7966,7 @@
         <xdr:cNvPr id="65" name="正方形/長方形 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264658E5-CF3A-4035-8D4E-8E0B93CE422C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{264658E5-CF3A-4035-8D4E-8E0B93CE422C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7994,7 +8028,7 @@
         <xdr:cNvPr id="66" name="直線コネクタ 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DEC997-0EE5-4E83-AB34-EB62764DC302}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71DEC997-0EE5-4E83-AB34-EB62764DC302}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8059,7 +8093,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F6FDA3-32AD-4E9B-AFA8-645E3AFA1001}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8F6FDA3-32AD-4E9B-AFA8-645E3AFA1001}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8121,7 +8155,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFBD111-B9EC-4925-A0CE-AF259F9FEB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FFBD111-B9EC-4925-A0CE-AF259F9FEB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8183,7 +8217,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A03CEE-3285-4856-9CD8-81B128D10081}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52A03CEE-3285-4856-9CD8-81B128D10081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8245,7 +8279,7 @@
         <xdr:cNvPr id="5" name="矢印: 左右 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43DAD4E-B7F8-4302-9328-8AF8BB7858D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C43DAD4E-B7F8-4302-9328-8AF8BB7858D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8303,7 +8337,7 @@
         <xdr:cNvPr id="6" name="矢印: 左右 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA690AA-B24A-40DB-B919-6DC85D822E87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FA690AA-B24A-40DB-B919-6DC85D822E87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8361,7 +8395,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B83578F-5B3D-41BB-AEB0-068E470D1169}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B83578F-5B3D-41BB-AEB0-068E470D1169}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8423,7 +8457,7 @@
         <xdr:cNvPr id="8" name="矢印: 左右 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927C59B8-8F01-4AAC-9CEA-EA09E275ABB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{927C59B8-8F01-4AAC-9CEA-EA09E275ABB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8481,7 +8515,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF49119-7B5D-49A6-8020-C622FB42AED6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DF49119-7B5D-49A6-8020-C622FB42AED6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8543,7 +8577,7 @@
         <xdr:cNvPr id="10" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8605,7 +8639,7 @@
         <xdr:cNvPr id="12" name="コネクタ: 曲線 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A624380-5E2B-4678-834A-476892BCCEF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A624380-5E2B-4678-834A-476892BCCEF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8665,7 +8699,7 @@
         <xdr:cNvPr id="14" name="楕円 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBF912D-6800-4D42-8220-A23EDD2DC92F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CBF912D-6800-4D42-8220-A23EDD2DC92F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8727,7 +8761,7 @@
         <xdr:cNvPr id="15" name="楕円 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCB4EB7-785B-4398-A15B-CC7BC68DAA29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FCB4EB7-785B-4398-A15B-CC7BC68DAA29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8789,7 +8823,7 @@
         <xdr:cNvPr id="16" name="楕円 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC49D81A-BCC0-490C-A998-6FBE5DF41FF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC49D81A-BCC0-490C-A998-6FBE5DF41FF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8851,7 +8885,7 @@
         <xdr:cNvPr id="17" name="楕円 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{908379EE-4A8F-4385-B88E-BB12CEC20A96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{908379EE-4A8F-4385-B88E-BB12CEC20A96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8913,7 +8947,7 @@
         <xdr:cNvPr id="18" name="コネクタ: 曲線 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33BF03F-8024-4679-92C9-75EB3BD59A10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D33BF03F-8024-4679-92C9-75EB3BD59A10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8975,7 +9009,7 @@
         <xdr:cNvPr id="21" name="コネクタ: 曲線 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EC8487-DC45-4AA2-9A64-E7C72FE98DE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48EC8487-DC45-4AA2-9A64-E7C72FE98DE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9037,7 +9071,7 @@
         <xdr:cNvPr id="24" name="コネクタ: 曲線 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6937307-1045-4C20-A873-1C3460E531F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6937307-1045-4C20-A873-1C3460E531F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9099,7 +9133,7 @@
         <xdr:cNvPr id="28" name="コネクタ: 曲線 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D853A7-7F2F-4A63-B771-98C2C3271078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3D853A7-7F2F-4A63-B771-98C2C3271078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9161,7 +9195,7 @@
         <xdr:cNvPr id="35" name="コネクタ: 曲線 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A56AAA-BA4D-44F6-95D5-3531DC1CA5FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80A56AAA-BA4D-44F6-95D5-3531DC1CA5FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9223,7 +9257,7 @@
         <xdr:cNvPr id="36" name="コネクタ: 曲線 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D59F30-FB28-4465-8198-FF556618DB62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51D59F30-FB28-4465-8198-FF556618DB62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9285,7 +9319,7 @@
         <xdr:cNvPr id="37" name="コネクタ: 曲線 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6821B165-0DF6-4851-ABC8-35263234A5EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6821B165-0DF6-4851-ABC8-35263234A5EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9347,7 +9381,7 @@
         <xdr:cNvPr id="38" name="コネクタ: 曲線 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072F0FF8-8CEF-44BC-905D-1D705D03F07B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{072F0FF8-8CEF-44BC-905D-1D705D03F07B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9409,7 +9443,7 @@
         <xdr:cNvPr id="50" name="楕円 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A4AD05-310A-4C5B-9539-259F4FC7BE15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99A4AD05-310A-4C5B-9539-259F4FC7BE15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9479,7 +9513,7 @@
         <xdr:cNvPr id="51" name="楕円 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{025F8ECD-E2A5-46DC-B4E7-4513594B202C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{025F8ECD-E2A5-46DC-B4E7-4513594B202C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9541,7 +9575,7 @@
         <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7082B3C5-5CEA-461E-AE6D-BF713323704D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7082B3C5-5CEA-461E-AE6D-BF713323704D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9599,7 +9633,7 @@
         <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C7C802-2E56-4516-9249-3DB0A980120B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23C7C802-2E56-4516-9249-3DB0A980120B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9656,7 +9690,7 @@
         <xdr:cNvPr id="29" name="楕円 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5553E96-8785-41AE-9C67-BF2FDD0FFD26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5553E96-8785-41AE-9C67-BF2FDD0FFD26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9718,7 +9752,7 @@
         <xdr:cNvPr id="30" name="楕円 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2EFB9C-B4D2-4697-90A8-A4FD4B79FED9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA2EFB9C-B4D2-4697-90A8-A4FD4B79FED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9780,7 +9814,7 @@
         <xdr:cNvPr id="32" name="コネクタ: 曲線 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E94192-955E-4141-9A1E-7BCB8A922426}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60E94192-955E-4141-9A1E-7BCB8A922426}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9842,7 +9876,7 @@
         <xdr:cNvPr id="39" name="コネクタ: 曲線 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501E4B56-0819-4FD1-9ACC-1599D0F51507}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{501E4B56-0819-4FD1-9ACC-1599D0F51507}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9904,7 +9938,7 @@
         <xdr:cNvPr id="40" name="コネクタ: 曲線 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C018E2-ADED-44C0-AF56-563DABE33CF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81C018E2-ADED-44C0-AF56-563DABE33CF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9964,7 +9998,7 @@
         <xdr:cNvPr id="43" name="楕円 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B4E926-0762-4832-800A-D5F663D11DA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64B4E926-0762-4832-800A-D5F663D11DA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10026,7 +10060,7 @@
         <xdr:cNvPr id="44" name="楕円 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794AD72E-7D1C-4101-8957-74F96AEB3147}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{794AD72E-7D1C-4101-8957-74F96AEB3147}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10088,7 +10122,7 @@
         <xdr:cNvPr id="45" name="コネクタ: 曲線 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468D0F7F-35BA-4071-8DB1-E9A87F05AC70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{468D0F7F-35BA-4071-8DB1-E9A87F05AC70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10150,7 +10184,7 @@
         <xdr:cNvPr id="46" name="コネクタ: 曲線 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2B56E2-BE96-480C-A1F7-94DC556582E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE2B56E2-BE96-480C-A1F7-94DC556582E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10212,7 +10246,7 @@
         <xdr:cNvPr id="47" name="コネクタ: 曲線 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E384624-0762-4127-A63B-4DE9E4272DA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E384624-0762-4127-A63B-4DE9E4272DA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10272,7 +10306,7 @@
         <xdr:cNvPr id="41" name="矢印: 右カーブ 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6F8C17-8D56-4325-8152-4B8BD6A948F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC6F8C17-8D56-4325-8152-4B8BD6A948F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10336,7 +10370,7 @@
         <xdr:cNvPr id="42" name="矢印: 右カーブ 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC51E6E1-F02C-4C38-AAFC-5D9666E06104}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC51E6E1-F02C-4C38-AAFC-5D9666E06104}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10400,7 +10434,7 @@
         <xdr:cNvPr id="48" name="矢印: 右カーブ 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22B6B76-0809-47BC-B8B3-D9B7C7A23D3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F22B6B76-0809-47BC-B8B3-D9B7C7A23D3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10464,7 +10498,7 @@
         <xdr:cNvPr id="26" name="グループ化 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423E15E5-4C42-4726-8538-B9B03E0ED29C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{423E15E5-4C42-4726-8538-B9B03E0ED29C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10472,8 +10506,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2668797" y="8365825"/>
-          <a:ext cx="4342787" cy="341463"/>
+          <a:off x="2273420" y="9246439"/>
+          <a:ext cx="3722224" cy="377405"/>
           <a:chOff x="2619375" y="8264922"/>
           <a:chExt cx="7143750" cy="337344"/>
         </a:xfrm>
@@ -10483,7 +10517,7 @@
           <xdr:cNvPr id="23" name="グループ化 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14627D23-CC00-4830-8F14-8A35870EC7C3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14627D23-CC00-4830-8F14-8A35870EC7C3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10502,7 +10536,7 @@
             <xdr:cNvPr id="22" name="グループ化 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510B4275-0F1E-46F9-9BEC-DE1B344C06CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{510B4275-0F1E-46F9-9BEC-DE1B344C06CE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10521,7 +10555,7 @@
               <xdr:cNvPr id="49" name="直線コネクタ 48">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA0BBBA-6EFC-4848-9343-F987B922B1F0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DA0BBBA-6EFC-4848-9343-F987B922B1F0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10556,7 +10590,7 @@
               <xdr:cNvPr id="52" name="直線コネクタ 51">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5D67D5-107B-4D55-A8F8-1948CEB9C54D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB5D67D5-107B-4D55-A8F8-1948CEB9C54D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10591,7 +10625,7 @@
               <xdr:cNvPr id="55" name="直線コネクタ 54">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8C26AB-86D9-4C5F-A2EE-F13F42BA8F09}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E8C26AB-86D9-4C5F-A2EE-F13F42BA8F09}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10626,7 +10660,7 @@
               <xdr:cNvPr id="56" name="直線コネクタ 55">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF55A55-3329-4854-8ABE-251B90D874F0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FF55A55-3329-4854-8ABE-251B90D874F0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10662,7 +10696,7 @@
             <xdr:cNvPr id="61" name="グループ化 60">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A99DF7D-3085-4984-89C1-3095041811A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A99DF7D-3085-4984-89C1-3095041811A5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10681,7 +10715,7 @@
               <xdr:cNvPr id="62" name="直線コネクタ 61">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91993554-3971-4FC0-8FCF-3298890DD882}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91993554-3971-4FC0-8FCF-3298890DD882}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10716,7 +10750,7 @@
               <xdr:cNvPr id="63" name="直線コネクタ 62">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18231A16-7D86-4CA8-AFB0-8EB12FBA0063}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18231A16-7D86-4CA8-AFB0-8EB12FBA0063}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10751,7 +10785,7 @@
               <xdr:cNvPr id="64" name="直線コネクタ 63">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D29E1E-B612-498B-A4B4-54E98D783F85}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4D29E1E-B612-498B-A4B4-54E98D783F85}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10786,7 +10820,7 @@
               <xdr:cNvPr id="65" name="直線コネクタ 64">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E92526-AA49-4650-996C-78C75A874CDD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1E92526-AA49-4650-996C-78C75A874CDD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10822,7 +10856,7 @@
             <xdr:cNvPr id="66" name="グループ化 65">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2391C0AC-B2C9-4D2D-8FAC-F88762FE36E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2391C0AC-B2C9-4D2D-8FAC-F88762FE36E3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10841,7 +10875,7 @@
               <xdr:cNvPr id="67" name="直線コネクタ 66">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434F1CEC-A0D4-4912-B83B-956DCD000710}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{434F1CEC-A0D4-4912-B83B-956DCD000710}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10876,7 +10910,7 @@
               <xdr:cNvPr id="68" name="直線コネクタ 67">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA92E0DF-01C4-45D4-9F5D-9AB1B26EBD2B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA92E0DF-01C4-45D4-9F5D-9AB1B26EBD2B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10911,7 +10945,7 @@
               <xdr:cNvPr id="69" name="直線コネクタ 68">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA04DBEB-3ACF-41A6-82DA-B8B7A9FD83E4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA04DBEB-3ACF-41A6-82DA-B8B7A9FD83E4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10946,7 +10980,7 @@
               <xdr:cNvPr id="70" name="直線コネクタ 69">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5286FF46-BBF3-44A0-B397-E08F1A9F3824}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5286FF46-BBF3-44A0-B397-E08F1A9F3824}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10982,7 +11016,7 @@
             <xdr:cNvPr id="71" name="グループ化 70">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C05190F-59F3-4080-A474-D9059F4625EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C05190F-59F3-4080-A474-D9059F4625EC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11001,7 +11035,7 @@
               <xdr:cNvPr id="72" name="直線コネクタ 71">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E428DA9-EFD0-4474-A5D3-764A4EB53299}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E428DA9-EFD0-4474-A5D3-764A4EB53299}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11036,7 +11070,7 @@
               <xdr:cNvPr id="73" name="直線コネクタ 72">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A68EA79-29C7-4846-9F44-A94305AC2804}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A68EA79-29C7-4846-9F44-A94305AC2804}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11071,7 +11105,7 @@
               <xdr:cNvPr id="74" name="直線コネクタ 73">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E26356B-32C8-47CC-BA80-D2DAEB9854D6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E26356B-32C8-47CC-BA80-D2DAEB9854D6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11106,7 +11140,7 @@
               <xdr:cNvPr id="75" name="直線コネクタ 74">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B1ACA8-E8A3-437E-B283-AD641F2FBCC2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71B1ACA8-E8A3-437E-B283-AD641F2FBCC2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11142,7 +11176,7 @@
             <xdr:cNvPr id="76" name="グループ化 75">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C542CA-8E0B-4658-AE9B-64B1961B7927}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3C542CA-8E0B-4658-AE9B-64B1961B7927}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11161,7 +11195,7 @@
               <xdr:cNvPr id="77" name="直線コネクタ 76">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EB4849-3CD0-409A-A2C7-B5188B2234F3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1EB4849-3CD0-409A-A2C7-B5188B2234F3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11196,7 +11230,7 @@
               <xdr:cNvPr id="78" name="直線コネクタ 77">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC53005-62FD-4BA5-96CE-E855D269635A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEC53005-62FD-4BA5-96CE-E855D269635A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11231,7 +11265,7 @@
               <xdr:cNvPr id="79" name="直線コネクタ 78">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A154C26E-A7FA-47D0-BD5B-A5C96F5FA4C3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A154C26E-A7FA-47D0-BD5B-A5C96F5FA4C3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11266,7 +11300,7 @@
               <xdr:cNvPr id="80" name="直線コネクタ 79">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744C533F-C283-4B8B-B58B-7741415DE2C2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{744C533F-C283-4B8B-B58B-7741415DE2C2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11302,7 +11336,7 @@
             <xdr:cNvPr id="81" name="グループ化 80">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265ACC15-D132-4FE2-93D0-390C3C24B057}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{265ACC15-D132-4FE2-93D0-390C3C24B057}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11321,7 +11355,7 @@
               <xdr:cNvPr id="82" name="直線コネクタ 81">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9EACAE-E160-433E-9DCA-45220491BD76}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF9EACAE-E160-433E-9DCA-45220491BD76}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11356,7 +11390,7 @@
               <xdr:cNvPr id="83" name="直線コネクタ 82">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44A8125-F602-495C-A170-F5A8FDC28A5F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A44A8125-F602-495C-A170-F5A8FDC28A5F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11391,7 +11425,7 @@
               <xdr:cNvPr id="84" name="直線コネクタ 83">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE16700-2481-4747-99E0-909C8A7CDC71}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CE16700-2481-4747-99E0-909C8A7CDC71}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11426,7 +11460,7 @@
               <xdr:cNvPr id="85" name="直線コネクタ 84">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CB511C-93DA-4069-94E3-CA95776BB96B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45CB511C-93DA-4069-94E3-CA95776BB96B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11463,7 +11497,7 @@
           <xdr:cNvPr id="96" name="グループ化 95">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3936E751-D0F9-4F20-A11E-395D120D2AA9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3936E751-D0F9-4F20-A11E-395D120D2AA9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11482,7 +11516,7 @@
             <xdr:cNvPr id="97" name="グループ化 96">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78925371-D477-46AA-8C01-C47225EA961F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78925371-D477-46AA-8C01-C47225EA961F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11501,7 +11535,7 @@
               <xdr:cNvPr id="123" name="直線コネクタ 122">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AB157D-73C5-4E38-910A-ADE257CF254D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34AB157D-73C5-4E38-910A-ADE257CF254D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11536,7 +11570,7 @@
               <xdr:cNvPr id="124" name="直線コネクタ 123">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C3DE7F-9174-497D-80A3-24AEA292F43D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35C3DE7F-9174-497D-80A3-24AEA292F43D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11571,7 +11605,7 @@
               <xdr:cNvPr id="125" name="直線コネクタ 124">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7303AC-9918-47F7-96F1-B84E6E2FCF60}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F7303AC-9918-47F7-96F1-B84E6E2FCF60}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11606,7 +11640,7 @@
               <xdr:cNvPr id="126" name="直線コネクタ 125">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D97A607-94F9-4224-8E7E-C561971CB340}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D97A607-94F9-4224-8E7E-C561971CB340}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11642,7 +11676,7 @@
             <xdr:cNvPr id="98" name="グループ化 97">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870FAED1-65E4-47BF-86CE-BEB4ECFAF30B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{870FAED1-65E4-47BF-86CE-BEB4ECFAF30B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11661,7 +11695,7 @@
               <xdr:cNvPr id="119" name="直線コネクタ 118">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE5E408-9226-46B7-B2E5-179D16CE357B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AE5E408-9226-46B7-B2E5-179D16CE357B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11696,7 +11730,7 @@
               <xdr:cNvPr id="120" name="直線コネクタ 119">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BFF9B5-4C9B-4B48-AFEE-96515946BE47}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8BFF9B5-4C9B-4B48-AFEE-96515946BE47}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11731,7 +11765,7 @@
               <xdr:cNvPr id="121" name="直線コネクタ 120">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1889F015-F2D8-40B6-B408-C8A70AE4F8B9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1889F015-F2D8-40B6-B408-C8A70AE4F8B9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11766,7 +11800,7 @@
               <xdr:cNvPr id="122" name="直線コネクタ 121">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19114970-7083-45AD-BB32-562E811FE508}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19114970-7083-45AD-BB32-562E811FE508}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11802,7 +11836,7 @@
             <xdr:cNvPr id="99" name="グループ化 98">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E218F68-0511-4159-8723-13932F6F20E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E218F68-0511-4159-8723-13932F6F20E2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11821,7 +11855,7 @@
               <xdr:cNvPr id="115" name="直線コネクタ 114">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E387553-4DDF-4A7B-A146-30E3C06834FD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E387553-4DDF-4A7B-A146-30E3C06834FD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11856,7 +11890,7 @@
               <xdr:cNvPr id="116" name="直線コネクタ 115">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6FE572-139F-44DE-9375-52AAF9A8B0BB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D6FE572-139F-44DE-9375-52AAF9A8B0BB}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11891,7 +11925,7 @@
               <xdr:cNvPr id="117" name="直線コネクタ 116">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FCA986-3395-465D-97D3-4EFD5370A7C9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88FCA986-3395-465D-97D3-4EFD5370A7C9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11926,7 +11960,7 @@
               <xdr:cNvPr id="118" name="直線コネクタ 117">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4587D3B-2EA2-4B45-9F0B-38DAC2E0DB2C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4587D3B-2EA2-4B45-9F0B-38DAC2E0DB2C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11962,7 +11996,7 @@
             <xdr:cNvPr id="100" name="グループ化 99">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3D8A64-B10D-4FA9-B492-1EA6A9B80F21}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D3D8A64-B10D-4FA9-B492-1EA6A9B80F21}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11981,7 +12015,7 @@
               <xdr:cNvPr id="111" name="直線コネクタ 110">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F5E104-E614-4C14-B1CC-609B2C40591D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18F5E104-E614-4C14-B1CC-609B2C40591D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12016,7 +12050,7 @@
               <xdr:cNvPr id="112" name="直線コネクタ 111">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D19B041-C7FB-429A-9779-209D694ED811}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D19B041-C7FB-429A-9779-209D694ED811}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12051,7 +12085,7 @@
               <xdr:cNvPr id="113" name="直線コネクタ 112">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74447BBC-E7A0-4C3B-994A-27C374BCA6B9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74447BBC-E7A0-4C3B-994A-27C374BCA6B9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12086,7 +12120,7 @@
               <xdr:cNvPr id="114" name="直線コネクタ 113">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95CDFA4-7544-4A98-9C5F-6E4977FFD7AD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E95CDFA4-7544-4A98-9C5F-6E4977FFD7AD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12122,7 +12156,7 @@
             <xdr:cNvPr id="101" name="グループ化 100">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE2512B-7EBB-446C-845E-21328DD49FB5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BE2512B-7EBB-446C-845E-21328DD49FB5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12141,7 +12175,7 @@
               <xdr:cNvPr id="107" name="直線コネクタ 106">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68FF373-7628-4A9B-A071-E03927C08BDE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F68FF373-7628-4A9B-A071-E03927C08BDE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12176,7 +12210,7 @@
               <xdr:cNvPr id="108" name="直線コネクタ 107">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F96AC5-E616-489E-BB91-BCD13402DEFF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1F96AC5-E616-489E-BB91-BCD13402DEFF}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12211,7 +12245,7 @@
               <xdr:cNvPr id="109" name="直線コネクタ 108">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5488FBB4-303B-44C6-A68C-0971EA618E93}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5488FBB4-303B-44C6-A68C-0971EA618E93}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12246,7 +12280,7 @@
               <xdr:cNvPr id="110" name="直線コネクタ 109">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1162D87-020A-428A-8BCB-C46E6CBF847C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1162D87-020A-428A-8BCB-C46E6CBF847C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12282,7 +12316,7 @@
             <xdr:cNvPr id="102" name="グループ化 101">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9975C6-C097-4B0D-9E5F-8BCA59F26D16}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D9975C6-C097-4B0D-9E5F-8BCA59F26D16}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12301,7 +12335,7 @@
               <xdr:cNvPr id="103" name="直線コネクタ 102">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D52B6E8-BCF5-4BA4-A4EE-E81E74D33E9E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D52B6E8-BCF5-4BA4-A4EE-E81E74D33E9E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12336,7 +12370,7 @@
               <xdr:cNvPr id="104" name="直線コネクタ 103">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0198EC6-E332-4E38-8B96-BCE1EE21247F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0198EC6-E332-4E38-8B96-BCE1EE21247F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12371,7 +12405,7 @@
               <xdr:cNvPr id="105" name="直線コネクタ 104">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA3C3DD-B151-444F-B424-DAF6ED13C807}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EA3C3DD-B151-444F-B424-DAF6ED13C807}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12406,7 +12440,7 @@
               <xdr:cNvPr id="106" name="直線コネクタ 105">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DE5EAA-987F-4692-BE9E-8791F9C8DAD0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14DE5EAA-987F-4692-BE9E-8791F9C8DAD0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12443,7 +12477,7 @@
           <xdr:cNvPr id="127" name="グループ化 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB042B1-EB70-47FC-8DA3-43F36CAEB0A3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDB042B1-EB70-47FC-8DA3-43F36CAEB0A3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12462,7 +12496,7 @@
             <xdr:cNvPr id="128" name="グループ化 127">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02B0CCF-45EB-467D-B85C-CE897A71889D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E02B0CCF-45EB-467D-B85C-CE897A71889D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12481,7 +12515,7 @@
               <xdr:cNvPr id="154" name="直線コネクタ 153">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383524E7-8DC5-4F8C-A242-2DA231BBC296}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{383524E7-8DC5-4F8C-A242-2DA231BBC296}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12516,7 +12550,7 @@
               <xdr:cNvPr id="155" name="直線コネクタ 154">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2181A556-CD0B-48F9-B4C8-10FC16BC7D1D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2181A556-CD0B-48F9-B4C8-10FC16BC7D1D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12551,7 +12585,7 @@
               <xdr:cNvPr id="156" name="直線コネクタ 155">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934320A7-8045-461A-A32A-24BE951175A1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{934320A7-8045-461A-A32A-24BE951175A1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12586,7 +12620,7 @@
               <xdr:cNvPr id="157" name="直線コネクタ 156">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EACA38-E380-4BFA-B35A-4F5AA3710E9D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04EACA38-E380-4BFA-B35A-4F5AA3710E9D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12622,7 +12656,7 @@
             <xdr:cNvPr id="129" name="グループ化 128">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CCDC61-6C1C-40D6-A388-68AE3F4CD4BF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26CCDC61-6C1C-40D6-A388-68AE3F4CD4BF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12641,7 +12675,7 @@
               <xdr:cNvPr id="150" name="直線コネクタ 149">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D769E52-B555-4B9E-AE68-EEA1F2D2FE51}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D769E52-B555-4B9E-AE68-EEA1F2D2FE51}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12676,7 +12710,7 @@
               <xdr:cNvPr id="151" name="直線コネクタ 150">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADE55B4-F9A8-49B2-9E06-A75D830C8A5B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADE55B4-F9A8-49B2-9E06-A75D830C8A5B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12711,7 +12745,7 @@
               <xdr:cNvPr id="152" name="直線コネクタ 151">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173ACDBD-1D80-4A66-91D0-67C9F0ADBF29}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{173ACDBD-1D80-4A66-91D0-67C9F0ADBF29}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12746,7 +12780,7 @@
               <xdr:cNvPr id="153" name="直線コネクタ 152">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A28BBD8-F80F-4117-BF9C-45E97833A9CC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A28BBD8-F80F-4117-BF9C-45E97833A9CC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12782,7 +12816,7 @@
             <xdr:cNvPr id="130" name="グループ化 129">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6806BB99-EE6A-4A1A-A1E9-17FA376ED84A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6806BB99-EE6A-4A1A-A1E9-17FA376ED84A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12801,7 +12835,7 @@
               <xdr:cNvPr id="146" name="直線コネクタ 145">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A7E3B3-C25B-4D4A-B7A7-F2CC9A6365B0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27A7E3B3-C25B-4D4A-B7A7-F2CC9A6365B0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12836,7 +12870,7 @@
               <xdr:cNvPr id="147" name="直線コネクタ 146">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDE39DA-989E-4262-8878-F0E78F4B13BC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DDE39DA-989E-4262-8878-F0E78F4B13BC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12871,7 +12905,7 @@
               <xdr:cNvPr id="148" name="直線コネクタ 147">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160EF002-2828-4178-8C9F-E132653C92B2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{160EF002-2828-4178-8C9F-E132653C92B2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12906,7 +12940,7 @@
               <xdr:cNvPr id="149" name="直線コネクタ 148">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A744991-3D5C-444D-89E0-CD461C742E63}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A744991-3D5C-444D-89E0-CD461C742E63}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12942,7 +12976,7 @@
             <xdr:cNvPr id="131" name="グループ化 130">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8E1833-28C5-4B2F-8C5D-3DFD5C6683CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B8E1833-28C5-4B2F-8C5D-3DFD5C6683CD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12961,7 +12995,7 @@
               <xdr:cNvPr id="142" name="直線コネクタ 141">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5D6B10-1100-4D21-94F1-52F211956DBE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A5D6B10-1100-4D21-94F1-52F211956DBE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12996,7 +13030,7 @@
               <xdr:cNvPr id="143" name="直線コネクタ 142">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FABDC9-3E66-4C67-B5C5-BE7BBF1C5A8F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8FABDC9-3E66-4C67-B5C5-BE7BBF1C5A8F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13031,7 +13065,7 @@
               <xdr:cNvPr id="144" name="直線コネクタ 143">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{367D6444-83A9-47CD-B0D2-59D57603D890}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{367D6444-83A9-47CD-B0D2-59D57603D890}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13066,7 +13100,7 @@
               <xdr:cNvPr id="145" name="直線コネクタ 144">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDCCD81-6981-4190-98A8-B947776AE984}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BDCCD81-6981-4190-98A8-B947776AE984}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13102,7 +13136,7 @@
             <xdr:cNvPr id="132" name="グループ化 131">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694E0334-BDC9-40B3-9E7E-5CDED233EA8F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{694E0334-BDC9-40B3-9E7E-5CDED233EA8F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13121,7 +13155,7 @@
               <xdr:cNvPr id="138" name="直線コネクタ 137">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88199CCD-AD6C-4FF1-8CFE-A262DC2727D6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88199CCD-AD6C-4FF1-8CFE-A262DC2727D6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13156,7 +13190,7 @@
               <xdr:cNvPr id="139" name="直線コネクタ 138">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53C20FF-EF59-4F3F-B2F7-A04889B8BA0E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A53C20FF-EF59-4F3F-B2F7-A04889B8BA0E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13191,7 +13225,7 @@
               <xdr:cNvPr id="140" name="直線コネクタ 139">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA20DA7-07CC-4E78-8F1A-C9AB5367C43C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BA20DA7-07CC-4E78-8F1A-C9AB5367C43C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13226,7 +13260,7 @@
               <xdr:cNvPr id="141" name="直線コネクタ 140">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CE22CE-24C5-49FE-A0BC-97172C5D455E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5CE22CE-24C5-49FE-A0BC-97172C5D455E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13262,7 +13296,7 @@
             <xdr:cNvPr id="133" name="グループ化 132">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABD734A-78E0-493C-BD61-6EAE7ACF9779}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5ABD734A-78E0-493C-BD61-6EAE7ACF9779}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13281,7 +13315,7 @@
               <xdr:cNvPr id="134" name="直線コネクタ 133">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BFFE72-143E-495A-A2CC-0AD812571760}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64BFFE72-143E-495A-A2CC-0AD812571760}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13316,7 +13350,7 @@
               <xdr:cNvPr id="135" name="直線コネクタ 134">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E926675-AE8B-43DD-A7B7-C29CF17834FC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E926675-AE8B-43DD-A7B7-C29CF17834FC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13351,7 +13385,7 @@
               <xdr:cNvPr id="136" name="直線コネクタ 135">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206B6845-B8A0-46C8-B2EF-653E10E60181}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{206B6845-B8A0-46C8-B2EF-653E10E60181}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13386,7 +13420,7 @@
               <xdr:cNvPr id="137" name="直線コネクタ 136">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D88DB12-796B-46C1-92BE-82116645B551}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D88DB12-796B-46C1-92BE-82116645B551}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13423,7 +13457,7 @@
           <xdr:cNvPr id="158" name="グループ化 157">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2903B6DE-8B37-4B1F-8A45-96D74A18F16A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2903B6DE-8B37-4B1F-8A45-96D74A18F16A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13442,7 +13476,7 @@
             <xdr:cNvPr id="159" name="グループ化 158">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A153EFA2-BEE0-4A14-90D3-F9361D1279F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A153EFA2-BEE0-4A14-90D3-F9361D1279F8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13461,7 +13495,7 @@
               <xdr:cNvPr id="185" name="直線コネクタ 184">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14620AA8-2A84-487F-B4AC-727B1365D750}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14620AA8-2A84-487F-B4AC-727B1365D750}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13496,7 +13530,7 @@
               <xdr:cNvPr id="186" name="直線コネクタ 185">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AB0AD8-7600-4CAC-9A09-BF6392A366F3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9AB0AD8-7600-4CAC-9A09-BF6392A366F3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13531,7 +13565,7 @@
               <xdr:cNvPr id="187" name="直線コネクタ 186">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25D6875-D0B8-497F-A4A3-82B350BE8C5B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A25D6875-D0B8-497F-A4A3-82B350BE8C5B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13566,7 +13600,7 @@
               <xdr:cNvPr id="188" name="直線コネクタ 187">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F35398-4C5C-48FD-B5AF-BABC649BBBFC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8F35398-4C5C-48FD-B5AF-BABC649BBBFC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13602,7 +13636,7 @@
             <xdr:cNvPr id="160" name="グループ化 159">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87437CBC-206A-460C-A203-DC544BC3332B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87437CBC-206A-460C-A203-DC544BC3332B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13621,7 +13655,7 @@
               <xdr:cNvPr id="181" name="直線コネクタ 180">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739770EA-D55F-46BE-B5F6-2A75DCA954B0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{739770EA-D55F-46BE-B5F6-2A75DCA954B0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13656,7 +13690,7 @@
               <xdr:cNvPr id="182" name="直線コネクタ 181">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4BB4AB-9AB0-4F7C-B76E-AB0054B6952A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D4BB4AB-9AB0-4F7C-B76E-AB0054B6952A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13691,7 +13725,7 @@
               <xdr:cNvPr id="183" name="直線コネクタ 182">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666C5EBB-E969-4B43-A479-FEDA56E32F94}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666C5EBB-E969-4B43-A479-FEDA56E32F94}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13726,7 +13760,7 @@
               <xdr:cNvPr id="184" name="直線コネクタ 183">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE1E179-B77F-4A91-A477-E5FA133B505B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEE1E179-B77F-4A91-A477-E5FA133B505B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13762,7 +13796,7 @@
             <xdr:cNvPr id="161" name="グループ化 160">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CD43C4-A449-4F8C-880A-ECE89573ECB1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5CD43C4-A449-4F8C-880A-ECE89573ECB1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13781,7 +13815,7 @@
               <xdr:cNvPr id="177" name="直線コネクタ 176">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89EF4D39-D3AF-4DCE-9053-F2ABF4CCBAFF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89EF4D39-D3AF-4DCE-9053-F2ABF4CCBAFF}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13816,7 +13850,7 @@
               <xdr:cNvPr id="178" name="直線コネクタ 177">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E8178D-4A3C-44A1-89E7-B60D059E3E8B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32E8178D-4A3C-44A1-89E7-B60D059E3E8B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13851,7 +13885,7 @@
               <xdr:cNvPr id="179" name="直線コネクタ 178">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2EC39E-D00C-4E65-A8B7-7D14F9BF7204}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE2EC39E-D00C-4E65-A8B7-7D14F9BF7204}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13886,7 +13920,7 @@
               <xdr:cNvPr id="180" name="直線コネクタ 179">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5337DB56-B1E7-4530-85B0-8D31D3B8F61D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5337DB56-B1E7-4530-85B0-8D31D3B8F61D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13922,7 +13956,7 @@
             <xdr:cNvPr id="162" name="グループ化 161">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F4E482-58C7-46FA-A726-7859A3755BBE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8F4E482-58C7-46FA-A726-7859A3755BBE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13941,7 +13975,7 @@
               <xdr:cNvPr id="173" name="直線コネクタ 172">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A16FB8-EDC9-439F-9ECB-1CF94E6EE131}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68A16FB8-EDC9-439F-9ECB-1CF94E6EE131}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13976,7 +14010,7 @@
               <xdr:cNvPr id="174" name="直線コネクタ 173">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198D31FF-3859-4AFC-84D7-BE3BEA793321}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{198D31FF-3859-4AFC-84D7-BE3BEA793321}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14011,7 +14045,7 @@
               <xdr:cNvPr id="175" name="直線コネクタ 174">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14FC4BE-82E1-422E-88DA-092FEFAEA8D1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F14FC4BE-82E1-422E-88DA-092FEFAEA8D1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14046,7 +14080,7 @@
               <xdr:cNvPr id="176" name="直線コネクタ 175">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB413473-58E1-40B8-8A91-04F4DBB1D795}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB413473-58E1-40B8-8A91-04F4DBB1D795}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14082,7 +14116,7 @@
             <xdr:cNvPr id="163" name="グループ化 162">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69003700-FB4A-4758-91A7-9B4FA95103DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69003700-FB4A-4758-91A7-9B4FA95103DE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14101,7 +14135,7 @@
               <xdr:cNvPr id="169" name="直線コネクタ 168">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A80CC11-30DC-45EF-B5B1-81A3E9BE5313}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A80CC11-30DC-45EF-B5B1-81A3E9BE5313}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14136,7 +14170,7 @@
               <xdr:cNvPr id="170" name="直線コネクタ 169">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C7FBB55-6BF1-4F66-9C33-3F31F922AEEC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C7FBB55-6BF1-4F66-9C33-3F31F922AEEC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14171,7 +14205,7 @@
               <xdr:cNvPr id="171" name="直線コネクタ 170">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75778D6D-D9F3-4F4A-8860-F7D00A886C71}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75778D6D-D9F3-4F4A-8860-F7D00A886C71}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14206,7 +14240,7 @@
               <xdr:cNvPr id="172" name="直線コネクタ 171">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DDCBA4-ACFB-415C-BB58-BFFFCF0842EE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43DDCBA4-ACFB-415C-BB58-BFFFCF0842EE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14242,7 +14276,7 @@
             <xdr:cNvPr id="164" name="グループ化 163">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F015DE-B4D9-4AF6-92B7-ED3178CC2FBE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7F015DE-B4D9-4AF6-92B7-ED3178CC2FBE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14261,7 +14295,7 @@
               <xdr:cNvPr id="165" name="直線コネクタ 164">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AF086B-EE9E-44CC-9092-5A40BEF09878}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2AF086B-EE9E-44CC-9092-5A40BEF09878}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14296,7 +14330,7 @@
               <xdr:cNvPr id="166" name="直線コネクタ 165">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0929C412-67B6-48F4-AED3-20E5D80E493A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0929C412-67B6-48F4-AED3-20E5D80E493A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14331,7 +14365,7 @@
               <xdr:cNvPr id="167" name="直線コネクタ 166">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF041673-0717-4591-B0C3-E761AEC76784}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF041673-0717-4591-B0C3-E761AEC76784}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14366,7 +14400,7 @@
               <xdr:cNvPr id="168" name="直線コネクタ 167">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C614873-CA5A-42E4-9EB6-4062F21C4E45}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C614873-CA5A-42E4-9EB6-4062F21C4E45}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14403,7 +14437,7 @@
           <xdr:cNvPr id="189" name="グループ化 188">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCD2575-E25D-4A7A-9091-3610C642B8C0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CCD2575-E25D-4A7A-9091-3610C642B8C0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14422,7 +14456,7 @@
             <xdr:cNvPr id="190" name="グループ化 189">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BEBDA1-AFEE-4672-9272-680CE4C55D7F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28BEBDA1-AFEE-4672-9272-680CE4C55D7F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14441,7 +14475,7 @@
               <xdr:cNvPr id="216" name="直線コネクタ 215">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CB082A-C5D3-486A-BB4E-2068560AEC33}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4CB082A-C5D3-486A-BB4E-2068560AEC33}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14476,7 +14510,7 @@
               <xdr:cNvPr id="217" name="直線コネクタ 216">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423B5B75-7112-49F9-B12E-FE6D0BE7509E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{423B5B75-7112-49F9-B12E-FE6D0BE7509E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14511,7 +14545,7 @@
               <xdr:cNvPr id="218" name="直線コネクタ 217">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E652D1-7A65-46F7-AD83-C61B3EE72E8D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E652D1-7A65-46F7-AD83-C61B3EE72E8D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14546,7 +14580,7 @@
               <xdr:cNvPr id="219" name="直線コネクタ 218">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24A419-D96C-45EB-87F6-4A82AF5B4FB6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B24A419-D96C-45EB-87F6-4A82AF5B4FB6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14582,7 +14616,7 @@
             <xdr:cNvPr id="191" name="グループ化 190">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D917C2-1EC0-4643-BCB8-ED68D725B06B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33D917C2-1EC0-4643-BCB8-ED68D725B06B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14601,7 +14635,7 @@
               <xdr:cNvPr id="212" name="直線コネクタ 211">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288EABE1-A396-421F-A931-B5D9C9C7C0E6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{288EABE1-A396-421F-A931-B5D9C9C7C0E6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14636,7 +14670,7 @@
               <xdr:cNvPr id="213" name="直線コネクタ 212">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923A16D3-52CF-49AA-9ED0-62CD576919F1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{923A16D3-52CF-49AA-9ED0-62CD576919F1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14671,7 +14705,7 @@
               <xdr:cNvPr id="214" name="直線コネクタ 213">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524435DA-66B7-449F-B1F5-8C2F2E0D1492}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{524435DA-66B7-449F-B1F5-8C2F2E0D1492}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14706,7 +14740,7 @@
               <xdr:cNvPr id="215" name="直線コネクタ 214">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA7384B-4B43-428D-9AEB-1D5FDEA6E4C1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDA7384B-4B43-428D-9AEB-1D5FDEA6E4C1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14742,7 +14776,7 @@
             <xdr:cNvPr id="192" name="グループ化 191">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FFAD3C-5FF3-4803-A4ED-CB8881E7B6C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29FFAD3C-5FF3-4803-A4ED-CB8881E7B6C9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14761,7 +14795,7 @@
               <xdr:cNvPr id="208" name="直線コネクタ 207">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70F75AD-CCA0-4AED-8963-3D7B78DD2CD6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C70F75AD-CCA0-4AED-8963-3D7B78DD2CD6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14796,7 +14830,7 @@
               <xdr:cNvPr id="209" name="直線コネクタ 208">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE1B69B-FFEE-47D6-B566-C202465D3855}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBE1B69B-FFEE-47D6-B566-C202465D3855}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14831,7 +14865,7 @@
               <xdr:cNvPr id="210" name="直線コネクタ 209">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C2209F-677E-431B-8689-FD1ECF449196}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81C2209F-677E-431B-8689-FD1ECF449196}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14866,7 +14900,7 @@
               <xdr:cNvPr id="211" name="直線コネクタ 210">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA41418-AEC9-4862-A073-E2B0E9B8FE8F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CA41418-AEC9-4862-A073-E2B0E9B8FE8F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14902,7 +14936,7 @@
             <xdr:cNvPr id="193" name="グループ化 192">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24583D4-5ECB-4E58-B863-A22E1CDF6421}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A24583D4-5ECB-4E58-B863-A22E1CDF6421}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14921,7 +14955,7 @@
               <xdr:cNvPr id="204" name="直線コネクタ 203">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C35D9F0-6DCD-486C-BB5F-6E5B3FFF4FF7}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C35D9F0-6DCD-486C-BB5F-6E5B3FFF4FF7}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14956,7 +14990,7 @@
               <xdr:cNvPr id="205" name="直線コネクタ 204">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D8EC50-9A7F-4D3E-8347-02B880B7C775}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85D8EC50-9A7F-4D3E-8347-02B880B7C775}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14991,7 +15025,7 @@
               <xdr:cNvPr id="206" name="直線コネクタ 205">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C10517-08D0-4CC6-A7FF-B3DCC13416EA}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9C10517-08D0-4CC6-A7FF-B3DCC13416EA}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15026,7 +15060,7 @@
               <xdr:cNvPr id="207" name="直線コネクタ 206">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97E005F-E746-47E9-B75F-29E62B83358D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A97E005F-E746-47E9-B75F-29E62B83358D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15062,7 +15096,7 @@
             <xdr:cNvPr id="194" name="グループ化 193">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9EE71E-2740-442C-8504-45BCE23A0572}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D9EE71E-2740-442C-8504-45BCE23A0572}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15081,7 +15115,7 @@
               <xdr:cNvPr id="200" name="直線コネクタ 199">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D45875-64C8-48B4-AA29-4A24ACA4EBFC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37D45875-64C8-48B4-AA29-4A24ACA4EBFC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15116,7 +15150,7 @@
               <xdr:cNvPr id="201" name="直線コネクタ 200">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FE6FBC-5558-4E07-A925-AFF9FE0EF62A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71FE6FBC-5558-4E07-A925-AFF9FE0EF62A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15151,7 +15185,7 @@
               <xdr:cNvPr id="202" name="直線コネクタ 201">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23B9A3B-F75A-4096-8281-91B291E49929}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B23B9A3B-F75A-4096-8281-91B291E49929}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15186,7 +15220,7 @@
               <xdr:cNvPr id="203" name="直線コネクタ 202">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606D392F-48C7-4F7D-988A-02A9BB68BA67}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{606D392F-48C7-4F7D-988A-02A9BB68BA67}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15222,7 +15256,7 @@
             <xdr:cNvPr id="195" name="グループ化 194">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA47C6A9-92E4-46F4-B6DE-235665F670D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA47C6A9-92E4-46F4-B6DE-235665F670D2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15241,7 +15275,7 @@
               <xdr:cNvPr id="196" name="直線コネクタ 195">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229CE73A-EE4F-4F6B-AA49-26E1358F6D17}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{229CE73A-EE4F-4F6B-AA49-26E1358F6D17}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15276,7 +15310,7 @@
               <xdr:cNvPr id="197" name="直線コネクタ 196">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01C38AD-B742-4B36-8391-7D653CF6FFBE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A01C38AD-B742-4B36-8391-7D653CF6FFBE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15311,7 +15345,7 @@
               <xdr:cNvPr id="198" name="直線コネクタ 197">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518251A7-DB89-46A0-ACF8-310B4171832D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{518251A7-DB89-46A0-ACF8-310B4171832D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15346,7 +15380,7 @@
               <xdr:cNvPr id="199" name="直線コネクタ 198">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F5D315-90EA-4E3F-BC03-41018B642FF1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80F5D315-90EA-4E3F-BC03-41018B642FF1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15383,7 +15417,7 @@
           <xdr:cNvPr id="220" name="グループ化 219">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D78CC64-819B-4FAD-96C8-B0084AC2A4FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D78CC64-819B-4FAD-96C8-B0084AC2A4FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15402,7 +15436,7 @@
             <xdr:cNvPr id="221" name="グループ化 220">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298B083A-696A-435D-8086-7C60081D9C09}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{298B083A-696A-435D-8086-7C60081D9C09}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15421,7 +15455,7 @@
               <xdr:cNvPr id="247" name="直線コネクタ 246">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BD5499-BEE1-4C3B-89C9-9EDF84F0FF6B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7BD5499-BEE1-4C3B-89C9-9EDF84F0FF6B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15456,7 +15490,7 @@
               <xdr:cNvPr id="248" name="直線コネクタ 247">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D22F12-DAE6-4699-B409-041B10E1B1AC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85D22F12-DAE6-4699-B409-041B10E1B1AC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15491,7 +15525,7 @@
               <xdr:cNvPr id="249" name="直線コネクタ 248">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D014AA12-011E-49BD-940E-44492C84A040}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D014AA12-011E-49BD-940E-44492C84A040}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15526,7 +15560,7 @@
               <xdr:cNvPr id="250" name="直線コネクタ 249">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30453781-3147-4171-8392-9C8199DFA49B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30453781-3147-4171-8392-9C8199DFA49B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15562,7 +15596,7 @@
             <xdr:cNvPr id="222" name="グループ化 221">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDE3BEB-EA6B-4ADD-9583-08F83FB8739F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DDE3BEB-EA6B-4ADD-9583-08F83FB8739F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15581,7 +15615,7 @@
               <xdr:cNvPr id="243" name="直線コネクタ 242">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B689AB-4BEF-4B7C-A57F-9C2A6E4D755F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18B689AB-4BEF-4B7C-A57F-9C2A6E4D755F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15616,7 +15650,7 @@
               <xdr:cNvPr id="244" name="直線コネクタ 243">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00E1E07-9C54-49B8-A2E8-00871A7F1AFE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D00E1E07-9C54-49B8-A2E8-00871A7F1AFE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15651,7 +15685,7 @@
               <xdr:cNvPr id="245" name="直線コネクタ 244">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF426B77-1869-4851-B336-7F8F6D784184}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF426B77-1869-4851-B336-7F8F6D784184}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15686,7 +15720,7 @@
               <xdr:cNvPr id="246" name="直線コネクタ 245">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B547650-2F94-4D6D-B9A1-910A9F0A91A6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B547650-2F94-4D6D-B9A1-910A9F0A91A6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15722,7 +15756,7 @@
             <xdr:cNvPr id="223" name="グループ化 222">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEEB69E-5602-4358-A17F-1D07B6EA217D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BEEB69E-5602-4358-A17F-1D07B6EA217D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15741,7 +15775,7 @@
               <xdr:cNvPr id="239" name="直線コネクタ 238">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA3C9D9-E7C8-41B2-B778-BAB43AFD9910}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCA3C9D9-E7C8-41B2-B778-BAB43AFD9910}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15776,7 +15810,7 @@
               <xdr:cNvPr id="240" name="直線コネクタ 239">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C747765-7994-41B8-A60A-A9E47A5E35F5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C747765-7994-41B8-A60A-A9E47A5E35F5}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15811,7 +15845,7 @@
               <xdr:cNvPr id="241" name="直線コネクタ 240">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5602C4AD-97A7-4155-BB9C-03CDBB288E56}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5602C4AD-97A7-4155-BB9C-03CDBB288E56}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15846,7 +15880,7 @@
               <xdr:cNvPr id="242" name="直線コネクタ 241">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D7494B-A10E-4B1F-AF0D-DDFE9A7433A8}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D7494B-A10E-4B1F-AF0D-DDFE9A7433A8}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15882,7 +15916,7 @@
             <xdr:cNvPr id="224" name="グループ化 223">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93F454E-5B19-4B88-9D59-FC985834A229}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B93F454E-5B19-4B88-9D59-FC985834A229}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15901,7 +15935,7 @@
               <xdr:cNvPr id="235" name="直線コネクタ 234">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0408E5-CF4B-4004-BCED-9C7454CAC22E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C0408E5-CF4B-4004-BCED-9C7454CAC22E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15936,7 +15970,7 @@
               <xdr:cNvPr id="236" name="直線コネクタ 235">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744F4EAC-1EED-4D8D-A95C-B2FBD6A5B150}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{744F4EAC-1EED-4D8D-A95C-B2FBD6A5B150}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15971,7 +16005,7 @@
               <xdr:cNvPr id="237" name="直線コネクタ 236">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D235E716-0D5E-4922-B78F-CD48079258AA}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D235E716-0D5E-4922-B78F-CD48079258AA}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16006,7 +16040,7 @@
               <xdr:cNvPr id="238" name="直線コネクタ 237">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3059C97-974C-444E-9E4A-D7DAE1DFA530}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3059C97-974C-444E-9E4A-D7DAE1DFA530}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16042,7 +16076,7 @@
             <xdr:cNvPr id="225" name="グループ化 224">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10DD4D0-DE5C-45B3-8245-7676200D83CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F10DD4D0-DE5C-45B3-8245-7676200D83CC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16061,7 +16095,7 @@
               <xdr:cNvPr id="231" name="直線コネクタ 230">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B6D728-1ACE-4D56-9AB3-FD15E646C6C3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35B6D728-1ACE-4D56-9AB3-FD15E646C6C3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16096,7 +16130,7 @@
               <xdr:cNvPr id="232" name="直線コネクタ 231">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934D84CA-942A-4905-9BE2-625B21566103}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{934D84CA-942A-4905-9BE2-625B21566103}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16131,7 +16165,7 @@
               <xdr:cNvPr id="233" name="直線コネクタ 232">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3078D2D-DB07-4715-8A4C-DE66A5FD7193}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3078D2D-DB07-4715-8A4C-DE66A5FD7193}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16166,7 +16200,7 @@
               <xdr:cNvPr id="234" name="直線コネクタ 233">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D75FA0-C689-4520-BD64-060FF7C3622B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87D75FA0-C689-4520-BD64-060FF7C3622B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16202,7 +16236,7 @@
             <xdr:cNvPr id="226" name="グループ化 225">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609DA929-22E4-405F-9F12-DE91D2855A51}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{609DA929-22E4-405F-9F12-DE91D2855A51}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16221,7 +16255,7 @@
               <xdr:cNvPr id="227" name="直線コネクタ 226">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE895E92-32E1-4D7A-A146-12802DA92D0E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE895E92-32E1-4D7A-A146-12802DA92D0E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16256,7 +16290,7 @@
               <xdr:cNvPr id="228" name="直線コネクタ 227">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57AA41D5-AFDD-4FF8-ADD5-FDC231162B51}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57AA41D5-AFDD-4FF8-ADD5-FDC231162B51}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16291,7 +16325,7 @@
               <xdr:cNvPr id="229" name="直線コネクタ 228">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278E60DE-FB73-408F-8DC3-3A1EEB23DA95}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{278E60DE-FB73-408F-8DC3-3A1EEB23DA95}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16326,7 +16360,7 @@
               <xdr:cNvPr id="230" name="直線コネクタ 229">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC1947A-F0ED-4006-9B65-564A05DA2631}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FC1947A-F0ED-4006-9B65-564A05DA2631}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16379,7 +16413,7 @@
         <xdr:cNvPr id="25" name="グループ化 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCAF6AB-0C6F-43B0-B4E7-841D9532EB0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FCAF6AB-0C6F-43B0-B4E7-841D9532EB0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16387,8 +16421,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2668797" y="9390212"/>
-          <a:ext cx="6820040" cy="341463"/>
+          <a:off x="2273420" y="10378656"/>
+          <a:ext cx="5813625" cy="377405"/>
           <a:chOff x="2619375" y="9276953"/>
           <a:chExt cx="9525000" cy="337344"/>
         </a:xfrm>
@@ -16398,7 +16432,7 @@
           <xdr:cNvPr id="86" name="グループ化 85">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0A97A8-64C7-461F-B379-64564F3288FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F0A97A8-64C7-461F-B379-64564F3288FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16417,7 +16451,7 @@
             <xdr:cNvPr id="87" name="直線コネクタ 86">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0010B58B-3EA1-4262-A8F5-DEEC7628DEA4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0010B58B-3EA1-4262-A8F5-DEEC7628DEA4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16452,7 +16486,7 @@
             <xdr:cNvPr id="88" name="直線コネクタ 87">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19AFAF3D-E354-432B-BA7F-50BA0D579DB9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19AFAF3D-E354-432B-BA7F-50BA0D579DB9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16487,7 +16521,7 @@
             <xdr:cNvPr id="89" name="直線コネクタ 88">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5659F4C8-EB3D-47ED-A4D4-7466A1EC5302}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5659F4C8-EB3D-47ED-A4D4-7466A1EC5302}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16522,7 +16556,7 @@
             <xdr:cNvPr id="90" name="直線コネクタ 89">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B04CA25-D23E-4357-8037-E7590650C54F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B04CA25-D23E-4357-8037-E7590650C54F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16558,7 +16592,7 @@
           <xdr:cNvPr id="251" name="グループ化 250">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6B19E51-27D3-4EF5-A8BB-8130D1D80190}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6B19E51-27D3-4EF5-A8BB-8130D1D80190}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16577,7 +16611,7 @@
             <xdr:cNvPr id="252" name="直線コネクタ 251">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE55CCF-DF8C-4ED0-8982-5EC7D5A076BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCE55CCF-DF8C-4ED0-8982-5EC7D5A076BC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16612,7 +16646,7 @@
             <xdr:cNvPr id="253" name="直線コネクタ 252">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048FEAA7-B169-41C1-8C27-8E15063F5AE9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{048FEAA7-B169-41C1-8C27-8E15063F5AE9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16647,7 +16681,7 @@
             <xdr:cNvPr id="254" name="直線コネクタ 253">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0DE3848-0632-4E34-8E87-025E4E06CF6B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0DE3848-0632-4E34-8E87-025E4E06CF6B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16682,7 +16716,7 @@
             <xdr:cNvPr id="255" name="直線コネクタ 254">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98B01A7-100A-4F92-B906-51BBDD23B4DD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C98B01A7-100A-4F92-B906-51BBDD23B4DD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16718,7 +16752,7 @@
           <xdr:cNvPr id="256" name="グループ化 255">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEAA39F8-A448-45FF-B7C3-4C00F4F03F22}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEAA39F8-A448-45FF-B7C3-4C00F4F03F22}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16737,7 +16771,7 @@
             <xdr:cNvPr id="257" name="直線コネクタ 256">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFD69A2-200B-42A6-A8BE-7BCD629860BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EFD69A2-200B-42A6-A8BE-7BCD629860BE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16772,7 +16806,7 @@
             <xdr:cNvPr id="258" name="直線コネクタ 257">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A327C6F2-C13C-4C73-A2C9-41FBF32A0226}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A327C6F2-C13C-4C73-A2C9-41FBF32A0226}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16807,7 +16841,7 @@
             <xdr:cNvPr id="259" name="直線コネクタ 258">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92016E5E-9B47-41F2-8EF4-61BB5F722401}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92016E5E-9B47-41F2-8EF4-61BB5F722401}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16842,7 +16876,7 @@
             <xdr:cNvPr id="260" name="直線コネクタ 259">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D4D193-90A9-45B3-9296-6C74B512DA87}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9D4D193-90A9-45B3-9296-6C74B512DA87}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16878,7 +16912,7 @@
           <xdr:cNvPr id="261" name="グループ化 260">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF10951-59BA-4C51-8C89-E3754FB61D17}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EF10951-59BA-4C51-8C89-E3754FB61D17}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16897,7 +16931,7 @@
             <xdr:cNvPr id="262" name="直線コネクタ 261">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CA756C-EBAC-45C7-9D08-D3AE2B740A72}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07CA756C-EBAC-45C7-9D08-D3AE2B740A72}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16932,7 +16966,7 @@
             <xdr:cNvPr id="263" name="直線コネクタ 262">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D591C9-90F1-4E05-98DD-1FB9A479E466}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7D591C9-90F1-4E05-98DD-1FB9A479E466}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16967,7 +17001,7 @@
             <xdr:cNvPr id="264" name="直線コネクタ 263">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604D0988-97BC-4B5C-983A-934F5D32D662}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{604D0988-97BC-4B5C-983A-934F5D32D662}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17002,7 +17036,7 @@
             <xdr:cNvPr id="265" name="直線コネクタ 264">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171D1AE1-9445-4224-A400-D21952B231CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{171D1AE1-9445-4224-A400-D21952B231CC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17054,7 +17088,7 @@
         <xdr:cNvPr id="266" name="グループ化 265">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB5B9A8-6AFD-47E3-91AC-8B4428724568}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DB5B9A8-6AFD-47E3-91AC-8B4428724568}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17062,8 +17096,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7009932" y="8365825"/>
-          <a:ext cx="4347280" cy="341463"/>
+          <a:off x="5993992" y="9246439"/>
+          <a:ext cx="3709823" cy="377405"/>
           <a:chOff x="2619375" y="8264922"/>
           <a:chExt cx="7143750" cy="337344"/>
         </a:xfrm>
@@ -17073,7 +17107,7 @@
           <xdr:cNvPr id="267" name="グループ化 266">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B824E33-13D3-4020-8ECF-A21FCFF7B01B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B824E33-13D3-4020-8ECF-A21FCFF7B01B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17092,7 +17126,7 @@
             <xdr:cNvPr id="423" name="グループ化 422">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2801765-EF05-45DD-B15A-7D19418A2D61}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2801765-EF05-45DD-B15A-7D19418A2D61}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17111,7 +17145,7 @@
               <xdr:cNvPr id="449" name="直線コネクタ 448">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C3768E-8EDB-4A02-B9AD-23B38C20F054}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86C3768E-8EDB-4A02-B9AD-23B38C20F054}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17146,7 +17180,7 @@
               <xdr:cNvPr id="450" name="直線コネクタ 449">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA15527-9817-43EB-BFB3-9ACBC85CFF78}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DA15527-9817-43EB-BFB3-9ACBC85CFF78}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17181,7 +17215,7 @@
               <xdr:cNvPr id="451" name="直線コネクタ 450">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6B0604-7174-4456-97FF-3C52997798E9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF6B0604-7174-4456-97FF-3C52997798E9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17216,7 +17250,7 @@
               <xdr:cNvPr id="452" name="直線コネクタ 451">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BEB159-2F9A-42DB-A2CF-692DCE2D105E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2BEB159-2F9A-42DB-A2CF-692DCE2D105E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17252,7 +17286,7 @@
             <xdr:cNvPr id="424" name="グループ化 423">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF6863E-F3B1-4E94-B68B-1B58C59A53C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCF6863E-F3B1-4E94-B68B-1B58C59A53C3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17271,7 +17305,7 @@
               <xdr:cNvPr id="445" name="直線コネクタ 444">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F44F11-4969-46A3-8D25-546474DA9D86}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93F44F11-4969-46A3-8D25-546474DA9D86}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17306,7 +17340,7 @@
               <xdr:cNvPr id="446" name="直線コネクタ 445">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3982A0-4AC8-455D-A92C-6E2A23F38708}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E3982A0-4AC8-455D-A92C-6E2A23F38708}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17341,7 +17375,7 @@
               <xdr:cNvPr id="447" name="直線コネクタ 446">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1773E0-DEC0-4C3A-95EF-A9A35BB4492F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1773E0-DEC0-4C3A-95EF-A9A35BB4492F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17376,7 +17410,7 @@
               <xdr:cNvPr id="448" name="直線コネクタ 447">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C47C36-3E93-4704-BC9B-35ECEC4EBB94}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8C47C36-3E93-4704-BC9B-35ECEC4EBB94}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17412,7 +17446,7 @@
             <xdr:cNvPr id="425" name="グループ化 424">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26865B33-AE4A-43D9-98F4-4D296A14EE59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26865B33-AE4A-43D9-98F4-4D296A14EE59}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17431,7 +17465,7 @@
               <xdr:cNvPr id="441" name="直線コネクタ 440">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB450EF-E095-4BB1-B714-B7252533D585}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FB450EF-E095-4BB1-B714-B7252533D585}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17466,7 +17500,7 @@
               <xdr:cNvPr id="442" name="直線コネクタ 441">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C57097-86B5-4D57-8CDA-FFD49F379088}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36C57097-86B5-4D57-8CDA-FFD49F379088}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17501,7 +17535,7 @@
               <xdr:cNvPr id="443" name="直線コネクタ 442">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0890BCFA-62A6-4FC4-9B39-FE993DBF9DB5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0890BCFA-62A6-4FC4-9B39-FE993DBF9DB5}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17536,7 +17570,7 @@
               <xdr:cNvPr id="444" name="直線コネクタ 443">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AAE69E-1E52-42ED-8742-0AA470C2CFB9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59AAE69E-1E52-42ED-8742-0AA470C2CFB9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17572,7 +17606,7 @@
             <xdr:cNvPr id="426" name="グループ化 425">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913AC43C-F710-440B-8FAD-2FC4041D6E97}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{913AC43C-F710-440B-8FAD-2FC4041D6E97}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17591,7 +17625,7 @@
               <xdr:cNvPr id="437" name="直線コネクタ 436">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03477D09-B8E6-4CCF-8E50-06D069458856}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03477D09-B8E6-4CCF-8E50-06D069458856}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17626,7 +17660,7 @@
               <xdr:cNvPr id="438" name="直線コネクタ 437">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223FF221-2980-4CAF-9202-CF255D4FC0C3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{223FF221-2980-4CAF-9202-CF255D4FC0C3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17661,7 +17695,7 @@
               <xdr:cNvPr id="439" name="直線コネクタ 438">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066BA3B9-2F30-4416-A4FB-DAEB555FAA93}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{066BA3B9-2F30-4416-A4FB-DAEB555FAA93}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17696,7 +17730,7 @@
               <xdr:cNvPr id="440" name="直線コネクタ 439">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E16B00-93AA-4C28-977B-1B44B3C899C4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5E16B00-93AA-4C28-977B-1B44B3C899C4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17732,7 +17766,7 @@
             <xdr:cNvPr id="427" name="グループ化 426">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28EF9C4-A9B3-45FA-ADB7-0B55EB324C62}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B28EF9C4-A9B3-45FA-ADB7-0B55EB324C62}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17751,7 +17785,7 @@
               <xdr:cNvPr id="433" name="直線コネクタ 432">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A55F031-8DFD-4C74-ACA0-800755999B97}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A55F031-8DFD-4C74-ACA0-800755999B97}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17786,7 +17820,7 @@
               <xdr:cNvPr id="434" name="直線コネクタ 433">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFA7A02-F62C-46DF-814E-69F1079F56F0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BFA7A02-F62C-46DF-814E-69F1079F56F0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17821,7 +17855,7 @@
               <xdr:cNvPr id="435" name="直線コネクタ 434">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3A7714-F2AE-4C62-9D5C-EDF227C5680A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD3A7714-F2AE-4C62-9D5C-EDF227C5680A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17856,7 +17890,7 @@
               <xdr:cNvPr id="436" name="直線コネクタ 435">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C4C33F-C50C-4D16-9CED-ECF8C444535C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28C4C33F-C50C-4D16-9CED-ECF8C444535C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17892,7 +17926,7 @@
             <xdr:cNvPr id="428" name="グループ化 427">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E482784-C9BA-4C9F-B25B-1D931746DD59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E482784-C9BA-4C9F-B25B-1D931746DD59}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17911,7 +17945,7 @@
               <xdr:cNvPr id="429" name="直線コネクタ 428">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764C005B-714E-44D7-B8F3-9BD555E89C57}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{764C005B-714E-44D7-B8F3-9BD555E89C57}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17946,7 +17980,7 @@
               <xdr:cNvPr id="430" name="直線コネクタ 429">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA49DE9F-92D7-4820-8B52-EE9016711FA4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA49DE9F-92D7-4820-8B52-EE9016711FA4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17981,7 +18015,7 @@
               <xdr:cNvPr id="431" name="直線コネクタ 430">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D58E9F-367B-4194-A384-ACD992BF617E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87D58E9F-367B-4194-A384-ACD992BF617E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18016,7 +18050,7 @@
               <xdr:cNvPr id="432" name="直線コネクタ 431">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697BF8C1-68E2-4407-871E-E3E3DCE9D66E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{697BF8C1-68E2-4407-871E-E3E3DCE9D66E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18053,7 +18087,7 @@
           <xdr:cNvPr id="268" name="グループ化 267">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98326526-EB16-431B-A867-38C9A2464E8E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98326526-EB16-431B-A867-38C9A2464E8E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18072,7 +18106,7 @@
             <xdr:cNvPr id="393" name="グループ化 392">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E09DF1A-E847-4080-A452-7268BF6F5DAA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E09DF1A-E847-4080-A452-7268BF6F5DAA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18091,7 +18125,7 @@
               <xdr:cNvPr id="419" name="直線コネクタ 418">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484D8F62-F7EE-44DD-834F-E6A85A8BEF1C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{484D8F62-F7EE-44DD-834F-E6A85A8BEF1C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18126,7 +18160,7 @@
               <xdr:cNvPr id="420" name="直線コネクタ 419">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B930916-F395-4CA1-9FBF-1B8F6A91FF4F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B930916-F395-4CA1-9FBF-1B8F6A91FF4F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18161,7 +18195,7 @@
               <xdr:cNvPr id="421" name="直線コネクタ 420">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9508B6D3-0DD7-4188-B9FD-8B8F96991C79}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9508B6D3-0DD7-4188-B9FD-8B8F96991C79}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18196,7 +18230,7 @@
               <xdr:cNvPr id="422" name="直線コネクタ 421">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86776682-E773-4976-9CD0-511999A9FF70}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86776682-E773-4976-9CD0-511999A9FF70}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18232,7 +18266,7 @@
             <xdr:cNvPr id="394" name="グループ化 393">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4606F6F1-B399-4753-A5FB-91F44E98861F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4606F6F1-B399-4753-A5FB-91F44E98861F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18251,7 +18285,7 @@
               <xdr:cNvPr id="415" name="直線コネクタ 414">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D246F675-839E-4093-B542-E2A91A33674C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D246F675-839E-4093-B542-E2A91A33674C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18286,7 +18320,7 @@
               <xdr:cNvPr id="416" name="直線コネクタ 415">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183A08AB-5162-4833-926E-6B86EE2EC6C6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{183A08AB-5162-4833-926E-6B86EE2EC6C6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18321,7 +18355,7 @@
               <xdr:cNvPr id="417" name="直線コネクタ 416">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35857D29-DC29-4C40-A36C-AFD8204AD849}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35857D29-DC29-4C40-A36C-AFD8204AD849}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18356,7 +18390,7 @@
               <xdr:cNvPr id="418" name="直線コネクタ 417">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C0B48D1-322B-4959-83F9-6A8C3D77D775}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C0B48D1-322B-4959-83F9-6A8C3D77D775}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18392,7 +18426,7 @@
             <xdr:cNvPr id="395" name="グループ化 394">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3993289B-7362-4966-A113-1426EBB62DFC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3993289B-7362-4966-A113-1426EBB62DFC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18411,7 +18445,7 @@
               <xdr:cNvPr id="411" name="直線コネクタ 410">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55153D3-3881-41E1-AACA-A8CFD73DB183}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A55153D3-3881-41E1-AACA-A8CFD73DB183}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18446,7 +18480,7 @@
               <xdr:cNvPr id="412" name="直線コネクタ 411">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD99556F-CD89-4E43-BD64-9F6D1FDBE144}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD99556F-CD89-4E43-BD64-9F6D1FDBE144}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18481,7 +18515,7 @@
               <xdr:cNvPr id="413" name="直線コネクタ 412">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB340C4-7BDE-431F-BFA5-1CC7A66C635E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCB340C4-7BDE-431F-BFA5-1CC7A66C635E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18516,7 +18550,7 @@
               <xdr:cNvPr id="414" name="直線コネクタ 413">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7321A89D-3F22-4748-AE1A-BBFA08E53A26}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7321A89D-3F22-4748-AE1A-BBFA08E53A26}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18552,7 +18586,7 @@
             <xdr:cNvPr id="396" name="グループ化 395">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DC1F3E-12DD-4E56-8ED6-DEDA706A5B4C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7DC1F3E-12DD-4E56-8ED6-DEDA706A5B4C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18571,7 +18605,7 @@
               <xdr:cNvPr id="407" name="直線コネクタ 406">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA8C3FC-10B2-4EC7-A41C-57BD00F3AC4F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECA8C3FC-10B2-4EC7-A41C-57BD00F3AC4F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18606,7 +18640,7 @@
               <xdr:cNvPr id="408" name="直線コネクタ 407">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8784B0-6C22-42DE-BF15-5D5BEE24CE55}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E8784B0-6C22-42DE-BF15-5D5BEE24CE55}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18641,7 +18675,7 @@
               <xdr:cNvPr id="409" name="直線コネクタ 408">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E62E724-4E03-4005-8509-B8476EB04210}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E62E724-4E03-4005-8509-B8476EB04210}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18676,7 +18710,7 @@
               <xdr:cNvPr id="410" name="直線コネクタ 409">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE22C7C0-4423-445E-8F03-3044DCED59E2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE22C7C0-4423-445E-8F03-3044DCED59E2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18712,7 +18746,7 @@
             <xdr:cNvPr id="397" name="グループ化 396">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A7738A-6064-4FAA-9026-652B54C4AF99}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91A7738A-6064-4FAA-9026-652B54C4AF99}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18731,7 +18765,7 @@
               <xdr:cNvPr id="403" name="直線コネクタ 402">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8300C73F-1546-4D17-91D6-A2DF8EC9C23C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8300C73F-1546-4D17-91D6-A2DF8EC9C23C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18766,7 +18800,7 @@
               <xdr:cNvPr id="404" name="直線コネクタ 403">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B9BEB1-2A7F-4369-8378-225460F87F67}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76B9BEB1-2A7F-4369-8378-225460F87F67}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18801,7 +18835,7 @@
               <xdr:cNvPr id="405" name="直線コネクタ 404">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41B3878-AC70-470A-91E3-486CDF1A1919}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F41B3878-AC70-470A-91E3-486CDF1A1919}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18836,7 +18870,7 @@
               <xdr:cNvPr id="406" name="直線コネクタ 405">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395E5CAE-7C8F-4EA4-83B3-E70CA523F541}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{395E5CAE-7C8F-4EA4-83B3-E70CA523F541}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18872,7 +18906,7 @@
             <xdr:cNvPr id="398" name="グループ化 397">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCD8AA7-CF01-4ED7-ABF8-38A310F1328E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CCD8AA7-CF01-4ED7-ABF8-38A310F1328E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18891,7 +18925,7 @@
               <xdr:cNvPr id="399" name="直線コネクタ 398">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A30F76E-6868-4C58-B636-5ED0682FFE01}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A30F76E-6868-4C58-B636-5ED0682FFE01}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18926,7 +18960,7 @@
               <xdr:cNvPr id="400" name="直線コネクタ 399">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9BEC4D-DBBE-43E3-9059-35A876515B35}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE9BEC4D-DBBE-43E3-9059-35A876515B35}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18961,7 +18995,7 @@
               <xdr:cNvPr id="401" name="直線コネクタ 400">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69EB657-8A94-433A-A021-9A1B9628E66E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C69EB657-8A94-433A-A021-9A1B9628E66E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18996,7 +19030,7 @@
               <xdr:cNvPr id="402" name="直線コネクタ 401">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C8032E-617F-4108-90A5-6019D1800A5F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7C8032E-617F-4108-90A5-6019D1800A5F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19033,7 +19067,7 @@
           <xdr:cNvPr id="269" name="グループ化 268">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63CBFA6E-4185-4426-B694-2752541EB7E4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63CBFA6E-4185-4426-B694-2752541EB7E4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19052,7 +19086,7 @@
             <xdr:cNvPr id="363" name="グループ化 362">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40803997-4D44-4C81-B5BB-1430A68921EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40803997-4D44-4C81-B5BB-1430A68921EA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19071,7 +19105,7 @@
               <xdr:cNvPr id="389" name="直線コネクタ 388">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86467069-FB4F-415B-8C89-16D4ED541DDD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86467069-FB4F-415B-8C89-16D4ED541DDD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19106,7 +19140,7 @@
               <xdr:cNvPr id="390" name="直線コネクタ 389">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A58FAC-0A33-48ED-AC74-53041A533712}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80A58FAC-0A33-48ED-AC74-53041A533712}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19141,7 +19175,7 @@
               <xdr:cNvPr id="391" name="直線コネクタ 390">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EA3555-C411-47AF-B9C1-3397E87CC03F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82EA3555-C411-47AF-B9C1-3397E87CC03F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19176,7 +19210,7 @@
               <xdr:cNvPr id="392" name="直線コネクタ 391">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459F5447-54C3-4536-800B-7095D715AE4B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{459F5447-54C3-4536-800B-7095D715AE4B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19212,7 +19246,7 @@
             <xdr:cNvPr id="364" name="グループ化 363">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277D466B-83BA-4C9F-A129-52AAB819B337}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{277D466B-83BA-4C9F-A129-52AAB819B337}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19231,7 +19265,7 @@
               <xdr:cNvPr id="385" name="直線コネクタ 384">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05BA3E6-BD34-4935-81C7-6B0C929287E3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C05BA3E6-BD34-4935-81C7-6B0C929287E3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19266,7 +19300,7 @@
               <xdr:cNvPr id="386" name="直線コネクタ 385">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D36D73-4273-41AD-99ED-865FB20421C3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2D36D73-4273-41AD-99ED-865FB20421C3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19301,7 +19335,7 @@
               <xdr:cNvPr id="387" name="直線コネクタ 386">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DE86AA-A23C-4308-8F2E-A93C4D028672}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20DE86AA-A23C-4308-8F2E-A93C4D028672}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19336,7 +19370,7 @@
               <xdr:cNvPr id="388" name="直線コネクタ 387">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E840A12-B7CA-42BB-A229-7FA3A2306E67}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E840A12-B7CA-42BB-A229-7FA3A2306E67}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19372,7 +19406,7 @@
             <xdr:cNvPr id="365" name="グループ化 364">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F11934-E246-4EC4-A1CD-FD606D391B0D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2F11934-E246-4EC4-A1CD-FD606D391B0D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19391,7 +19425,7 @@
               <xdr:cNvPr id="381" name="直線コネクタ 380">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC35422-447C-40CD-B02E-BFEA745941B3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AC35422-447C-40CD-B02E-BFEA745941B3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19426,7 +19460,7 @@
               <xdr:cNvPr id="382" name="直線コネクタ 381">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D626E5-8112-4969-87A8-9D47B96DA414}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7D626E5-8112-4969-87A8-9D47B96DA414}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19461,7 +19495,7 @@
               <xdr:cNvPr id="383" name="直線コネクタ 382">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E60063-2048-4665-9380-74AF051A3FF4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62E60063-2048-4665-9380-74AF051A3FF4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19496,7 +19530,7 @@
               <xdr:cNvPr id="384" name="直線コネクタ 383">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2135CB34-62BA-4691-8491-991320AAB4A5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2135CB34-62BA-4691-8491-991320AAB4A5}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19532,7 +19566,7 @@
             <xdr:cNvPr id="366" name="グループ化 365">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E7996C-0913-4E68-A60E-4870029B6239}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79E7996C-0913-4E68-A60E-4870029B6239}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19551,7 +19585,7 @@
               <xdr:cNvPr id="377" name="直線コネクタ 376">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8D8D1B-39E7-4929-9C93-AD31BDBF8A60}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E8D8D1B-39E7-4929-9C93-AD31BDBF8A60}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19586,7 +19620,7 @@
               <xdr:cNvPr id="378" name="直線コネクタ 377">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4628FD68-E948-4481-B2B2-AAA493DD4B4A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4628FD68-E948-4481-B2B2-AAA493DD4B4A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19621,7 +19655,7 @@
               <xdr:cNvPr id="379" name="直線コネクタ 378">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF98478-417B-4726-8E65-470731EBF261}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFF98478-417B-4726-8E65-470731EBF261}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19656,7 +19690,7 @@
               <xdr:cNvPr id="380" name="直線コネクタ 379">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0AAF53-6B4C-4346-A0A7-A2E10A8A80D4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D0AAF53-6B4C-4346-A0A7-A2E10A8A80D4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19692,7 +19726,7 @@
             <xdr:cNvPr id="367" name="グループ化 366">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885D0A64-7BA7-4C2E-979E-2340B769F591}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885D0A64-7BA7-4C2E-979E-2340B769F591}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19711,7 +19745,7 @@
               <xdr:cNvPr id="373" name="直線コネクタ 372">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66E44B2-6A96-4D4C-A7F2-FBDDEC74401D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D66E44B2-6A96-4D4C-A7F2-FBDDEC74401D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19746,7 +19780,7 @@
               <xdr:cNvPr id="374" name="直線コネクタ 373">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD20A88-24B5-46C3-A194-93B470FCB1B3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAD20A88-24B5-46C3-A194-93B470FCB1B3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19781,7 +19815,7 @@
               <xdr:cNvPr id="375" name="直線コネクタ 374">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB79AEA9-0487-4DE0-BF85-4B2F73D393FA}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB79AEA9-0487-4DE0-BF85-4B2F73D393FA}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19816,7 +19850,7 @@
               <xdr:cNvPr id="376" name="直線コネクタ 375">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF79763D-9127-4E4B-820F-74B22749E71D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF79763D-9127-4E4B-820F-74B22749E71D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19852,7 +19886,7 @@
             <xdr:cNvPr id="368" name="グループ化 367">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49F7870-30E6-4D4B-8806-A6C63D70D748}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49F7870-30E6-4D4B-8806-A6C63D70D748}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19871,7 +19905,7 @@
               <xdr:cNvPr id="369" name="直線コネクタ 368">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A0FE80-CCCF-4ED3-BE22-9A01972DAB41}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45A0FE80-CCCF-4ED3-BE22-9A01972DAB41}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19906,7 +19940,7 @@
               <xdr:cNvPr id="370" name="直線コネクタ 369">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FB5293-660A-4342-8DDE-26E23F756F5B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75FB5293-660A-4342-8DDE-26E23F756F5B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19941,7 +19975,7 @@
               <xdr:cNvPr id="371" name="直線コネクタ 370">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12064C8B-8449-4311-94A3-14A8F5797F43}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12064C8B-8449-4311-94A3-14A8F5797F43}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19976,7 +20010,7 @@
               <xdr:cNvPr id="372" name="直線コネクタ 371">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6324452C-FE7F-4F99-8BBE-80B48061A548}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6324452C-FE7F-4F99-8BBE-80B48061A548}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20013,7 +20047,7 @@
           <xdr:cNvPr id="270" name="グループ化 269">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0412BC8-4F46-43CB-9BF3-B3092094FF62}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0412BC8-4F46-43CB-9BF3-B3092094FF62}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20032,7 +20066,7 @@
             <xdr:cNvPr id="333" name="グループ化 332">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280D31C3-8E44-4C41-89A0-D1BF30204280}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{280D31C3-8E44-4C41-89A0-D1BF30204280}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20051,7 +20085,7 @@
               <xdr:cNvPr id="359" name="直線コネクタ 358">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DEF817-29A3-4740-B4B4-B5445AA0D356}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6DEF817-29A3-4740-B4B4-B5445AA0D356}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20086,7 +20120,7 @@
               <xdr:cNvPr id="360" name="直線コネクタ 359">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8260BA-5450-44F2-9216-8DCA4951F5F1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE8260BA-5450-44F2-9216-8DCA4951F5F1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20121,7 +20155,7 @@
               <xdr:cNvPr id="361" name="直線コネクタ 360">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946CDB84-7F8A-42AA-8CEB-8E6C0B62D1BD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{946CDB84-7F8A-42AA-8CEB-8E6C0B62D1BD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20156,7 +20190,7 @@
               <xdr:cNvPr id="362" name="直線コネクタ 361">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F685BDA-95E1-44A1-938E-8BC2FAB46C33}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F685BDA-95E1-44A1-938E-8BC2FAB46C33}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20192,7 +20226,7 @@
             <xdr:cNvPr id="334" name="グループ化 333">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6565C797-38ED-48E6-8855-4A88DFC08884}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6565C797-38ED-48E6-8855-4A88DFC08884}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20211,7 +20245,7 @@
               <xdr:cNvPr id="355" name="直線コネクタ 354">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BFA6FC-AA0C-49DF-950E-3401D2D18E92}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4BFA6FC-AA0C-49DF-950E-3401D2D18E92}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20246,7 +20280,7 @@
               <xdr:cNvPr id="356" name="直線コネクタ 355">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CD221D-3283-4297-855B-57955615CFAB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86CD221D-3283-4297-855B-57955615CFAB}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20281,7 +20315,7 @@
               <xdr:cNvPr id="357" name="直線コネクタ 356">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E50878B-142B-4EB7-A216-80A8F437B0DE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E50878B-142B-4EB7-A216-80A8F437B0DE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20316,7 +20350,7 @@
               <xdr:cNvPr id="358" name="直線コネクタ 357">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31445472-256A-4C4A-9062-0E87152CAF8E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31445472-256A-4C4A-9062-0E87152CAF8E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20352,7 +20386,7 @@
             <xdr:cNvPr id="335" name="グループ化 334">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C287897-4D0F-4689-B477-50B446F2196C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C287897-4D0F-4689-B477-50B446F2196C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20371,7 +20405,7 @@
               <xdr:cNvPr id="351" name="直線コネクタ 350">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E58C884-852A-4C45-A877-45FD344381C2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E58C884-852A-4C45-A877-45FD344381C2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20406,7 +20440,7 @@
               <xdr:cNvPr id="352" name="直線コネクタ 351">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CBF4E4-2BD3-4BFC-BFA9-3CFBDDBF9BD7}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94CBF4E4-2BD3-4BFC-BFA9-3CFBDDBF9BD7}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20441,7 +20475,7 @@
               <xdr:cNvPr id="353" name="直線コネクタ 352">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1325FCC6-2B58-41F4-9F13-37481026E0D4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1325FCC6-2B58-41F4-9F13-37481026E0D4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20476,7 +20510,7 @@
               <xdr:cNvPr id="354" name="直線コネクタ 353">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349A0796-B878-48F3-966B-5952A49F7F91}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{349A0796-B878-48F3-966B-5952A49F7F91}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20512,7 +20546,7 @@
             <xdr:cNvPr id="336" name="グループ化 335">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E6BC77-807B-4125-BEE0-604E727DFF7E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3E6BC77-807B-4125-BEE0-604E727DFF7E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20531,7 +20565,7 @@
               <xdr:cNvPr id="347" name="直線コネクタ 346">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A302F7-BB87-445C-8F07-E5C277A9CF25}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2A302F7-BB87-445C-8F07-E5C277A9CF25}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20566,7 +20600,7 @@
               <xdr:cNvPr id="348" name="直線コネクタ 347">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D8FD68-1F9A-45A7-B60C-0C610D22932D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3D8FD68-1F9A-45A7-B60C-0C610D22932D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20601,7 +20635,7 @@
               <xdr:cNvPr id="349" name="直線コネクタ 348">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A047AFFD-5A5D-484E-917F-637CE94A7FE2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A047AFFD-5A5D-484E-917F-637CE94A7FE2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20636,7 +20670,7 @@
               <xdr:cNvPr id="350" name="直線コネクタ 349">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408B6E6F-0938-44BB-865B-7C0E96D1A4BE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{408B6E6F-0938-44BB-865B-7C0E96D1A4BE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20672,7 +20706,7 @@
             <xdr:cNvPr id="337" name="グループ化 336">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD94800-C5DB-4E2B-9D89-0875E4801DA7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFD94800-C5DB-4E2B-9D89-0875E4801DA7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20691,7 +20725,7 @@
               <xdr:cNvPr id="343" name="直線コネクタ 342">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8A5111-32D4-41D9-8677-D5F583959C82}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C8A5111-32D4-41D9-8677-D5F583959C82}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20726,7 +20760,7 @@
               <xdr:cNvPr id="344" name="直線コネクタ 343">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FECE2DA-7642-4DE1-ADFC-FD7EBEB5016E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FECE2DA-7642-4DE1-ADFC-FD7EBEB5016E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20761,7 +20795,7 @@
               <xdr:cNvPr id="345" name="直線コネクタ 344">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFA8803-5D66-457B-A6E9-12D7DAC1DBF4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFFA8803-5D66-457B-A6E9-12D7DAC1DBF4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20796,7 +20830,7 @@
               <xdr:cNvPr id="346" name="直線コネクタ 345">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6FFC10-A416-4CDD-9E07-11D5417B4F3C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF6FFC10-A416-4CDD-9E07-11D5417B4F3C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20832,7 +20866,7 @@
             <xdr:cNvPr id="338" name="グループ化 337">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5082E7-201C-4FCF-9E80-47D724BFB106}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A5082E7-201C-4FCF-9E80-47D724BFB106}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20851,7 +20885,7 @@
               <xdr:cNvPr id="339" name="直線コネクタ 338">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1656AB3C-E1C3-42AE-A025-9D2B67B61DCB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1656AB3C-E1C3-42AE-A025-9D2B67B61DCB}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20886,7 +20920,7 @@
               <xdr:cNvPr id="340" name="直線コネクタ 339">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3C0E08-2DAB-4189-A9E4-5004F082DE94}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D3C0E08-2DAB-4189-A9E4-5004F082DE94}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20921,7 +20955,7 @@
               <xdr:cNvPr id="341" name="直線コネクタ 340">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283F0056-2747-4D54-A9EB-FA30A17F293D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{283F0056-2747-4D54-A9EB-FA30A17F293D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20956,7 +20990,7 @@
               <xdr:cNvPr id="342" name="直線コネクタ 341">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127952FB-29E4-4BD9-98C5-CF20BDCB0C1C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{127952FB-29E4-4BD9-98C5-CF20BDCB0C1C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20993,7 +21027,7 @@
           <xdr:cNvPr id="271" name="グループ化 270">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10051355-3B51-4FAC-9D1C-09F6C4CCC2A9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10051355-3B51-4FAC-9D1C-09F6C4CCC2A9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21012,7 +21046,7 @@
             <xdr:cNvPr id="303" name="グループ化 302">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B45489-B2BE-4519-8F3A-356A4D8C3D8E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37B45489-B2BE-4519-8F3A-356A4D8C3D8E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21031,7 +21065,7 @@
               <xdr:cNvPr id="329" name="直線コネクタ 328">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81482F43-F3E9-4623-A4EB-88AB94B5F46D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81482F43-F3E9-4623-A4EB-88AB94B5F46D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21066,7 +21100,7 @@
               <xdr:cNvPr id="330" name="直線コネクタ 329">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7E0649-7FF8-4C27-B082-5876DC41509D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD7E0649-7FF8-4C27-B082-5876DC41509D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21101,7 +21135,7 @@
               <xdr:cNvPr id="331" name="直線コネクタ 330">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BA11FF-FFB8-455E-9F9C-81303DBECB2C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19BA11FF-FFB8-455E-9F9C-81303DBECB2C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21136,7 +21170,7 @@
               <xdr:cNvPr id="332" name="直線コネクタ 331">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C52EDC-BF8F-4F44-855C-D4B63216F544}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02C52EDC-BF8F-4F44-855C-D4B63216F544}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21172,7 +21206,7 @@
             <xdr:cNvPr id="304" name="グループ化 303">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2CC57F-CBA4-4A2F-A8E0-0E2C0E9BFF7F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D2CC57F-CBA4-4A2F-A8E0-0E2C0E9BFF7F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21191,7 +21225,7 @@
               <xdr:cNvPr id="325" name="直線コネクタ 324">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554F4353-839C-43D9-9A8F-249335D625F1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{554F4353-839C-43D9-9A8F-249335D625F1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21226,7 +21260,7 @@
               <xdr:cNvPr id="326" name="直線コネクタ 325">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB5D04E-70A8-474C-B09E-89F329E4A1E3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CAB5D04E-70A8-474C-B09E-89F329E4A1E3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21261,7 +21295,7 @@
               <xdr:cNvPr id="327" name="直線コネクタ 326">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8801FA-B715-4F29-ADA1-EDDF2ABBD5A0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E8801FA-B715-4F29-ADA1-EDDF2ABBD5A0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21296,7 +21330,7 @@
               <xdr:cNvPr id="328" name="直線コネクタ 327">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C94B86D-EC1D-4B3E-8810-C0A982DC9E9B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C94B86D-EC1D-4B3E-8810-C0A982DC9E9B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21332,7 +21366,7 @@
             <xdr:cNvPr id="305" name="グループ化 304">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE45F5BA-57D7-48CF-9D45-36BC276E6432}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE45F5BA-57D7-48CF-9D45-36BC276E6432}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21351,7 +21385,7 @@
               <xdr:cNvPr id="321" name="直線コネクタ 320">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A1A9D9-0DC8-443C-BF5B-9BA0AEA242EB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A1A9D9-0DC8-443C-BF5B-9BA0AEA242EB}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21386,7 +21420,7 @@
               <xdr:cNvPr id="322" name="直線コネクタ 321">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C650897-ACC4-46E1-AAB8-FBBBE552762E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C650897-ACC4-46E1-AAB8-FBBBE552762E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21421,7 +21455,7 @@
               <xdr:cNvPr id="323" name="直線コネクタ 322">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF28C34-54E1-4B38-B3D4-127BB5BB06BF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF28C34-54E1-4B38-B3D4-127BB5BB06BF}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21456,7 +21490,7 @@
               <xdr:cNvPr id="324" name="直線コネクタ 323">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD3259F-D985-4BAB-B9AB-60E6404E1B31}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCD3259F-D985-4BAB-B9AB-60E6404E1B31}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21492,7 +21526,7 @@
             <xdr:cNvPr id="306" name="グループ化 305">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8DFC74-BAB9-4BAA-B497-A6C16C059943}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F8DFC74-BAB9-4BAA-B497-A6C16C059943}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21511,7 +21545,7 @@
               <xdr:cNvPr id="317" name="直線コネクタ 316">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701DD090-7BC2-45EA-883D-6EDE281F081D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{701DD090-7BC2-45EA-883D-6EDE281F081D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21546,7 +21580,7 @@
               <xdr:cNvPr id="318" name="直線コネクタ 317">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8E1393-D55B-4405-B425-FA99D439ECD9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD8E1393-D55B-4405-B425-FA99D439ECD9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21581,7 +21615,7 @@
               <xdr:cNvPr id="319" name="直線コネクタ 318">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A93BDD-1B98-4CD2-8EAC-696BA2960550}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86A93BDD-1B98-4CD2-8EAC-696BA2960550}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21616,7 +21650,7 @@
               <xdr:cNvPr id="320" name="直線コネクタ 319">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65431717-2A60-4E47-ACD1-B8E4793BA729}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65431717-2A60-4E47-ACD1-B8E4793BA729}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21652,7 +21686,7 @@
             <xdr:cNvPr id="307" name="グループ化 306">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97FB740-5A6D-4CC3-B8C9-0001FD19255D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A97FB740-5A6D-4CC3-B8C9-0001FD19255D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21671,7 +21705,7 @@
               <xdr:cNvPr id="313" name="直線コネクタ 312">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074E2EE0-FBEA-4732-86DC-222EDF808BFE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{074E2EE0-FBEA-4732-86DC-222EDF808BFE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21706,7 +21740,7 @@
               <xdr:cNvPr id="314" name="直線コネクタ 313">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C749C7-A6CB-499D-9851-D116EE9000BD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68C749C7-A6CB-499D-9851-D116EE9000BD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21741,7 +21775,7 @@
               <xdr:cNvPr id="315" name="直線コネクタ 314">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769D14BB-4446-49B7-87D1-54BF394794A5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{769D14BB-4446-49B7-87D1-54BF394794A5}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21776,7 +21810,7 @@
               <xdr:cNvPr id="316" name="直線コネクタ 315">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C1553C-7A66-4C3E-B40B-A2AB891DA7E8}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79C1553C-7A66-4C3E-B40B-A2AB891DA7E8}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21812,7 +21846,7 @@
             <xdr:cNvPr id="308" name="グループ化 307">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEF870C-7B79-4C10-8EBD-321DB5C7C9D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CEF870C-7B79-4C10-8EBD-321DB5C7C9D9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21831,7 +21865,7 @@
               <xdr:cNvPr id="309" name="直線コネクタ 308">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B86EFB1-AE6C-436F-893C-ED45310C5F34}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B86EFB1-AE6C-436F-893C-ED45310C5F34}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21866,7 +21900,7 @@
               <xdr:cNvPr id="310" name="直線コネクタ 309">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D399002-CDD5-4E12-BCF5-5406E89EDD0F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D399002-CDD5-4E12-BCF5-5406E89EDD0F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21901,7 +21935,7 @@
               <xdr:cNvPr id="311" name="直線コネクタ 310">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D5F882-8784-4355-9C3B-91CC99723A93}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57D5F882-8784-4355-9C3B-91CC99723A93}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21936,7 +21970,7 @@
               <xdr:cNvPr id="312" name="直線コネクタ 311">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB2FF53-1A50-428C-AF9A-8F4036D68612}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABB2FF53-1A50-428C-AF9A-8F4036D68612}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21973,7 +22007,7 @@
           <xdr:cNvPr id="272" name="グループ化 271">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93247C04-D3A0-49A3-8956-5D36DFCFEE41}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93247C04-D3A0-49A3-8956-5D36DFCFEE41}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21992,7 +22026,7 @@
             <xdr:cNvPr id="273" name="グループ化 272">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FDB04A-E99C-4897-A07F-E648F5386AB5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92FDB04A-E99C-4897-A07F-E648F5386AB5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22011,7 +22045,7 @@
               <xdr:cNvPr id="299" name="直線コネクタ 298">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF98F9D-86DA-4313-8605-2543E043AE82}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EF98F9D-86DA-4313-8605-2543E043AE82}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22046,7 +22080,7 @@
               <xdr:cNvPr id="300" name="直線コネクタ 299">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA2AF34-947E-44B4-B428-71B7A5729560}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BA2AF34-947E-44B4-B428-71B7A5729560}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22081,7 +22115,7 @@
               <xdr:cNvPr id="301" name="直線コネクタ 300">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26D185F-4DCC-4963-B2BD-2A6638EEBAB6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B26D185F-4DCC-4963-B2BD-2A6638EEBAB6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22116,7 +22150,7 @@
               <xdr:cNvPr id="302" name="直線コネクタ 301">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA28649-768A-4241-8AD1-696943A63EBC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FA28649-768A-4241-8AD1-696943A63EBC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22152,7 +22186,7 @@
             <xdr:cNvPr id="274" name="グループ化 273">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73970388-3848-4353-B921-F5BC11C2DC5C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73970388-3848-4353-B921-F5BC11C2DC5C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22171,7 +22205,7 @@
               <xdr:cNvPr id="295" name="直線コネクタ 294">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8057B8AC-B613-4E04-B467-1DBDC2436293}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8057B8AC-B613-4E04-B467-1DBDC2436293}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22206,7 +22240,7 @@
               <xdr:cNvPr id="296" name="直線コネクタ 295">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27D4A5B-7874-4733-B06A-2E7F0B637E7E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B27D4A5B-7874-4733-B06A-2E7F0B637E7E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22241,7 +22275,7 @@
               <xdr:cNvPr id="297" name="直線コネクタ 296">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04286054-5C08-407D-9A06-9FF739CF9AA1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04286054-5C08-407D-9A06-9FF739CF9AA1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22276,7 +22310,7 @@
               <xdr:cNvPr id="298" name="直線コネクタ 297">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EF9213-0537-468D-A4F8-F03E1A046374}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34EF9213-0537-468D-A4F8-F03E1A046374}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22312,7 +22346,7 @@
             <xdr:cNvPr id="275" name="グループ化 274">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC2ECBE-5464-47F7-8BF9-5DE584B61814}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAC2ECBE-5464-47F7-8BF9-5DE584B61814}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22331,7 +22365,7 @@
               <xdr:cNvPr id="291" name="直線コネクタ 290">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0450D57-B29D-4AF5-BD5A-ED823617589F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0450D57-B29D-4AF5-BD5A-ED823617589F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22366,7 +22400,7 @@
               <xdr:cNvPr id="292" name="直線コネクタ 291">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86243362-A090-4F99-BBF1-4865C2028AE5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86243362-A090-4F99-BBF1-4865C2028AE5}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22401,7 +22435,7 @@
               <xdr:cNvPr id="293" name="直線コネクタ 292">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866636E3-C04E-46D4-BDB5-3A4E526F50DC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{866636E3-C04E-46D4-BDB5-3A4E526F50DC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22436,7 +22470,7 @@
               <xdr:cNvPr id="294" name="直線コネクタ 293">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EFC563-40A1-4A79-A324-7ED4F2EB0F6D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17EFC563-40A1-4A79-A324-7ED4F2EB0F6D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22472,7 +22506,7 @@
             <xdr:cNvPr id="276" name="グループ化 275">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A4BD3A-5FCB-49DF-8E4F-DDAA82D1775D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56A4BD3A-5FCB-49DF-8E4F-DDAA82D1775D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22491,7 +22525,7 @@
               <xdr:cNvPr id="287" name="直線コネクタ 286">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECB4271-D5C0-48BD-B6A1-FA68AF723A13}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EECB4271-D5C0-48BD-B6A1-FA68AF723A13}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22526,7 +22560,7 @@
               <xdr:cNvPr id="288" name="直線コネクタ 287">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E082BC-0A37-4DD7-9375-C825DEF4133D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9E082BC-0A37-4DD7-9375-C825DEF4133D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22561,7 +22595,7 @@
               <xdr:cNvPr id="289" name="直線コネクタ 288">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A9695C-8F12-4827-BC03-69C2F9F73B93}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12A9695C-8F12-4827-BC03-69C2F9F73B93}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22596,7 +22630,7 @@
               <xdr:cNvPr id="290" name="直線コネクタ 289">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9023D70-7164-4E22-B952-CD014FB254EF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9023D70-7164-4E22-B952-CD014FB254EF}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22632,7 +22666,7 @@
             <xdr:cNvPr id="277" name="グループ化 276">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AC456E-DEEB-4ECD-9565-4BD35239D9C5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0AC456E-DEEB-4ECD-9565-4BD35239D9C5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22651,7 +22685,7 @@
               <xdr:cNvPr id="283" name="直線コネクタ 282">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA459CB-07BB-4245-8B6E-719E1C9DEB7B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EA459CB-07BB-4245-8B6E-719E1C9DEB7B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22686,7 +22720,7 @@
               <xdr:cNvPr id="284" name="直線コネクタ 283">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0CFAA6-6356-4E7D-A578-BE633049CC4E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E0CFAA6-6356-4E7D-A578-BE633049CC4E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22721,7 +22755,7 @@
               <xdr:cNvPr id="285" name="直線コネクタ 284">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76951CCB-4848-4C70-81D1-8F380A904181}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76951CCB-4848-4C70-81D1-8F380A904181}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22756,7 +22790,7 @@
               <xdr:cNvPr id="286" name="直線コネクタ 285">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3282120-A866-40AC-A3B4-90977FB612CB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3282120-A866-40AC-A3B4-90977FB612CB}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22792,7 +22826,7 @@
             <xdr:cNvPr id="278" name="グループ化 277">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A96B39B-2A11-4CAE-A6A5-0C7596B6E6C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A96B39B-2A11-4CAE-A6A5-0C7596B6E6C3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22811,7 +22845,7 @@
               <xdr:cNvPr id="279" name="直線コネクタ 278">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0361E332-7ED0-4C80-A6B8-2C4B4623035F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0361E332-7ED0-4C80-A6B8-2C4B4623035F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22846,7 +22880,7 @@
               <xdr:cNvPr id="280" name="直線コネクタ 279">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB785A3A-8382-4DBF-B7BF-8CBED1690F10}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB785A3A-8382-4DBF-B7BF-8CBED1690F10}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22881,7 +22915,7 @@
               <xdr:cNvPr id="281" name="直線コネクタ 280">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F559FA-D4D5-4C92-BDD6-21A41B57CA8C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15F559FA-D4D5-4C92-BDD6-21A41B57CA8C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22916,7 +22950,7 @@
               <xdr:cNvPr id="282" name="直線コネクタ 281">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627D5853-3887-449D-A6F1-BB06E2AE33E3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{627D5853-3887-449D-A6F1-BB06E2AE33E3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22969,7 +23003,7 @@
         <xdr:cNvPr id="453" name="グループ化 452">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A0822A-1923-463E-B494-3034A4D78930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59A0822A-1923-463E-B494-3034A4D78930}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22977,8 +23011,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9462099" y="9390212"/>
-          <a:ext cx="6756291" cy="341463"/>
+          <a:off x="8060307" y="10378656"/>
+          <a:ext cx="5785819" cy="377405"/>
           <a:chOff x="2619375" y="9276953"/>
           <a:chExt cx="9525000" cy="337344"/>
         </a:xfrm>
@@ -22988,7 +23022,7 @@
           <xdr:cNvPr id="454" name="グループ化 453">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EE0D6F-6021-4F79-AB26-14589D03E55F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94EE0D6F-6021-4F79-AB26-14589D03E55F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23007,7 +23041,7 @@
             <xdr:cNvPr id="470" name="直線コネクタ 469">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C9A540-3A0E-4A6C-B5AB-4255C8B5D3A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5C9A540-3A0E-4A6C-B5AB-4255C8B5D3A9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23042,7 +23076,7 @@
             <xdr:cNvPr id="471" name="直線コネクタ 470">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565F0203-14BD-4AB3-9484-47F9B8CC63BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{565F0203-14BD-4AB3-9484-47F9B8CC63BB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23077,7 +23111,7 @@
             <xdr:cNvPr id="472" name="直線コネクタ 471">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC36536-039B-4280-B758-1146F575AA1F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DC36536-039B-4280-B758-1146F575AA1F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23112,7 +23146,7 @@
             <xdr:cNvPr id="473" name="直線コネクタ 472">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F71F8B-4E55-4738-B828-68666AEC99EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81F71F8B-4E55-4738-B828-68666AEC99EF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23148,7 +23182,7 @@
           <xdr:cNvPr id="455" name="グループ化 454">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2866DE0-5731-45FC-87C3-7967C8E07A69}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2866DE0-5731-45FC-87C3-7967C8E07A69}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23167,7 +23201,7 @@
             <xdr:cNvPr id="466" name="直線コネクタ 465">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AFBCC3-7136-4309-90B1-F110E326D703}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20AFBCC3-7136-4309-90B1-F110E326D703}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23202,7 +23236,7 @@
             <xdr:cNvPr id="467" name="直線コネクタ 466">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08591E88-D680-42CD-9AEC-EA21E87043A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08591E88-D680-42CD-9AEC-EA21E87043A7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23237,7 +23271,7 @@
             <xdr:cNvPr id="468" name="直線コネクタ 467">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5980885A-5F97-41D4-920F-B3E95DA2DD5A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5980885A-5F97-41D4-920F-B3E95DA2DD5A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23272,7 +23306,7 @@
             <xdr:cNvPr id="469" name="直線コネクタ 468">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9E75E2-B2ED-4E0F-ACC9-E28DDD6D2A73}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F9E75E2-B2ED-4E0F-ACC9-E28DDD6D2A73}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23308,7 +23342,7 @@
           <xdr:cNvPr id="456" name="グループ化 455">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC0A9D4-0E4F-447C-A495-41742D52B6E9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFC0A9D4-0E4F-447C-A495-41742D52B6E9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23327,7 +23361,7 @@
             <xdr:cNvPr id="462" name="直線コネクタ 461">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95911A4-8657-4E5F-AB6E-F38805904B8A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C95911A4-8657-4E5F-AB6E-F38805904B8A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23362,7 +23396,7 @@
             <xdr:cNvPr id="463" name="直線コネクタ 462">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4244B270-AA36-489C-957E-6B44881ED460}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4244B270-AA36-489C-957E-6B44881ED460}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23397,7 +23431,7 @@
             <xdr:cNvPr id="464" name="直線コネクタ 463">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C16588-7F6D-4A14-A1D3-09BDE963EE05}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1C16588-7F6D-4A14-A1D3-09BDE963EE05}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23432,7 +23466,7 @@
             <xdr:cNvPr id="465" name="直線コネクタ 464">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76739EC7-36C8-407B-A3E5-7D0D0EC575BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76739EC7-36C8-407B-A3E5-7D0D0EC575BC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23468,7 +23502,7 @@
           <xdr:cNvPr id="457" name="グループ化 456">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D54952-D7E8-467E-9201-A79D7BED0C72}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4D54952-D7E8-467E-9201-A79D7BED0C72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23487,7 +23521,7 @@
             <xdr:cNvPr id="458" name="直線コネクタ 457">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E9C9FD-569D-44B4-9C47-DA4322F83F46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8E9C9FD-569D-44B4-9C47-DA4322F83F46}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23522,7 +23556,7 @@
             <xdr:cNvPr id="459" name="直線コネクタ 458">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED5A918-D599-4551-A93A-FE9B1B79DC74}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ED5A918-D599-4551-A93A-FE9B1B79DC74}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23557,7 +23591,7 @@
             <xdr:cNvPr id="460" name="直線コネクタ 459">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90507058-2CCB-4241-9BCF-67ADC1100A63}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90507058-2CCB-4241-9BCF-67ADC1100A63}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23592,7 +23626,7 @@
             <xdr:cNvPr id="461" name="直線コネクタ 460">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C280CD-45CD-4546-925B-A3C554F0EDB2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33C280CD-45CD-4546-925B-A3C554F0EDB2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23644,7 +23678,7 @@
         <xdr:cNvPr id="474" name="グループ化 473">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1976F385-9FB9-4ACE-830E-AEBCA67A4CAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1976F385-9FB9-4ACE-830E-AEBCA67A4CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23652,8 +23686,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2664303" y="11097523"/>
-          <a:ext cx="32272678" cy="341463"/>
+          <a:off x="2276294" y="12247712"/>
+          <a:ext cx="27484838" cy="395378"/>
           <a:chOff x="2619375" y="9276953"/>
           <a:chExt cx="9525000" cy="337344"/>
         </a:xfrm>
@@ -23663,7 +23697,7 @@
           <xdr:cNvPr id="475" name="グループ化 474">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6ECA63-0009-4AFC-9E1F-D58E57EFB6A9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B6ECA63-0009-4AFC-9E1F-D58E57EFB6A9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23682,7 +23716,7 @@
             <xdr:cNvPr id="491" name="直線コネクタ 490">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEF526F-1972-4EBF-B97B-4A8BEE481E11}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBEF526F-1972-4EBF-B97B-4A8BEE481E11}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23717,7 +23751,7 @@
             <xdr:cNvPr id="492" name="直線コネクタ 491">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D7CC66-5E16-4714-AE74-8B6EAF60C53B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0D7CC66-5E16-4714-AE74-8B6EAF60C53B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23752,7 +23786,7 @@
             <xdr:cNvPr id="493" name="直線コネクタ 492">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79A557F-809C-4C06-A025-BBA2E9048085}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79A557F-809C-4C06-A025-BBA2E9048085}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23787,7 +23821,7 @@
             <xdr:cNvPr id="494" name="直線コネクタ 493">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8934FBCD-F319-4ABA-89AC-D34F32E73505}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8934FBCD-F319-4ABA-89AC-D34F32E73505}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23823,7 +23857,7 @@
           <xdr:cNvPr id="476" name="グループ化 475">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1953D869-75AA-4918-BA8F-83355B91C1A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1953D869-75AA-4918-BA8F-83355B91C1A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23842,7 +23876,7 @@
             <xdr:cNvPr id="487" name="直線コネクタ 486">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1794E3-2BBD-47EA-9FCF-DA8F06E80435}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A1794E3-2BBD-47EA-9FCF-DA8F06E80435}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23877,7 +23911,7 @@
             <xdr:cNvPr id="488" name="直線コネクタ 487">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451D7CCD-F790-49DA-8A6B-960B33EAF353}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{451D7CCD-F790-49DA-8A6B-960B33EAF353}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23912,7 +23946,7 @@
             <xdr:cNvPr id="489" name="直線コネクタ 488">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD25B7D-B414-4473-AFE8-BAFBDE765D57}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFD25B7D-B414-4473-AFE8-BAFBDE765D57}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23947,7 +23981,7 @@
             <xdr:cNvPr id="490" name="直線コネクタ 489">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F03321CF-155F-4342-B86A-8F2831BB100A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F03321CF-155F-4342-B86A-8F2831BB100A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23983,7 +24017,7 @@
           <xdr:cNvPr id="477" name="グループ化 476">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E5F73F-3EB1-4B12-B943-361C700729E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4E5F73F-3EB1-4B12-B943-361C700729E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24002,7 +24036,7 @@
             <xdr:cNvPr id="483" name="直線コネクタ 482">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5D79E0-9C0D-40BF-8A02-CB34DBA1E8B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C5D79E0-9C0D-40BF-8A02-CB34DBA1E8B5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24037,7 +24071,7 @@
             <xdr:cNvPr id="484" name="直線コネクタ 483">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929C69A5-D7C2-44F2-B960-BE581D343813}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{929C69A5-D7C2-44F2-B960-BE581D343813}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24072,7 +24106,7 @@
             <xdr:cNvPr id="485" name="直線コネクタ 484">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF00F1EA-E622-4A0B-9417-97C9BA051E02}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF00F1EA-E622-4A0B-9417-97C9BA051E02}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24107,7 +24141,7 @@
             <xdr:cNvPr id="486" name="直線コネクタ 485">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1483CCF-0BC2-420C-8377-CDB08AE4AAA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1483CCF-0BC2-420C-8377-CDB08AE4AAA3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24143,7 +24177,7 @@
           <xdr:cNvPr id="478" name="グループ化 477">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C42BA1-CF3D-4516-BB71-AE01E2885F78}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71C42BA1-CF3D-4516-BB71-AE01E2885F78}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24162,7 +24196,7 @@
             <xdr:cNvPr id="479" name="直線コネクタ 478">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D57B1D2-A8DF-4034-99EC-031479CD330F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D57B1D2-A8DF-4034-99EC-031479CD330F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24197,7 +24231,7 @@
             <xdr:cNvPr id="480" name="直線コネクタ 479">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F8081A-3E10-40A5-986E-B80D0829F5F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4F8081A-3E10-40A5-986E-B80D0829F5F9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24232,7 +24266,7 @@
             <xdr:cNvPr id="481" name="直線コネクタ 480">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC9C87C-5FD1-427B-AF04-6BF207643E75}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDC9C87C-5FD1-427B-AF04-6BF207643E75}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24267,7 +24301,7 @@
             <xdr:cNvPr id="482" name="直線コネクタ 481">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D8D6A8-0120-4863-AA7A-10732C19456A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95D8D6A8-0120-4863-AA7A-10732C19456A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24319,7 +24353,7 @@
         <xdr:cNvPr id="27" name="稲妻 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CAE87A3-A0A2-44E9-B4D4-A43FCBBACEF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CAE87A3-A0A2-44E9-B4D4-A43FCBBACEF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24379,7 +24413,7 @@
         <xdr:cNvPr id="31" name="矢印: 上 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97AF30B-927E-436D-ACAA-396D0022BCC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E97AF30B-927E-436D-ACAA-396D0022BCC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24439,7 +24473,7 @@
         <xdr:cNvPr id="495" name="矢印: 上 494">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC96DBAB-5DAE-4DDD-AFE6-E6B01DD7F3F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC96DBAB-5DAE-4DDD-AFE6-E6B01DD7F3F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24486,6 +24520,1857 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9584531" y="1905000"/>
+          <a:ext cx="1041797" cy="773907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>CPU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>lda fifo_data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>sta fifo_addr</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>208359</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9792890" y="3432969"/>
+          <a:ext cx="416719" cy="377031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>idle</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9792891" y="4018360"/>
+          <a:ext cx="833438" cy="377031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>rom read</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>208359</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9792890" y="4583907"/>
+          <a:ext cx="416719" cy="377031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>idle</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>96091</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>203013</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Down Arrow 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9472263" y="3432969"/>
+          <a:ext cx="106922" cy="2678906"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9792891" y="5149453"/>
+          <a:ext cx="833438" cy="396875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fifo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> push</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17009</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Notched Right Arrow 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11055804" y="5749018"/>
+          <a:ext cx="637834" cy="204107"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>208358</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>212611</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9988492" y="5749018"/>
+          <a:ext cx="429476" cy="374196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>idle</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>212611</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>26930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17009</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9992745" y="6337243"/>
+          <a:ext cx="850447" cy="381284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>rom read</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>208358</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>212611</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9988492" y="6905626"/>
+          <a:ext cx="429476" cy="374195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>idle</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>212611</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>187098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9992745" y="7466919"/>
+          <a:ext cx="850447" cy="408215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fifo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> push</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12544085" y="1895077"/>
+          <a:ext cx="1063058" cy="775325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>BBB</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>I2C master</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>GPIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12382500" y="5876441"/>
+          <a:ext cx="839493" cy="410232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>read i2c</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>199951</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>192927</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Group 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12582451" y="6651356"/>
+          <a:ext cx="219795" cy="1565173"/>
+          <a:chOff x="12589723" y="8631839"/>
+          <a:chExt cx="219795" cy="3121042"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Freeform 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12589723" y="8631839"/>
+            <a:ext cx="216159" cy="1558703"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 3636 w 218130"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 1526908"/>
+              <a:gd name="connsiteX1" fmla="*/ 218130 w 218130"/>
+              <a:gd name="connsiteY1" fmla="*/ 189045 h 1526908"/>
+              <a:gd name="connsiteX2" fmla="*/ 0 w 218130"/>
+              <a:gd name="connsiteY2" fmla="*/ 370820 h 1526908"/>
+              <a:gd name="connsiteX3" fmla="*/ 218130 w 218130"/>
+              <a:gd name="connsiteY3" fmla="*/ 559866 h 1526908"/>
+              <a:gd name="connsiteX4" fmla="*/ 3636 w 218130"/>
+              <a:gd name="connsiteY4" fmla="*/ 748912 h 1526908"/>
+              <a:gd name="connsiteX5" fmla="*/ 210859 w 218130"/>
+              <a:gd name="connsiteY5" fmla="*/ 948864 h 1526908"/>
+              <a:gd name="connsiteX6" fmla="*/ 7271 w 218130"/>
+              <a:gd name="connsiteY6" fmla="*/ 1148816 h 1526908"/>
+              <a:gd name="connsiteX7" fmla="*/ 214494 w 218130"/>
+              <a:gd name="connsiteY7" fmla="*/ 1330591 h 1526908"/>
+              <a:gd name="connsiteX8" fmla="*/ 7271 w 218130"/>
+              <a:gd name="connsiteY8" fmla="*/ 1526908 h 1526908"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="218130" h="1526908">
+                <a:moveTo>
+                  <a:pt x="3636" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="218130" y="189045"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="370820"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="218130" y="559866"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3636" y="748912"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="210859" y="948864"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="7271" y="1148816"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="214494" y="1330591"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="7271" y="1526908"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Freeform 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12592373" y="10197012"/>
+            <a:ext cx="217145" cy="1555869"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 3636 w 218130"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 1526908"/>
+              <a:gd name="connsiteX1" fmla="*/ 218130 w 218130"/>
+              <a:gd name="connsiteY1" fmla="*/ 189045 h 1526908"/>
+              <a:gd name="connsiteX2" fmla="*/ 0 w 218130"/>
+              <a:gd name="connsiteY2" fmla="*/ 370820 h 1526908"/>
+              <a:gd name="connsiteX3" fmla="*/ 218130 w 218130"/>
+              <a:gd name="connsiteY3" fmla="*/ 559866 h 1526908"/>
+              <a:gd name="connsiteX4" fmla="*/ 3636 w 218130"/>
+              <a:gd name="connsiteY4" fmla="*/ 748912 h 1526908"/>
+              <a:gd name="connsiteX5" fmla="*/ 210859 w 218130"/>
+              <a:gd name="connsiteY5" fmla="*/ 948864 h 1526908"/>
+              <a:gd name="connsiteX6" fmla="*/ 7271 w 218130"/>
+              <a:gd name="connsiteY6" fmla="*/ 1148816 h 1526908"/>
+              <a:gd name="connsiteX7" fmla="*/ 214494 w 218130"/>
+              <a:gd name="connsiteY7" fmla="*/ 1330591 h 1526908"/>
+              <a:gd name="connsiteX8" fmla="*/ 7271 w 218130"/>
+              <a:gd name="connsiteY8" fmla="*/ 1526908 h 1526908"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="218130" h="1526908">
+                <a:moveTo>
+                  <a:pt x="3636" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="218130" y="189045"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="370820"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="218130" y="559866"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3636" y="748912"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="210859" y="948864"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="7271" y="1148816"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="214494" y="1330591"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="7271" y="1526908"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>4252</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>185657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9864025" y="8225403"/>
+          <a:ext cx="423998" cy="387457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>idle</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>4253</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>18858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>1514</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>17009</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9868278" y="8833519"/>
+          <a:ext cx="836753" cy="385609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>rom read</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>193728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>4252</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>62837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9864025" y="9395847"/>
+          <a:ext cx="423998" cy="264638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>idle</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>4253</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>18858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>1514</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>17009</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9868278" y="10012036"/>
+          <a:ext cx="836753" cy="385609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>rom read</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>8074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>4252</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9864025" y="10582438"/>
+          <a:ext cx="423998" cy="387456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>idle</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>4253</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>10786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>1514</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>8937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9868278" y="11182481"/>
+          <a:ext cx="836753" cy="385609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>rom read</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>4252</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9864025" y="11752883"/>
+          <a:ext cx="423998" cy="387456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>idle</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>9922</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>192928</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="Group 29"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12592373" y="8225403"/>
+          <a:ext cx="219795" cy="1565173"/>
+          <a:chOff x="12589723" y="8631839"/>
+          <a:chExt cx="219795" cy="3121042"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Freeform 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12589723" y="8631839"/>
+            <a:ext cx="216159" cy="1558703"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 3636 w 218130"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 1526908"/>
+              <a:gd name="connsiteX1" fmla="*/ 218130 w 218130"/>
+              <a:gd name="connsiteY1" fmla="*/ 189045 h 1526908"/>
+              <a:gd name="connsiteX2" fmla="*/ 0 w 218130"/>
+              <a:gd name="connsiteY2" fmla="*/ 370820 h 1526908"/>
+              <a:gd name="connsiteX3" fmla="*/ 218130 w 218130"/>
+              <a:gd name="connsiteY3" fmla="*/ 559866 h 1526908"/>
+              <a:gd name="connsiteX4" fmla="*/ 3636 w 218130"/>
+              <a:gd name="connsiteY4" fmla="*/ 748912 h 1526908"/>
+              <a:gd name="connsiteX5" fmla="*/ 210859 w 218130"/>
+              <a:gd name="connsiteY5" fmla="*/ 948864 h 1526908"/>
+              <a:gd name="connsiteX6" fmla="*/ 7271 w 218130"/>
+              <a:gd name="connsiteY6" fmla="*/ 1148816 h 1526908"/>
+              <a:gd name="connsiteX7" fmla="*/ 214494 w 218130"/>
+              <a:gd name="connsiteY7" fmla="*/ 1330591 h 1526908"/>
+              <a:gd name="connsiteX8" fmla="*/ 7271 w 218130"/>
+              <a:gd name="connsiteY8" fmla="*/ 1526908 h 1526908"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="218130" h="1526908">
+                <a:moveTo>
+                  <a:pt x="3636" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="218130" y="189045"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="370820"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="218130" y="559866"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3636" y="748912"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="210859" y="948864"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="7271" y="1148816"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="214494" y="1330591"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="7271" y="1526908"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Freeform 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12592373" y="10197012"/>
+            <a:ext cx="217145" cy="1555869"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 3636 w 218130"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 1526908"/>
+              <a:gd name="connsiteX1" fmla="*/ 218130 w 218130"/>
+              <a:gd name="connsiteY1" fmla="*/ 189045 h 1526908"/>
+              <a:gd name="connsiteX2" fmla="*/ 0 w 218130"/>
+              <a:gd name="connsiteY2" fmla="*/ 370820 h 1526908"/>
+              <a:gd name="connsiteX3" fmla="*/ 218130 w 218130"/>
+              <a:gd name="connsiteY3" fmla="*/ 559866 h 1526908"/>
+              <a:gd name="connsiteX4" fmla="*/ 3636 w 218130"/>
+              <a:gd name="connsiteY4" fmla="*/ 748912 h 1526908"/>
+              <a:gd name="connsiteX5" fmla="*/ 210859 w 218130"/>
+              <a:gd name="connsiteY5" fmla="*/ 948864 h 1526908"/>
+              <a:gd name="connsiteX6" fmla="*/ 7271 w 218130"/>
+              <a:gd name="connsiteY6" fmla="*/ 1148816 h 1526908"/>
+              <a:gd name="connsiteX7" fmla="*/ 214494 w 218130"/>
+              <a:gd name="connsiteY7" fmla="*/ 1330591 h 1526908"/>
+              <a:gd name="connsiteX8" fmla="*/ 7271 w 218130"/>
+              <a:gd name="connsiteY8" fmla="*/ 1526908 h 1526908"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="218130" h="1526908">
+                <a:moveTo>
+                  <a:pt x="3636" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="218130" y="189045"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="370820"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="218130" y="559866"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="3636" y="748912"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="210859" y="948864"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="7271" y="1148816"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="214494" y="1330591"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="7271" y="1526908"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>207134</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>90602</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10703517" y="9597648"/>
+          <a:ext cx="836753" cy="292403"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fifo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> pop</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="531105" y="509760"/>
     <xdr:ext cx="5550885" cy="1701960"/>
@@ -24494,7 +26379,7 @@
         <xdr:cNvPr id="2" name="画像 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C437E868-BB38-486A-8A21-C79364787D32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C437E868-BB38-486A-8A21-C79364787D32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24528,7 +26413,7 @@
         <xdr:cNvPr id="3" name="画像 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843307F5-4A92-405E-8012-3F12E6C62793}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{843307F5-4A92-405E-8012-3F12E6C62793}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24562,7 +26447,7 @@
         <xdr:cNvPr id="4" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E064301B-81DD-4965-8E4B-A6C361503422}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E064301B-81DD-4965-8E4B-A6C361503422}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24606,7 +26491,7 @@
         <xdr:cNvPr id="5" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B601C4-4F9C-43DD-B00E-5AD95D07C60D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74B601C4-4F9C-43DD-B00E-5AD95D07C60D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24650,7 +26535,7 @@
         <xdr:cNvPr id="6" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC47F31-AECB-48C8-AC07-0E7CF60CD9D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AC47F31-AECB-48C8-AC07-0E7CF60CD9D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24694,7 +26579,7 @@
         <xdr:cNvPr id="7" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16FD91A-778C-43B1-A355-78C6E23D31A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A16FD91A-778C-43B1-A355-78C6E23D31A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24738,7 +26623,7 @@
         <xdr:cNvPr id="8" name="画像 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E6F8EE-7193-4942-9FA8-1EA7B7B1E933}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09E6F8EE-7193-4942-9FA8-1EA7B7B1E933}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24772,7 +26657,7 @@
         <xdr:cNvPr id="9" name="画像 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABB616B-E2DA-4236-8B69-19BFA0D194AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4ABB616B-E2DA-4236-8B69-19BFA0D194AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24806,7 +26691,7 @@
         <xdr:cNvPr id="10" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9313EC1B-ECE2-4793-8557-3D8CCDFE8463}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9313EC1B-ECE2-4793-8557-3D8CCDFE8463}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24850,7 +26735,7 @@
         <xdr:cNvPr id="11" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4D8E81-D39E-40F5-89B9-4A8CF1A2F7DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA4D8E81-D39E-40F5-89B9-4A8CF1A2F7DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24894,7 +26779,7 @@
         <xdr:cNvPr id="12" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE7ED60-0DD3-461C-8C93-E211351ACA05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFE7ED60-0DD3-461C-8C93-E211351ACA05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24938,7 +26823,7 @@
         <xdr:cNvPr id="13" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F743D999-E4AE-4454-A67F-59BF7363011E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F743D999-E4AE-4454-A67F-59BF7363011E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24982,7 +26867,7 @@
         <xdr:cNvPr id="14" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1688B424-5FEE-4DA9-9FD5-B8AE43C4CFB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1688B424-5FEE-4DA9-9FD5-B8AE43C4CFB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25026,7 +26911,7 @@
         <xdr:cNvPr id="15" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA20598-F7C1-4B0B-A1E9-B62C1156E65A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA20598-F7C1-4B0B-A1E9-B62C1156E65A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25070,7 +26955,7 @@
         <xdr:cNvPr id="16" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E5DC773-04C9-4DF9-999D-8A34494C7380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E5DC773-04C9-4DF9-999D-8A34494C7380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25114,7 +26999,7 @@
         <xdr:cNvPr id="17" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9993E7BC-ED04-442D-81FF-02CF3A80C16B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9993E7BC-ED04-442D-81FF-02CF3A80C16B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25158,7 +27043,7 @@
         <xdr:cNvPr id="18" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41CC502-6FFA-4D1B-8D28-155BD8B5B6B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D41CC502-6FFA-4D1B-8D28-155BD8B5B6B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25202,7 +27087,7 @@
         <xdr:cNvPr id="19" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DC4A61-F832-495E-8C10-F849B484DD46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2DC4A61-F832-495E-8C10-F849B484DD46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25246,7 +27131,7 @@
         <xdr:cNvPr id="20" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034AFE29-9612-4E35-BF6E-D0DAF61164C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{034AFE29-9612-4E35-BF6E-D0DAF61164C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25290,7 +27175,7 @@
         <xdr:cNvPr id="21" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C49169-ACEE-427E-952A-5F540268FD90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03C49169-ACEE-427E-952A-5F540268FD90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25334,7 +27219,7 @@
         <xdr:cNvPr id="22" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A396AB-7B24-407C-B36C-BB2947E5B6BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A396AB-7B24-407C-B36C-BB2947E5B6BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25378,7 +27263,7 @@
         <xdr:cNvPr id="23" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C85E4C-D6D7-46E1-9C81-FADD0DCD830E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45C85E4C-D6D7-46E1-9C81-FADD0DCD830E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25422,7 +27307,7 @@
         <xdr:cNvPr id="24" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9A3CCC-89ED-4C89-8835-FC2FCC90D1FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC9A3CCC-89ED-4C89-8835-FC2FCC90D1FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25466,7 +27351,7 @@
         <xdr:cNvPr id="25" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99BFEA2D-566C-41B7-B1D4-7C254F4D4B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99BFEA2D-566C-41B7-B1D4-7C254F4D4B7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25510,7 +27395,7 @@
         <xdr:cNvPr id="26" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBB493B-945B-49DB-9C5A-F49BFB354252}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBBB493B-945B-49DB-9C5A-F49BFB354252}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25554,7 +27439,7 @@
         <xdr:cNvPr id="27" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2875BC5-B7D0-4533-9CD2-1CC4A620319C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2875BC5-B7D0-4533-9CD2-1CC4A620319C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25598,7 +27483,7 @@
         <xdr:cNvPr id="28" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8987E004-14FC-42D4-9B1D-33E3942BBD8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8987E004-14FC-42D4-9B1D-33E3942BBD8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25642,7 +27527,7 @@
         <xdr:cNvPr id="29" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA30F38-5B65-4E0F-B706-B46B193FBAB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BA30F38-5B65-4E0F-B706-B46B193FBAB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25686,7 +27571,7 @@
         <xdr:cNvPr id="30" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BE5407-BC21-47DD-9BCB-294A8687C83A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82BE5407-BC21-47DD-9BCB-294A8687C83A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25730,7 +27615,7 @@
         <xdr:cNvPr id="31" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20302BB-5990-49DD-9FAE-34A71CD397CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D20302BB-5990-49DD-9FAE-34A71CD397CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25774,7 +27659,7 @@
         <xdr:cNvPr id="32" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A63A47D2-C776-4AC8-8B39-2C81CC6C6F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A63A47D2-C776-4AC8-8B39-2C81CC6C6F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25818,7 +27703,7 @@
         <xdr:cNvPr id="33" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A745EB-BE05-4FB6-AE70-FB6F194FFA28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72A745EB-BE05-4FB6-AE70-FB6F194FFA28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25862,7 +27747,7 @@
         <xdr:cNvPr id="34" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7979308C-D89D-4BBD-95BA-C821C1732E55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7979308C-D89D-4BBD-95BA-C821C1732E55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25906,7 +27791,7 @@
         <xdr:cNvPr id="35" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC7E0EA-14E9-43FA-898B-6496A22D375A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EC7E0EA-14E9-43FA-898B-6496A22D375A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25950,7 +27835,7 @@
         <xdr:cNvPr id="36" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96E2782-7519-4890-9465-E50A01B8E5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F96E2782-7519-4890-9465-E50A01B8E5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25994,7 +27879,7 @@
         <xdr:cNvPr id="37" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43350510-45D7-4246-9082-A9727824F47B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43350510-45D7-4246-9082-A9727824F47B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26038,7 +27923,7 @@
         <xdr:cNvPr id="38" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D268C9-F95D-4359-B55E-38291689E586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2D268C9-F95D-4359-B55E-38291689E586}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26082,7 +27967,7 @@
         <xdr:cNvPr id="39" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D363F0B9-A16E-4B4F-9F4B-898D07DCE0F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D363F0B9-A16E-4B4F-9F4B-898D07DCE0F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26126,7 +28011,7 @@
         <xdr:cNvPr id="40" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A985FA03-A611-4D9A-A6C2-AC17DD10AD89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A985FA03-A611-4D9A-A6C2-AC17DD10AD89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26170,7 +28055,7 @@
         <xdr:cNvPr id="41" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BFAFE1-64CC-44C5-8F84-B01F861CEC3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17BFAFE1-64CC-44C5-8F84-B01F861CEC3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26214,7 +28099,7 @@
         <xdr:cNvPr id="42" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01187D83-5347-43FE-94EF-22819B43BB2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01187D83-5347-43FE-94EF-22819B43BB2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26258,7 +28143,7 @@
         <xdr:cNvPr id="43" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E73C49F-EF61-4D77-A24B-EA08DDEC78C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E73C49F-EF61-4D77-A24B-EA08DDEC78C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26302,7 +28187,7 @@
         <xdr:cNvPr id="44" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9E74C5-4CCA-4F0B-99F0-2941DB86EB19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F9E74C5-4CCA-4F0B-99F0-2941DB86EB19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26346,7 +28231,7 @@
         <xdr:cNvPr id="45" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AF8A37-223E-4A2D-A17C-638AD4BAC27A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5AF8A37-223E-4A2D-A17C-638AD4BAC27A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26390,7 +28275,7 @@
         <xdr:cNvPr id="46" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EF1CFA-2408-4726-9324-3BF9BA71DDCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91EF1CFA-2408-4726-9324-3BF9BA71DDCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26434,7 +28319,7 @@
         <xdr:cNvPr id="47" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91432C70-A7F4-44EA-816E-1031F9AE892F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91432C70-A7F4-44EA-816E-1031F9AE892F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26478,7 +28363,7 @@
         <xdr:cNvPr id="48" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E597AE-FCB8-4A70-B06C-3D929E9836E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17E597AE-FCB8-4A70-B06C-3D929E9836E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26522,7 +28407,7 @@
         <xdr:cNvPr id="49" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E0CD14-F75D-4BE6-8B74-F5A74710BA5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85E0CD14-F75D-4BE6-8B74-F5A74710BA5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26566,7 +28451,7 @@
         <xdr:cNvPr id="50" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72737E41-6EF4-4DC7-853D-E1A1E81C12F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72737E41-6EF4-4DC7-853D-E1A1E81C12F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26610,7 +28495,7 @@
         <xdr:cNvPr id="51" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64D80C1-49E6-4EB0-92A7-24A44DCE23BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B64D80C1-49E6-4EB0-92A7-24A44DCE23BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26679,7 +28564,7 @@
         <xdr:cNvPr id="52" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF68FEC5-CA5C-44FD-ADCB-AD3F74B0E8EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF68FEC5-CA5C-44FD-ADCB-AD3F74B0E8EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26723,7 +28608,7 @@
         <xdr:cNvPr id="53" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827A3DDC-DE5A-4424-8F9E-B7CF92F05184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{827A3DDC-DE5A-4424-8F9E-B7CF92F05184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26767,7 +28652,7 @@
         <xdr:cNvPr id="54" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AF36A3-C540-4EE9-907C-4F17AB59AEC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70AF36A3-C540-4EE9-907C-4F17AB59AEC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26811,7 +28696,7 @@
         <xdr:cNvPr id="55" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABA6A74-267C-4512-8E8D-F82A103EBD65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BABA6A74-267C-4512-8E8D-F82A103EBD65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26855,7 +28740,7 @@
         <xdr:cNvPr id="56" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B21FC8-7DDA-4DA2-8936-AB37B0017212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23B21FC8-7DDA-4DA2-8936-AB37B0017212}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26899,7 +28784,7 @@
         <xdr:cNvPr id="57" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDD1548-1B70-48F0-9E22-1C930FD701FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EDD1548-1B70-48F0-9E22-1C930FD701FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26943,7 +28828,7 @@
         <xdr:cNvPr id="58" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DFCAA7-B421-4743-B54E-8F479ACD744C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3DFCAA7-B421-4743-B54E-8F479ACD744C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26987,7 +28872,7 @@
         <xdr:cNvPr id="59" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B765C305-E733-4E49-A428-1C25CF32D0F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B765C305-E733-4E49-A428-1C25CF32D0F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27031,7 +28916,7 @@
         <xdr:cNvPr id="60" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513E6EE3-C4B8-47BE-BDF7-AAFA562166E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{513E6EE3-C4B8-47BE-BDF7-AAFA562166E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27075,7 +28960,7 @@
         <xdr:cNvPr id="61" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD297D1-7D0F-4989-B14E-57CF9371042F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDD297D1-7D0F-4989-B14E-57CF9371042F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27119,7 +29004,7 @@
         <xdr:cNvPr id="62" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272C5969-5DAC-4148-BD42-859471EDAC03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{272C5969-5DAC-4148-BD42-859471EDAC03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27163,7 +29048,7 @@
         <xdr:cNvPr id="63" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6B24BE-C24D-493C-B41A-97F1E2E45026}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C6B24BE-C24D-493C-B41A-97F1E2E45026}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27207,7 +29092,7 @@
         <xdr:cNvPr id="64" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23799EE7-5FC1-45AB-B7D0-D50B777DD5C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23799EE7-5FC1-45AB-B7D0-D50B777DD5C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27251,7 +29136,7 @@
         <xdr:cNvPr id="65" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BF46CA-6B18-42FC-B14B-6717A0AC6A35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BF46CA-6B18-42FC-B14B-6717A0AC6A35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27295,7 +29180,7 @@
         <xdr:cNvPr id="66" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A05B181-EC08-4E52-9481-3239FAC9AC78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A05B181-EC08-4E52-9481-3239FAC9AC78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27339,7 +29224,7 @@
         <xdr:cNvPr id="67" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9A5679-222F-4CDF-975C-98E4EDC7F54A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D9A5679-222F-4CDF-975C-98E4EDC7F54A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27383,7 +29268,7 @@
         <xdr:cNvPr id="68" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8471F68-F520-43A7-A474-C48C6546D0CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8471F68-F520-43A7-A474-C48C6546D0CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27427,7 +29312,7 @@
         <xdr:cNvPr id="69" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D55D23D-BFC6-46DB-A479-F90A85C7B50C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D55D23D-BFC6-46DB-A479-F90A85C7B50C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27471,7 +29356,7 @@
         <xdr:cNvPr id="70" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05869EB5-FAF9-4358-A1FC-07A007D691F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05869EB5-FAF9-4358-A1FC-07A007D691F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27515,7 +29400,7 @@
         <xdr:cNvPr id="71" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC483B59-8CFA-43D1-BE47-F5817EE8ABB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC483B59-8CFA-43D1-BE47-F5817EE8ABB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27559,7 +29444,7 @@
         <xdr:cNvPr id="72" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D571B8A-37A1-449E-A102-FFAB9423F09A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D571B8A-37A1-449E-A102-FFAB9423F09A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27603,7 +29488,7 @@
         <xdr:cNvPr id="73" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE7A5D1-F294-4698-90C2-8456A4ACC4D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE7A5D1-F294-4698-90C2-8456A4ACC4D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27647,7 +29532,7 @@
         <xdr:cNvPr id="74" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C5289F-FC7C-4214-A5CA-4DB096CF1053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58C5289F-FC7C-4214-A5CA-4DB096CF1053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27691,7 +29576,7 @@
         <xdr:cNvPr id="75" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D697564-01BB-42DD-AB93-943C6A3D1673}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D697564-01BB-42DD-AB93-943C6A3D1673}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27735,7 +29620,7 @@
         <xdr:cNvPr id="76" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6C1775-8274-48C9-B8EC-87995372362A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF6C1775-8274-48C9-B8EC-87995372362A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27779,7 +29664,7 @@
         <xdr:cNvPr id="77" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71861F59-DDF6-4778-8ECC-E06C9DC2DB42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71861F59-DDF6-4778-8ECC-E06C9DC2DB42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27823,7 +29708,7 @@
         <xdr:cNvPr id="78" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B533EAF1-5CDF-4395-A0F8-B8E09F718A85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B533EAF1-5CDF-4395-A0F8-B8E09F718A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27867,7 +29752,7 @@
         <xdr:cNvPr id="79" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A5806F-BE52-4457-9301-2B040E6C0E0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75A5806F-BE52-4457-9301-2B040E6C0E0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27911,7 +29796,7 @@
         <xdr:cNvPr id="80" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47409DAE-CF59-4923-AADA-8274CC0B2405}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47409DAE-CF59-4923-AADA-8274CC0B2405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27955,7 +29840,7 @@
         <xdr:cNvPr id="81" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353B9031-DF22-41CD-9F87-01585887EA6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{353B9031-DF22-41CD-9F87-01585887EA6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27999,7 +29884,7 @@
         <xdr:cNvPr id="82" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85508AB0-999C-46CF-8AB0-B43A6FA6FA9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85508AB0-999C-46CF-8AB0-B43A6FA6FA9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28043,7 +29928,7 @@
         <xdr:cNvPr id="83" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95E4083-B506-4BE1-ADEE-A5EA14CF8686}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F95E4083-B506-4BE1-ADEE-A5EA14CF8686}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28087,7 +29972,7 @@
         <xdr:cNvPr id="84" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A269AB-6560-4501-A132-95C8DC829E2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15A269AB-6560-4501-A132-95C8DC829E2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28131,7 +30016,7 @@
         <xdr:cNvPr id="85" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F0BCF6-1E10-4574-A0E7-2C6B31D05132}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07F0BCF6-1E10-4574-A0E7-2C6B31D05132}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28175,7 +30060,7 @@
         <xdr:cNvPr id="86" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A07FA64-2286-4B60-9636-9599137C539D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A07FA64-2286-4B60-9636-9599137C539D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28219,7 +30104,7 @@
         <xdr:cNvPr id="87" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB53E90-E86A-4F05-8BF7-BB2E456B89CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EB53E90-E86A-4F05-8BF7-BB2E456B89CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28263,7 +30148,7 @@
         <xdr:cNvPr id="88" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CD607A-0185-401F-BBCB-13501CC2B22F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1CD607A-0185-401F-BBCB-13501CC2B22F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28307,7 +30192,7 @@
         <xdr:cNvPr id="89" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88AE6C5-F3C6-4496-931A-1707147C702C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F88AE6C5-F3C6-4496-931A-1707147C702C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28351,7 +30236,7 @@
         <xdr:cNvPr id="90" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE20BC8-7C9C-4DEC-AF74-A20CFBB35908}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDE20BC8-7C9C-4DEC-AF74-A20CFBB35908}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28395,7 +30280,7 @@
         <xdr:cNvPr id="91" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8DCF5E-78CF-4726-95B9-6EAAE69CF133}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C8DCF5E-78CF-4726-95B9-6EAAE69CF133}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28439,7 +30324,7 @@
         <xdr:cNvPr id="92" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7617C891-8068-4A7B-9C42-D33462B55E30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7617C891-8068-4A7B-9C42-D33462B55E30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28483,7 +30368,7 @@
         <xdr:cNvPr id="93" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7293531A-C3E1-4F32-A30F-EA3F17CFB406}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7293531A-C3E1-4F32-A30F-EA3F17CFB406}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28527,7 +30412,7 @@
         <xdr:cNvPr id="94" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D03BE40-2911-42DF-BF9F-E58EC094BA2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D03BE40-2911-42DF-BF9F-E58EC094BA2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28571,7 +30456,7 @@
         <xdr:cNvPr id="95" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF21BD71-DB13-40FE-BADD-604CF5D2C124}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF21BD71-DB13-40FE-BADD-604CF5D2C124}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28615,7 +30500,7 @@
         <xdr:cNvPr id="96" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E571C9D5-C966-4248-B563-BBBFA02CFE30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E571C9D5-C966-4248-B563-BBBFA02CFE30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28659,7 +30544,7 @@
         <xdr:cNvPr id="97" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905DA2F7-AD29-4965-A6E6-B76D000DFB6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{905DA2F7-AD29-4965-A6E6-B76D000DFB6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28703,7 +30588,7 @@
         <xdr:cNvPr id="98" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7851CA9F-2C06-47DA-B5EB-72FD64F0AD8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7851CA9F-2C06-47DA-B5EB-72FD64F0AD8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28747,7 +30632,7 @@
         <xdr:cNvPr id="99" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192963AB-77E5-4CF1-9D5A-D1812501BB5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{192963AB-77E5-4CF1-9D5A-D1812501BB5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28791,7 +30676,7 @@
         <xdr:cNvPr id="100" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA8CF33-073F-4ACA-B79F-E72697BB114C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BA8CF33-073F-4ACA-B79F-E72697BB114C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28835,7 +30720,7 @@
         <xdr:cNvPr id="101" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F392D7E4-F1EE-4D9F-B4B7-1BD0EB1C2971}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F392D7E4-F1EE-4D9F-B4B7-1BD0EB1C2971}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28879,7 +30764,7 @@
         <xdr:cNvPr id="102" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EC61BE-4B18-4DF4-8FA9-83770893923E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1EC61BE-4B18-4DF4-8FA9-83770893923E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28923,7 +30808,7 @@
         <xdr:cNvPr id="103" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B80A1F-D783-42E6-B28F-7423CEB25693}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64B80A1F-D783-42E6-B28F-7423CEB25693}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28967,7 +30852,7 @@
         <xdr:cNvPr id="104" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B274DA0-A65F-4081-BEC3-6D95DB05F7C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B274DA0-A65F-4081-BEC3-6D95DB05F7C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29011,7 +30896,7 @@
         <xdr:cNvPr id="105" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF55FAF9-4654-4A6D-A4A9-242D76105D48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF55FAF9-4654-4A6D-A4A9-242D76105D48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29055,7 +30940,7 @@
         <xdr:cNvPr id="106" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2784E05F-8130-4BD8-A9F4-0061ACEE4091}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2784E05F-8130-4BD8-A9F4-0061ACEE4091}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29099,7 +30984,7 @@
         <xdr:cNvPr id="107" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D00DD02-A40D-4C00-8621-8BA036E0C3B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D00DD02-A40D-4C00-8621-8BA036E0C3B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29143,7 +31028,7 @@
         <xdr:cNvPr id="108" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D682ABFB-3EC9-44A2-A272-B916480190A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D682ABFB-3EC9-44A2-A272-B916480190A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29187,7 +31072,7 @@
         <xdr:cNvPr id="109" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37379052-FF52-49F2-A744-D7BCF02A548B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37379052-FF52-49F2-A744-D7BCF02A548B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29231,7 +31116,7 @@
         <xdr:cNvPr id="110" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B22648F-CA39-4685-B5EB-FBCEA77A92AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B22648F-CA39-4685-B5EB-FBCEA77A92AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29275,7 +31160,7 @@
         <xdr:cNvPr id="111" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C1FB88-81FB-4272-A962-2DCA7A25F5CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6C1FB88-81FB-4272-A962-2DCA7A25F5CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29319,7 +31204,7 @@
         <xdr:cNvPr id="112" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D1AE6B-22DA-4944-96AF-E4334DD7684C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3D1AE6B-22DA-4944-96AF-E4334DD7684C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29363,7 +31248,7 @@
         <xdr:cNvPr id="113" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D128277E-73B3-4BFC-9D9D-62D9BE5451A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D128277E-73B3-4BFC-9D9D-62D9BE5451A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29407,7 +31292,7 @@
         <xdr:cNvPr id="114" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B03C479-DD59-4E54-91B4-EC703693D414}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B03C479-DD59-4E54-91B4-EC703693D414}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29451,7 +31336,7 @@
         <xdr:cNvPr id="115" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65032EDE-0484-4B22-A1A1-DC7D34D68DC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65032EDE-0484-4B22-A1A1-DC7D34D68DC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29495,7 +31380,7 @@
         <xdr:cNvPr id="116" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EC058F-AE62-4DC7-962C-7CF30FA9A6A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64EC058F-AE62-4DC7-962C-7CF30FA9A6A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29539,7 +31424,7 @@
         <xdr:cNvPr id="117" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2261E2A1-961B-4A52-B91A-C52877AD4117}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2261E2A1-961B-4A52-B91A-C52877AD4117}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29583,7 +31468,7 @@
         <xdr:cNvPr id="118" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5FABF2-F437-4C81-BE5F-7FA8E7B4B3D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF5FABF2-F437-4C81-BE5F-7FA8E7B4B3D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29631,7 +31516,7 @@
         <xdr:cNvPr id="119" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8DC3CA-89E7-41B6-A39E-BC1EFBBC0B1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE8DC3CA-89E7-41B6-A39E-BC1EFBBC0B1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29679,7 +31564,7 @@
         <xdr:cNvPr id="120" name="画像 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6B5AD8-5DA6-44AB-9DEF-4FA81DCCCDD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E6B5AD8-5DA6-44AB-9DEF-4FA81DCCCDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29718,7 +31603,7 @@
         <xdr:cNvPr id="121" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24946333-9CF3-422D-890B-BF77426600FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24946333-9CF3-422D-890B-BF77426600FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30011,14 +31896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H8:AB22"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="8" spans="11:28">
       <c r="Q8" t="s">
@@ -30049,21 +31934,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L17:AB18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="17" spans="12:28">
       <c r="L17" t="s">
@@ -30082,28 +31967,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="3.875" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
@@ -30406,36 +32291,36 @@
       <c r="D39" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB27B8FE-7E65-4D10-B775-6603DAD80D23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42FBB49-54EB-467B-B773-562DC57E2882}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J11:BM32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="11" spans="27:57">
       <c r="AA11" t="s">
@@ -30505,21 +32390,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88CBFEC-A20F-44E2-9A89-ADFAF373EA5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:BP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="AN82" sqref="AN82"/>
+    <sheetView topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="5" spans="8:36">
       <c r="M5" t="s">
@@ -30870,38 +32755,38 @@
       <c r="BF85" s="27"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760C9603-9EAC-4BB3-BBF7-9209E4538449}">
-  <dimension ref="B3:AI58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:BJ58"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AN18" sqref="AN18"/>
+    <sheetView tabSelected="1" topLeftCell="N30" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="BD52" sqref="BD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:35">
+    <row r="3" spans="2:47">
       <c r="B3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:35" s="11" customFormat="1">
+    <row r="5" spans="2:47" s="11" customFormat="1">
       <c r="D5" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:35" s="11" customFormat="1">
+    <row r="6" spans="2:47" s="11" customFormat="1">
       <c r="F6" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:35" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="2:47" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F7" s="14"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -30933,7 +32818,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:35" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="2:47" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F8" s="16"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -30965,27 +32850,30 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="2:35" s="11" customFormat="1">
+    <row r="9" spans="2:47" s="11" customFormat="1">
       <c r="F9" s="11" t="s">
         <v>77</v>
       </c>
       <c r="AI9" s="11" t="s">
         <v>83</v>
       </c>
+      <c r="AU9" s="29" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="10" spans="2:35" s="11" customFormat="1"/>
-    <row r="11" spans="2:35" s="11" customFormat="1"/>
-    <row r="12" spans="2:35" s="11" customFormat="1">
+    <row r="10" spans="2:47" s="11" customFormat="1"/>
+    <row r="11" spans="2:47" s="11" customFormat="1"/>
+    <row r="12" spans="2:47" s="11" customFormat="1">
       <c r="D12" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="2:35" s="11" customFormat="1">
+    <row r="13" spans="2:47" s="11" customFormat="1">
       <c r="J13" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:35" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="2:47" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F14" s="17"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -31017,7 +32905,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:35" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="15" spans="2:47" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F15" s="16"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -31049,7 +32937,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="2:35" s="11" customFormat="1">
+    <row r="16" spans="2:47" s="11" customFormat="1">
       <c r="F16" s="11" t="s">
         <v>77</v>
       </c>
@@ -31057,20 +32945,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="4:35">
+    <row r="17" spans="4:47">
       <c r="F17" s="11"/>
+      <c r="AU17" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="19" spans="4:35" s="11" customFormat="1">
+    <row r="19" spans="4:47" s="11" customFormat="1">
       <c r="D19" s="11" t="s">
         <v>81</v>
       </c>
+      <c r="AU19" s="29"/>
     </row>
-    <row r="20" spans="4:35" s="11" customFormat="1">
+    <row r="20" spans="4:47" s="11" customFormat="1">
       <c r="J20" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="21" spans="4:47" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="17"/>
@@ -31102,7 +32994,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="22" spans="4:47" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="16"/>
@@ -31134,7 +33026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="4:35" s="11" customFormat="1">
+    <row r="23" spans="4:47" s="11" customFormat="1">
       <c r="H23" s="11" t="s">
         <v>77</v>
       </c>
@@ -31142,17 +33034,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="4:35" s="11" customFormat="1">
+    <row r="26" spans="4:47" s="11" customFormat="1">
       <c r="D26" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="4:35" s="11" customFormat="1">
+    <row r="27" spans="4:47" s="11" customFormat="1">
       <c r="J27" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="28" spans="4:47" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -31184,7 +33076,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="29" spans="4:47" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -31216,7 +33108,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="4:35" s="11" customFormat="1">
+    <row r="30" spans="4:47" s="11" customFormat="1">
       <c r="J30" s="11" t="s">
         <v>77</v>
       </c>
@@ -31224,12 +33116,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="4:35" s="11" customFormat="1">
+    <row r="33" spans="4:62" s="11" customFormat="1">
       <c r="D33" s="11" t="s">
         <v>88</v>
       </c>
+      <c r="BB33" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="34" spans="4:35" s="11" customFormat="1">
+    <row r="34" spans="4:62" s="11" customFormat="1">
       <c r="M34" s="11" t="s">
         <v>89</v>
       </c>
@@ -31237,7 +33132,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="35" spans="4:62" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -31269,7 +33164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="4:62" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -31301,25 +33196,28 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="4:35" s="11" customFormat="1">
+    <row r="37" spans="4:62" s="11" customFormat="1">
       <c r="J37" s="11" t="s">
         <v>77</v>
       </c>
       <c r="AI37" s="11" t="s">
         <v>83</v>
       </c>
+      <c r="BJ37" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="40" spans="4:35" s="11" customFormat="1">
+    <row r="40" spans="4:62" s="11" customFormat="1">
       <c r="D40" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="4:35" s="11" customFormat="1">
+    <row r="41" spans="4:62" s="11" customFormat="1">
       <c r="I41" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="42" spans="4:62" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -31351,7 +33249,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="4:35" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="43" spans="4:62" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -31382,8 +33280,9 @@
       <c r="AI43" s="11" t="s">
         <v>84</v>
       </c>
+      <c r="BH43" s="30"/>
     </row>
-    <row r="44" spans="4:35" s="11" customFormat="1">
+    <row r="44" spans="4:62" s="11" customFormat="1">
       <c r="J44" s="11" t="s">
         <v>77</v>
       </c>
@@ -31391,12 +33290,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="4:35" s="11" customFormat="1">
+    <row r="47" spans="4:62" s="11" customFormat="1">
       <c r="D47" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="4:35" s="11" customFormat="1">
+    <row r="48" spans="4:62" s="11" customFormat="1">
       <c r="I48" s="11" t="s">
         <v>78</v>
       </c>
@@ -31556,13 +33455,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B437FFD9-859C-40BE-A265-40ADB9507666}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A47:DP82"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
@@ -31571,7 +33471,7 @@
       <selection pane="topRight" activeCell="BL37" sqref="BL37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="16384" width="9" style="18"/>
   </cols>
@@ -31728,7 +33628,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter>

--- a/doc/super-duper-nes-architecture.xlsx
+++ b/doc/super-duper-nes-architecture.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="146">
   <si>
     <t>Fami con cartlidge I/F</t>
   </si>
@@ -52,443 +52,443 @@
   </si>
   <si>
     <t>NES cartridge</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>I/F</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>I2C</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>GPIO</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>zp</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>stack</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0x0800</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0x2000</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0x2008</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0x4000</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0x4020</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0x6000</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0x8000</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0x10000</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0xc000</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>mirror</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0x0000-0x07ff</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>io reg</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>io reg</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0x2000-0x2007</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>expantion rom</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>sram</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>prog rom</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>lower bank</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>upper bank</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>CPU space</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>memory map</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ram</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>duper io reg</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>reset vector</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>fifo status register</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>r: pop fifo register</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>w: push fifo register</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0xfffa</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0xfff9</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0xfff8</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>firo status register</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>bit</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>write fifo empty</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>write fifo full</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>read fifo empty</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>read fifo full</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>always 0</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>/empty</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>/full</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>/data</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>/addr</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>/scl</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>/sda</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>/gpio</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>/i2c</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>/i2c_data_in</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>/i2c_data_out</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>/composite</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>rom read</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>fifo status read</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>fifo read</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>fifo write</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>fifo status read (gpio)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>i2c data read</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>i2c data write</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>composite out</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>keypad input</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>linux command send</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>console display</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>linux terminal</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>i2c i/o</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>duper state machine</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>fifo head</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>fifo tail</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>push x 4</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>init:</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>pop x 2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>empty = 1</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>fifo tail</t>
+    <t>full = 0</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>push x 4</t>
+    <t>empty = 0</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>init:</t>
+    <t>size = 0</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>pop x 2</t>
+    <t>size = 4</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>empty = 1</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>full = 0</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>empty = 0</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>size = 0</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>size = 4</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>size = 2</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>push x 10</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>・・・・・・</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>・・・・・・</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>size = 10</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>push x 246</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>size = 256</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>size = 256</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>full = 1</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>size = 254</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>pop x 254</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>fifo</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>fifo</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>de0-cv base clock = 50 MHz</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>i2c clock = 100 KHz</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>nes cpu clock = 1.789773 MHz</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>x 27.93 times</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>x 500 times</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>x 17.89 times</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>base clock</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>nes clock</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>rom read</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>idle</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>instruction</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>state machie</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>nop</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>lda $50</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>lda $ff25</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>i2c clock</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">i2c transfer </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>i2c done</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>fifo push</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>S</t>
@@ -540,7 +540,7 @@
   </si>
   <si>
     <t>R/W = 0 (Write)</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Start seq</t>
@@ -553,23 +553,23 @@
   </si>
   <si>
     <t>idle</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>rom</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>i2c xfer</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>i2c ack</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>i2c idle</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>NES &gt; BBB</t>
@@ -583,17 +583,28 @@
   <si>
     <t>i2c serial xfer</t>
   </si>
+  <si>
+    <t>fifo head set</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,12 +822,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -830,42 +841,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -911,7 +925,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -976,7 +990,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1042,7 +1056,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,7 +1117,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1178,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1239,7 @@
         <xdr:cNvPr id="16" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1300,7 @@
         <xdr:cNvPr id="17" name="Rectangle 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1361,7 @@
         <xdr:cNvPr id="18" name="Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1422,7 @@
         <xdr:cNvPr id="33" name="Group 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1441,7 @@
           <xdr:cNvPr id="15" name="Group 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1446,7 +1460,7 @@
             <xdr:cNvPr id="9" name="Straight Connector 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1481,7 +1495,7 @@
             <xdr:cNvPr id="10" name="Straight Connector 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1516,7 +1530,7 @@
             <xdr:cNvPr id="11" name="Straight Connector 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1551,7 +1565,7 @@
             <xdr:cNvPr id="12" name="Straight Connector 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1586,7 +1600,7 @@
             <xdr:cNvPr id="13" name="Straight Connector 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1621,7 +1635,7 @@
             <xdr:cNvPr id="14" name="Straight Connector 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1657,7 +1671,7 @@
           <xdr:cNvPr id="26" name="Group 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1676,7 +1690,7 @@
             <xdr:cNvPr id="27" name="Straight Connector 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1711,7 +1725,7 @@
             <xdr:cNvPr id="28" name="Straight Connector 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1746,7 +1760,7 @@
             <xdr:cNvPr id="29" name="Straight Connector 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1781,7 +1795,7 @@
             <xdr:cNvPr id="30" name="Straight Connector 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1816,7 +1830,7 @@
             <xdr:cNvPr id="31" name="Straight Connector 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1851,7 +1865,7 @@
             <xdr:cNvPr id="32" name="Straight Connector 31">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1903,7 +1917,7 @@
         <xdr:cNvPr id="34" name="Group 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1936,7 @@
           <xdr:cNvPr id="35" name="Group 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1941,7 +1955,7 @@
             <xdr:cNvPr id="43" name="Straight Connector 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1976,7 +1990,7 @@
             <xdr:cNvPr id="44" name="Straight Connector 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2011,7 +2025,7 @@
             <xdr:cNvPr id="45" name="Straight Connector 44">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2046,7 +2060,7 @@
             <xdr:cNvPr id="46" name="Straight Connector 45">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2081,7 +2095,7 @@
             <xdr:cNvPr id="47" name="Straight Connector 46">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2116,7 +2130,7 @@
             <xdr:cNvPr id="48" name="Straight Connector 47">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2152,7 +2166,7 @@
           <xdr:cNvPr id="36" name="Group 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2171,7 +2185,7 @@
             <xdr:cNvPr id="37" name="Straight Connector 36">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2206,7 +2220,7 @@
             <xdr:cNvPr id="38" name="Straight Connector 37">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2241,7 +2255,7 @@
             <xdr:cNvPr id="39" name="Straight Connector 38">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2276,7 +2290,7 @@
             <xdr:cNvPr id="40" name="Straight Connector 39">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2311,7 +2325,7 @@
             <xdr:cNvPr id="41" name="Straight Connector 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2346,7 +2360,7 @@
             <xdr:cNvPr id="42" name="Straight Connector 41">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2398,7 +2412,7 @@
         <xdr:cNvPr id="49" name="Rectangle 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2473,7 @@
         <xdr:cNvPr id="50" name="Rounded Rectangle 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2534,7 @@
         <xdr:cNvPr id="52" name="Straight Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2586,7 @@
         <xdr:cNvPr id="51" name="Rectangle 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2652,7 @@
         <xdr:cNvPr id="53" name="Rectangle 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2713,7 @@
         <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,7 +2732,7 @@
           <xdr:cNvPr id="55" name="Straight Connector 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2753,7 +2767,7 @@
           <xdr:cNvPr id="56" name="Straight Connector 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2804,7 +2818,7 @@
         <xdr:cNvPr id="61" name="Rectangle 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,7 +2884,7 @@
         <xdr:cNvPr id="76" name="Group 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2903,7 @@
           <xdr:cNvPr id="20" name="Straight Connector 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2924,7 +2938,7 @@
           <xdr:cNvPr id="21" name="Straight Connector 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2959,7 +2973,7 @@
           <xdr:cNvPr id="22" name="Straight Connector 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2994,7 +3008,7 @@
           <xdr:cNvPr id="23" name="Straight Connector 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3029,7 +3043,7 @@
           <xdr:cNvPr id="24" name="Straight Connector 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3064,7 +3078,7 @@
           <xdr:cNvPr id="25" name="Straight Connector 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3099,7 +3113,7 @@
           <xdr:cNvPr id="58" name="Straight Connector 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3134,7 +3148,7 @@
           <xdr:cNvPr id="59" name="Straight Connector 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3169,7 +3183,7 @@
           <xdr:cNvPr id="60" name="Straight Connector 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3204,7 +3218,7 @@
           <xdr:cNvPr id="62" name="Straight Connector 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3239,7 +3253,7 @@
           <xdr:cNvPr id="63" name="Straight Connector 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3274,7 +3288,7 @@
           <xdr:cNvPr id="64" name="Straight Connector 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3325,7 +3339,7 @@
         <xdr:cNvPr id="1027" name="AutoShape 3" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.%284%29.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3387,7 @@
         <xdr:cNvPr id="1028" name="AutoShape 4" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.(4).jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3421,7 +3435,7 @@
         <xdr:cNvPr id="1029" name="AutoShape 5" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.(4).jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3469,7 +3483,7 @@
         <xdr:cNvPr id="77" name="Picture 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3524,7 +3538,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2247679-251F-4D88-8F07-EBF546E0DA7A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2247679-251F-4D88-8F07-EBF546E0DA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3586,7 +3600,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7926CF31-A546-41A3-A15E-4DE17B509DFB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7926CF31-A546-41A3-A15E-4DE17B509DFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3648,7 +3662,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84FA88FD-76BF-4D56-B4F1-2D57299C29D4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FA88FD-76BF-4D56-B4F1-2D57299C29D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3710,7 +3724,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A881FC7-CB09-4132-9927-9B06F74FBAC3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A881FC7-CB09-4132-9927-9B06F74FBAC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3779,7 +3793,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FACFA3D8-FD6C-4C3C-9596-F9638F17BCD9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACFA3D8-FD6C-4C3C-9596-F9638F17BCD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3841,7 +3855,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{357D6DFE-DB23-4599-8D0E-C7E8AC62484B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357D6DFE-DB23-4599-8D0E-C7E8AC62484B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3910,7 +3924,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{480753E1-924B-401E-83E1-0CBF6C2188C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480753E1-924B-401E-83E1-0CBF6C2188C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3979,7 +3993,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{917DB88B-F309-458C-AD46-850FBC2B7944}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917DB88B-F309-458C-AD46-850FBC2B7944}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4052,7 +4066,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBA1A6A1-6BA6-4AE9-9F42-196036AF39CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA1A6A1-6BA6-4AE9-9F42-196036AF39CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4125,7 +4139,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFB6A670-37C2-488C-9D57-63BA8A7B60C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB6A670-37C2-488C-9D57-63BA8A7B60C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4194,7 +4208,7 @@
         <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A65B060D-433B-402F-AFD7-22C6564EEE99}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65B060D-433B-402F-AFD7-22C6564EEE99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4263,7 +4277,7 @@
         <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A178BF2-AD68-4847-AD0B-CA631F33E095}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A178BF2-AD68-4847-AD0B-CA631F33E095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4325,7 +4339,7 @@
         <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAEEB55E-E5CD-4A51-8DDF-551E4BE83633}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEEB55E-E5CD-4A51-8DDF-551E4BE83633}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4394,7 +4408,7 @@
         <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA4312F7-7630-4D28-AFF7-2E9465A12464}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4312F7-7630-4D28-AFF7-2E9465A12464}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4463,7 +4477,7 @@
         <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC88A48A-853C-46DD-84FB-8B63D6F573F4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC88A48A-853C-46DD-84FB-8B63D6F573F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4532,7 +4546,7 @@
         <xdr:cNvPr id="17" name="正方形/長方形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47A2A49E-0EDF-4834-BA90-2B39D7E01C4F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A2A49E-0EDF-4834-BA90-2B39D7E01C4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4605,7 +4619,7 @@
         <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{520241A1-91AC-40D3-AEFC-3B6EDFC9C203}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520241A1-91AC-40D3-AEFC-3B6EDFC9C203}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4667,7 +4681,7 @@
         <xdr:cNvPr id="19" name="正方形/長方形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E6C182F-89E5-4134-A625-076B97F1A078}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6C182F-89E5-4134-A625-076B97F1A078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4729,7 +4743,7 @@
         <xdr:cNvPr id="20" name="正方形/長方形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AC6B2AD-7AFB-4F1F-BA4F-D8A81C7D71CF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC6B2AD-7AFB-4F1F-BA4F-D8A81C7D71CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4798,7 +4812,7 @@
         <xdr:cNvPr id="22" name="直線コネクタ 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB0DE781-A5A9-4D1C-98EA-5EA777BB4999}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0DE781-A5A9-4D1C-98EA-5EA777BB4999}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4850,7 +4864,7 @@
         <xdr:cNvPr id="23" name="直線コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C42186A-D4F8-4097-86DB-3963A51FE7C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C42186A-D4F8-4097-86DB-3963A51FE7C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4900,7 +4914,7 @@
         <xdr:cNvPr id="27" name="直線コネクタ 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{990E9ABF-DDA1-496F-A306-1C4028430B36}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990E9ABF-DDA1-496F-A306-1C4028430B36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4952,7 +4966,7 @@
         <xdr:cNvPr id="28" name="直線コネクタ 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0601CF1-55BD-4263-86F9-F8C5122A8EEE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0601CF1-55BD-4263-86F9-F8C5122A8EEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5007,7 +5021,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8955E15-C818-4052-9C19-D8FF9B82FF30}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8955E15-C818-4052-9C19-D8FF9B82FF30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,7 +5082,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5713A0F4-827F-4C67-B3DD-F632AD6C7D79}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5713A0F4-827F-4C67-B3DD-F632AD6C7D79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5129,7 +5143,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{820767D0-A403-4007-A7F1-C06E192A4F8D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820767D0-A403-4007-A7F1-C06E192A4F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5190,7 +5204,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F36E6E7-DA55-4C11-A7E9-796EBC9DA1CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F36E6E7-DA55-4C11-A7E9-796EBC9DA1CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5251,7 +5265,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{896D09C2-970F-4850-AE42-A3B5D7CF8E76}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896D09C2-970F-4850-AE42-A3B5D7CF8E76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5312,7 +5326,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F2ECDDA-35B8-43FE-8CDC-14E9E7B04708}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2ECDDA-35B8-43FE-8CDC-14E9E7B04708}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5431,7 +5445,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF7232F4-E500-43DD-A84A-0CD5E1976F64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7232F4-E500-43DD-A84A-0CD5E1976F64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5499,7 +5513,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA2C098-97DA-42DE-B1C8-C5EEB1E7D9A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA2C098-97DA-42DE-B1C8-C5EEB1E7D9A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5560,7 +5574,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE53571D-D08A-4208-A789-A7E9DE084E02}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE53571D-D08A-4208-A789-A7E9DE084E02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5621,7 +5635,7 @@
         <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A3C8D36-9973-45F2-947C-AFD9F613B0E2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3C8D36-9973-45F2-947C-AFD9F613B0E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5682,7 +5696,7 @@
         <xdr:cNvPr id="14" name="直線コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4573CB36-553A-4896-9393-D4D1F8EB78D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4573CB36-553A-4896-9393-D4D1F8EB78D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5738,7 +5752,7 @@
         <xdr:cNvPr id="15" name="直線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37EE5112-0BB7-497B-B845-1B5A76EC248E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EE5112-0BB7-497B-B845-1B5A76EC248E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5794,7 +5808,7 @@
         <xdr:cNvPr id="18" name="直線コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{235B674C-8406-4421-86C1-22C3E27A332E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235B674C-8406-4421-86C1-22C3E27A332E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5848,7 +5862,7 @@
         <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3686753-0F3D-4780-89E8-32BBD14393D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3686753-0F3D-4780-89E8-32BBD14393D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5902,7 +5916,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F72910D1-106A-48F3-9336-46056147D7C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72910D1-106A-48F3-9336-46056147D7C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5963,7 +5977,7 @@
         <xdr:cNvPr id="23" name="直線コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D464D33-B14E-4B55-9B1B-DE556B0FBB96}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D464D33-B14E-4B55-9B1B-DE556B0FBB96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6020,7 +6034,7 @@
         <xdr:cNvPr id="24" name="直線コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8566BEBE-CE20-4E1D-91A2-AA2DFB64934C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8566BEBE-CE20-4E1D-91A2-AA2DFB64934C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6077,7 +6091,7 @@
         <xdr:cNvPr id="29" name="正方形/長方形 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C0F5110-16E5-4762-9032-73D1CCC95069}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F5110-16E5-4762-9032-73D1CCC95069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6138,7 +6152,7 @@
         <xdr:cNvPr id="30" name="直線コネクタ 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC82FDF8-D793-4A32-BC15-BEE240655175}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC82FDF8-D793-4A32-BC15-BEE240655175}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6195,7 +6209,7 @@
         <xdr:cNvPr id="33" name="正方形/長方形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2544D606-B49D-46F3-898B-3B4C8E08C8DD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2544D606-B49D-46F3-898B-3B4C8E08C8DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6256,7 +6270,7 @@
         <xdr:cNvPr id="34" name="正方形/長方形 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71F1ECFD-B4CE-47A1-9EF8-0B149F2B7120}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F1ECFD-B4CE-47A1-9EF8-0B149F2B7120}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6317,7 +6331,7 @@
         <xdr:cNvPr id="35" name="直線コネクタ 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{840AA9AC-88C6-4C07-80B0-4035C76069D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840AA9AC-88C6-4C07-80B0-4035C76069D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6374,7 +6388,7 @@
         <xdr:cNvPr id="38" name="直線コネクタ 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD17308-82AC-48FF-BE04-FFDA927110D4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD17308-82AC-48FF-BE04-FFDA927110D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6436,7 +6450,7 @@
         <xdr:cNvPr id="70" name="正方形/長方形 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7340808D-B02E-4ADA-A3D2-12C114518764}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7340808D-B02E-4ADA-A3D2-12C114518764}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6498,7 +6512,7 @@
         <xdr:cNvPr id="51" name="正方形/長方形 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5B41102-BD15-4B8D-A8FE-56F95518384D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B41102-BD15-4B8D-A8FE-56F95518384D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6561,7 +6575,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EDE56944-E785-422E-AC0B-330F7732DF15}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE56944-E785-422E-AC0B-330F7732DF15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6623,7 +6637,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD54228A-90DD-4B55-95DD-792104F01CAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD54228A-90DD-4B55-95DD-792104F01CAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6685,7 +6699,7 @@
         <xdr:cNvPr id="9" name="直線コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20B6A153-AB83-4B25-816A-4BA191604DFB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B6A153-AB83-4B25-816A-4BA191604DFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6742,7 +6756,7 @@
         <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F322D273-1E8E-483E-86D0-2616452A6613}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F322D273-1E8E-483E-86D0-2616452A6613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6795,7 +6809,7 @@
         <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70A3DD3E-9A9A-4A89-B0AD-A1E844E05679}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A3DD3E-9A9A-4A89-B0AD-A1E844E05679}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6857,7 +6871,7 @@
         <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88841D87-5E7B-4ECB-9F4D-160B4FCAB580}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88841D87-5E7B-4ECB-9F4D-160B4FCAB580}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6910,7 +6924,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F82768FD-B4F3-4B94-B639-4C850B9B5A82}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82768FD-B4F3-4B94-B639-4C850B9B5A82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6971,7 +6985,7 @@
         <xdr:cNvPr id="23" name="直線コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D13BA419-B17D-4C57-8E2B-43B95013F224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13BA419-B17D-4C57-8E2B-43B95013F224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7024,7 +7038,7 @@
         <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F14CE2C1-A8DA-4C29-AEF4-DC1113ED3448}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14CE2C1-A8DA-4C29-AEF4-DC1113ED3448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7086,7 +7100,7 @@
         <xdr:cNvPr id="25" name="直線コネクタ 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3FF3C7D-B8B3-4B30-95C8-33683BA16A80}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FF3C7D-B8B3-4B30-95C8-33683BA16A80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7139,7 +7153,7 @@
         <xdr:cNvPr id="27" name="直線コネクタ 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8164CB4-C0A6-45B5-83A0-1F4FC860F3E3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8164CB4-C0A6-45B5-83A0-1F4FC860F3E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7192,7 +7206,7 @@
         <xdr:cNvPr id="29" name="直線コネクタ 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44966D97-8850-48B1-BAD3-74C85954AB25}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44966D97-8850-48B1-BAD3-74C85954AB25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7245,7 +7259,7 @@
         <xdr:cNvPr id="33" name="直線コネクタ 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A67B8748-7FEA-4E93-A811-8DEE3F2E3BED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67B8748-7FEA-4E93-A811-8DEE3F2E3BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7302,7 +7316,7 @@
         <xdr:cNvPr id="38" name="正方形/長方形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAB7F798-3D4B-423A-B024-48F08C5D4698}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB7F798-3D4B-423A-B024-48F08C5D4698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7365,7 +7379,7 @@
         <xdr:cNvPr id="42" name="正方形/長方形 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62B7E65A-9681-4E3A-8D86-C3F668682A36}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B7E65A-9681-4E3A-8D86-C3F668682A36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7427,7 +7441,7 @@
         <xdr:cNvPr id="32" name="直線コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01FCFE90-26F7-4121-B994-90BD062BB74B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01FCFE90-26F7-4121-B994-90BD062BB74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7486,7 +7500,7 @@
         <xdr:cNvPr id="48" name="正方形/長方形 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E23BAFA1-E226-45A0-BA91-C111B7B78FF4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23BAFA1-E226-45A0-BA91-C111B7B78FF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7548,7 +7562,7 @@
         <xdr:cNvPr id="26" name="直線コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B153635-017C-4323-BA05-1C1CC64D68B7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B153635-017C-4323-BA05-1C1CC64D68B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7604,7 +7618,7 @@
         <xdr:cNvPr id="54" name="正方形/長方形 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B3F18D6-BDFC-4820-A255-89D3659CC2C7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3F18D6-BDFC-4820-A255-89D3659CC2C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7667,7 +7681,7 @@
         <xdr:cNvPr id="56" name="正方形/長方形 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D163874-8179-432D-9A37-EBDAEAA05FDA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D163874-8179-432D-9A37-EBDAEAA05FDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7729,7 +7743,7 @@
         <xdr:cNvPr id="58" name="正方形/長方形 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AF5B67D-59A5-406C-8121-AE56AFD3A597}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF5B67D-59A5-406C-8121-AE56AFD3A597}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7791,7 +7805,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AB4AAA-FC9A-4804-B621-BC81E1FC75D4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AB4AAA-FC9A-4804-B621-BC81E1FC75D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7847,7 +7861,7 @@
         <xdr:cNvPr id="8" name="直線コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55EB6B21-CFFE-4002-A0A6-2A9BC85985B7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55EB6B21-CFFE-4002-A0A6-2A9BC85985B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7906,7 +7920,7 @@
         <xdr:cNvPr id="62" name="直線コネクタ 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2D73108-23E7-4C47-95B7-E9CC28F77833}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D73108-23E7-4C47-95B7-E9CC28F77833}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7966,7 +7980,7 @@
         <xdr:cNvPr id="65" name="正方形/長方形 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{264658E5-CF3A-4035-8D4E-8E0B93CE422C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264658E5-CF3A-4035-8D4E-8E0B93CE422C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8028,7 +8042,7 @@
         <xdr:cNvPr id="66" name="直線コネクタ 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71DEC997-0EE5-4E83-AB34-EB62764DC302}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DEC997-0EE5-4E83-AB34-EB62764DC302}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8093,7 +8107,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8F6FDA3-32AD-4E9B-AFA8-645E3AFA1001}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F6FDA3-32AD-4E9B-AFA8-645E3AFA1001}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8155,7 +8169,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FFBD111-B9EC-4925-A0CE-AF259F9FEB1A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFBD111-B9EC-4925-A0CE-AF259F9FEB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8217,7 +8231,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52A03CEE-3285-4856-9CD8-81B128D10081}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A03CEE-3285-4856-9CD8-81B128D10081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8279,7 +8293,7 @@
         <xdr:cNvPr id="5" name="矢印: 左右 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C43DAD4E-B7F8-4302-9328-8AF8BB7858D4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43DAD4E-B7F8-4302-9328-8AF8BB7858D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8337,7 +8351,7 @@
         <xdr:cNvPr id="6" name="矢印: 左右 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FA690AA-B24A-40DB-B919-6DC85D822E87}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA690AA-B24A-40DB-B919-6DC85D822E87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8395,7 +8409,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B83578F-5B3D-41BB-AEB0-068E470D1169}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B83578F-5B3D-41BB-AEB0-068E470D1169}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8457,7 +8471,7 @@
         <xdr:cNvPr id="8" name="矢印: 左右 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{927C59B8-8F01-4AAC-9CEA-EA09E275ABB6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927C59B8-8F01-4AAC-9CEA-EA09E275ABB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8515,7 +8529,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DF49119-7B5D-49A6-8020-C622FB42AED6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF49119-7B5D-49A6-8020-C622FB42AED6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8577,7 +8591,7 @@
         <xdr:cNvPr id="10" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8639,7 +8653,7 @@
         <xdr:cNvPr id="12" name="コネクタ: 曲線 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A624380-5E2B-4678-834A-476892BCCEF9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A624380-5E2B-4678-834A-476892BCCEF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8699,7 +8713,7 @@
         <xdr:cNvPr id="14" name="楕円 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CBF912D-6800-4D42-8220-A23EDD2DC92F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBF912D-6800-4D42-8220-A23EDD2DC92F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8761,7 +8775,7 @@
         <xdr:cNvPr id="15" name="楕円 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FCB4EB7-785B-4398-A15B-CC7BC68DAA29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCB4EB7-785B-4398-A15B-CC7BC68DAA29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8823,7 +8837,7 @@
         <xdr:cNvPr id="16" name="楕円 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC49D81A-BCC0-490C-A998-6FBE5DF41FF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC49D81A-BCC0-490C-A998-6FBE5DF41FF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8885,7 +8899,7 @@
         <xdr:cNvPr id="17" name="楕円 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{908379EE-4A8F-4385-B88E-BB12CEC20A96}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{908379EE-4A8F-4385-B88E-BB12CEC20A96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8947,7 +8961,7 @@
         <xdr:cNvPr id="18" name="コネクタ: 曲線 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D33BF03F-8024-4679-92C9-75EB3BD59A10}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33BF03F-8024-4679-92C9-75EB3BD59A10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9009,7 +9023,7 @@
         <xdr:cNvPr id="21" name="コネクタ: 曲線 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48EC8487-DC45-4AA2-9A64-E7C72FE98DE6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EC8487-DC45-4AA2-9A64-E7C72FE98DE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9071,7 +9085,7 @@
         <xdr:cNvPr id="24" name="コネクタ: 曲線 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6937307-1045-4C20-A873-1C3460E531F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6937307-1045-4C20-A873-1C3460E531F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9133,7 +9147,7 @@
         <xdr:cNvPr id="28" name="コネクタ: 曲線 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3D853A7-7F2F-4A63-B771-98C2C3271078}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D853A7-7F2F-4A63-B771-98C2C3271078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9195,7 +9209,7 @@
         <xdr:cNvPr id="35" name="コネクタ: 曲線 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80A56AAA-BA4D-44F6-95D5-3531DC1CA5FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A56AAA-BA4D-44F6-95D5-3531DC1CA5FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9257,7 +9271,7 @@
         <xdr:cNvPr id="36" name="コネクタ: 曲線 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51D59F30-FB28-4465-8198-FF556618DB62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D59F30-FB28-4465-8198-FF556618DB62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9319,7 +9333,7 @@
         <xdr:cNvPr id="37" name="コネクタ: 曲線 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6821B165-0DF6-4851-ABC8-35263234A5EF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6821B165-0DF6-4851-ABC8-35263234A5EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9381,7 +9395,7 @@
         <xdr:cNvPr id="38" name="コネクタ: 曲線 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{072F0FF8-8CEF-44BC-905D-1D705D03F07B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072F0FF8-8CEF-44BC-905D-1D705D03F07B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9443,7 +9457,7 @@
         <xdr:cNvPr id="50" name="楕円 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99A4AD05-310A-4C5B-9539-259F4FC7BE15}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A4AD05-310A-4C5B-9539-259F4FC7BE15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9513,7 +9527,7 @@
         <xdr:cNvPr id="51" name="楕円 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{025F8ECD-E2A5-46DC-B4E7-4513594B202C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{025F8ECD-E2A5-46DC-B4E7-4513594B202C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9575,7 +9589,7 @@
         <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7082B3C5-5CEA-461E-AE6D-BF713323704D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7082B3C5-5CEA-461E-AE6D-BF713323704D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9633,7 +9647,7 @@
         <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23C7C802-2E56-4516-9249-3DB0A980120B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C7C802-2E56-4516-9249-3DB0A980120B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9690,7 +9704,7 @@
         <xdr:cNvPr id="29" name="楕円 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5553E96-8785-41AE-9C67-BF2FDD0FFD26}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5553E96-8785-41AE-9C67-BF2FDD0FFD26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9752,7 +9766,7 @@
         <xdr:cNvPr id="30" name="楕円 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA2EFB9C-B4D2-4697-90A8-A4FD4B79FED9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2EFB9C-B4D2-4697-90A8-A4FD4B79FED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9814,7 +9828,7 @@
         <xdr:cNvPr id="32" name="コネクタ: 曲線 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60E94192-955E-4141-9A1E-7BCB8A922426}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E94192-955E-4141-9A1E-7BCB8A922426}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9876,7 +9890,7 @@
         <xdr:cNvPr id="39" name="コネクタ: 曲線 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{501E4B56-0819-4FD1-9ACC-1599D0F51507}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501E4B56-0819-4FD1-9ACC-1599D0F51507}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9938,7 +9952,7 @@
         <xdr:cNvPr id="40" name="コネクタ: 曲線 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81C018E2-ADED-44C0-AF56-563DABE33CF4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C018E2-ADED-44C0-AF56-563DABE33CF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9998,7 +10012,7 @@
         <xdr:cNvPr id="43" name="楕円 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64B4E926-0762-4832-800A-D5F663D11DA9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B4E926-0762-4832-800A-D5F663D11DA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10060,7 +10074,7 @@
         <xdr:cNvPr id="44" name="楕円 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{794AD72E-7D1C-4101-8957-74F96AEB3147}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794AD72E-7D1C-4101-8957-74F96AEB3147}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10122,7 +10136,7 @@
         <xdr:cNvPr id="45" name="コネクタ: 曲線 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{468D0F7F-35BA-4071-8DB1-E9A87F05AC70}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468D0F7F-35BA-4071-8DB1-E9A87F05AC70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10184,7 +10198,7 @@
         <xdr:cNvPr id="46" name="コネクタ: 曲線 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE2B56E2-BE96-480C-A1F7-94DC556582E1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2B56E2-BE96-480C-A1F7-94DC556582E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10246,7 +10260,7 @@
         <xdr:cNvPr id="47" name="コネクタ: 曲線 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E384624-0762-4127-A63B-4DE9E4272DA6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E384624-0762-4127-A63B-4DE9E4272DA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10306,7 +10320,7 @@
         <xdr:cNvPr id="41" name="矢印: 右カーブ 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC6F8C17-8D56-4325-8152-4B8BD6A948F3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6F8C17-8D56-4325-8152-4B8BD6A948F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10370,7 +10384,7 @@
         <xdr:cNvPr id="42" name="矢印: 右カーブ 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC51E6E1-F02C-4C38-AAFC-5D9666E06104}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC51E6E1-F02C-4C38-AAFC-5D9666E06104}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10434,7 +10448,7 @@
         <xdr:cNvPr id="48" name="矢印: 右カーブ 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F22B6B76-0809-47BC-B8B3-D9B7C7A23D3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22B6B76-0809-47BC-B8B3-D9B7C7A23D3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10498,7 +10512,7 @@
         <xdr:cNvPr id="26" name="グループ化 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{423E15E5-4C42-4726-8538-B9B03E0ED29C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423E15E5-4C42-4726-8538-B9B03E0ED29C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10517,7 +10531,7 @@
           <xdr:cNvPr id="23" name="グループ化 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14627D23-CC00-4830-8F14-8A35870EC7C3}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14627D23-CC00-4830-8F14-8A35870EC7C3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10536,7 +10550,7 @@
             <xdr:cNvPr id="22" name="グループ化 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{510B4275-0F1E-46F9-9BEC-DE1B344C06CE}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510B4275-0F1E-46F9-9BEC-DE1B344C06CE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10555,7 +10569,7 @@
               <xdr:cNvPr id="49" name="直線コネクタ 48">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DA0BBBA-6EFC-4848-9343-F987B922B1F0}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA0BBBA-6EFC-4848-9343-F987B922B1F0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10590,7 +10604,7 @@
               <xdr:cNvPr id="52" name="直線コネクタ 51">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB5D67D5-107B-4D55-A8F8-1948CEB9C54D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5D67D5-107B-4D55-A8F8-1948CEB9C54D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10625,7 +10639,7 @@
               <xdr:cNvPr id="55" name="直線コネクタ 54">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E8C26AB-86D9-4C5F-A2EE-F13F42BA8F09}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8C26AB-86D9-4C5F-A2EE-F13F42BA8F09}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10660,7 +10674,7 @@
               <xdr:cNvPr id="56" name="直線コネクタ 55">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FF55A55-3329-4854-8ABE-251B90D874F0}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF55A55-3329-4854-8ABE-251B90D874F0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10696,7 +10710,7 @@
             <xdr:cNvPr id="61" name="グループ化 60">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A99DF7D-3085-4984-89C1-3095041811A5}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A99DF7D-3085-4984-89C1-3095041811A5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10715,7 +10729,7 @@
               <xdr:cNvPr id="62" name="直線コネクタ 61">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91993554-3971-4FC0-8FCF-3298890DD882}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91993554-3971-4FC0-8FCF-3298890DD882}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10750,7 +10764,7 @@
               <xdr:cNvPr id="63" name="直線コネクタ 62">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18231A16-7D86-4CA8-AFB0-8EB12FBA0063}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18231A16-7D86-4CA8-AFB0-8EB12FBA0063}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10785,7 +10799,7 @@
               <xdr:cNvPr id="64" name="直線コネクタ 63">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4D29E1E-B612-498B-A4B4-54E98D783F85}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D29E1E-B612-498B-A4B4-54E98D783F85}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10820,7 +10834,7 @@
               <xdr:cNvPr id="65" name="直線コネクタ 64">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1E92526-AA49-4650-996C-78C75A874CDD}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E92526-AA49-4650-996C-78C75A874CDD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10856,7 +10870,7 @@
             <xdr:cNvPr id="66" name="グループ化 65">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2391C0AC-B2C9-4D2D-8FAC-F88762FE36E3}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2391C0AC-B2C9-4D2D-8FAC-F88762FE36E3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10875,7 +10889,7 @@
               <xdr:cNvPr id="67" name="直線コネクタ 66">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{434F1CEC-A0D4-4912-B83B-956DCD000710}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434F1CEC-A0D4-4912-B83B-956DCD000710}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10910,7 +10924,7 @@
               <xdr:cNvPr id="68" name="直線コネクタ 67">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA92E0DF-01C4-45D4-9F5D-9AB1B26EBD2B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA92E0DF-01C4-45D4-9F5D-9AB1B26EBD2B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10945,7 +10959,7 @@
               <xdr:cNvPr id="69" name="直線コネクタ 68">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA04DBEB-3ACF-41A6-82DA-B8B7A9FD83E4}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA04DBEB-3ACF-41A6-82DA-B8B7A9FD83E4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10980,7 +10994,7 @@
               <xdr:cNvPr id="70" name="直線コネクタ 69">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5286FF46-BBF3-44A0-B397-E08F1A9F3824}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5286FF46-BBF3-44A0-B397-E08F1A9F3824}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11016,7 +11030,7 @@
             <xdr:cNvPr id="71" name="グループ化 70">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C05190F-59F3-4080-A474-D9059F4625EC}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C05190F-59F3-4080-A474-D9059F4625EC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11035,7 +11049,7 @@
               <xdr:cNvPr id="72" name="直線コネクタ 71">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E428DA9-EFD0-4474-A5D3-764A4EB53299}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E428DA9-EFD0-4474-A5D3-764A4EB53299}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11070,7 +11084,7 @@
               <xdr:cNvPr id="73" name="直線コネクタ 72">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A68EA79-29C7-4846-9F44-A94305AC2804}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A68EA79-29C7-4846-9F44-A94305AC2804}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11105,7 +11119,7 @@
               <xdr:cNvPr id="74" name="直線コネクタ 73">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E26356B-32C8-47CC-BA80-D2DAEB9854D6}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E26356B-32C8-47CC-BA80-D2DAEB9854D6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11140,7 +11154,7 @@
               <xdr:cNvPr id="75" name="直線コネクタ 74">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71B1ACA8-E8A3-437E-B283-AD641F2FBCC2}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B1ACA8-E8A3-437E-B283-AD641F2FBCC2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11176,7 +11190,7 @@
             <xdr:cNvPr id="76" name="グループ化 75">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3C542CA-8E0B-4658-AE9B-64B1961B7927}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C542CA-8E0B-4658-AE9B-64B1961B7927}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11195,7 +11209,7 @@
               <xdr:cNvPr id="77" name="直線コネクタ 76">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1EB4849-3CD0-409A-A2C7-B5188B2234F3}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EB4849-3CD0-409A-A2C7-B5188B2234F3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11230,7 +11244,7 @@
               <xdr:cNvPr id="78" name="直線コネクタ 77">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEC53005-62FD-4BA5-96CE-E855D269635A}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC53005-62FD-4BA5-96CE-E855D269635A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11265,7 +11279,7 @@
               <xdr:cNvPr id="79" name="直線コネクタ 78">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A154C26E-A7FA-47D0-BD5B-A5C96F5FA4C3}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A154C26E-A7FA-47D0-BD5B-A5C96F5FA4C3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11300,7 +11314,7 @@
               <xdr:cNvPr id="80" name="直線コネクタ 79">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{744C533F-C283-4B8B-B58B-7741415DE2C2}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744C533F-C283-4B8B-B58B-7741415DE2C2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11336,7 +11350,7 @@
             <xdr:cNvPr id="81" name="グループ化 80">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{265ACC15-D132-4FE2-93D0-390C3C24B057}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265ACC15-D132-4FE2-93D0-390C3C24B057}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11355,7 +11369,7 @@
               <xdr:cNvPr id="82" name="直線コネクタ 81">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF9EACAE-E160-433E-9DCA-45220491BD76}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9EACAE-E160-433E-9DCA-45220491BD76}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11390,7 +11404,7 @@
               <xdr:cNvPr id="83" name="直線コネクタ 82">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A44A8125-F602-495C-A170-F5A8FDC28A5F}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44A8125-F602-495C-A170-F5A8FDC28A5F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11425,7 +11439,7 @@
               <xdr:cNvPr id="84" name="直線コネクタ 83">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CE16700-2481-4747-99E0-909C8A7CDC71}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE16700-2481-4747-99E0-909C8A7CDC71}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11460,7 +11474,7 @@
               <xdr:cNvPr id="85" name="直線コネクタ 84">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45CB511C-93DA-4069-94E3-CA95776BB96B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CB511C-93DA-4069-94E3-CA95776BB96B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11497,7 +11511,7 @@
           <xdr:cNvPr id="96" name="グループ化 95">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3936E751-D0F9-4F20-A11E-395D120D2AA9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3936E751-D0F9-4F20-A11E-395D120D2AA9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11516,7 +11530,7 @@
             <xdr:cNvPr id="97" name="グループ化 96">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78925371-D477-46AA-8C01-C47225EA961F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78925371-D477-46AA-8C01-C47225EA961F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11535,7 +11549,7 @@
               <xdr:cNvPr id="123" name="直線コネクタ 122">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34AB157D-73C5-4E38-910A-ADE257CF254D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AB157D-73C5-4E38-910A-ADE257CF254D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11570,7 +11584,7 @@
               <xdr:cNvPr id="124" name="直線コネクタ 123">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35C3DE7F-9174-497D-80A3-24AEA292F43D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C3DE7F-9174-497D-80A3-24AEA292F43D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11605,7 +11619,7 @@
               <xdr:cNvPr id="125" name="直線コネクタ 124">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F7303AC-9918-47F7-96F1-B84E6E2FCF60}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7303AC-9918-47F7-96F1-B84E6E2FCF60}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11640,7 +11654,7 @@
               <xdr:cNvPr id="126" name="直線コネクタ 125">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D97A607-94F9-4224-8E7E-C561971CB340}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D97A607-94F9-4224-8E7E-C561971CB340}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11676,7 +11690,7 @@
             <xdr:cNvPr id="98" name="グループ化 97">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{870FAED1-65E4-47BF-86CE-BEB4ECFAF30B}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870FAED1-65E4-47BF-86CE-BEB4ECFAF30B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11695,7 +11709,7 @@
               <xdr:cNvPr id="119" name="直線コネクタ 118">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AE5E408-9226-46B7-B2E5-179D16CE357B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE5E408-9226-46B7-B2E5-179D16CE357B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11730,7 +11744,7 @@
               <xdr:cNvPr id="120" name="直線コネクタ 119">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8BFF9B5-4C9B-4B48-AFEE-96515946BE47}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BFF9B5-4C9B-4B48-AFEE-96515946BE47}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11765,7 +11779,7 @@
               <xdr:cNvPr id="121" name="直線コネクタ 120">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1889F015-F2D8-40B6-B408-C8A70AE4F8B9}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1889F015-F2D8-40B6-B408-C8A70AE4F8B9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11800,7 +11814,7 @@
               <xdr:cNvPr id="122" name="直線コネクタ 121">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19114970-7083-45AD-BB32-562E811FE508}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19114970-7083-45AD-BB32-562E811FE508}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11836,7 +11850,7 @@
             <xdr:cNvPr id="99" name="グループ化 98">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E218F68-0511-4159-8723-13932F6F20E2}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E218F68-0511-4159-8723-13932F6F20E2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11855,7 +11869,7 @@
               <xdr:cNvPr id="115" name="直線コネクタ 114">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E387553-4DDF-4A7B-A146-30E3C06834FD}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E387553-4DDF-4A7B-A146-30E3C06834FD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11890,7 +11904,7 @@
               <xdr:cNvPr id="116" name="直線コネクタ 115">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D6FE572-139F-44DE-9375-52AAF9A8B0BB}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6FE572-139F-44DE-9375-52AAF9A8B0BB}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11925,7 +11939,7 @@
               <xdr:cNvPr id="117" name="直線コネクタ 116">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88FCA986-3395-465D-97D3-4EFD5370A7C9}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FCA986-3395-465D-97D3-4EFD5370A7C9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11960,7 +11974,7 @@
               <xdr:cNvPr id="118" name="直線コネクタ 117">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4587D3B-2EA2-4B45-9F0B-38DAC2E0DB2C}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4587D3B-2EA2-4B45-9F0B-38DAC2E0DB2C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11996,7 +12010,7 @@
             <xdr:cNvPr id="100" name="グループ化 99">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D3D8A64-B10D-4FA9-B492-1EA6A9B80F21}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3D8A64-B10D-4FA9-B492-1EA6A9B80F21}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12015,7 +12029,7 @@
               <xdr:cNvPr id="111" name="直線コネクタ 110">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18F5E104-E614-4C14-B1CC-609B2C40591D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F5E104-E614-4C14-B1CC-609B2C40591D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12050,7 +12064,7 @@
               <xdr:cNvPr id="112" name="直線コネクタ 111">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D19B041-C7FB-429A-9779-209D694ED811}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D19B041-C7FB-429A-9779-209D694ED811}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12085,7 +12099,7 @@
               <xdr:cNvPr id="113" name="直線コネクタ 112">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74447BBC-E7A0-4C3B-994A-27C374BCA6B9}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74447BBC-E7A0-4C3B-994A-27C374BCA6B9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12120,7 +12134,7 @@
               <xdr:cNvPr id="114" name="直線コネクタ 113">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E95CDFA4-7544-4A98-9C5F-6E4977FFD7AD}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95CDFA4-7544-4A98-9C5F-6E4977FFD7AD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12156,7 +12170,7 @@
             <xdr:cNvPr id="101" name="グループ化 100">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BE2512B-7EBB-446C-845E-21328DD49FB5}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE2512B-7EBB-446C-845E-21328DD49FB5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12175,7 +12189,7 @@
               <xdr:cNvPr id="107" name="直線コネクタ 106">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F68FF373-7628-4A9B-A071-E03927C08BDE}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68FF373-7628-4A9B-A071-E03927C08BDE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12210,7 +12224,7 @@
               <xdr:cNvPr id="108" name="直線コネクタ 107">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1F96AC5-E616-489E-BB91-BCD13402DEFF}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F96AC5-E616-489E-BB91-BCD13402DEFF}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12245,7 +12259,7 @@
               <xdr:cNvPr id="109" name="直線コネクタ 108">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5488FBB4-303B-44C6-A68C-0971EA618E93}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5488FBB4-303B-44C6-A68C-0971EA618E93}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12280,7 +12294,7 @@
               <xdr:cNvPr id="110" name="直線コネクタ 109">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1162D87-020A-428A-8BCB-C46E6CBF847C}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1162D87-020A-428A-8BCB-C46E6CBF847C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12316,7 +12330,7 @@
             <xdr:cNvPr id="102" name="グループ化 101">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D9975C6-C097-4B0D-9E5F-8BCA59F26D16}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9975C6-C097-4B0D-9E5F-8BCA59F26D16}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12335,7 +12349,7 @@
               <xdr:cNvPr id="103" name="直線コネクタ 102">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D52B6E8-BCF5-4BA4-A4EE-E81E74D33E9E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D52B6E8-BCF5-4BA4-A4EE-E81E74D33E9E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12370,7 +12384,7 @@
               <xdr:cNvPr id="104" name="直線コネクタ 103">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0198EC6-E332-4E38-8B96-BCE1EE21247F}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0198EC6-E332-4E38-8B96-BCE1EE21247F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12405,7 +12419,7 @@
               <xdr:cNvPr id="105" name="直線コネクタ 104">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EA3C3DD-B151-444F-B424-DAF6ED13C807}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA3C3DD-B151-444F-B424-DAF6ED13C807}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12440,7 +12454,7 @@
               <xdr:cNvPr id="106" name="直線コネクタ 105">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14DE5EAA-987F-4692-BE9E-8791F9C8DAD0}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DE5EAA-987F-4692-BE9E-8791F9C8DAD0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12477,7 +12491,7 @@
           <xdr:cNvPr id="127" name="グループ化 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDB042B1-EB70-47FC-8DA3-43F36CAEB0A3}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB042B1-EB70-47FC-8DA3-43F36CAEB0A3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12496,7 +12510,7 @@
             <xdr:cNvPr id="128" name="グループ化 127">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E02B0CCF-45EB-467D-B85C-CE897A71889D}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02B0CCF-45EB-467D-B85C-CE897A71889D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12515,7 +12529,7 @@
               <xdr:cNvPr id="154" name="直線コネクタ 153">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{383524E7-8DC5-4F8C-A242-2DA231BBC296}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383524E7-8DC5-4F8C-A242-2DA231BBC296}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12550,7 +12564,7 @@
               <xdr:cNvPr id="155" name="直線コネクタ 154">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2181A556-CD0B-48F9-B4C8-10FC16BC7D1D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2181A556-CD0B-48F9-B4C8-10FC16BC7D1D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12585,7 +12599,7 @@
               <xdr:cNvPr id="156" name="直線コネクタ 155">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{934320A7-8045-461A-A32A-24BE951175A1}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934320A7-8045-461A-A32A-24BE951175A1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12620,7 +12634,7 @@
               <xdr:cNvPr id="157" name="直線コネクタ 156">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04EACA38-E380-4BFA-B35A-4F5AA3710E9D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EACA38-E380-4BFA-B35A-4F5AA3710E9D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12656,7 +12670,7 @@
             <xdr:cNvPr id="129" name="グループ化 128">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26CCDC61-6C1C-40D6-A388-68AE3F4CD4BF}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CCDC61-6C1C-40D6-A388-68AE3F4CD4BF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12675,7 +12689,7 @@
               <xdr:cNvPr id="150" name="直線コネクタ 149">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D769E52-B555-4B9E-AE68-EEA1F2D2FE51}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D769E52-B555-4B9E-AE68-EEA1F2D2FE51}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12710,7 +12724,7 @@
               <xdr:cNvPr id="151" name="直線コネクタ 150">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADE55B4-F9A8-49B2-9E06-A75D830C8A5B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADE55B4-F9A8-49B2-9E06-A75D830C8A5B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12745,7 +12759,7 @@
               <xdr:cNvPr id="152" name="直線コネクタ 151">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{173ACDBD-1D80-4A66-91D0-67C9F0ADBF29}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173ACDBD-1D80-4A66-91D0-67C9F0ADBF29}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12780,7 +12794,7 @@
               <xdr:cNvPr id="153" name="直線コネクタ 152">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A28BBD8-F80F-4117-BF9C-45E97833A9CC}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A28BBD8-F80F-4117-BF9C-45E97833A9CC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12816,7 +12830,7 @@
             <xdr:cNvPr id="130" name="グループ化 129">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6806BB99-EE6A-4A1A-A1E9-17FA376ED84A}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6806BB99-EE6A-4A1A-A1E9-17FA376ED84A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12835,7 +12849,7 @@
               <xdr:cNvPr id="146" name="直線コネクタ 145">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27A7E3B3-C25B-4D4A-B7A7-F2CC9A6365B0}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A7E3B3-C25B-4D4A-B7A7-F2CC9A6365B0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12870,7 +12884,7 @@
               <xdr:cNvPr id="147" name="直線コネクタ 146">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DDE39DA-989E-4262-8878-F0E78F4B13BC}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDE39DA-989E-4262-8878-F0E78F4B13BC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12905,7 +12919,7 @@
               <xdr:cNvPr id="148" name="直線コネクタ 147">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{160EF002-2828-4178-8C9F-E132653C92B2}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160EF002-2828-4178-8C9F-E132653C92B2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12940,7 +12954,7 @@
               <xdr:cNvPr id="149" name="直線コネクタ 148">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A744991-3D5C-444D-89E0-CD461C742E63}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A744991-3D5C-444D-89E0-CD461C742E63}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12976,7 +12990,7 @@
             <xdr:cNvPr id="131" name="グループ化 130">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B8E1833-28C5-4B2F-8C5D-3DFD5C6683CD}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8E1833-28C5-4B2F-8C5D-3DFD5C6683CD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12995,7 +13009,7 @@
               <xdr:cNvPr id="142" name="直線コネクタ 141">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A5D6B10-1100-4D21-94F1-52F211956DBE}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5D6B10-1100-4D21-94F1-52F211956DBE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13030,7 +13044,7 @@
               <xdr:cNvPr id="143" name="直線コネクタ 142">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8FABDC9-3E66-4C67-B5C5-BE7BBF1C5A8F}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FABDC9-3E66-4C67-B5C5-BE7BBF1C5A8F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13065,7 +13079,7 @@
               <xdr:cNvPr id="144" name="直線コネクタ 143">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{367D6444-83A9-47CD-B0D2-59D57603D890}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{367D6444-83A9-47CD-B0D2-59D57603D890}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13100,7 +13114,7 @@
               <xdr:cNvPr id="145" name="直線コネクタ 144">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BDCCD81-6981-4190-98A8-B947776AE984}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDCCD81-6981-4190-98A8-B947776AE984}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13136,7 +13150,7 @@
             <xdr:cNvPr id="132" name="グループ化 131">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{694E0334-BDC9-40B3-9E7E-5CDED233EA8F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694E0334-BDC9-40B3-9E7E-5CDED233EA8F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13155,7 +13169,7 @@
               <xdr:cNvPr id="138" name="直線コネクタ 137">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88199CCD-AD6C-4FF1-8CFE-A262DC2727D6}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88199CCD-AD6C-4FF1-8CFE-A262DC2727D6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13190,7 +13204,7 @@
               <xdr:cNvPr id="139" name="直線コネクタ 138">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A53C20FF-EF59-4F3F-B2F7-A04889B8BA0E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53C20FF-EF59-4F3F-B2F7-A04889B8BA0E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13225,7 +13239,7 @@
               <xdr:cNvPr id="140" name="直線コネクタ 139">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BA20DA7-07CC-4E78-8F1A-C9AB5367C43C}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA20DA7-07CC-4E78-8F1A-C9AB5367C43C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13260,7 +13274,7 @@
               <xdr:cNvPr id="141" name="直線コネクタ 140">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5CE22CE-24C5-49FE-A0BC-97172C5D455E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CE22CE-24C5-49FE-A0BC-97172C5D455E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13296,7 +13310,7 @@
             <xdr:cNvPr id="133" name="グループ化 132">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5ABD734A-78E0-493C-BD61-6EAE7ACF9779}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABD734A-78E0-493C-BD61-6EAE7ACF9779}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13315,7 +13329,7 @@
               <xdr:cNvPr id="134" name="直線コネクタ 133">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64BFFE72-143E-495A-A2CC-0AD812571760}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BFFE72-143E-495A-A2CC-0AD812571760}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13350,7 +13364,7 @@
               <xdr:cNvPr id="135" name="直線コネクタ 134">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E926675-AE8B-43DD-A7B7-C29CF17834FC}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E926675-AE8B-43DD-A7B7-C29CF17834FC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13385,7 +13399,7 @@
               <xdr:cNvPr id="136" name="直線コネクタ 135">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{206B6845-B8A0-46C8-B2EF-653E10E60181}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206B6845-B8A0-46C8-B2EF-653E10E60181}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13420,7 +13434,7 @@
               <xdr:cNvPr id="137" name="直線コネクタ 136">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D88DB12-796B-46C1-92BE-82116645B551}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D88DB12-796B-46C1-92BE-82116645B551}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13457,7 +13471,7 @@
           <xdr:cNvPr id="158" name="グループ化 157">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2903B6DE-8B37-4B1F-8A45-96D74A18F16A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2903B6DE-8B37-4B1F-8A45-96D74A18F16A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13476,7 +13490,7 @@
             <xdr:cNvPr id="159" name="グループ化 158">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A153EFA2-BEE0-4A14-90D3-F9361D1279F8}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A153EFA2-BEE0-4A14-90D3-F9361D1279F8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13495,7 +13509,7 @@
               <xdr:cNvPr id="185" name="直線コネクタ 184">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14620AA8-2A84-487F-B4AC-727B1365D750}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14620AA8-2A84-487F-B4AC-727B1365D750}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13530,7 +13544,7 @@
               <xdr:cNvPr id="186" name="直線コネクタ 185">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9AB0AD8-7600-4CAC-9A09-BF6392A366F3}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AB0AD8-7600-4CAC-9A09-BF6392A366F3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13565,7 +13579,7 @@
               <xdr:cNvPr id="187" name="直線コネクタ 186">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A25D6875-D0B8-497F-A4A3-82B350BE8C5B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25D6875-D0B8-497F-A4A3-82B350BE8C5B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13600,7 +13614,7 @@
               <xdr:cNvPr id="188" name="直線コネクタ 187">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8F35398-4C5C-48FD-B5AF-BABC649BBBFC}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F35398-4C5C-48FD-B5AF-BABC649BBBFC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13636,7 +13650,7 @@
             <xdr:cNvPr id="160" name="グループ化 159">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87437CBC-206A-460C-A203-DC544BC3332B}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87437CBC-206A-460C-A203-DC544BC3332B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13655,7 +13669,7 @@
               <xdr:cNvPr id="181" name="直線コネクタ 180">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{739770EA-D55F-46BE-B5F6-2A75DCA954B0}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739770EA-D55F-46BE-B5F6-2A75DCA954B0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13690,7 +13704,7 @@
               <xdr:cNvPr id="182" name="直線コネクタ 181">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D4BB4AB-9AB0-4F7C-B76E-AB0054B6952A}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4BB4AB-9AB0-4F7C-B76E-AB0054B6952A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13725,7 +13739,7 @@
               <xdr:cNvPr id="183" name="直線コネクタ 182">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666C5EBB-E969-4B43-A479-FEDA56E32F94}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666C5EBB-E969-4B43-A479-FEDA56E32F94}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13760,7 +13774,7 @@
               <xdr:cNvPr id="184" name="直線コネクタ 183">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEE1E179-B77F-4A91-A477-E5FA133B505B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE1E179-B77F-4A91-A477-E5FA133B505B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13796,7 +13810,7 @@
             <xdr:cNvPr id="161" name="グループ化 160">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5CD43C4-A449-4F8C-880A-ECE89573ECB1}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CD43C4-A449-4F8C-880A-ECE89573ECB1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13815,7 +13829,7 @@
               <xdr:cNvPr id="177" name="直線コネクタ 176">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89EF4D39-D3AF-4DCE-9053-F2ABF4CCBAFF}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89EF4D39-D3AF-4DCE-9053-F2ABF4CCBAFF}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13850,7 +13864,7 @@
               <xdr:cNvPr id="178" name="直線コネクタ 177">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32E8178D-4A3C-44A1-89E7-B60D059E3E8B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E8178D-4A3C-44A1-89E7-B60D059E3E8B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13885,7 +13899,7 @@
               <xdr:cNvPr id="179" name="直線コネクタ 178">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE2EC39E-D00C-4E65-A8B7-7D14F9BF7204}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2EC39E-D00C-4E65-A8B7-7D14F9BF7204}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13920,7 +13934,7 @@
               <xdr:cNvPr id="180" name="直線コネクタ 179">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5337DB56-B1E7-4530-85B0-8D31D3B8F61D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5337DB56-B1E7-4530-85B0-8D31D3B8F61D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13956,7 +13970,7 @@
             <xdr:cNvPr id="162" name="グループ化 161">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8F4E482-58C7-46FA-A726-7859A3755BBE}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F4E482-58C7-46FA-A726-7859A3755BBE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13975,7 +13989,7 @@
               <xdr:cNvPr id="173" name="直線コネクタ 172">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68A16FB8-EDC9-439F-9ECB-1CF94E6EE131}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A16FB8-EDC9-439F-9ECB-1CF94E6EE131}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14010,7 +14024,7 @@
               <xdr:cNvPr id="174" name="直線コネクタ 173">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{198D31FF-3859-4AFC-84D7-BE3BEA793321}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198D31FF-3859-4AFC-84D7-BE3BEA793321}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14045,7 +14059,7 @@
               <xdr:cNvPr id="175" name="直線コネクタ 174">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F14FC4BE-82E1-422E-88DA-092FEFAEA8D1}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14FC4BE-82E1-422E-88DA-092FEFAEA8D1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14080,7 +14094,7 @@
               <xdr:cNvPr id="176" name="直線コネクタ 175">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB413473-58E1-40B8-8A91-04F4DBB1D795}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB413473-58E1-40B8-8A91-04F4DBB1D795}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14116,7 +14130,7 @@
             <xdr:cNvPr id="163" name="グループ化 162">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69003700-FB4A-4758-91A7-9B4FA95103DE}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69003700-FB4A-4758-91A7-9B4FA95103DE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14135,7 +14149,7 @@
               <xdr:cNvPr id="169" name="直線コネクタ 168">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A80CC11-30DC-45EF-B5B1-81A3E9BE5313}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A80CC11-30DC-45EF-B5B1-81A3E9BE5313}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14170,7 +14184,7 @@
               <xdr:cNvPr id="170" name="直線コネクタ 169">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C7FBB55-6BF1-4F66-9C33-3F31F922AEEC}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C7FBB55-6BF1-4F66-9C33-3F31F922AEEC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14205,7 +14219,7 @@
               <xdr:cNvPr id="171" name="直線コネクタ 170">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75778D6D-D9F3-4F4A-8860-F7D00A886C71}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75778D6D-D9F3-4F4A-8860-F7D00A886C71}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14240,7 +14254,7 @@
               <xdr:cNvPr id="172" name="直線コネクタ 171">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43DDCBA4-ACFB-415C-BB58-BFFFCF0842EE}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DDCBA4-ACFB-415C-BB58-BFFFCF0842EE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14276,7 +14290,7 @@
             <xdr:cNvPr id="164" name="グループ化 163">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7F015DE-B4D9-4AF6-92B7-ED3178CC2FBE}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F015DE-B4D9-4AF6-92B7-ED3178CC2FBE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14295,7 +14309,7 @@
               <xdr:cNvPr id="165" name="直線コネクタ 164">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2AF086B-EE9E-44CC-9092-5A40BEF09878}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AF086B-EE9E-44CC-9092-5A40BEF09878}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14330,7 +14344,7 @@
               <xdr:cNvPr id="166" name="直線コネクタ 165">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0929C412-67B6-48F4-AED3-20E5D80E493A}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0929C412-67B6-48F4-AED3-20E5D80E493A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14365,7 +14379,7 @@
               <xdr:cNvPr id="167" name="直線コネクタ 166">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF041673-0717-4591-B0C3-E761AEC76784}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF041673-0717-4591-B0C3-E761AEC76784}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14400,7 +14414,7 @@
               <xdr:cNvPr id="168" name="直線コネクタ 167">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C614873-CA5A-42E4-9EB6-4062F21C4E45}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C614873-CA5A-42E4-9EB6-4062F21C4E45}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14437,7 +14451,7 @@
           <xdr:cNvPr id="189" name="グループ化 188">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CCD2575-E25D-4A7A-9091-3610C642B8C0}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCD2575-E25D-4A7A-9091-3610C642B8C0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14456,7 +14470,7 @@
             <xdr:cNvPr id="190" name="グループ化 189">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28BEBDA1-AFEE-4672-9272-680CE4C55D7F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BEBDA1-AFEE-4672-9272-680CE4C55D7F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14475,7 +14489,7 @@
               <xdr:cNvPr id="216" name="直線コネクタ 215">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4CB082A-C5D3-486A-BB4E-2068560AEC33}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CB082A-C5D3-486A-BB4E-2068560AEC33}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14510,7 +14524,7 @@
               <xdr:cNvPr id="217" name="直線コネクタ 216">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{423B5B75-7112-49F9-B12E-FE6D0BE7509E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423B5B75-7112-49F9-B12E-FE6D0BE7509E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14545,7 +14559,7 @@
               <xdr:cNvPr id="218" name="直線コネクタ 217">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E652D1-7A65-46F7-AD83-C61B3EE72E8D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E652D1-7A65-46F7-AD83-C61B3EE72E8D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14580,7 +14594,7 @@
               <xdr:cNvPr id="219" name="直線コネクタ 218">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B24A419-D96C-45EB-87F6-4A82AF5B4FB6}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24A419-D96C-45EB-87F6-4A82AF5B4FB6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14616,7 +14630,7 @@
             <xdr:cNvPr id="191" name="グループ化 190">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33D917C2-1EC0-4643-BCB8-ED68D725B06B}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D917C2-1EC0-4643-BCB8-ED68D725B06B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14635,7 +14649,7 @@
               <xdr:cNvPr id="212" name="直線コネクタ 211">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{288EABE1-A396-421F-A931-B5D9C9C7C0E6}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288EABE1-A396-421F-A931-B5D9C9C7C0E6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14670,7 +14684,7 @@
               <xdr:cNvPr id="213" name="直線コネクタ 212">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{923A16D3-52CF-49AA-9ED0-62CD576919F1}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923A16D3-52CF-49AA-9ED0-62CD576919F1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14705,7 +14719,7 @@
               <xdr:cNvPr id="214" name="直線コネクタ 213">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{524435DA-66B7-449F-B1F5-8C2F2E0D1492}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524435DA-66B7-449F-B1F5-8C2F2E0D1492}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14740,7 +14754,7 @@
               <xdr:cNvPr id="215" name="直線コネクタ 214">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDA7384B-4B43-428D-9AEB-1D5FDEA6E4C1}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA7384B-4B43-428D-9AEB-1D5FDEA6E4C1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14776,7 +14790,7 @@
             <xdr:cNvPr id="192" name="グループ化 191">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29FFAD3C-5FF3-4803-A4ED-CB8881E7B6C9}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FFAD3C-5FF3-4803-A4ED-CB8881E7B6C9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14795,7 +14809,7 @@
               <xdr:cNvPr id="208" name="直線コネクタ 207">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C70F75AD-CCA0-4AED-8963-3D7B78DD2CD6}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70F75AD-CCA0-4AED-8963-3D7B78DD2CD6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14830,7 +14844,7 @@
               <xdr:cNvPr id="209" name="直線コネクタ 208">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBE1B69B-FFEE-47D6-B566-C202465D3855}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE1B69B-FFEE-47D6-B566-C202465D3855}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14865,7 +14879,7 @@
               <xdr:cNvPr id="210" name="直線コネクタ 209">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81C2209F-677E-431B-8689-FD1ECF449196}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C2209F-677E-431B-8689-FD1ECF449196}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14900,7 +14914,7 @@
               <xdr:cNvPr id="211" name="直線コネクタ 210">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CA41418-AEC9-4862-A073-E2B0E9B8FE8F}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA41418-AEC9-4862-A073-E2B0E9B8FE8F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14936,7 +14950,7 @@
             <xdr:cNvPr id="193" name="グループ化 192">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A24583D4-5ECB-4E58-B863-A22E1CDF6421}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24583D4-5ECB-4E58-B863-A22E1CDF6421}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14955,7 +14969,7 @@
               <xdr:cNvPr id="204" name="直線コネクタ 203">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C35D9F0-6DCD-486C-BB5F-6E5B3FFF4FF7}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C35D9F0-6DCD-486C-BB5F-6E5B3FFF4FF7}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14990,7 +15004,7 @@
               <xdr:cNvPr id="205" name="直線コネクタ 204">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85D8EC50-9A7F-4D3E-8347-02B880B7C775}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D8EC50-9A7F-4D3E-8347-02B880B7C775}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15025,7 +15039,7 @@
               <xdr:cNvPr id="206" name="直線コネクタ 205">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9C10517-08D0-4CC6-A7FF-B3DCC13416EA}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C10517-08D0-4CC6-A7FF-B3DCC13416EA}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15060,7 +15074,7 @@
               <xdr:cNvPr id="207" name="直線コネクタ 206">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A97E005F-E746-47E9-B75F-29E62B83358D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97E005F-E746-47E9-B75F-29E62B83358D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15096,7 +15110,7 @@
             <xdr:cNvPr id="194" name="グループ化 193">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D9EE71E-2740-442C-8504-45BCE23A0572}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9EE71E-2740-442C-8504-45BCE23A0572}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15115,7 +15129,7 @@
               <xdr:cNvPr id="200" name="直線コネクタ 199">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37D45875-64C8-48B4-AA29-4A24ACA4EBFC}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D45875-64C8-48B4-AA29-4A24ACA4EBFC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15150,7 +15164,7 @@
               <xdr:cNvPr id="201" name="直線コネクタ 200">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71FE6FBC-5558-4E07-A925-AFF9FE0EF62A}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FE6FBC-5558-4E07-A925-AFF9FE0EF62A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15185,7 +15199,7 @@
               <xdr:cNvPr id="202" name="直線コネクタ 201">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B23B9A3B-F75A-4096-8281-91B291E49929}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23B9A3B-F75A-4096-8281-91B291E49929}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15220,7 +15234,7 @@
               <xdr:cNvPr id="203" name="直線コネクタ 202">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{606D392F-48C7-4F7D-988A-02A9BB68BA67}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606D392F-48C7-4F7D-988A-02A9BB68BA67}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15256,7 +15270,7 @@
             <xdr:cNvPr id="195" name="グループ化 194">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA47C6A9-92E4-46F4-B6DE-235665F670D2}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA47C6A9-92E4-46F4-B6DE-235665F670D2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15275,7 +15289,7 @@
               <xdr:cNvPr id="196" name="直線コネクタ 195">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{229CE73A-EE4F-4F6B-AA49-26E1358F6D17}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229CE73A-EE4F-4F6B-AA49-26E1358F6D17}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15310,7 +15324,7 @@
               <xdr:cNvPr id="197" name="直線コネクタ 196">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A01C38AD-B742-4B36-8391-7D653CF6FFBE}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01C38AD-B742-4B36-8391-7D653CF6FFBE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15345,7 +15359,7 @@
               <xdr:cNvPr id="198" name="直線コネクタ 197">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{518251A7-DB89-46A0-ACF8-310B4171832D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518251A7-DB89-46A0-ACF8-310B4171832D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15380,7 +15394,7 @@
               <xdr:cNvPr id="199" name="直線コネクタ 198">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80F5D315-90EA-4E3F-BC03-41018B642FF1}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F5D315-90EA-4E3F-BC03-41018B642FF1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15417,7 +15431,7 @@
           <xdr:cNvPr id="220" name="グループ化 219">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D78CC64-819B-4FAD-96C8-B0084AC2A4FC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D78CC64-819B-4FAD-96C8-B0084AC2A4FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15436,7 +15450,7 @@
             <xdr:cNvPr id="221" name="グループ化 220">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{298B083A-696A-435D-8086-7C60081D9C09}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298B083A-696A-435D-8086-7C60081D9C09}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15455,7 +15469,7 @@
               <xdr:cNvPr id="247" name="直線コネクタ 246">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7BD5499-BEE1-4C3B-89C9-9EDF84F0FF6B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BD5499-BEE1-4C3B-89C9-9EDF84F0FF6B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15490,7 +15504,7 @@
               <xdr:cNvPr id="248" name="直線コネクタ 247">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85D22F12-DAE6-4699-B409-041B10E1B1AC}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D22F12-DAE6-4699-B409-041B10E1B1AC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15525,7 +15539,7 @@
               <xdr:cNvPr id="249" name="直線コネクタ 248">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D014AA12-011E-49BD-940E-44492C84A040}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D014AA12-011E-49BD-940E-44492C84A040}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15560,7 +15574,7 @@
               <xdr:cNvPr id="250" name="直線コネクタ 249">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30453781-3147-4171-8392-9C8199DFA49B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30453781-3147-4171-8392-9C8199DFA49B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15596,7 +15610,7 @@
             <xdr:cNvPr id="222" name="グループ化 221">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DDE3BEB-EA6B-4ADD-9583-08F83FB8739F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDE3BEB-EA6B-4ADD-9583-08F83FB8739F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15615,7 +15629,7 @@
               <xdr:cNvPr id="243" name="直線コネクタ 242">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18B689AB-4BEF-4B7C-A57F-9C2A6E4D755F}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B689AB-4BEF-4B7C-A57F-9C2A6E4D755F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15650,7 +15664,7 @@
               <xdr:cNvPr id="244" name="直線コネクタ 243">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D00E1E07-9C54-49B8-A2E8-00871A7F1AFE}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00E1E07-9C54-49B8-A2E8-00871A7F1AFE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15685,7 +15699,7 @@
               <xdr:cNvPr id="245" name="直線コネクタ 244">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF426B77-1869-4851-B336-7F8F6D784184}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF426B77-1869-4851-B336-7F8F6D784184}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15720,7 +15734,7 @@
               <xdr:cNvPr id="246" name="直線コネクタ 245">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B547650-2F94-4D6D-B9A1-910A9F0A91A6}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B547650-2F94-4D6D-B9A1-910A9F0A91A6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15756,7 +15770,7 @@
             <xdr:cNvPr id="223" name="グループ化 222">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BEEB69E-5602-4358-A17F-1D07B6EA217D}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEEB69E-5602-4358-A17F-1D07B6EA217D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15775,7 +15789,7 @@
               <xdr:cNvPr id="239" name="直線コネクタ 238">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCA3C9D9-E7C8-41B2-B778-BAB43AFD9910}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA3C9D9-E7C8-41B2-B778-BAB43AFD9910}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15810,7 +15824,7 @@
               <xdr:cNvPr id="240" name="直線コネクタ 239">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C747765-7994-41B8-A60A-A9E47A5E35F5}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C747765-7994-41B8-A60A-A9E47A5E35F5}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15845,7 +15859,7 @@
               <xdr:cNvPr id="241" name="直線コネクタ 240">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5602C4AD-97A7-4155-BB9C-03CDBB288E56}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5602C4AD-97A7-4155-BB9C-03CDBB288E56}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15880,7 +15894,7 @@
               <xdr:cNvPr id="242" name="直線コネクタ 241">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D7494B-A10E-4B1F-AF0D-DDFE9A7433A8}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D7494B-A10E-4B1F-AF0D-DDFE9A7433A8}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15916,7 +15930,7 @@
             <xdr:cNvPr id="224" name="グループ化 223">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B93F454E-5B19-4B88-9D59-FC985834A229}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93F454E-5B19-4B88-9D59-FC985834A229}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15935,7 +15949,7 @@
               <xdr:cNvPr id="235" name="直線コネクタ 234">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C0408E5-CF4B-4004-BCED-9C7454CAC22E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0408E5-CF4B-4004-BCED-9C7454CAC22E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15970,7 +15984,7 @@
               <xdr:cNvPr id="236" name="直線コネクタ 235">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{744F4EAC-1EED-4D8D-A95C-B2FBD6A5B150}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744F4EAC-1EED-4D8D-A95C-B2FBD6A5B150}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16005,7 +16019,7 @@
               <xdr:cNvPr id="237" name="直線コネクタ 236">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D235E716-0D5E-4922-B78F-CD48079258AA}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D235E716-0D5E-4922-B78F-CD48079258AA}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16040,7 +16054,7 @@
               <xdr:cNvPr id="238" name="直線コネクタ 237">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3059C97-974C-444E-9E4A-D7DAE1DFA530}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3059C97-974C-444E-9E4A-D7DAE1DFA530}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16076,7 +16090,7 @@
             <xdr:cNvPr id="225" name="グループ化 224">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F10DD4D0-DE5C-45B3-8245-7676200D83CC}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10DD4D0-DE5C-45B3-8245-7676200D83CC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16095,7 +16109,7 @@
               <xdr:cNvPr id="231" name="直線コネクタ 230">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35B6D728-1ACE-4D56-9AB3-FD15E646C6C3}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B6D728-1ACE-4D56-9AB3-FD15E646C6C3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16130,7 +16144,7 @@
               <xdr:cNvPr id="232" name="直線コネクタ 231">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{934D84CA-942A-4905-9BE2-625B21566103}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934D84CA-942A-4905-9BE2-625B21566103}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16165,7 +16179,7 @@
               <xdr:cNvPr id="233" name="直線コネクタ 232">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3078D2D-DB07-4715-8A4C-DE66A5FD7193}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3078D2D-DB07-4715-8A4C-DE66A5FD7193}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16200,7 +16214,7 @@
               <xdr:cNvPr id="234" name="直線コネクタ 233">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87D75FA0-C689-4520-BD64-060FF7C3622B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D75FA0-C689-4520-BD64-060FF7C3622B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16236,7 +16250,7 @@
             <xdr:cNvPr id="226" name="グループ化 225">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{609DA929-22E4-405F-9F12-DE91D2855A51}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609DA929-22E4-405F-9F12-DE91D2855A51}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16255,7 +16269,7 @@
               <xdr:cNvPr id="227" name="直線コネクタ 226">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE895E92-32E1-4D7A-A146-12802DA92D0E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE895E92-32E1-4D7A-A146-12802DA92D0E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16290,7 +16304,7 @@
               <xdr:cNvPr id="228" name="直線コネクタ 227">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57AA41D5-AFDD-4FF8-ADD5-FDC231162B51}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57AA41D5-AFDD-4FF8-ADD5-FDC231162B51}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16325,7 +16339,7 @@
               <xdr:cNvPr id="229" name="直線コネクタ 228">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{278E60DE-FB73-408F-8DC3-3A1EEB23DA95}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278E60DE-FB73-408F-8DC3-3A1EEB23DA95}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16360,7 +16374,7 @@
               <xdr:cNvPr id="230" name="直線コネクタ 229">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FC1947A-F0ED-4006-9B65-564A05DA2631}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC1947A-F0ED-4006-9B65-564A05DA2631}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16413,7 +16427,7 @@
         <xdr:cNvPr id="25" name="グループ化 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FCAF6AB-0C6F-43B0-B4E7-841D9532EB0B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCAF6AB-0C6F-43B0-B4E7-841D9532EB0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16432,7 +16446,7 @@
           <xdr:cNvPr id="86" name="グループ化 85">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F0A97A8-64C7-461F-B379-64564F3288FC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0A97A8-64C7-461F-B379-64564F3288FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16451,7 +16465,7 @@
             <xdr:cNvPr id="87" name="直線コネクタ 86">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0010B58B-3EA1-4262-A8F5-DEEC7628DEA4}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0010B58B-3EA1-4262-A8F5-DEEC7628DEA4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16486,7 +16500,7 @@
             <xdr:cNvPr id="88" name="直線コネクタ 87">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19AFAF3D-E354-432B-BA7F-50BA0D579DB9}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19AFAF3D-E354-432B-BA7F-50BA0D579DB9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16521,7 +16535,7 @@
             <xdr:cNvPr id="89" name="直線コネクタ 88">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5659F4C8-EB3D-47ED-A4D4-7466A1EC5302}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5659F4C8-EB3D-47ED-A4D4-7466A1EC5302}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16556,7 +16570,7 @@
             <xdr:cNvPr id="90" name="直線コネクタ 89">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B04CA25-D23E-4357-8037-E7590650C54F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B04CA25-D23E-4357-8037-E7590650C54F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16592,7 +16606,7 @@
           <xdr:cNvPr id="251" name="グループ化 250">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6B19E51-27D3-4EF5-A8BB-8130D1D80190}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6B19E51-27D3-4EF5-A8BB-8130D1D80190}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16611,7 +16625,7 @@
             <xdr:cNvPr id="252" name="直線コネクタ 251">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCE55CCF-DF8C-4ED0-8982-5EC7D5A076BC}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE55CCF-DF8C-4ED0-8982-5EC7D5A076BC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16646,7 +16660,7 @@
             <xdr:cNvPr id="253" name="直線コネクタ 252">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{048FEAA7-B169-41C1-8C27-8E15063F5AE9}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048FEAA7-B169-41C1-8C27-8E15063F5AE9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16681,7 +16695,7 @@
             <xdr:cNvPr id="254" name="直線コネクタ 253">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0DE3848-0632-4E34-8E87-025E4E06CF6B}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0DE3848-0632-4E34-8E87-025E4E06CF6B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16716,7 +16730,7 @@
             <xdr:cNvPr id="255" name="直線コネクタ 254">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C98B01A7-100A-4F92-B906-51BBDD23B4DD}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98B01A7-100A-4F92-B906-51BBDD23B4DD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16752,7 +16766,7 @@
           <xdr:cNvPr id="256" name="グループ化 255">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEAA39F8-A448-45FF-B7C3-4C00F4F03F22}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEAA39F8-A448-45FF-B7C3-4C00F4F03F22}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16771,7 +16785,7 @@
             <xdr:cNvPr id="257" name="直線コネクタ 256">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EFD69A2-200B-42A6-A8BE-7BCD629860BE}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFD69A2-200B-42A6-A8BE-7BCD629860BE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16806,7 +16820,7 @@
             <xdr:cNvPr id="258" name="直線コネクタ 257">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A327C6F2-C13C-4C73-A2C9-41FBF32A0226}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A327C6F2-C13C-4C73-A2C9-41FBF32A0226}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16841,7 +16855,7 @@
             <xdr:cNvPr id="259" name="直線コネクタ 258">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92016E5E-9B47-41F2-8EF4-61BB5F722401}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92016E5E-9B47-41F2-8EF4-61BB5F722401}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16876,7 +16890,7 @@
             <xdr:cNvPr id="260" name="直線コネクタ 259">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9D4D193-90A9-45B3-9296-6C74B512DA87}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D4D193-90A9-45B3-9296-6C74B512DA87}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16912,7 +16926,7 @@
           <xdr:cNvPr id="261" name="グループ化 260">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EF10951-59BA-4C51-8C89-E3754FB61D17}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF10951-59BA-4C51-8C89-E3754FB61D17}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16931,7 +16945,7 @@
             <xdr:cNvPr id="262" name="直線コネクタ 261">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07CA756C-EBAC-45C7-9D08-D3AE2B740A72}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CA756C-EBAC-45C7-9D08-D3AE2B740A72}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16966,7 +16980,7 @@
             <xdr:cNvPr id="263" name="直線コネクタ 262">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7D591C9-90F1-4E05-98DD-1FB9A479E466}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D591C9-90F1-4E05-98DD-1FB9A479E466}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17001,7 +17015,7 @@
             <xdr:cNvPr id="264" name="直線コネクタ 263">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{604D0988-97BC-4B5C-983A-934F5D32D662}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604D0988-97BC-4B5C-983A-934F5D32D662}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17036,7 +17050,7 @@
             <xdr:cNvPr id="265" name="直線コネクタ 264">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{171D1AE1-9445-4224-A400-D21952B231CC}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171D1AE1-9445-4224-A400-D21952B231CC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17088,7 +17102,7 @@
         <xdr:cNvPr id="266" name="グループ化 265">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DB5B9A8-6AFD-47E3-91AC-8B4428724568}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB5B9A8-6AFD-47E3-91AC-8B4428724568}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17107,7 +17121,7 @@
           <xdr:cNvPr id="267" name="グループ化 266">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B824E33-13D3-4020-8ECF-A21FCFF7B01B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B824E33-13D3-4020-8ECF-A21FCFF7B01B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17126,7 +17140,7 @@
             <xdr:cNvPr id="423" name="グループ化 422">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2801765-EF05-45DD-B15A-7D19418A2D61}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2801765-EF05-45DD-B15A-7D19418A2D61}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17145,7 +17159,7 @@
               <xdr:cNvPr id="449" name="直線コネクタ 448">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86C3768E-8EDB-4A02-B9AD-23B38C20F054}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C3768E-8EDB-4A02-B9AD-23B38C20F054}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17180,7 +17194,7 @@
               <xdr:cNvPr id="450" name="直線コネクタ 449">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DA15527-9817-43EB-BFB3-9ACBC85CFF78}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA15527-9817-43EB-BFB3-9ACBC85CFF78}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17215,7 +17229,7 @@
               <xdr:cNvPr id="451" name="直線コネクタ 450">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF6B0604-7174-4456-97FF-3C52997798E9}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6B0604-7174-4456-97FF-3C52997798E9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17250,7 +17264,7 @@
               <xdr:cNvPr id="452" name="直線コネクタ 451">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2BEB159-2F9A-42DB-A2CF-692DCE2D105E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BEB159-2F9A-42DB-A2CF-692DCE2D105E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17286,7 +17300,7 @@
             <xdr:cNvPr id="424" name="グループ化 423">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCF6863E-F3B1-4E94-B68B-1B58C59A53C3}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF6863E-F3B1-4E94-B68B-1B58C59A53C3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17305,7 +17319,7 @@
               <xdr:cNvPr id="445" name="直線コネクタ 444">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93F44F11-4969-46A3-8D25-546474DA9D86}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F44F11-4969-46A3-8D25-546474DA9D86}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17340,7 +17354,7 @@
               <xdr:cNvPr id="446" name="直線コネクタ 445">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E3982A0-4AC8-455D-A92C-6E2A23F38708}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3982A0-4AC8-455D-A92C-6E2A23F38708}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17375,7 +17389,7 @@
               <xdr:cNvPr id="447" name="直線コネクタ 446">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1773E0-DEC0-4C3A-95EF-A9A35BB4492F}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1773E0-DEC0-4C3A-95EF-A9A35BB4492F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17410,7 +17424,7 @@
               <xdr:cNvPr id="448" name="直線コネクタ 447">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8C47C36-3E93-4704-BC9B-35ECEC4EBB94}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C47C36-3E93-4704-BC9B-35ECEC4EBB94}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17446,7 +17460,7 @@
             <xdr:cNvPr id="425" name="グループ化 424">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26865B33-AE4A-43D9-98F4-4D296A14EE59}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26865B33-AE4A-43D9-98F4-4D296A14EE59}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17465,7 +17479,7 @@
               <xdr:cNvPr id="441" name="直線コネクタ 440">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FB450EF-E095-4BB1-B714-B7252533D585}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB450EF-E095-4BB1-B714-B7252533D585}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17500,7 +17514,7 @@
               <xdr:cNvPr id="442" name="直線コネクタ 441">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36C57097-86B5-4D57-8CDA-FFD49F379088}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C57097-86B5-4D57-8CDA-FFD49F379088}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17535,7 +17549,7 @@
               <xdr:cNvPr id="443" name="直線コネクタ 442">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0890BCFA-62A6-4FC4-9B39-FE993DBF9DB5}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0890BCFA-62A6-4FC4-9B39-FE993DBF9DB5}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17570,7 +17584,7 @@
               <xdr:cNvPr id="444" name="直線コネクタ 443">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59AAE69E-1E52-42ED-8742-0AA470C2CFB9}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AAE69E-1E52-42ED-8742-0AA470C2CFB9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17606,7 +17620,7 @@
             <xdr:cNvPr id="426" name="グループ化 425">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{913AC43C-F710-440B-8FAD-2FC4041D6E97}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913AC43C-F710-440B-8FAD-2FC4041D6E97}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17625,7 +17639,7 @@
               <xdr:cNvPr id="437" name="直線コネクタ 436">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03477D09-B8E6-4CCF-8E50-06D069458856}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03477D09-B8E6-4CCF-8E50-06D069458856}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17660,7 +17674,7 @@
               <xdr:cNvPr id="438" name="直線コネクタ 437">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{223FF221-2980-4CAF-9202-CF255D4FC0C3}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223FF221-2980-4CAF-9202-CF255D4FC0C3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17695,7 +17709,7 @@
               <xdr:cNvPr id="439" name="直線コネクタ 438">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{066BA3B9-2F30-4416-A4FB-DAEB555FAA93}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066BA3B9-2F30-4416-A4FB-DAEB555FAA93}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17730,7 +17744,7 @@
               <xdr:cNvPr id="440" name="直線コネクタ 439">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5E16B00-93AA-4C28-977B-1B44B3C899C4}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E16B00-93AA-4C28-977B-1B44B3C899C4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17766,7 +17780,7 @@
             <xdr:cNvPr id="427" name="グループ化 426">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B28EF9C4-A9B3-45FA-ADB7-0B55EB324C62}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28EF9C4-A9B3-45FA-ADB7-0B55EB324C62}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17785,7 +17799,7 @@
               <xdr:cNvPr id="433" name="直線コネクタ 432">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A55F031-8DFD-4C74-ACA0-800755999B97}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A55F031-8DFD-4C74-ACA0-800755999B97}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17820,7 +17834,7 @@
               <xdr:cNvPr id="434" name="直線コネクタ 433">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BFA7A02-F62C-46DF-814E-69F1079F56F0}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFA7A02-F62C-46DF-814E-69F1079F56F0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17855,7 +17869,7 @@
               <xdr:cNvPr id="435" name="直線コネクタ 434">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD3A7714-F2AE-4C62-9D5C-EDF227C5680A}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3A7714-F2AE-4C62-9D5C-EDF227C5680A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17890,7 +17904,7 @@
               <xdr:cNvPr id="436" name="直線コネクタ 435">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28C4C33F-C50C-4D16-9CED-ECF8C444535C}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C4C33F-C50C-4D16-9CED-ECF8C444535C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17926,7 +17940,7 @@
             <xdr:cNvPr id="428" name="グループ化 427">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E482784-C9BA-4C9F-B25B-1D931746DD59}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E482784-C9BA-4C9F-B25B-1D931746DD59}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17945,7 +17959,7 @@
               <xdr:cNvPr id="429" name="直線コネクタ 428">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{764C005B-714E-44D7-B8F3-9BD555E89C57}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764C005B-714E-44D7-B8F3-9BD555E89C57}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17980,7 +17994,7 @@
               <xdr:cNvPr id="430" name="直線コネクタ 429">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA49DE9F-92D7-4820-8B52-EE9016711FA4}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA49DE9F-92D7-4820-8B52-EE9016711FA4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18015,7 +18029,7 @@
               <xdr:cNvPr id="431" name="直線コネクタ 430">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87D58E9F-367B-4194-A384-ACD992BF617E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D58E9F-367B-4194-A384-ACD992BF617E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18050,7 +18064,7 @@
               <xdr:cNvPr id="432" name="直線コネクタ 431">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{697BF8C1-68E2-4407-871E-E3E3DCE9D66E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697BF8C1-68E2-4407-871E-E3E3DCE9D66E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18087,7 +18101,7 @@
           <xdr:cNvPr id="268" name="グループ化 267">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98326526-EB16-431B-A867-38C9A2464E8E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98326526-EB16-431B-A867-38C9A2464E8E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18106,7 +18120,7 @@
             <xdr:cNvPr id="393" name="グループ化 392">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E09DF1A-E847-4080-A452-7268BF6F5DAA}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E09DF1A-E847-4080-A452-7268BF6F5DAA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18125,7 +18139,7 @@
               <xdr:cNvPr id="419" name="直線コネクタ 418">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{484D8F62-F7EE-44DD-834F-E6A85A8BEF1C}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484D8F62-F7EE-44DD-834F-E6A85A8BEF1C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18160,7 +18174,7 @@
               <xdr:cNvPr id="420" name="直線コネクタ 419">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B930916-F395-4CA1-9FBF-1B8F6A91FF4F}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B930916-F395-4CA1-9FBF-1B8F6A91FF4F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18195,7 +18209,7 @@
               <xdr:cNvPr id="421" name="直線コネクタ 420">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9508B6D3-0DD7-4188-B9FD-8B8F96991C79}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9508B6D3-0DD7-4188-B9FD-8B8F96991C79}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18230,7 +18244,7 @@
               <xdr:cNvPr id="422" name="直線コネクタ 421">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86776682-E773-4976-9CD0-511999A9FF70}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86776682-E773-4976-9CD0-511999A9FF70}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18266,7 +18280,7 @@
             <xdr:cNvPr id="394" name="グループ化 393">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4606F6F1-B399-4753-A5FB-91F44E98861F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4606F6F1-B399-4753-A5FB-91F44E98861F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18285,7 +18299,7 @@
               <xdr:cNvPr id="415" name="直線コネクタ 414">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D246F675-839E-4093-B542-E2A91A33674C}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D246F675-839E-4093-B542-E2A91A33674C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18320,7 +18334,7 @@
               <xdr:cNvPr id="416" name="直線コネクタ 415">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{183A08AB-5162-4833-926E-6B86EE2EC6C6}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183A08AB-5162-4833-926E-6B86EE2EC6C6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18355,7 +18369,7 @@
               <xdr:cNvPr id="417" name="直線コネクタ 416">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35857D29-DC29-4C40-A36C-AFD8204AD849}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35857D29-DC29-4C40-A36C-AFD8204AD849}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18390,7 +18404,7 @@
               <xdr:cNvPr id="418" name="直線コネクタ 417">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C0B48D1-322B-4959-83F9-6A8C3D77D775}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C0B48D1-322B-4959-83F9-6A8C3D77D775}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18426,7 +18440,7 @@
             <xdr:cNvPr id="395" name="グループ化 394">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3993289B-7362-4966-A113-1426EBB62DFC}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3993289B-7362-4966-A113-1426EBB62DFC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18445,7 +18459,7 @@
               <xdr:cNvPr id="411" name="直線コネクタ 410">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A55153D3-3881-41E1-AACA-A8CFD73DB183}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55153D3-3881-41E1-AACA-A8CFD73DB183}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18480,7 +18494,7 @@
               <xdr:cNvPr id="412" name="直線コネクタ 411">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD99556F-CD89-4E43-BD64-9F6D1FDBE144}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD99556F-CD89-4E43-BD64-9F6D1FDBE144}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18515,7 +18529,7 @@
               <xdr:cNvPr id="413" name="直線コネクタ 412">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCB340C4-7BDE-431F-BFA5-1CC7A66C635E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB340C4-7BDE-431F-BFA5-1CC7A66C635E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18550,7 +18564,7 @@
               <xdr:cNvPr id="414" name="直線コネクタ 413">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7321A89D-3F22-4748-AE1A-BBFA08E53A26}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7321A89D-3F22-4748-AE1A-BBFA08E53A26}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18586,7 +18600,7 @@
             <xdr:cNvPr id="396" name="グループ化 395">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7DC1F3E-12DD-4E56-8ED6-DEDA706A5B4C}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DC1F3E-12DD-4E56-8ED6-DEDA706A5B4C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18605,7 +18619,7 @@
               <xdr:cNvPr id="407" name="直線コネクタ 406">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECA8C3FC-10B2-4EC7-A41C-57BD00F3AC4F}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA8C3FC-10B2-4EC7-A41C-57BD00F3AC4F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18640,7 +18654,7 @@
               <xdr:cNvPr id="408" name="直線コネクタ 407">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E8784B0-6C22-42DE-BF15-5D5BEE24CE55}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8784B0-6C22-42DE-BF15-5D5BEE24CE55}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18675,7 +18689,7 @@
               <xdr:cNvPr id="409" name="直線コネクタ 408">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E62E724-4E03-4005-8509-B8476EB04210}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E62E724-4E03-4005-8509-B8476EB04210}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18710,7 +18724,7 @@
               <xdr:cNvPr id="410" name="直線コネクタ 409">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE22C7C0-4423-445E-8F03-3044DCED59E2}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE22C7C0-4423-445E-8F03-3044DCED59E2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18746,7 +18760,7 @@
             <xdr:cNvPr id="397" name="グループ化 396">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91A7738A-6064-4FAA-9026-652B54C4AF99}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A7738A-6064-4FAA-9026-652B54C4AF99}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18765,7 +18779,7 @@
               <xdr:cNvPr id="403" name="直線コネクタ 402">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8300C73F-1546-4D17-91D6-A2DF8EC9C23C}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8300C73F-1546-4D17-91D6-A2DF8EC9C23C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18800,7 +18814,7 @@
               <xdr:cNvPr id="404" name="直線コネクタ 403">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76B9BEB1-2A7F-4369-8378-225460F87F67}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B9BEB1-2A7F-4369-8378-225460F87F67}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18835,7 +18849,7 @@
               <xdr:cNvPr id="405" name="直線コネクタ 404">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F41B3878-AC70-470A-91E3-486CDF1A1919}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41B3878-AC70-470A-91E3-486CDF1A1919}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18870,7 +18884,7 @@
               <xdr:cNvPr id="406" name="直線コネクタ 405">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{395E5CAE-7C8F-4EA4-83B3-E70CA523F541}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395E5CAE-7C8F-4EA4-83B3-E70CA523F541}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18906,7 +18920,7 @@
             <xdr:cNvPr id="398" name="グループ化 397">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CCD8AA7-CF01-4ED7-ABF8-38A310F1328E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCD8AA7-CF01-4ED7-ABF8-38A310F1328E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18925,7 +18939,7 @@
               <xdr:cNvPr id="399" name="直線コネクタ 398">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A30F76E-6868-4C58-B636-5ED0682FFE01}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A30F76E-6868-4C58-B636-5ED0682FFE01}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18960,7 +18974,7 @@
               <xdr:cNvPr id="400" name="直線コネクタ 399">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE9BEC4D-DBBE-43E3-9059-35A876515B35}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9BEC4D-DBBE-43E3-9059-35A876515B35}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18995,7 +19009,7 @@
               <xdr:cNvPr id="401" name="直線コネクタ 400">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C69EB657-8A94-433A-A021-9A1B9628E66E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69EB657-8A94-433A-A021-9A1B9628E66E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19030,7 +19044,7 @@
               <xdr:cNvPr id="402" name="直線コネクタ 401">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7C8032E-617F-4108-90A5-6019D1800A5F}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C8032E-617F-4108-90A5-6019D1800A5F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19067,7 +19081,7 @@
           <xdr:cNvPr id="269" name="グループ化 268">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63CBFA6E-4185-4426-B694-2752541EB7E4}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63CBFA6E-4185-4426-B694-2752541EB7E4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19086,7 +19100,7 @@
             <xdr:cNvPr id="363" name="グループ化 362">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40803997-4D44-4C81-B5BB-1430A68921EA}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40803997-4D44-4C81-B5BB-1430A68921EA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19105,7 +19119,7 @@
               <xdr:cNvPr id="389" name="直線コネクタ 388">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86467069-FB4F-415B-8C89-16D4ED541DDD}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86467069-FB4F-415B-8C89-16D4ED541DDD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19140,7 +19154,7 @@
               <xdr:cNvPr id="390" name="直線コネクタ 389">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80A58FAC-0A33-48ED-AC74-53041A533712}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A58FAC-0A33-48ED-AC74-53041A533712}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19175,7 +19189,7 @@
               <xdr:cNvPr id="391" name="直線コネクタ 390">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82EA3555-C411-47AF-B9C1-3397E87CC03F}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EA3555-C411-47AF-B9C1-3397E87CC03F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19210,7 +19224,7 @@
               <xdr:cNvPr id="392" name="直線コネクタ 391">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{459F5447-54C3-4536-800B-7095D715AE4B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459F5447-54C3-4536-800B-7095D715AE4B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19246,7 +19260,7 @@
             <xdr:cNvPr id="364" name="グループ化 363">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{277D466B-83BA-4C9F-A129-52AAB819B337}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277D466B-83BA-4C9F-A129-52AAB819B337}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19265,7 +19279,7 @@
               <xdr:cNvPr id="385" name="直線コネクタ 384">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C05BA3E6-BD34-4935-81C7-6B0C929287E3}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05BA3E6-BD34-4935-81C7-6B0C929287E3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19300,7 +19314,7 @@
               <xdr:cNvPr id="386" name="直線コネクタ 385">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2D36D73-4273-41AD-99ED-865FB20421C3}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D36D73-4273-41AD-99ED-865FB20421C3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19335,7 +19349,7 @@
               <xdr:cNvPr id="387" name="直線コネクタ 386">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20DE86AA-A23C-4308-8F2E-A93C4D028672}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DE86AA-A23C-4308-8F2E-A93C4D028672}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19370,7 +19384,7 @@
               <xdr:cNvPr id="388" name="直線コネクタ 387">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E840A12-B7CA-42BB-A229-7FA3A2306E67}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E840A12-B7CA-42BB-A229-7FA3A2306E67}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19406,7 +19420,7 @@
             <xdr:cNvPr id="365" name="グループ化 364">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2F11934-E246-4EC4-A1CD-FD606D391B0D}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F11934-E246-4EC4-A1CD-FD606D391B0D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19425,7 +19439,7 @@
               <xdr:cNvPr id="381" name="直線コネクタ 380">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AC35422-447C-40CD-B02E-BFEA745941B3}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC35422-447C-40CD-B02E-BFEA745941B3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19460,7 +19474,7 @@
               <xdr:cNvPr id="382" name="直線コネクタ 381">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7D626E5-8112-4969-87A8-9D47B96DA414}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D626E5-8112-4969-87A8-9D47B96DA414}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19495,7 +19509,7 @@
               <xdr:cNvPr id="383" name="直線コネクタ 382">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62E60063-2048-4665-9380-74AF051A3FF4}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E60063-2048-4665-9380-74AF051A3FF4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19530,7 +19544,7 @@
               <xdr:cNvPr id="384" name="直線コネクタ 383">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2135CB34-62BA-4691-8491-991320AAB4A5}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2135CB34-62BA-4691-8491-991320AAB4A5}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19566,7 +19580,7 @@
             <xdr:cNvPr id="366" name="グループ化 365">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79E7996C-0913-4E68-A60E-4870029B6239}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E7996C-0913-4E68-A60E-4870029B6239}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19585,7 +19599,7 @@
               <xdr:cNvPr id="377" name="直線コネクタ 376">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E8D8D1B-39E7-4929-9C93-AD31BDBF8A60}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8D8D1B-39E7-4929-9C93-AD31BDBF8A60}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19620,7 +19634,7 @@
               <xdr:cNvPr id="378" name="直線コネクタ 377">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4628FD68-E948-4481-B2B2-AAA493DD4B4A}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4628FD68-E948-4481-B2B2-AAA493DD4B4A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19655,7 +19669,7 @@
               <xdr:cNvPr id="379" name="直線コネクタ 378">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFF98478-417B-4726-8E65-470731EBF261}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF98478-417B-4726-8E65-470731EBF261}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19690,7 +19704,7 @@
               <xdr:cNvPr id="380" name="直線コネクタ 379">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D0AAF53-6B4C-4346-A0A7-A2E10A8A80D4}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0AAF53-6B4C-4346-A0A7-A2E10A8A80D4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19726,7 +19740,7 @@
             <xdr:cNvPr id="367" name="グループ化 366">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885D0A64-7BA7-4C2E-979E-2340B769F591}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885D0A64-7BA7-4C2E-979E-2340B769F591}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19745,7 +19759,7 @@
               <xdr:cNvPr id="373" name="直線コネクタ 372">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D66E44B2-6A96-4D4C-A7F2-FBDDEC74401D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66E44B2-6A96-4D4C-A7F2-FBDDEC74401D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19780,7 +19794,7 @@
               <xdr:cNvPr id="374" name="直線コネクタ 373">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAD20A88-24B5-46C3-A194-93B470FCB1B3}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD20A88-24B5-46C3-A194-93B470FCB1B3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19815,7 +19829,7 @@
               <xdr:cNvPr id="375" name="直線コネクタ 374">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB79AEA9-0487-4DE0-BF85-4B2F73D393FA}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB79AEA9-0487-4DE0-BF85-4B2F73D393FA}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19850,7 +19864,7 @@
               <xdr:cNvPr id="376" name="直線コネクタ 375">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF79763D-9127-4E4B-820F-74B22749E71D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF79763D-9127-4E4B-820F-74B22749E71D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19886,7 +19900,7 @@
             <xdr:cNvPr id="368" name="グループ化 367">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49F7870-30E6-4D4B-8806-A6C63D70D748}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49F7870-30E6-4D4B-8806-A6C63D70D748}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19905,7 +19919,7 @@
               <xdr:cNvPr id="369" name="直線コネクタ 368">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45A0FE80-CCCF-4ED3-BE22-9A01972DAB41}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A0FE80-CCCF-4ED3-BE22-9A01972DAB41}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19940,7 +19954,7 @@
               <xdr:cNvPr id="370" name="直線コネクタ 369">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75FB5293-660A-4342-8DDE-26E23F756F5B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FB5293-660A-4342-8DDE-26E23F756F5B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19975,7 +19989,7 @@
               <xdr:cNvPr id="371" name="直線コネクタ 370">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12064C8B-8449-4311-94A3-14A8F5797F43}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12064C8B-8449-4311-94A3-14A8F5797F43}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20010,7 +20024,7 @@
               <xdr:cNvPr id="372" name="直線コネクタ 371">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6324452C-FE7F-4F99-8BBE-80B48061A548}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6324452C-FE7F-4F99-8BBE-80B48061A548}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20047,7 +20061,7 @@
           <xdr:cNvPr id="270" name="グループ化 269">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0412BC8-4F46-43CB-9BF3-B3092094FF62}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0412BC8-4F46-43CB-9BF3-B3092094FF62}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20066,7 +20080,7 @@
             <xdr:cNvPr id="333" name="グループ化 332">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{280D31C3-8E44-4C41-89A0-D1BF30204280}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280D31C3-8E44-4C41-89A0-D1BF30204280}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20085,7 +20099,7 @@
               <xdr:cNvPr id="359" name="直線コネクタ 358">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6DEF817-29A3-4740-B4B4-B5445AA0D356}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DEF817-29A3-4740-B4B4-B5445AA0D356}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20120,7 +20134,7 @@
               <xdr:cNvPr id="360" name="直線コネクタ 359">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE8260BA-5450-44F2-9216-8DCA4951F5F1}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8260BA-5450-44F2-9216-8DCA4951F5F1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20155,7 +20169,7 @@
               <xdr:cNvPr id="361" name="直線コネクタ 360">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{946CDB84-7F8A-42AA-8CEB-8E6C0B62D1BD}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946CDB84-7F8A-42AA-8CEB-8E6C0B62D1BD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20190,7 +20204,7 @@
               <xdr:cNvPr id="362" name="直線コネクタ 361">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F685BDA-95E1-44A1-938E-8BC2FAB46C33}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F685BDA-95E1-44A1-938E-8BC2FAB46C33}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20226,7 +20240,7 @@
             <xdr:cNvPr id="334" name="グループ化 333">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6565C797-38ED-48E6-8855-4A88DFC08884}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6565C797-38ED-48E6-8855-4A88DFC08884}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20245,7 +20259,7 @@
               <xdr:cNvPr id="355" name="直線コネクタ 354">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4BFA6FC-AA0C-49DF-950E-3401D2D18E92}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BFA6FC-AA0C-49DF-950E-3401D2D18E92}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20280,7 +20294,7 @@
               <xdr:cNvPr id="356" name="直線コネクタ 355">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86CD221D-3283-4297-855B-57955615CFAB}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CD221D-3283-4297-855B-57955615CFAB}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20315,7 +20329,7 @@
               <xdr:cNvPr id="357" name="直線コネクタ 356">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E50878B-142B-4EB7-A216-80A8F437B0DE}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E50878B-142B-4EB7-A216-80A8F437B0DE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20350,7 +20364,7 @@
               <xdr:cNvPr id="358" name="直線コネクタ 357">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31445472-256A-4C4A-9062-0E87152CAF8E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31445472-256A-4C4A-9062-0E87152CAF8E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20386,7 +20400,7 @@
             <xdr:cNvPr id="335" name="グループ化 334">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C287897-4D0F-4689-B477-50B446F2196C}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C287897-4D0F-4689-B477-50B446F2196C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20405,7 +20419,7 @@
               <xdr:cNvPr id="351" name="直線コネクタ 350">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E58C884-852A-4C45-A877-45FD344381C2}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E58C884-852A-4C45-A877-45FD344381C2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20440,7 +20454,7 @@
               <xdr:cNvPr id="352" name="直線コネクタ 351">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94CBF4E4-2BD3-4BFC-BFA9-3CFBDDBF9BD7}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CBF4E4-2BD3-4BFC-BFA9-3CFBDDBF9BD7}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20475,7 +20489,7 @@
               <xdr:cNvPr id="353" name="直線コネクタ 352">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1325FCC6-2B58-41F4-9F13-37481026E0D4}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1325FCC6-2B58-41F4-9F13-37481026E0D4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20510,7 +20524,7 @@
               <xdr:cNvPr id="354" name="直線コネクタ 353">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{349A0796-B878-48F3-966B-5952A49F7F91}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349A0796-B878-48F3-966B-5952A49F7F91}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20546,7 +20560,7 @@
             <xdr:cNvPr id="336" name="グループ化 335">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3E6BC77-807B-4125-BEE0-604E727DFF7E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E6BC77-807B-4125-BEE0-604E727DFF7E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20565,7 +20579,7 @@
               <xdr:cNvPr id="347" name="直線コネクタ 346">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2A302F7-BB87-445C-8F07-E5C277A9CF25}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A302F7-BB87-445C-8F07-E5C277A9CF25}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20600,7 +20614,7 @@
               <xdr:cNvPr id="348" name="直線コネクタ 347">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3D8FD68-1F9A-45A7-B60C-0C610D22932D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D8FD68-1F9A-45A7-B60C-0C610D22932D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20635,7 +20649,7 @@
               <xdr:cNvPr id="349" name="直線コネクタ 348">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A047AFFD-5A5D-484E-917F-637CE94A7FE2}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A047AFFD-5A5D-484E-917F-637CE94A7FE2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20670,7 +20684,7 @@
               <xdr:cNvPr id="350" name="直線コネクタ 349">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{408B6E6F-0938-44BB-865B-7C0E96D1A4BE}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408B6E6F-0938-44BB-865B-7C0E96D1A4BE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20706,7 +20720,7 @@
             <xdr:cNvPr id="337" name="グループ化 336">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFD94800-C5DB-4E2B-9D89-0875E4801DA7}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD94800-C5DB-4E2B-9D89-0875E4801DA7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20725,7 +20739,7 @@
               <xdr:cNvPr id="343" name="直線コネクタ 342">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C8A5111-32D4-41D9-8677-D5F583959C82}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8A5111-32D4-41D9-8677-D5F583959C82}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20760,7 +20774,7 @@
               <xdr:cNvPr id="344" name="直線コネクタ 343">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FECE2DA-7642-4DE1-ADFC-FD7EBEB5016E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FECE2DA-7642-4DE1-ADFC-FD7EBEB5016E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20795,7 +20809,7 @@
               <xdr:cNvPr id="345" name="直線コネクタ 344">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFFA8803-5D66-457B-A6E9-12D7DAC1DBF4}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFA8803-5D66-457B-A6E9-12D7DAC1DBF4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20830,7 +20844,7 @@
               <xdr:cNvPr id="346" name="直線コネクタ 345">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF6FFC10-A416-4CDD-9E07-11D5417B4F3C}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6FFC10-A416-4CDD-9E07-11D5417B4F3C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20866,7 +20880,7 @@
             <xdr:cNvPr id="338" name="グループ化 337">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A5082E7-201C-4FCF-9E80-47D724BFB106}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5082E7-201C-4FCF-9E80-47D724BFB106}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20885,7 +20899,7 @@
               <xdr:cNvPr id="339" name="直線コネクタ 338">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1656AB3C-E1C3-42AE-A025-9D2B67B61DCB}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1656AB3C-E1C3-42AE-A025-9D2B67B61DCB}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20920,7 +20934,7 @@
               <xdr:cNvPr id="340" name="直線コネクタ 339">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D3C0E08-2DAB-4189-A9E4-5004F082DE94}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3C0E08-2DAB-4189-A9E4-5004F082DE94}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20955,7 +20969,7 @@
               <xdr:cNvPr id="341" name="直線コネクタ 340">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{283F0056-2747-4D54-A9EB-FA30A17F293D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283F0056-2747-4D54-A9EB-FA30A17F293D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20990,7 +21004,7 @@
               <xdr:cNvPr id="342" name="直線コネクタ 341">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{127952FB-29E4-4BD9-98C5-CF20BDCB0C1C}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127952FB-29E4-4BD9-98C5-CF20BDCB0C1C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21027,7 +21041,7 @@
           <xdr:cNvPr id="271" name="グループ化 270">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10051355-3B51-4FAC-9D1C-09F6C4CCC2A9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10051355-3B51-4FAC-9D1C-09F6C4CCC2A9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21046,7 +21060,7 @@
             <xdr:cNvPr id="303" name="グループ化 302">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37B45489-B2BE-4519-8F3A-356A4D8C3D8E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B45489-B2BE-4519-8F3A-356A4D8C3D8E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21065,7 +21079,7 @@
               <xdr:cNvPr id="329" name="直線コネクタ 328">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81482F43-F3E9-4623-A4EB-88AB94B5F46D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81482F43-F3E9-4623-A4EB-88AB94B5F46D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21100,7 +21114,7 @@
               <xdr:cNvPr id="330" name="直線コネクタ 329">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD7E0649-7FF8-4C27-B082-5876DC41509D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7E0649-7FF8-4C27-B082-5876DC41509D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21135,7 +21149,7 @@
               <xdr:cNvPr id="331" name="直線コネクタ 330">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19BA11FF-FFB8-455E-9F9C-81303DBECB2C}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BA11FF-FFB8-455E-9F9C-81303DBECB2C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21170,7 +21184,7 @@
               <xdr:cNvPr id="332" name="直線コネクタ 331">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02C52EDC-BF8F-4F44-855C-D4B63216F544}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C52EDC-BF8F-4F44-855C-D4B63216F544}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21206,7 +21220,7 @@
             <xdr:cNvPr id="304" name="グループ化 303">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D2CC57F-CBA4-4A2F-A8E0-0E2C0E9BFF7F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2CC57F-CBA4-4A2F-A8E0-0E2C0E9BFF7F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21225,7 +21239,7 @@
               <xdr:cNvPr id="325" name="直線コネクタ 324">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{554F4353-839C-43D9-9A8F-249335D625F1}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554F4353-839C-43D9-9A8F-249335D625F1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21260,7 +21274,7 @@
               <xdr:cNvPr id="326" name="直線コネクタ 325">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CAB5D04E-70A8-474C-B09E-89F329E4A1E3}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB5D04E-70A8-474C-B09E-89F329E4A1E3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21295,7 +21309,7 @@
               <xdr:cNvPr id="327" name="直線コネクタ 326">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E8801FA-B715-4F29-ADA1-EDDF2ABBD5A0}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8801FA-B715-4F29-ADA1-EDDF2ABBD5A0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21330,7 +21344,7 @@
               <xdr:cNvPr id="328" name="直線コネクタ 327">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C94B86D-EC1D-4B3E-8810-C0A982DC9E9B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C94B86D-EC1D-4B3E-8810-C0A982DC9E9B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21366,7 +21380,7 @@
             <xdr:cNvPr id="305" name="グループ化 304">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE45F5BA-57D7-48CF-9D45-36BC276E6432}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE45F5BA-57D7-48CF-9D45-36BC276E6432}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21385,7 +21399,7 @@
               <xdr:cNvPr id="321" name="直線コネクタ 320">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A1A9D9-0DC8-443C-BF5B-9BA0AEA242EB}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A1A9D9-0DC8-443C-BF5B-9BA0AEA242EB}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21420,7 +21434,7 @@
               <xdr:cNvPr id="322" name="直線コネクタ 321">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C650897-ACC4-46E1-AAB8-FBBBE552762E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C650897-ACC4-46E1-AAB8-FBBBE552762E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21455,7 +21469,7 @@
               <xdr:cNvPr id="323" name="直線コネクタ 322">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF28C34-54E1-4B38-B3D4-127BB5BB06BF}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF28C34-54E1-4B38-B3D4-127BB5BB06BF}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21490,7 +21504,7 @@
               <xdr:cNvPr id="324" name="直線コネクタ 323">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCD3259F-D985-4BAB-B9AB-60E6404E1B31}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD3259F-D985-4BAB-B9AB-60E6404E1B31}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21526,7 +21540,7 @@
             <xdr:cNvPr id="306" name="グループ化 305">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F8DFC74-BAB9-4BAA-B497-A6C16C059943}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8DFC74-BAB9-4BAA-B497-A6C16C059943}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21545,7 +21559,7 @@
               <xdr:cNvPr id="317" name="直線コネクタ 316">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{701DD090-7BC2-45EA-883D-6EDE281F081D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701DD090-7BC2-45EA-883D-6EDE281F081D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21580,7 +21594,7 @@
               <xdr:cNvPr id="318" name="直線コネクタ 317">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD8E1393-D55B-4405-B425-FA99D439ECD9}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8E1393-D55B-4405-B425-FA99D439ECD9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21615,7 +21629,7 @@
               <xdr:cNvPr id="319" name="直線コネクタ 318">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86A93BDD-1B98-4CD2-8EAC-696BA2960550}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A93BDD-1B98-4CD2-8EAC-696BA2960550}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21650,7 +21664,7 @@
               <xdr:cNvPr id="320" name="直線コネクタ 319">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65431717-2A60-4E47-ACD1-B8E4793BA729}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65431717-2A60-4E47-ACD1-B8E4793BA729}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21686,7 +21700,7 @@
             <xdr:cNvPr id="307" name="グループ化 306">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A97FB740-5A6D-4CC3-B8C9-0001FD19255D}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97FB740-5A6D-4CC3-B8C9-0001FD19255D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21705,7 +21719,7 @@
               <xdr:cNvPr id="313" name="直線コネクタ 312">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{074E2EE0-FBEA-4732-86DC-222EDF808BFE}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074E2EE0-FBEA-4732-86DC-222EDF808BFE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21740,7 +21754,7 @@
               <xdr:cNvPr id="314" name="直線コネクタ 313">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68C749C7-A6CB-499D-9851-D116EE9000BD}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C749C7-A6CB-499D-9851-D116EE9000BD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21775,7 +21789,7 @@
               <xdr:cNvPr id="315" name="直線コネクタ 314">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{769D14BB-4446-49B7-87D1-54BF394794A5}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769D14BB-4446-49B7-87D1-54BF394794A5}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21810,7 +21824,7 @@
               <xdr:cNvPr id="316" name="直線コネクタ 315">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79C1553C-7A66-4C3E-B40B-A2AB891DA7E8}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C1553C-7A66-4C3E-B40B-A2AB891DA7E8}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21846,7 +21860,7 @@
             <xdr:cNvPr id="308" name="グループ化 307">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CEF870C-7B79-4C10-8EBD-321DB5C7C9D9}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEF870C-7B79-4C10-8EBD-321DB5C7C9D9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21865,7 +21879,7 @@
               <xdr:cNvPr id="309" name="直線コネクタ 308">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B86EFB1-AE6C-436F-893C-ED45310C5F34}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B86EFB1-AE6C-436F-893C-ED45310C5F34}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21900,7 +21914,7 @@
               <xdr:cNvPr id="310" name="直線コネクタ 309">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D399002-CDD5-4E12-BCF5-5406E89EDD0F}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D399002-CDD5-4E12-BCF5-5406E89EDD0F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21935,7 +21949,7 @@
               <xdr:cNvPr id="311" name="直線コネクタ 310">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57D5F882-8784-4355-9C3B-91CC99723A93}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D5F882-8784-4355-9C3B-91CC99723A93}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21970,7 +21984,7 @@
               <xdr:cNvPr id="312" name="直線コネクタ 311">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABB2FF53-1A50-428C-AF9A-8F4036D68612}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB2FF53-1A50-428C-AF9A-8F4036D68612}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22007,7 +22021,7 @@
           <xdr:cNvPr id="272" name="グループ化 271">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93247C04-D3A0-49A3-8956-5D36DFCFEE41}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93247C04-D3A0-49A3-8956-5D36DFCFEE41}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22026,7 +22040,7 @@
             <xdr:cNvPr id="273" name="グループ化 272">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92FDB04A-E99C-4897-A07F-E648F5386AB5}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FDB04A-E99C-4897-A07F-E648F5386AB5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22045,7 +22059,7 @@
               <xdr:cNvPr id="299" name="直線コネクタ 298">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EF98F9D-86DA-4313-8605-2543E043AE82}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF98F9D-86DA-4313-8605-2543E043AE82}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22080,7 +22094,7 @@
               <xdr:cNvPr id="300" name="直線コネクタ 299">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BA2AF34-947E-44B4-B428-71B7A5729560}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA2AF34-947E-44B4-B428-71B7A5729560}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22115,7 +22129,7 @@
               <xdr:cNvPr id="301" name="直線コネクタ 300">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B26D185F-4DCC-4963-B2BD-2A6638EEBAB6}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26D185F-4DCC-4963-B2BD-2A6638EEBAB6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22150,7 +22164,7 @@
               <xdr:cNvPr id="302" name="直線コネクタ 301">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FA28649-768A-4241-8AD1-696943A63EBC}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA28649-768A-4241-8AD1-696943A63EBC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22186,7 +22200,7 @@
             <xdr:cNvPr id="274" name="グループ化 273">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73970388-3848-4353-B921-F5BC11C2DC5C}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73970388-3848-4353-B921-F5BC11C2DC5C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22205,7 +22219,7 @@
               <xdr:cNvPr id="295" name="直線コネクタ 294">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8057B8AC-B613-4E04-B467-1DBDC2436293}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8057B8AC-B613-4E04-B467-1DBDC2436293}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22240,7 +22254,7 @@
               <xdr:cNvPr id="296" name="直線コネクタ 295">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B27D4A5B-7874-4733-B06A-2E7F0B637E7E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27D4A5B-7874-4733-B06A-2E7F0B637E7E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22275,7 +22289,7 @@
               <xdr:cNvPr id="297" name="直線コネクタ 296">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04286054-5C08-407D-9A06-9FF739CF9AA1}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04286054-5C08-407D-9A06-9FF739CF9AA1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22310,7 +22324,7 @@
               <xdr:cNvPr id="298" name="直線コネクタ 297">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34EF9213-0537-468D-A4F8-F03E1A046374}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EF9213-0537-468D-A4F8-F03E1A046374}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22346,7 +22360,7 @@
             <xdr:cNvPr id="275" name="グループ化 274">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAC2ECBE-5464-47F7-8BF9-5DE584B61814}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC2ECBE-5464-47F7-8BF9-5DE584B61814}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22365,7 +22379,7 @@
               <xdr:cNvPr id="291" name="直線コネクタ 290">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0450D57-B29D-4AF5-BD5A-ED823617589F}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0450D57-B29D-4AF5-BD5A-ED823617589F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22400,7 +22414,7 @@
               <xdr:cNvPr id="292" name="直線コネクタ 291">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86243362-A090-4F99-BBF1-4865C2028AE5}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86243362-A090-4F99-BBF1-4865C2028AE5}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22435,7 +22449,7 @@
               <xdr:cNvPr id="293" name="直線コネクタ 292">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{866636E3-C04E-46D4-BDB5-3A4E526F50DC}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866636E3-C04E-46D4-BDB5-3A4E526F50DC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22470,7 +22484,7 @@
               <xdr:cNvPr id="294" name="直線コネクタ 293">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17EFC563-40A1-4A79-A324-7ED4F2EB0F6D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EFC563-40A1-4A79-A324-7ED4F2EB0F6D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22506,7 +22520,7 @@
             <xdr:cNvPr id="276" name="グループ化 275">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56A4BD3A-5FCB-49DF-8E4F-DDAA82D1775D}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A4BD3A-5FCB-49DF-8E4F-DDAA82D1775D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22525,7 +22539,7 @@
               <xdr:cNvPr id="287" name="直線コネクタ 286">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EECB4271-D5C0-48BD-B6A1-FA68AF723A13}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECB4271-D5C0-48BD-B6A1-FA68AF723A13}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22560,7 +22574,7 @@
               <xdr:cNvPr id="288" name="直線コネクタ 287">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9E082BC-0A37-4DD7-9375-C825DEF4133D}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E082BC-0A37-4DD7-9375-C825DEF4133D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22595,7 +22609,7 @@
               <xdr:cNvPr id="289" name="直線コネクタ 288">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12A9695C-8F12-4827-BC03-69C2F9F73B93}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A9695C-8F12-4827-BC03-69C2F9F73B93}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22630,7 +22644,7 @@
               <xdr:cNvPr id="290" name="直線コネクタ 289">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9023D70-7164-4E22-B952-CD014FB254EF}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9023D70-7164-4E22-B952-CD014FB254EF}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22666,7 +22680,7 @@
             <xdr:cNvPr id="277" name="グループ化 276">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0AC456E-DEEB-4ECD-9565-4BD35239D9C5}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AC456E-DEEB-4ECD-9565-4BD35239D9C5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22685,7 +22699,7 @@
               <xdr:cNvPr id="283" name="直線コネクタ 282">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EA459CB-07BB-4245-8B6E-719E1C9DEB7B}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA459CB-07BB-4245-8B6E-719E1C9DEB7B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22720,7 +22734,7 @@
               <xdr:cNvPr id="284" name="直線コネクタ 283">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E0CFAA6-6356-4E7D-A578-BE633049CC4E}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0CFAA6-6356-4E7D-A578-BE633049CC4E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22755,7 +22769,7 @@
               <xdr:cNvPr id="285" name="直線コネクタ 284">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76951CCB-4848-4C70-81D1-8F380A904181}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76951CCB-4848-4C70-81D1-8F380A904181}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22790,7 +22804,7 @@
               <xdr:cNvPr id="286" name="直線コネクタ 285">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3282120-A866-40AC-A3B4-90977FB612CB}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3282120-A866-40AC-A3B4-90977FB612CB}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22826,7 +22840,7 @@
             <xdr:cNvPr id="278" name="グループ化 277">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A96B39B-2A11-4CAE-A6A5-0C7596B6E6C3}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A96B39B-2A11-4CAE-A6A5-0C7596B6E6C3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22845,7 +22859,7 @@
               <xdr:cNvPr id="279" name="直線コネクタ 278">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0361E332-7ED0-4C80-A6B8-2C4B4623035F}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0361E332-7ED0-4C80-A6B8-2C4B4623035F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22880,7 +22894,7 @@
               <xdr:cNvPr id="280" name="直線コネクタ 279">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB785A3A-8382-4DBF-B7BF-8CBED1690F10}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB785A3A-8382-4DBF-B7BF-8CBED1690F10}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22915,7 +22929,7 @@
               <xdr:cNvPr id="281" name="直線コネクタ 280">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15F559FA-D4D5-4C92-BDD6-21A41B57CA8C}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F559FA-D4D5-4C92-BDD6-21A41B57CA8C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22950,7 +22964,7 @@
               <xdr:cNvPr id="282" name="直線コネクタ 281">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{627D5853-3887-449D-A6F1-BB06E2AE33E3}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627D5853-3887-449D-A6F1-BB06E2AE33E3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -23003,7 +23017,7 @@
         <xdr:cNvPr id="453" name="グループ化 452">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59A0822A-1923-463E-B494-3034A4D78930}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A0822A-1923-463E-B494-3034A4D78930}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23022,7 +23036,7 @@
           <xdr:cNvPr id="454" name="グループ化 453">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94EE0D6F-6021-4F79-AB26-14589D03E55F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EE0D6F-6021-4F79-AB26-14589D03E55F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23041,7 +23055,7 @@
             <xdr:cNvPr id="470" name="直線コネクタ 469">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5C9A540-3A0E-4A6C-B5AB-4255C8B5D3A9}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C9A540-3A0E-4A6C-B5AB-4255C8B5D3A9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23076,7 +23090,7 @@
             <xdr:cNvPr id="471" name="直線コネクタ 470">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{565F0203-14BD-4AB3-9484-47F9B8CC63BB}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565F0203-14BD-4AB3-9484-47F9B8CC63BB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23111,7 +23125,7 @@
             <xdr:cNvPr id="472" name="直線コネクタ 471">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DC36536-039B-4280-B758-1146F575AA1F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC36536-039B-4280-B758-1146F575AA1F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23146,7 +23160,7 @@
             <xdr:cNvPr id="473" name="直線コネクタ 472">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81F71F8B-4E55-4738-B828-68666AEC99EF}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F71F8B-4E55-4738-B828-68666AEC99EF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23182,7 +23196,7 @@
           <xdr:cNvPr id="455" name="グループ化 454">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2866DE0-5731-45FC-87C3-7967C8E07A69}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2866DE0-5731-45FC-87C3-7967C8E07A69}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23201,7 +23215,7 @@
             <xdr:cNvPr id="466" name="直線コネクタ 465">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20AFBCC3-7136-4309-90B1-F110E326D703}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AFBCC3-7136-4309-90B1-F110E326D703}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23236,7 +23250,7 @@
             <xdr:cNvPr id="467" name="直線コネクタ 466">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08591E88-D680-42CD-9AEC-EA21E87043A7}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08591E88-D680-42CD-9AEC-EA21E87043A7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23271,7 +23285,7 @@
             <xdr:cNvPr id="468" name="直線コネクタ 467">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5980885A-5F97-41D4-920F-B3E95DA2DD5A}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5980885A-5F97-41D4-920F-B3E95DA2DD5A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23306,7 +23320,7 @@
             <xdr:cNvPr id="469" name="直線コネクタ 468">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F9E75E2-B2ED-4E0F-ACC9-E28DDD6D2A73}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9E75E2-B2ED-4E0F-ACC9-E28DDD6D2A73}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23342,7 +23356,7 @@
           <xdr:cNvPr id="456" name="グループ化 455">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFC0A9D4-0E4F-447C-A495-41742D52B6E9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC0A9D4-0E4F-447C-A495-41742D52B6E9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23361,7 +23375,7 @@
             <xdr:cNvPr id="462" name="直線コネクタ 461">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C95911A4-8657-4E5F-AB6E-F38805904B8A}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95911A4-8657-4E5F-AB6E-F38805904B8A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23396,7 +23410,7 @@
             <xdr:cNvPr id="463" name="直線コネクタ 462">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4244B270-AA36-489C-957E-6B44881ED460}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4244B270-AA36-489C-957E-6B44881ED460}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23431,7 +23445,7 @@
             <xdr:cNvPr id="464" name="直線コネクタ 463">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1C16588-7F6D-4A14-A1D3-09BDE963EE05}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C16588-7F6D-4A14-A1D3-09BDE963EE05}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23466,7 +23480,7 @@
             <xdr:cNvPr id="465" name="直線コネクタ 464">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76739EC7-36C8-407B-A3E5-7D0D0EC575BC}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76739EC7-36C8-407B-A3E5-7D0D0EC575BC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23502,7 +23516,7 @@
           <xdr:cNvPr id="457" name="グループ化 456">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4D54952-D7E8-467E-9201-A79D7BED0C72}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D54952-D7E8-467E-9201-A79D7BED0C72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23521,7 +23535,7 @@
             <xdr:cNvPr id="458" name="直線コネクタ 457">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8E9C9FD-569D-44B4-9C47-DA4322F83F46}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E9C9FD-569D-44B4-9C47-DA4322F83F46}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23556,7 +23570,7 @@
             <xdr:cNvPr id="459" name="直線コネクタ 458">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ED5A918-D599-4551-A93A-FE9B1B79DC74}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED5A918-D599-4551-A93A-FE9B1B79DC74}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23591,7 +23605,7 @@
             <xdr:cNvPr id="460" name="直線コネクタ 459">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90507058-2CCB-4241-9BCF-67ADC1100A63}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90507058-2CCB-4241-9BCF-67ADC1100A63}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23626,7 +23640,7 @@
             <xdr:cNvPr id="461" name="直線コネクタ 460">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33C280CD-45CD-4546-925B-A3C554F0EDB2}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C280CD-45CD-4546-925B-A3C554F0EDB2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23678,7 +23692,7 @@
         <xdr:cNvPr id="474" name="グループ化 473">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1976F385-9FB9-4ACE-830E-AEBCA67A4CAF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1976F385-9FB9-4ACE-830E-AEBCA67A4CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23697,7 +23711,7 @@
           <xdr:cNvPr id="475" name="グループ化 474">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B6ECA63-0009-4AFC-9E1F-D58E57EFB6A9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6ECA63-0009-4AFC-9E1F-D58E57EFB6A9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23716,7 +23730,7 @@
             <xdr:cNvPr id="491" name="直線コネクタ 490">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBEF526F-1972-4EBF-B97B-4A8BEE481E11}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEF526F-1972-4EBF-B97B-4A8BEE481E11}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23751,7 +23765,7 @@
             <xdr:cNvPr id="492" name="直線コネクタ 491">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0D7CC66-5E16-4714-AE74-8B6EAF60C53B}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D7CC66-5E16-4714-AE74-8B6EAF60C53B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23786,7 +23800,7 @@
             <xdr:cNvPr id="493" name="直線コネクタ 492">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79A557F-809C-4C06-A025-BBA2E9048085}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79A557F-809C-4C06-A025-BBA2E9048085}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23821,7 +23835,7 @@
             <xdr:cNvPr id="494" name="直線コネクタ 493">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8934FBCD-F319-4ABA-89AC-D34F32E73505}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8934FBCD-F319-4ABA-89AC-D34F32E73505}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23857,7 +23871,7 @@
           <xdr:cNvPr id="476" name="グループ化 475">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1953D869-75AA-4918-BA8F-83355B91C1A5}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1953D869-75AA-4918-BA8F-83355B91C1A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23876,7 +23890,7 @@
             <xdr:cNvPr id="487" name="直線コネクタ 486">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A1794E3-2BBD-47EA-9FCF-DA8F06E80435}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1794E3-2BBD-47EA-9FCF-DA8F06E80435}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23911,7 +23925,7 @@
             <xdr:cNvPr id="488" name="直線コネクタ 487">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{451D7CCD-F790-49DA-8A6B-960B33EAF353}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451D7CCD-F790-49DA-8A6B-960B33EAF353}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23946,7 +23960,7 @@
             <xdr:cNvPr id="489" name="直線コネクタ 488">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFD25B7D-B414-4473-AFE8-BAFBDE765D57}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD25B7D-B414-4473-AFE8-BAFBDE765D57}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23981,7 +23995,7 @@
             <xdr:cNvPr id="490" name="直線コネクタ 489">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F03321CF-155F-4342-B86A-8F2831BB100A}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F03321CF-155F-4342-B86A-8F2831BB100A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24017,7 +24031,7 @@
           <xdr:cNvPr id="477" name="グループ化 476">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4E5F73F-3EB1-4B12-B943-361C700729E6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E5F73F-3EB1-4B12-B943-361C700729E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24036,7 +24050,7 @@
             <xdr:cNvPr id="483" name="直線コネクタ 482">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C5D79E0-9C0D-40BF-8A02-CB34DBA1E8B5}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5D79E0-9C0D-40BF-8A02-CB34DBA1E8B5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24071,7 +24085,7 @@
             <xdr:cNvPr id="484" name="直線コネクタ 483">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{929C69A5-D7C2-44F2-B960-BE581D343813}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929C69A5-D7C2-44F2-B960-BE581D343813}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24106,7 +24120,7 @@
             <xdr:cNvPr id="485" name="直線コネクタ 484">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF00F1EA-E622-4A0B-9417-97C9BA051E02}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF00F1EA-E622-4A0B-9417-97C9BA051E02}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24141,7 +24155,7 @@
             <xdr:cNvPr id="486" name="直線コネクタ 485">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1483CCF-0BC2-420C-8377-CDB08AE4AAA3}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1483CCF-0BC2-420C-8377-CDB08AE4AAA3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24177,7 +24191,7 @@
           <xdr:cNvPr id="478" name="グループ化 477">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71C42BA1-CF3D-4516-BB71-AE01E2885F78}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C42BA1-CF3D-4516-BB71-AE01E2885F78}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24196,7 +24210,7 @@
             <xdr:cNvPr id="479" name="直線コネクタ 478">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D57B1D2-A8DF-4034-99EC-031479CD330F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D57B1D2-A8DF-4034-99EC-031479CD330F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24231,7 +24245,7 @@
             <xdr:cNvPr id="480" name="直線コネクタ 479">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4F8081A-3E10-40A5-986E-B80D0829F5F9}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F8081A-3E10-40A5-986E-B80D0829F5F9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24266,7 +24280,7 @@
             <xdr:cNvPr id="481" name="直線コネクタ 480">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDC9C87C-5FD1-427B-AF04-6BF207643E75}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC9C87C-5FD1-427B-AF04-6BF207643E75}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24301,7 +24315,7 @@
             <xdr:cNvPr id="482" name="直線コネクタ 481">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95D8D6A8-0120-4863-AA7A-10732C19456A}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D8D6A8-0120-4863-AA7A-10732C19456A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24353,7 +24367,7 @@
         <xdr:cNvPr id="27" name="稲妻 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CAE87A3-A0A2-44E9-B4D4-A43FCBBACEF5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CAE87A3-A0A2-44E9-B4D4-A43FCBBACEF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24413,7 +24427,7 @@
         <xdr:cNvPr id="31" name="矢印: 上 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E97AF30B-927E-436D-ACAA-396D0022BCC0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97AF30B-927E-436D-ACAA-396D0022BCC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24473,7 +24487,7 @@
         <xdr:cNvPr id="495" name="矢印: 上 494">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC96DBAB-5DAE-4DDD-AFE6-E6B01DD7F3F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC96DBAB-5DAE-4DDD-AFE6-E6B01DD7F3F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24607,7 +24621,7 @@
         <xdr:cNvPr id="4" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24669,7 +24683,7 @@
         <xdr:cNvPr id="5" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24731,7 +24745,7 @@
         <xdr:cNvPr id="7" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24847,7 +24861,7 @@
         <xdr:cNvPr id="9" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24967,7 +24981,7 @@
         <xdr:cNvPr id="10" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25029,7 +25043,7 @@
         <xdr:cNvPr id="11" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25091,7 +25105,7 @@
         <xdr:cNvPr id="12" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25153,7 +25167,7 @@
         <xdr:cNvPr id="13" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25288,7 +25302,7 @@
         <xdr:cNvPr id="15" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25617,7 +25631,7 @@
         <xdr:cNvPr id="21" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25679,7 +25693,7 @@
         <xdr:cNvPr id="22" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25741,7 +25755,7 @@
         <xdr:cNvPr id="23" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25803,7 +25817,7 @@
         <xdr:cNvPr id="25" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25865,7 +25879,7 @@
         <xdr:cNvPr id="26" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25927,7 +25941,7 @@
         <xdr:cNvPr id="27" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25989,7 +26003,7 @@
         <xdr:cNvPr id="28" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26318,7 +26332,7 @@
         <xdr:cNvPr id="33" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26366,6 +26380,64 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>21952</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>13004</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Curved Up Arrow 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1638486">
+          <a:off x="10515596" y="6175275"/>
+          <a:ext cx="2089781" cy="487515"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26379,7 +26451,7 @@
         <xdr:cNvPr id="2" name="画像 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C437E868-BB38-486A-8A21-C79364787D32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C437E868-BB38-486A-8A21-C79364787D32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26413,7 +26485,7 @@
         <xdr:cNvPr id="3" name="画像 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{843307F5-4A92-405E-8012-3F12E6C62793}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843307F5-4A92-405E-8012-3F12E6C62793}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26447,7 +26519,7 @@
         <xdr:cNvPr id="4" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E064301B-81DD-4965-8E4B-A6C361503422}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E064301B-81DD-4965-8E4B-A6C361503422}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26491,7 +26563,7 @@
         <xdr:cNvPr id="5" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74B601C4-4F9C-43DD-B00E-5AD95D07C60D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B601C4-4F9C-43DD-B00E-5AD95D07C60D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26535,7 +26607,7 @@
         <xdr:cNvPr id="6" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AC47F31-AECB-48C8-AC07-0E7CF60CD9D3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC47F31-AECB-48C8-AC07-0E7CF60CD9D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26579,7 +26651,7 @@
         <xdr:cNvPr id="7" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A16FD91A-778C-43B1-A355-78C6E23D31A1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16FD91A-778C-43B1-A355-78C6E23D31A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26623,7 +26695,7 @@
         <xdr:cNvPr id="8" name="画像 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09E6F8EE-7193-4942-9FA8-1EA7B7B1E933}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E6F8EE-7193-4942-9FA8-1EA7B7B1E933}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26657,7 +26729,7 @@
         <xdr:cNvPr id="9" name="画像 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4ABB616B-E2DA-4236-8B69-19BFA0D194AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABB616B-E2DA-4236-8B69-19BFA0D194AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26691,7 +26763,7 @@
         <xdr:cNvPr id="10" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9313EC1B-ECE2-4793-8557-3D8CCDFE8463}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9313EC1B-ECE2-4793-8557-3D8CCDFE8463}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26735,7 +26807,7 @@
         <xdr:cNvPr id="11" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA4D8E81-D39E-40F5-89B9-4A8CF1A2F7DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4D8E81-D39E-40F5-89B9-4A8CF1A2F7DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26779,7 +26851,7 @@
         <xdr:cNvPr id="12" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFE7ED60-0DD3-461C-8C93-E211351ACA05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE7ED60-0DD3-461C-8C93-E211351ACA05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26823,7 +26895,7 @@
         <xdr:cNvPr id="13" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F743D999-E4AE-4454-A67F-59BF7363011E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F743D999-E4AE-4454-A67F-59BF7363011E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26867,7 +26939,7 @@
         <xdr:cNvPr id="14" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1688B424-5FEE-4DA9-9FD5-B8AE43C4CFB0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1688B424-5FEE-4DA9-9FD5-B8AE43C4CFB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26911,7 +26983,7 @@
         <xdr:cNvPr id="15" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA20598-F7C1-4B0B-A1E9-B62C1156E65A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA20598-F7C1-4B0B-A1E9-B62C1156E65A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26955,7 +27027,7 @@
         <xdr:cNvPr id="16" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E5DC773-04C9-4DF9-999D-8A34494C7380}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E5DC773-04C9-4DF9-999D-8A34494C7380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26999,7 +27071,7 @@
         <xdr:cNvPr id="17" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9993E7BC-ED04-442D-81FF-02CF3A80C16B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9993E7BC-ED04-442D-81FF-02CF3A80C16B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27043,7 +27115,7 @@
         <xdr:cNvPr id="18" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D41CC502-6FFA-4D1B-8D28-155BD8B5B6B3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41CC502-6FFA-4D1B-8D28-155BD8B5B6B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27087,7 +27159,7 @@
         <xdr:cNvPr id="19" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2DC4A61-F832-495E-8C10-F849B484DD46}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DC4A61-F832-495E-8C10-F849B484DD46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27131,7 +27203,7 @@
         <xdr:cNvPr id="20" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{034AFE29-9612-4E35-BF6E-D0DAF61164C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034AFE29-9612-4E35-BF6E-D0DAF61164C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27175,7 +27247,7 @@
         <xdr:cNvPr id="21" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03C49169-ACEE-427E-952A-5F540268FD90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C49169-ACEE-427E-952A-5F540268FD90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27219,7 +27291,7 @@
         <xdr:cNvPr id="22" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A396AB-7B24-407C-B36C-BB2947E5B6BC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A396AB-7B24-407C-B36C-BB2947E5B6BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27263,7 +27335,7 @@
         <xdr:cNvPr id="23" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45C85E4C-D6D7-46E1-9C81-FADD0DCD830E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C85E4C-D6D7-46E1-9C81-FADD0DCD830E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27307,7 +27379,7 @@
         <xdr:cNvPr id="24" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC9A3CCC-89ED-4C89-8835-FC2FCC90D1FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9A3CCC-89ED-4C89-8835-FC2FCC90D1FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27351,7 +27423,7 @@
         <xdr:cNvPr id="25" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99BFEA2D-566C-41B7-B1D4-7C254F4D4B7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99BFEA2D-566C-41B7-B1D4-7C254F4D4B7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27395,7 +27467,7 @@
         <xdr:cNvPr id="26" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBBB493B-945B-49DB-9C5A-F49BFB354252}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBB493B-945B-49DB-9C5A-F49BFB354252}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27439,7 +27511,7 @@
         <xdr:cNvPr id="27" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2875BC5-B7D0-4533-9CD2-1CC4A620319C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2875BC5-B7D0-4533-9CD2-1CC4A620319C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27483,7 +27555,7 @@
         <xdr:cNvPr id="28" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8987E004-14FC-42D4-9B1D-33E3942BBD8F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8987E004-14FC-42D4-9B1D-33E3942BBD8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27527,7 +27599,7 @@
         <xdr:cNvPr id="29" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BA30F38-5B65-4E0F-B706-B46B193FBAB6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA30F38-5B65-4E0F-B706-B46B193FBAB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27571,7 +27643,7 @@
         <xdr:cNvPr id="30" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82BE5407-BC21-47DD-9BCB-294A8687C83A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BE5407-BC21-47DD-9BCB-294A8687C83A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27615,7 +27687,7 @@
         <xdr:cNvPr id="31" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D20302BB-5990-49DD-9FAE-34A71CD397CF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20302BB-5990-49DD-9FAE-34A71CD397CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27659,7 +27731,7 @@
         <xdr:cNvPr id="32" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A63A47D2-C776-4AC8-8B39-2C81CC6C6F70}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A63A47D2-C776-4AC8-8B39-2C81CC6C6F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27703,7 +27775,7 @@
         <xdr:cNvPr id="33" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72A745EB-BE05-4FB6-AE70-FB6F194FFA28}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A745EB-BE05-4FB6-AE70-FB6F194FFA28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27747,7 +27819,7 @@
         <xdr:cNvPr id="34" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7979308C-D89D-4BBD-95BA-C821C1732E55}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7979308C-D89D-4BBD-95BA-C821C1732E55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27791,7 +27863,7 @@
         <xdr:cNvPr id="35" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EC7E0EA-14E9-43FA-898B-6496A22D375A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC7E0EA-14E9-43FA-898B-6496A22D375A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27835,7 +27907,7 @@
         <xdr:cNvPr id="36" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F96E2782-7519-4890-9465-E50A01B8E5E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96E2782-7519-4890-9465-E50A01B8E5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27879,7 +27951,7 @@
         <xdr:cNvPr id="37" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43350510-45D7-4246-9082-A9727824F47B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43350510-45D7-4246-9082-A9727824F47B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27923,7 +27995,7 @@
         <xdr:cNvPr id="38" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2D268C9-F95D-4359-B55E-38291689E586}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D268C9-F95D-4359-B55E-38291689E586}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27967,7 +28039,7 @@
         <xdr:cNvPr id="39" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D363F0B9-A16E-4B4F-9F4B-898D07DCE0F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D363F0B9-A16E-4B4F-9F4B-898D07DCE0F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28011,7 +28083,7 @@
         <xdr:cNvPr id="40" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A985FA03-A611-4D9A-A6C2-AC17DD10AD89}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A985FA03-A611-4D9A-A6C2-AC17DD10AD89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28055,7 +28127,7 @@
         <xdr:cNvPr id="41" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17BFAFE1-64CC-44C5-8F84-B01F861CEC3B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BFAFE1-64CC-44C5-8F84-B01F861CEC3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28099,7 +28171,7 @@
         <xdr:cNvPr id="42" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01187D83-5347-43FE-94EF-22819B43BB2C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01187D83-5347-43FE-94EF-22819B43BB2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28143,7 +28215,7 @@
         <xdr:cNvPr id="43" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E73C49F-EF61-4D77-A24B-EA08DDEC78C6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E73C49F-EF61-4D77-A24B-EA08DDEC78C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28187,7 +28259,7 @@
         <xdr:cNvPr id="44" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F9E74C5-4CCA-4F0B-99F0-2941DB86EB19}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9E74C5-4CCA-4F0B-99F0-2941DB86EB19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28231,7 +28303,7 @@
         <xdr:cNvPr id="45" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5AF8A37-223E-4A2D-A17C-638AD4BAC27A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AF8A37-223E-4A2D-A17C-638AD4BAC27A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28275,7 +28347,7 @@
         <xdr:cNvPr id="46" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91EF1CFA-2408-4726-9324-3BF9BA71DDCE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EF1CFA-2408-4726-9324-3BF9BA71DDCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28319,7 +28391,7 @@
         <xdr:cNvPr id="47" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91432C70-A7F4-44EA-816E-1031F9AE892F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91432C70-A7F4-44EA-816E-1031F9AE892F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28363,7 +28435,7 @@
         <xdr:cNvPr id="48" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17E597AE-FCB8-4A70-B06C-3D929E9836E2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E597AE-FCB8-4A70-B06C-3D929E9836E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28407,7 +28479,7 @@
         <xdr:cNvPr id="49" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85E0CD14-F75D-4BE6-8B74-F5A74710BA5E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E0CD14-F75D-4BE6-8B74-F5A74710BA5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28451,7 +28523,7 @@
         <xdr:cNvPr id="50" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72737E41-6EF4-4DC7-853D-E1A1E81C12F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72737E41-6EF4-4DC7-853D-E1A1E81C12F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28495,7 +28567,7 @@
         <xdr:cNvPr id="51" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B64D80C1-49E6-4EB0-92A7-24A44DCE23BC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64D80C1-49E6-4EB0-92A7-24A44DCE23BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28564,7 +28636,7 @@
         <xdr:cNvPr id="52" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF68FEC5-CA5C-44FD-ADCB-AD3F74B0E8EC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF68FEC5-CA5C-44FD-ADCB-AD3F74B0E8EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28608,7 +28680,7 @@
         <xdr:cNvPr id="53" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{827A3DDC-DE5A-4424-8F9E-B7CF92F05184}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827A3DDC-DE5A-4424-8F9E-B7CF92F05184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28652,7 +28724,7 @@
         <xdr:cNvPr id="54" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70AF36A3-C540-4EE9-907C-4F17AB59AEC9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AF36A3-C540-4EE9-907C-4F17AB59AEC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28696,7 +28768,7 @@
         <xdr:cNvPr id="55" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BABA6A74-267C-4512-8E8D-F82A103EBD65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABA6A74-267C-4512-8E8D-F82A103EBD65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28740,7 +28812,7 @@
         <xdr:cNvPr id="56" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23B21FC8-7DDA-4DA2-8936-AB37B0017212}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B21FC8-7DDA-4DA2-8936-AB37B0017212}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28784,7 +28856,7 @@
         <xdr:cNvPr id="57" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EDD1548-1B70-48F0-9E22-1C930FD701FA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDD1548-1B70-48F0-9E22-1C930FD701FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28828,7 +28900,7 @@
         <xdr:cNvPr id="58" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3DFCAA7-B421-4743-B54E-8F479ACD744C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DFCAA7-B421-4743-B54E-8F479ACD744C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28872,7 +28944,7 @@
         <xdr:cNvPr id="59" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B765C305-E733-4E49-A428-1C25CF32D0F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B765C305-E733-4E49-A428-1C25CF32D0F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28916,7 +28988,7 @@
         <xdr:cNvPr id="60" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{513E6EE3-C4B8-47BE-BDF7-AAFA562166E6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513E6EE3-C4B8-47BE-BDF7-AAFA562166E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28960,7 +29032,7 @@
         <xdr:cNvPr id="61" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDD297D1-7D0F-4989-B14E-57CF9371042F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD297D1-7D0F-4989-B14E-57CF9371042F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29004,7 +29076,7 @@
         <xdr:cNvPr id="62" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{272C5969-5DAC-4148-BD42-859471EDAC03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272C5969-5DAC-4148-BD42-859471EDAC03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29048,7 +29120,7 @@
         <xdr:cNvPr id="63" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C6B24BE-C24D-493C-B41A-97F1E2E45026}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6B24BE-C24D-493C-B41A-97F1E2E45026}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29092,7 +29164,7 @@
         <xdr:cNvPr id="64" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23799EE7-5FC1-45AB-B7D0-D50B777DD5C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23799EE7-5FC1-45AB-B7D0-D50B777DD5C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29136,7 +29208,7 @@
         <xdr:cNvPr id="65" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BF46CA-6B18-42FC-B14B-6717A0AC6A35}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BF46CA-6B18-42FC-B14B-6717A0AC6A35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29180,7 +29252,7 @@
         <xdr:cNvPr id="66" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A05B181-EC08-4E52-9481-3239FAC9AC78}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A05B181-EC08-4E52-9481-3239FAC9AC78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29224,7 +29296,7 @@
         <xdr:cNvPr id="67" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D9A5679-222F-4CDF-975C-98E4EDC7F54A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9A5679-222F-4CDF-975C-98E4EDC7F54A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29268,7 +29340,7 @@
         <xdr:cNvPr id="68" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8471F68-F520-43A7-A474-C48C6546D0CB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8471F68-F520-43A7-A474-C48C6546D0CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29312,7 +29384,7 @@
         <xdr:cNvPr id="69" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D55D23D-BFC6-46DB-A479-F90A85C7B50C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D55D23D-BFC6-46DB-A479-F90A85C7B50C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29356,7 +29428,7 @@
         <xdr:cNvPr id="70" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05869EB5-FAF9-4358-A1FC-07A007D691F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05869EB5-FAF9-4358-A1FC-07A007D691F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29400,7 +29472,7 @@
         <xdr:cNvPr id="71" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC483B59-8CFA-43D1-BE47-F5817EE8ABB5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC483B59-8CFA-43D1-BE47-F5817EE8ABB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29444,7 +29516,7 @@
         <xdr:cNvPr id="72" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D571B8A-37A1-449E-A102-FFAB9423F09A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D571B8A-37A1-449E-A102-FFAB9423F09A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29488,7 +29560,7 @@
         <xdr:cNvPr id="73" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE7A5D1-F294-4698-90C2-8456A4ACC4D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE7A5D1-F294-4698-90C2-8456A4ACC4D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29532,7 +29604,7 @@
         <xdr:cNvPr id="74" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58C5289F-FC7C-4214-A5CA-4DB096CF1053}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C5289F-FC7C-4214-A5CA-4DB096CF1053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29576,7 +29648,7 @@
         <xdr:cNvPr id="75" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D697564-01BB-42DD-AB93-943C6A3D1673}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D697564-01BB-42DD-AB93-943C6A3D1673}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29620,7 +29692,7 @@
         <xdr:cNvPr id="76" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF6C1775-8274-48C9-B8EC-87995372362A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6C1775-8274-48C9-B8EC-87995372362A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29664,7 +29736,7 @@
         <xdr:cNvPr id="77" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71861F59-DDF6-4778-8ECC-E06C9DC2DB42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71861F59-DDF6-4778-8ECC-E06C9DC2DB42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29708,7 +29780,7 @@
         <xdr:cNvPr id="78" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B533EAF1-5CDF-4395-A0F8-B8E09F718A85}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B533EAF1-5CDF-4395-A0F8-B8E09F718A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29752,7 +29824,7 @@
         <xdr:cNvPr id="79" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75A5806F-BE52-4457-9301-2B040E6C0E0C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A5806F-BE52-4457-9301-2B040E6C0E0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29796,7 +29868,7 @@
         <xdr:cNvPr id="80" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47409DAE-CF59-4923-AADA-8274CC0B2405}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47409DAE-CF59-4923-AADA-8274CC0B2405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29840,7 +29912,7 @@
         <xdr:cNvPr id="81" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{353B9031-DF22-41CD-9F87-01585887EA6C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353B9031-DF22-41CD-9F87-01585887EA6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29884,7 +29956,7 @@
         <xdr:cNvPr id="82" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85508AB0-999C-46CF-8AB0-B43A6FA6FA9E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85508AB0-999C-46CF-8AB0-B43A6FA6FA9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29928,7 +30000,7 @@
         <xdr:cNvPr id="83" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F95E4083-B506-4BE1-ADEE-A5EA14CF8686}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95E4083-B506-4BE1-ADEE-A5EA14CF8686}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29972,7 +30044,7 @@
         <xdr:cNvPr id="84" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15A269AB-6560-4501-A132-95C8DC829E2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A269AB-6560-4501-A132-95C8DC829E2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30016,7 +30088,7 @@
         <xdr:cNvPr id="85" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07F0BCF6-1E10-4574-A0E7-2C6B31D05132}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F0BCF6-1E10-4574-A0E7-2C6B31D05132}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30060,7 +30132,7 @@
         <xdr:cNvPr id="86" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A07FA64-2286-4B60-9636-9599137C539D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A07FA64-2286-4B60-9636-9599137C539D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30104,7 +30176,7 @@
         <xdr:cNvPr id="87" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EB53E90-E86A-4F05-8BF7-BB2E456B89CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB53E90-E86A-4F05-8BF7-BB2E456B89CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30148,7 +30220,7 @@
         <xdr:cNvPr id="88" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1CD607A-0185-401F-BBCB-13501CC2B22F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CD607A-0185-401F-BBCB-13501CC2B22F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30192,7 +30264,7 @@
         <xdr:cNvPr id="89" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F88AE6C5-F3C6-4496-931A-1707147C702C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88AE6C5-F3C6-4496-931A-1707147C702C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30236,7 +30308,7 @@
         <xdr:cNvPr id="90" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDE20BC8-7C9C-4DEC-AF74-A20CFBB35908}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE20BC8-7C9C-4DEC-AF74-A20CFBB35908}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30280,7 +30352,7 @@
         <xdr:cNvPr id="91" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C8DCF5E-78CF-4726-95B9-6EAAE69CF133}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8DCF5E-78CF-4726-95B9-6EAAE69CF133}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30324,7 +30396,7 @@
         <xdr:cNvPr id="92" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7617C891-8068-4A7B-9C42-D33462B55E30}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7617C891-8068-4A7B-9C42-D33462B55E30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30368,7 +30440,7 @@
         <xdr:cNvPr id="93" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7293531A-C3E1-4F32-A30F-EA3F17CFB406}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7293531A-C3E1-4F32-A30F-EA3F17CFB406}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30412,7 +30484,7 @@
         <xdr:cNvPr id="94" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D03BE40-2911-42DF-BF9F-E58EC094BA2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D03BE40-2911-42DF-BF9F-E58EC094BA2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30456,7 +30528,7 @@
         <xdr:cNvPr id="95" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF21BD71-DB13-40FE-BADD-604CF5D2C124}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF21BD71-DB13-40FE-BADD-604CF5D2C124}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30500,7 +30572,7 @@
         <xdr:cNvPr id="96" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E571C9D5-C966-4248-B563-BBBFA02CFE30}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E571C9D5-C966-4248-B563-BBBFA02CFE30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30544,7 +30616,7 @@
         <xdr:cNvPr id="97" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{905DA2F7-AD29-4965-A6E6-B76D000DFB6B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905DA2F7-AD29-4965-A6E6-B76D000DFB6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30588,7 +30660,7 @@
         <xdr:cNvPr id="98" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7851CA9F-2C06-47DA-B5EB-72FD64F0AD8C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7851CA9F-2C06-47DA-B5EB-72FD64F0AD8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30632,7 +30704,7 @@
         <xdr:cNvPr id="99" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{192963AB-77E5-4CF1-9D5A-D1812501BB5E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192963AB-77E5-4CF1-9D5A-D1812501BB5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30676,7 +30748,7 @@
         <xdr:cNvPr id="100" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BA8CF33-073F-4ACA-B79F-E72697BB114C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA8CF33-073F-4ACA-B79F-E72697BB114C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30720,7 +30792,7 @@
         <xdr:cNvPr id="101" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F392D7E4-F1EE-4D9F-B4B7-1BD0EB1C2971}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F392D7E4-F1EE-4D9F-B4B7-1BD0EB1C2971}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30764,7 +30836,7 @@
         <xdr:cNvPr id="102" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1EC61BE-4B18-4DF4-8FA9-83770893923E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EC61BE-4B18-4DF4-8FA9-83770893923E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30808,7 +30880,7 @@
         <xdr:cNvPr id="103" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64B80A1F-D783-42E6-B28F-7423CEB25693}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B80A1F-D783-42E6-B28F-7423CEB25693}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30852,7 +30924,7 @@
         <xdr:cNvPr id="104" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B274DA0-A65F-4081-BEC3-6D95DB05F7C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B274DA0-A65F-4081-BEC3-6D95DB05F7C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30896,7 +30968,7 @@
         <xdr:cNvPr id="105" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF55FAF9-4654-4A6D-A4A9-242D76105D48}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF55FAF9-4654-4A6D-A4A9-242D76105D48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30940,7 +31012,7 @@
         <xdr:cNvPr id="106" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2784E05F-8130-4BD8-A9F4-0061ACEE4091}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2784E05F-8130-4BD8-A9F4-0061ACEE4091}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30984,7 +31056,7 @@
         <xdr:cNvPr id="107" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D00DD02-A40D-4C00-8621-8BA036E0C3B0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D00DD02-A40D-4C00-8621-8BA036E0C3B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31028,7 +31100,7 @@
         <xdr:cNvPr id="108" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D682ABFB-3EC9-44A2-A272-B916480190A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D682ABFB-3EC9-44A2-A272-B916480190A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31072,7 +31144,7 @@
         <xdr:cNvPr id="109" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37379052-FF52-49F2-A744-D7BCF02A548B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37379052-FF52-49F2-A744-D7BCF02A548B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31116,7 +31188,7 @@
         <xdr:cNvPr id="110" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B22648F-CA39-4685-B5EB-FBCEA77A92AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B22648F-CA39-4685-B5EB-FBCEA77A92AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31160,7 +31232,7 @@
         <xdr:cNvPr id="111" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6C1FB88-81FB-4272-A962-2DCA7A25F5CF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C1FB88-81FB-4272-A962-2DCA7A25F5CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31204,7 +31276,7 @@
         <xdr:cNvPr id="112" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3D1AE6B-22DA-4944-96AF-E4334DD7684C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D1AE6B-22DA-4944-96AF-E4334DD7684C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31248,7 +31320,7 @@
         <xdr:cNvPr id="113" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D128277E-73B3-4BFC-9D9D-62D9BE5451A3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D128277E-73B3-4BFC-9D9D-62D9BE5451A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31292,7 +31364,7 @@
         <xdr:cNvPr id="114" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B03C479-DD59-4E54-91B4-EC703693D414}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B03C479-DD59-4E54-91B4-EC703693D414}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31336,7 +31408,7 @@
         <xdr:cNvPr id="115" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65032EDE-0484-4B22-A1A1-DC7D34D68DC3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65032EDE-0484-4B22-A1A1-DC7D34D68DC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31380,7 +31452,7 @@
         <xdr:cNvPr id="116" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64EC058F-AE62-4DC7-962C-7CF30FA9A6A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EC058F-AE62-4DC7-962C-7CF30FA9A6A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31424,7 +31496,7 @@
         <xdr:cNvPr id="117" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2261E2A1-961B-4A52-B91A-C52877AD4117}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2261E2A1-961B-4A52-B91A-C52877AD4117}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31468,7 +31540,7 @@
         <xdr:cNvPr id="118" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF5FABF2-F437-4C81-BE5F-7FA8E7B4B3D0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5FABF2-F437-4C81-BE5F-7FA8E7B4B3D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31516,7 +31588,7 @@
         <xdr:cNvPr id="119" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE8DC3CA-89E7-41B6-A39E-BC1EFBBC0B1B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8DC3CA-89E7-41B6-A39E-BC1EFBBC0B1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31564,7 +31636,7 @@
         <xdr:cNvPr id="120" name="画像 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E6B5AD8-5DA6-44AB-9DEF-4FA81DCCCDD1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6B5AD8-5DA6-44AB-9DEF-4FA81DCCCDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31603,7 +31675,7 @@
         <xdr:cNvPr id="121" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24946333-9CF3-422D-890B-BF77426600FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24946333-9CF3-422D-890B-BF77426600FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31934,7 +32006,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -31967,7 +32039,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -32291,7 +32363,7 @@
       <c r="D39" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32306,7 +32378,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -32390,7 +32462,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -32755,7 +32827,7 @@
       <c r="BF85" s="27"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -32765,8 +32837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:BJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N30" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="BD52" sqref="BD52"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15"/>
@@ -32945,24 +33017,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="4:47">
+    <row r="17" spans="4:52">
       <c r="F17" s="11"/>
       <c r="AU17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="4:47" s="11" customFormat="1">
+    <row r="19" spans="4:52" s="11" customFormat="1">
       <c r="D19" s="11" t="s">
         <v>81</v>
       </c>
       <c r="AU19" s="29"/>
     </row>
-    <row r="20" spans="4:47" s="11" customFormat="1">
+    <row r="20" spans="4:52" s="11" customFormat="1">
       <c r="J20" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="4:47" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="21" spans="4:52" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="17"/>
@@ -32994,7 +33066,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="4:47" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="22" spans="4:52" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="16"/>
@@ -33026,7 +33098,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="4:47" s="11" customFormat="1">
+    <row r="23" spans="4:52" s="11" customFormat="1">
       <c r="H23" s="11" t="s">
         <v>77</v>
       </c>
@@ -33034,17 +33106,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="4:47" s="11" customFormat="1">
+    <row r="26" spans="4:52" s="11" customFormat="1">
       <c r="D26" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="4:47" s="11" customFormat="1">
+    <row r="27" spans="4:52" s="11" customFormat="1">
       <c r="J27" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="4:47" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="28" spans="4:52" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -33076,7 +33148,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="4:47" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="29" spans="4:52" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -33107,8 +33179,11 @@
       <c r="AI29" s="11" t="s">
         <v>82</v>
       </c>
+      <c r="AZ29" s="31" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="30" spans="4:47" s="11" customFormat="1">
+    <row r="30" spans="4:52" s="11" customFormat="1">
       <c r="J30" s="11" t="s">
         <v>77</v>
       </c>
@@ -33455,7 +33530,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -33628,7 +33703,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter>

--- a/doc/super-duper-nes-architecture.xlsx
+++ b/doc/super-duper-nes-architecture.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\970.moto-proj\super-duper-nes\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\daisuke\nes\super-duper-nes\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="duper cartridge rtl" sheetId="6" r:id="rId6"/>
     <sheet name="fifo" sheetId="8" r:id="rId7"/>
     <sheet name="bus seq" sheetId="9" r:id="rId8"/>
+    <sheet name="nes timing" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -590,19 +591,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -610,7 +611,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -618,7 +619,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -626,21 +627,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -888,9 +889,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 3" xfId="2"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -925,7 +926,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -990,7 +991,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1056,7 +1057,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1118,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,7 +1179,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1239,7 +1240,7 @@
         <xdr:cNvPr id="16" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1301,7 @@
         <xdr:cNvPr id="17" name="Rectangle 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1362,7 @@
         <xdr:cNvPr id="18" name="Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1423,7 @@
         <xdr:cNvPr id="33" name="Group 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1442,7 @@
           <xdr:cNvPr id="15" name="Group 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1460,7 +1461,7 @@
             <xdr:cNvPr id="9" name="Straight Connector 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1495,7 +1496,7 @@
             <xdr:cNvPr id="10" name="Straight Connector 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1530,7 +1531,7 @@
             <xdr:cNvPr id="11" name="Straight Connector 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1565,7 +1566,7 @@
             <xdr:cNvPr id="12" name="Straight Connector 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1600,7 +1601,7 @@
             <xdr:cNvPr id="13" name="Straight Connector 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1635,7 +1636,7 @@
             <xdr:cNvPr id="14" name="Straight Connector 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1671,7 +1672,7 @@
           <xdr:cNvPr id="26" name="Group 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1690,7 +1691,7 @@
             <xdr:cNvPr id="27" name="Straight Connector 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1725,7 +1726,7 @@
             <xdr:cNvPr id="28" name="Straight Connector 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1760,7 +1761,7 @@
             <xdr:cNvPr id="29" name="Straight Connector 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1795,7 +1796,7 @@
             <xdr:cNvPr id="30" name="Straight Connector 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1830,7 +1831,7 @@
             <xdr:cNvPr id="31" name="Straight Connector 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1865,7 +1866,7 @@
             <xdr:cNvPr id="32" name="Straight Connector 31">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1917,7 +1918,7 @@
         <xdr:cNvPr id="34" name="Group 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1937,7 @@
           <xdr:cNvPr id="35" name="Group 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1955,7 +1956,7 @@
             <xdr:cNvPr id="43" name="Straight Connector 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1990,7 +1991,7 @@
             <xdr:cNvPr id="44" name="Straight Connector 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2025,7 +2026,7 @@
             <xdr:cNvPr id="45" name="Straight Connector 44">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2060,7 +2061,7 @@
             <xdr:cNvPr id="46" name="Straight Connector 45">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2095,7 +2096,7 @@
             <xdr:cNvPr id="47" name="Straight Connector 46">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2130,7 +2131,7 @@
             <xdr:cNvPr id="48" name="Straight Connector 47">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2166,7 +2167,7 @@
           <xdr:cNvPr id="36" name="Group 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2185,7 +2186,7 @@
             <xdr:cNvPr id="37" name="Straight Connector 36">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2220,7 +2221,7 @@
             <xdr:cNvPr id="38" name="Straight Connector 37">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2255,7 +2256,7 @@
             <xdr:cNvPr id="39" name="Straight Connector 38">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2290,7 +2291,7 @@
             <xdr:cNvPr id="40" name="Straight Connector 39">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2325,7 +2326,7 @@
             <xdr:cNvPr id="41" name="Straight Connector 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2360,7 +2361,7 @@
             <xdr:cNvPr id="42" name="Straight Connector 41">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2412,7 +2413,7 @@
         <xdr:cNvPr id="49" name="Rectangle 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2474,7 @@
         <xdr:cNvPr id="50" name="Rounded Rectangle 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2535,7 @@
         <xdr:cNvPr id="52" name="Straight Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2587,7 @@
         <xdr:cNvPr id="51" name="Rectangle 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2653,7 @@
         <xdr:cNvPr id="53" name="Rectangle 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2714,7 @@
         <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2733,7 @@
           <xdr:cNvPr id="55" name="Straight Connector 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2767,7 +2768,7 @@
           <xdr:cNvPr id="56" name="Straight Connector 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2818,7 +2819,7 @@
         <xdr:cNvPr id="61" name="Rectangle 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2885,7 @@
         <xdr:cNvPr id="76" name="Group 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2904,7 @@
           <xdr:cNvPr id="20" name="Straight Connector 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2938,7 +2939,7 @@
           <xdr:cNvPr id="21" name="Straight Connector 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2973,7 +2974,7 @@
           <xdr:cNvPr id="22" name="Straight Connector 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3008,7 +3009,7 @@
           <xdr:cNvPr id="23" name="Straight Connector 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3043,7 +3044,7 @@
           <xdr:cNvPr id="24" name="Straight Connector 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3078,7 +3079,7 @@
           <xdr:cNvPr id="25" name="Straight Connector 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3113,7 +3114,7 @@
           <xdr:cNvPr id="58" name="Straight Connector 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3148,7 +3149,7 @@
           <xdr:cNvPr id="59" name="Straight Connector 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3183,7 +3184,7 @@
           <xdr:cNvPr id="60" name="Straight Connector 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3218,7 +3219,7 @@
           <xdr:cNvPr id="62" name="Straight Connector 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3253,7 +3254,7 @@
           <xdr:cNvPr id="63" name="Straight Connector 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3288,7 +3289,7 @@
           <xdr:cNvPr id="64" name="Straight Connector 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3339,7 +3340,7 @@
         <xdr:cNvPr id="1027" name="AutoShape 3" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.%284%29.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3387,7 +3388,7 @@
         <xdr:cNvPr id="1028" name="AutoShape 4" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.(4).jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3435,7 +3436,7 @@
         <xdr:cNvPr id="1029" name="AutoShape 5" descr="http://img2.banggood.com/thumb/large/upload/2012/chenjianwei/SKU109915.(4).jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3483,7 +3484,7 @@
         <xdr:cNvPr id="77" name="Picture 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3538,7 +3539,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2247679-251F-4D88-8F07-EBF546E0DA7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3600,7 +3601,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7926CF31-A546-41A3-A15E-4DE17B509DFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3662,7 +3663,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FA88FD-76BF-4D56-B4F1-2D57299C29D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3724,7 +3725,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A881FC7-CB09-4132-9927-9B06F74FBAC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3794,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACFA3D8-FD6C-4C3C-9596-F9638F17BCD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3855,7 +3856,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357D6DFE-DB23-4599-8D0E-C7E8AC62484B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3924,7 +3925,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480753E1-924B-401E-83E1-0CBF6C2188C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3993,7 +3994,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917DB88B-F309-458C-AD46-850FBC2B7944}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4066,7 +4067,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA1A6A1-6BA6-4AE9-9F42-196036AF39CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4139,7 +4140,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB6A670-37C2-488C-9D57-63BA8A7B60C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4208,7 +4209,7 @@
         <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65B060D-433B-402F-AFD7-22C6564EEE99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4277,7 +4278,7 @@
         <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A178BF2-AD68-4847-AD0B-CA631F33E095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4339,7 +4340,7 @@
         <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEEB55E-E5CD-4A51-8DDF-551E4BE83633}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4408,7 +4409,7 @@
         <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4312F7-7630-4D28-AFF7-2E9465A12464}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4477,7 +4478,7 @@
         <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC88A48A-853C-46DD-84FB-8B63D6F573F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4546,7 +4547,7 @@
         <xdr:cNvPr id="17" name="正方形/長方形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A2A49E-0EDF-4834-BA90-2B39D7E01C4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4619,7 +4620,7 @@
         <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520241A1-91AC-40D3-AEFC-3B6EDFC9C203}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4681,7 +4682,7 @@
         <xdr:cNvPr id="19" name="正方形/長方形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6C182F-89E5-4134-A625-076B97F1A078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4743,7 +4744,7 @@
         <xdr:cNvPr id="20" name="正方形/長方形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC6B2AD-7AFB-4F1F-BA4F-D8A81C7D71CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4812,7 +4813,7 @@
         <xdr:cNvPr id="22" name="直線コネクタ 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0DE781-A5A9-4D1C-98EA-5EA777BB4999}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4864,7 +4865,7 @@
         <xdr:cNvPr id="23" name="直線コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C42186A-D4F8-4097-86DB-3963A51FE7C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4914,7 +4915,7 @@
         <xdr:cNvPr id="27" name="直線コネクタ 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990E9ABF-DDA1-496F-A306-1C4028430B36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4966,7 +4967,7 @@
         <xdr:cNvPr id="28" name="直線コネクタ 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0601CF1-55BD-4263-86F9-F8C5122A8EEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5021,7 +5022,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8955E15-C818-4052-9C19-D8FF9B82FF30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5082,7 +5083,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5713A0F4-827F-4C67-B3DD-F632AD6C7D79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5143,7 +5144,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820767D0-A403-4007-A7F1-C06E192A4F8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5204,7 +5205,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F36E6E7-DA55-4C11-A7E9-796EBC9DA1CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5265,7 +5266,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896D09C2-970F-4850-AE42-A3B5D7CF8E76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5326,7 +5327,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2ECDDA-35B8-43FE-8CDC-14E9E7B04708}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5445,7 +5446,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7232F4-E500-43DD-A84A-0CD5E1976F64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5513,7 +5514,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA2C098-97DA-42DE-B1C8-C5EEB1E7D9A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5574,7 +5575,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE53571D-D08A-4208-A789-A7E9DE084E02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5635,7 +5636,7 @@
         <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3C8D36-9973-45F2-947C-AFD9F613B0E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5696,7 +5697,7 @@
         <xdr:cNvPr id="14" name="直線コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4573CB36-553A-4896-9393-D4D1F8EB78D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5752,7 +5753,7 @@
         <xdr:cNvPr id="15" name="直線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EE5112-0BB7-497B-B845-1B5A76EC248E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5808,7 +5809,7 @@
         <xdr:cNvPr id="18" name="直線コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235B674C-8406-4421-86C1-22C3E27A332E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5862,7 +5863,7 @@
         <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3686753-0F3D-4780-89E8-32BBD14393D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5916,7 +5917,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72910D1-106A-48F3-9336-46056147D7C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5977,7 +5978,7 @@
         <xdr:cNvPr id="23" name="直線コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D464D33-B14E-4B55-9B1B-DE556B0FBB96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6034,7 +6035,7 @@
         <xdr:cNvPr id="24" name="直線コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8566BEBE-CE20-4E1D-91A2-AA2DFB64934C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6091,7 +6092,7 @@
         <xdr:cNvPr id="29" name="正方形/長方形 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F5110-16E5-4762-9032-73D1CCC95069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6152,7 +6153,7 @@
         <xdr:cNvPr id="30" name="直線コネクタ 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC82FDF8-D793-4A32-BC15-BEE240655175}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6209,7 +6210,7 @@
         <xdr:cNvPr id="33" name="正方形/長方形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2544D606-B49D-46F3-898B-3B4C8E08C8DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6270,7 +6271,7 @@
         <xdr:cNvPr id="34" name="正方形/長方形 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F1ECFD-B4CE-47A1-9EF8-0B149F2B7120}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6331,7 +6332,7 @@
         <xdr:cNvPr id="35" name="直線コネクタ 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840AA9AC-88C6-4C07-80B0-4035C76069D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6388,7 +6389,7 @@
         <xdr:cNvPr id="38" name="直線コネクタ 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD17308-82AC-48FF-BE04-FFDA927110D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6450,7 +6451,7 @@
         <xdr:cNvPr id="70" name="正方形/長方形 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7340808D-B02E-4ADA-A3D2-12C114518764}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6512,7 +6513,7 @@
         <xdr:cNvPr id="51" name="正方形/長方形 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B41102-BD15-4B8D-A8FE-56F95518384D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6575,7 +6576,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE56944-E785-422E-AC0B-330F7732DF15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6637,7 +6638,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD54228A-90DD-4B55-95DD-792104F01CAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6699,7 +6700,7 @@
         <xdr:cNvPr id="9" name="直線コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B6A153-AB83-4B25-816A-4BA191604DFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6756,7 +6757,7 @@
         <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F322D273-1E8E-483E-86D0-2616452A6613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6809,7 +6810,7 @@
         <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A3DD3E-9A9A-4A89-B0AD-A1E844E05679}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6871,7 +6872,7 @@
         <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88841D87-5E7B-4ECB-9F4D-160B4FCAB580}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6924,7 +6925,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82768FD-B4F3-4B94-B639-4C850B9B5A82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6985,7 +6986,7 @@
         <xdr:cNvPr id="23" name="直線コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13BA419-B17D-4C57-8E2B-43B95013F224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7038,7 +7039,7 @@
         <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14CE2C1-A8DA-4C29-AEF4-DC1113ED3448}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7100,7 +7101,7 @@
         <xdr:cNvPr id="25" name="直線コネクタ 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FF3C7D-B8B3-4B30-95C8-33683BA16A80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7153,7 +7154,7 @@
         <xdr:cNvPr id="27" name="直線コネクタ 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8164CB4-C0A6-45B5-83A0-1F4FC860F3E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7206,7 +7207,7 @@
         <xdr:cNvPr id="29" name="直線コネクタ 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44966D97-8850-48B1-BAD3-74C85954AB25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7259,7 +7260,7 @@
         <xdr:cNvPr id="33" name="直線コネクタ 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67B8748-7FEA-4E93-A811-8DEE3F2E3BED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7316,7 +7317,7 @@
         <xdr:cNvPr id="38" name="正方形/長方形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB7F798-3D4B-423A-B024-48F08C5D4698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7379,7 +7380,7 @@
         <xdr:cNvPr id="42" name="正方形/長方形 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B7E65A-9681-4E3A-8D86-C3F668682A36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7441,7 +7442,7 @@
         <xdr:cNvPr id="32" name="直線コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01FCFE90-26F7-4121-B994-90BD062BB74B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7500,7 +7501,7 @@
         <xdr:cNvPr id="48" name="正方形/長方形 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23BAFA1-E226-45A0-BA91-C111B7B78FF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7562,7 +7563,7 @@
         <xdr:cNvPr id="26" name="直線コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B153635-017C-4323-BA05-1C1CC64D68B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7618,7 +7619,7 @@
         <xdr:cNvPr id="54" name="正方形/長方形 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3F18D6-BDFC-4820-A255-89D3659CC2C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7681,7 +7682,7 @@
         <xdr:cNvPr id="56" name="正方形/長方形 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D163874-8179-432D-9A37-EBDAEAA05FDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7743,7 +7744,7 @@
         <xdr:cNvPr id="58" name="正方形/長方形 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF5B67D-59A5-406C-8121-AE56AFD3A597}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7805,7 +7806,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AB4AAA-FC9A-4804-B621-BC81E1FC75D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7861,7 +7862,7 @@
         <xdr:cNvPr id="8" name="直線コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55EB6B21-CFFE-4002-A0A6-2A9BC85985B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7920,7 +7921,7 @@
         <xdr:cNvPr id="62" name="直線コネクタ 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D73108-23E7-4C47-95B7-E9CC28F77833}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7980,7 +7981,7 @@
         <xdr:cNvPr id="65" name="正方形/長方形 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264658E5-CF3A-4035-8D4E-8E0B93CE422C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8042,7 +8043,7 @@
         <xdr:cNvPr id="66" name="直線コネクタ 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DEC997-0EE5-4E83-AB34-EB62764DC302}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8107,7 +8108,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F6FDA3-32AD-4E9B-AFA8-645E3AFA1001}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8169,7 +8170,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFBD111-B9EC-4925-A0CE-AF259F9FEB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8231,7 +8232,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A03CEE-3285-4856-9CD8-81B128D10081}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8293,7 +8294,7 @@
         <xdr:cNvPr id="5" name="矢印: 左右 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43DAD4E-B7F8-4302-9328-8AF8BB7858D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8351,7 +8352,7 @@
         <xdr:cNvPr id="6" name="矢印: 左右 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA690AA-B24A-40DB-B919-6DC85D822E87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8409,7 +8410,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B83578F-5B3D-41BB-AEB0-068E470D1169}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8471,7 +8472,7 @@
         <xdr:cNvPr id="8" name="矢印: 左右 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927C59B8-8F01-4AAC-9CEA-EA09E275ABB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8529,7 +8530,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF49119-7B5D-49A6-8020-C622FB42AED6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8591,7 +8592,7 @@
         <xdr:cNvPr id="10" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8653,7 +8654,7 @@
         <xdr:cNvPr id="12" name="コネクタ: 曲線 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A624380-5E2B-4678-834A-476892BCCEF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8713,7 +8714,7 @@
         <xdr:cNvPr id="14" name="楕円 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBF912D-6800-4D42-8220-A23EDD2DC92F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8775,7 +8776,7 @@
         <xdr:cNvPr id="15" name="楕円 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCB4EB7-785B-4398-A15B-CC7BC68DAA29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8837,7 +8838,7 @@
         <xdr:cNvPr id="16" name="楕円 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC49D81A-BCC0-490C-A998-6FBE5DF41FF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8899,7 +8900,7 @@
         <xdr:cNvPr id="17" name="楕円 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{908379EE-4A8F-4385-B88E-BB12CEC20A96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8961,7 +8962,7 @@
         <xdr:cNvPr id="18" name="コネクタ: 曲線 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33BF03F-8024-4679-92C9-75EB3BD59A10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9023,7 +9024,7 @@
         <xdr:cNvPr id="21" name="コネクタ: 曲線 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EC8487-DC45-4AA2-9A64-E7C72FE98DE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9085,7 +9086,7 @@
         <xdr:cNvPr id="24" name="コネクタ: 曲線 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6937307-1045-4C20-A873-1C3460E531F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9147,7 +9148,7 @@
         <xdr:cNvPr id="28" name="コネクタ: 曲線 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D853A7-7F2F-4A63-B771-98C2C3271078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9209,7 +9210,7 @@
         <xdr:cNvPr id="35" name="コネクタ: 曲線 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A56AAA-BA4D-44F6-95D5-3531DC1CA5FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9271,7 +9272,7 @@
         <xdr:cNvPr id="36" name="コネクタ: 曲線 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D59F30-FB28-4465-8198-FF556618DB62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9333,7 +9334,7 @@
         <xdr:cNvPr id="37" name="コネクタ: 曲線 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6821B165-0DF6-4851-ABC8-35263234A5EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9395,7 +9396,7 @@
         <xdr:cNvPr id="38" name="コネクタ: 曲線 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072F0FF8-8CEF-44BC-905D-1D705D03F07B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9457,7 +9458,7 @@
         <xdr:cNvPr id="50" name="楕円 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A4AD05-310A-4C5B-9539-259F4FC7BE15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9527,7 +9528,7 @@
         <xdr:cNvPr id="51" name="楕円 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{025F8ECD-E2A5-46DC-B4E7-4513594B202C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9589,7 +9590,7 @@
         <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7082B3C5-5CEA-461E-AE6D-BF713323704D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9647,7 +9648,7 @@
         <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C7C802-2E56-4516-9249-3DB0A980120B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9704,7 +9705,7 @@
         <xdr:cNvPr id="29" name="楕円 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5553E96-8785-41AE-9C67-BF2FDD0FFD26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9766,7 +9767,7 @@
         <xdr:cNvPr id="30" name="楕円 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2EFB9C-B4D2-4697-90A8-A4FD4B79FED9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9828,7 +9829,7 @@
         <xdr:cNvPr id="32" name="コネクタ: 曲線 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E94192-955E-4141-9A1E-7BCB8A922426}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9890,7 +9891,7 @@
         <xdr:cNvPr id="39" name="コネクタ: 曲線 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501E4B56-0819-4FD1-9ACC-1599D0F51507}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9952,7 +9953,7 @@
         <xdr:cNvPr id="40" name="コネクタ: 曲線 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C018E2-ADED-44C0-AF56-563DABE33CF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10012,7 +10013,7 @@
         <xdr:cNvPr id="43" name="楕円 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B4E926-0762-4832-800A-D5F663D11DA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10074,7 +10075,7 @@
         <xdr:cNvPr id="44" name="楕円 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794AD72E-7D1C-4101-8957-74F96AEB3147}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10136,7 +10137,7 @@
         <xdr:cNvPr id="45" name="コネクタ: 曲線 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468D0F7F-35BA-4071-8DB1-E9A87F05AC70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10198,7 +10199,7 @@
         <xdr:cNvPr id="46" name="コネクタ: 曲線 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2B56E2-BE96-480C-A1F7-94DC556582E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10260,7 +10261,7 @@
         <xdr:cNvPr id="47" name="コネクタ: 曲線 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E384624-0762-4127-A63B-4DE9E4272DA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10320,7 +10321,7 @@
         <xdr:cNvPr id="41" name="矢印: 右カーブ 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6F8C17-8D56-4325-8152-4B8BD6A948F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10384,7 +10385,7 @@
         <xdr:cNvPr id="42" name="矢印: 右カーブ 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC51E6E1-F02C-4C38-AAFC-5D9666E06104}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10448,7 +10449,7 @@
         <xdr:cNvPr id="48" name="矢印: 右カーブ 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22B6B76-0809-47BC-B8B3-D9B7C7A23D3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10512,7 +10513,7 @@
         <xdr:cNvPr id="26" name="グループ化 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423E15E5-4C42-4726-8538-B9B03E0ED29C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10531,7 +10532,7 @@
           <xdr:cNvPr id="23" name="グループ化 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14627D23-CC00-4830-8F14-8A35870EC7C3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10550,7 +10551,7 @@
             <xdr:cNvPr id="22" name="グループ化 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510B4275-0F1E-46F9-9BEC-DE1B344C06CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10569,7 +10570,7 @@
               <xdr:cNvPr id="49" name="直線コネクタ 48">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA0BBBA-6EFC-4848-9343-F987B922B1F0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10604,7 +10605,7 @@
               <xdr:cNvPr id="52" name="直線コネクタ 51">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5D67D5-107B-4D55-A8F8-1948CEB9C54D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000034000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10639,7 +10640,7 @@
               <xdr:cNvPr id="55" name="直線コネクタ 54">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8C26AB-86D9-4C5F-A2EE-F13F42BA8F09}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10674,7 +10675,7 @@
               <xdr:cNvPr id="56" name="直線コネクタ 55">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF55A55-3329-4854-8ABE-251B90D874F0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000038000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10710,7 +10711,7 @@
             <xdr:cNvPr id="61" name="グループ化 60">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A99DF7D-3085-4984-89C1-3095041811A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10729,7 +10730,7 @@
               <xdr:cNvPr id="62" name="直線コネクタ 61">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91993554-3971-4FC0-8FCF-3298890DD882}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10764,7 +10765,7 @@
               <xdr:cNvPr id="63" name="直線コネクタ 62">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18231A16-7D86-4CA8-AFB0-8EB12FBA0063}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003F000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10799,7 +10800,7 @@
               <xdr:cNvPr id="64" name="直線コネクタ 63">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D29E1E-B612-498B-A4B4-54E98D783F85}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000040000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10834,7 +10835,7 @@
               <xdr:cNvPr id="65" name="直線コネクタ 64">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E92526-AA49-4650-996C-78C75A874CDD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000041000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10870,7 +10871,7 @@
             <xdr:cNvPr id="66" name="グループ化 65">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2391C0AC-B2C9-4D2D-8FAC-F88762FE36E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000042000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10889,7 +10890,7 @@
               <xdr:cNvPr id="67" name="直線コネクタ 66">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434F1CEC-A0D4-4912-B83B-956DCD000710}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000043000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10924,7 +10925,7 @@
               <xdr:cNvPr id="68" name="直線コネクタ 67">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA92E0DF-01C4-45D4-9F5D-9AB1B26EBD2B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000044000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10959,7 +10960,7 @@
               <xdr:cNvPr id="69" name="直線コネクタ 68">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA04DBEB-3ACF-41A6-82DA-B8B7A9FD83E4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000045000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10994,7 +10995,7 @@
               <xdr:cNvPr id="70" name="直線コネクタ 69">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5286FF46-BBF3-44A0-B397-E08F1A9F3824}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000046000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11030,7 +11031,7 @@
             <xdr:cNvPr id="71" name="グループ化 70">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C05190F-59F3-4080-A474-D9059F4625EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000047000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11049,7 +11050,7 @@
               <xdr:cNvPr id="72" name="直線コネクタ 71">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E428DA9-EFD0-4474-A5D3-764A4EB53299}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000048000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11084,7 +11085,7 @@
               <xdr:cNvPr id="73" name="直線コネクタ 72">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A68EA79-29C7-4846-9F44-A94305AC2804}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000049000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11119,7 +11120,7 @@
               <xdr:cNvPr id="74" name="直線コネクタ 73">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E26356B-32C8-47CC-BA80-D2DAEB9854D6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11154,7 +11155,7 @@
               <xdr:cNvPr id="75" name="直線コネクタ 74">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B1ACA8-E8A3-437E-B283-AD641F2FBCC2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11190,7 +11191,7 @@
             <xdr:cNvPr id="76" name="グループ化 75">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C542CA-8E0B-4658-AE9B-64B1961B7927}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11209,7 +11210,7 @@
               <xdr:cNvPr id="77" name="直線コネクタ 76">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EB4849-3CD0-409A-A2C7-B5188B2234F3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11244,7 +11245,7 @@
               <xdr:cNvPr id="78" name="直線コネクタ 77">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC53005-62FD-4BA5-96CE-E855D269635A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11279,7 +11280,7 @@
               <xdr:cNvPr id="79" name="直線コネクタ 78">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A154C26E-A7FA-47D0-BD5B-A5C96F5FA4C3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004F000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11314,7 +11315,7 @@
               <xdr:cNvPr id="80" name="直線コネクタ 79">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744C533F-C283-4B8B-B58B-7741415DE2C2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000050000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11350,7 +11351,7 @@
             <xdr:cNvPr id="81" name="グループ化 80">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265ACC15-D132-4FE2-93D0-390C3C24B057}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000051000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11369,7 +11370,7 @@
               <xdr:cNvPr id="82" name="直線コネクタ 81">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9EACAE-E160-433E-9DCA-45220491BD76}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000052000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11404,7 +11405,7 @@
               <xdr:cNvPr id="83" name="直線コネクタ 82">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44A8125-F602-495C-A170-F5A8FDC28A5F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000053000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11439,7 +11440,7 @@
               <xdr:cNvPr id="84" name="直線コネクタ 83">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE16700-2481-4747-99E0-909C8A7CDC71}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000054000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11474,7 +11475,7 @@
               <xdr:cNvPr id="85" name="直線コネクタ 84">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CB511C-93DA-4069-94E3-CA95776BB96B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000055000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11511,7 +11512,7 @@
           <xdr:cNvPr id="96" name="グループ化 95">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3936E751-D0F9-4F20-A11E-395D120D2AA9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000060000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11530,7 +11531,7 @@
             <xdr:cNvPr id="97" name="グループ化 96">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78925371-D477-46AA-8C01-C47225EA961F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000061000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11549,7 +11550,7 @@
               <xdr:cNvPr id="123" name="直線コネクタ 122">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AB157D-73C5-4E38-910A-ADE257CF254D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11584,7 +11585,7 @@
               <xdr:cNvPr id="124" name="直線コネクタ 123">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C3DE7F-9174-497D-80A3-24AEA292F43D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11619,7 +11620,7 @@
               <xdr:cNvPr id="125" name="直線コネクタ 124">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7303AC-9918-47F7-96F1-B84E6E2FCF60}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11654,7 +11655,7 @@
               <xdr:cNvPr id="126" name="直線コネクタ 125">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D97A607-94F9-4224-8E7E-C561971CB340}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11690,7 +11691,7 @@
             <xdr:cNvPr id="98" name="グループ化 97">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870FAED1-65E4-47BF-86CE-BEB4ECFAF30B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000062000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11709,7 +11710,7 @@
               <xdr:cNvPr id="119" name="直線コネクタ 118">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE5E408-9226-46B7-B2E5-179D16CE357B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000077000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11744,7 +11745,7 @@
               <xdr:cNvPr id="120" name="直線コネクタ 119">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BFF9B5-4C9B-4B48-AFEE-96515946BE47}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000078000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11779,7 +11780,7 @@
               <xdr:cNvPr id="121" name="直線コネクタ 120">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1889F015-F2D8-40B6-B408-C8A70AE4F8B9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000079000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11814,7 +11815,7 @@
               <xdr:cNvPr id="122" name="直線コネクタ 121">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19114970-7083-45AD-BB32-562E811FE508}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11850,7 +11851,7 @@
             <xdr:cNvPr id="99" name="グループ化 98">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E218F68-0511-4159-8723-13932F6F20E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000063000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11869,7 +11870,7 @@
               <xdr:cNvPr id="115" name="直線コネクタ 114">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E387553-4DDF-4A7B-A146-30E3C06834FD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000073000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11904,7 +11905,7 @@
               <xdr:cNvPr id="116" name="直線コネクタ 115">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6FE572-139F-44DE-9375-52AAF9A8B0BB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000074000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11939,7 +11940,7 @@
               <xdr:cNvPr id="117" name="直線コネクタ 116">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FCA986-3395-465D-97D3-4EFD5370A7C9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000075000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11974,7 +11975,7 @@
               <xdr:cNvPr id="118" name="直線コネクタ 117">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4587D3B-2EA2-4B45-9F0B-38DAC2E0DB2C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000076000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12010,7 +12011,7 @@
             <xdr:cNvPr id="100" name="グループ化 99">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3D8A64-B10D-4FA9-B492-1EA6A9B80F21}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000064000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12029,7 +12030,7 @@
               <xdr:cNvPr id="111" name="直線コネクタ 110">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F5E104-E614-4C14-B1CC-609B2C40591D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006F000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12064,7 +12065,7 @@
               <xdr:cNvPr id="112" name="直線コネクタ 111">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D19B041-C7FB-429A-9779-209D694ED811}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000070000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12099,7 +12100,7 @@
               <xdr:cNvPr id="113" name="直線コネクタ 112">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74447BBC-E7A0-4C3B-994A-27C374BCA6B9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000071000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12134,7 +12135,7 @@
               <xdr:cNvPr id="114" name="直線コネクタ 113">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95CDFA4-7544-4A98-9C5F-6E4977FFD7AD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000072000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12170,7 +12171,7 @@
             <xdr:cNvPr id="101" name="グループ化 100">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE2512B-7EBB-446C-845E-21328DD49FB5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000065000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12189,7 +12190,7 @@
               <xdr:cNvPr id="107" name="直線コネクタ 106">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68FF373-7628-4A9B-A071-E03927C08BDE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12224,7 +12225,7 @@
               <xdr:cNvPr id="108" name="直線コネクタ 107">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F96AC5-E616-489E-BB91-BCD13402DEFF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12259,7 +12260,7 @@
               <xdr:cNvPr id="109" name="直線コネクタ 108">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5488FBB4-303B-44C6-A68C-0971EA618E93}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12294,7 +12295,7 @@
               <xdr:cNvPr id="110" name="直線コネクタ 109">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1162D87-020A-428A-8BCB-C46E6CBF847C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12330,7 +12331,7 @@
             <xdr:cNvPr id="102" name="グループ化 101">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9975C6-C097-4B0D-9E5F-8BCA59F26D16}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000066000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12349,7 +12350,7 @@
               <xdr:cNvPr id="103" name="直線コネクタ 102">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D52B6E8-BCF5-4BA4-A4EE-E81E74D33E9E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000067000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12384,7 +12385,7 @@
               <xdr:cNvPr id="104" name="直線コネクタ 103">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0198EC6-E332-4E38-8B96-BCE1EE21247F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000068000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12419,7 +12420,7 @@
               <xdr:cNvPr id="105" name="直線コネクタ 104">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA3C3DD-B151-444F-B424-DAF6ED13C807}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000069000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12454,7 +12455,7 @@
               <xdr:cNvPr id="106" name="直線コネクタ 105">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DE5EAA-987F-4692-BE9E-8791F9C8DAD0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12491,7 +12492,7 @@
           <xdr:cNvPr id="127" name="グループ化 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB042B1-EB70-47FC-8DA3-43F36CAEB0A3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12510,7 +12511,7 @@
             <xdr:cNvPr id="128" name="グループ化 127">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02B0CCF-45EB-467D-B85C-CE897A71889D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000080000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12529,7 +12530,7 @@
               <xdr:cNvPr id="154" name="直線コネクタ 153">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383524E7-8DC5-4F8C-A242-2DA231BBC296}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12564,7 +12565,7 @@
               <xdr:cNvPr id="155" name="直線コネクタ 154">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2181A556-CD0B-48F9-B4C8-10FC16BC7D1D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12599,7 +12600,7 @@
               <xdr:cNvPr id="156" name="直線コネクタ 155">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934320A7-8045-461A-A32A-24BE951175A1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12634,7 +12635,7 @@
               <xdr:cNvPr id="157" name="直線コネクタ 156">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EACA38-E380-4BFA-B35A-4F5AA3710E9D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12670,7 +12671,7 @@
             <xdr:cNvPr id="129" name="グループ化 128">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CCDC61-6C1C-40D6-A388-68AE3F4CD4BF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000081000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12689,7 +12690,7 @@
               <xdr:cNvPr id="150" name="直線コネクタ 149">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D769E52-B555-4B9E-AE68-EEA1F2D2FE51}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000096000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12724,7 +12725,7 @@
               <xdr:cNvPr id="151" name="直線コネクタ 150">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADE55B4-F9A8-49B2-9E06-A75D830C8A5B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000097000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12759,7 +12760,7 @@
               <xdr:cNvPr id="152" name="直線コネクタ 151">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173ACDBD-1D80-4A66-91D0-67C9F0ADBF29}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000098000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12794,7 +12795,7 @@
               <xdr:cNvPr id="153" name="直線コネクタ 152">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A28BBD8-F80F-4117-BF9C-45E97833A9CC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000099000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12830,7 +12831,7 @@
             <xdr:cNvPr id="130" name="グループ化 129">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6806BB99-EE6A-4A1A-A1E9-17FA376ED84A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000082000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12849,7 +12850,7 @@
               <xdr:cNvPr id="146" name="直線コネクタ 145">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A7E3B3-C25B-4D4A-B7A7-F2CC9A6365B0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000092000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12884,7 +12885,7 @@
               <xdr:cNvPr id="147" name="直線コネクタ 146">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDE39DA-989E-4262-8878-F0E78F4B13BC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000093000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12919,7 +12920,7 @@
               <xdr:cNvPr id="148" name="直線コネクタ 147">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160EF002-2828-4178-8C9F-E132653C92B2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000094000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12954,7 +12955,7 @@
               <xdr:cNvPr id="149" name="直線コネクタ 148">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A744991-3D5C-444D-89E0-CD461C742E63}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000095000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12990,7 +12991,7 @@
             <xdr:cNvPr id="131" name="グループ化 130">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8E1833-28C5-4B2F-8C5D-3DFD5C6683CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000083000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13009,7 +13010,7 @@
               <xdr:cNvPr id="142" name="直線コネクタ 141">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5D6B10-1100-4D21-94F1-52F211956DBE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13044,7 +13045,7 @@
               <xdr:cNvPr id="143" name="直線コネクタ 142">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FABDC9-3E66-4C67-B5C5-BE7BBF1C5A8F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008F000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13079,7 +13080,7 @@
               <xdr:cNvPr id="144" name="直線コネクタ 143">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{367D6444-83A9-47CD-B0D2-59D57603D890}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000090000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13114,7 +13115,7 @@
               <xdr:cNvPr id="145" name="直線コネクタ 144">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDCCD81-6981-4190-98A8-B947776AE984}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000091000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13150,7 +13151,7 @@
             <xdr:cNvPr id="132" name="グループ化 131">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694E0334-BDC9-40B3-9E7E-5CDED233EA8F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000084000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13169,7 +13170,7 @@
               <xdr:cNvPr id="138" name="直線コネクタ 137">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88199CCD-AD6C-4FF1-8CFE-A262DC2727D6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13204,7 +13205,7 @@
               <xdr:cNvPr id="139" name="直線コネクタ 138">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53C20FF-EF59-4F3F-B2F7-A04889B8BA0E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13239,7 +13240,7 @@
               <xdr:cNvPr id="140" name="直線コネクタ 139">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA20DA7-07CC-4E78-8F1A-C9AB5367C43C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13274,7 +13275,7 @@
               <xdr:cNvPr id="141" name="直線コネクタ 140">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CE22CE-24C5-49FE-A0BC-97172C5D455E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13310,7 +13311,7 @@
             <xdr:cNvPr id="133" name="グループ化 132">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABD734A-78E0-493C-BD61-6EAE7ACF9779}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000085000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13329,7 +13330,7 @@
               <xdr:cNvPr id="134" name="直線コネクタ 133">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BFFE72-143E-495A-A2CC-0AD812571760}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000086000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13364,7 +13365,7 @@
               <xdr:cNvPr id="135" name="直線コネクタ 134">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E926675-AE8B-43DD-A7B7-C29CF17834FC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000087000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13399,7 +13400,7 @@
               <xdr:cNvPr id="136" name="直線コネクタ 135">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206B6845-B8A0-46C8-B2EF-653E10E60181}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000088000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13434,7 +13435,7 @@
               <xdr:cNvPr id="137" name="直線コネクタ 136">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D88DB12-796B-46C1-92BE-82116645B551}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000089000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13471,7 +13472,7 @@
           <xdr:cNvPr id="158" name="グループ化 157">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2903B6DE-8B37-4B1F-8A45-96D74A18F16A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13490,7 +13491,7 @@
             <xdr:cNvPr id="159" name="グループ化 158">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A153EFA2-BEE0-4A14-90D3-F9361D1279F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13509,7 +13510,7 @@
               <xdr:cNvPr id="185" name="直線コネクタ 184">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14620AA8-2A84-487F-B4AC-727B1365D750}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B9000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13544,7 +13545,7 @@
               <xdr:cNvPr id="186" name="直線コネクタ 185">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AB0AD8-7600-4CAC-9A09-BF6392A366F3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BA000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13579,7 +13580,7 @@
               <xdr:cNvPr id="187" name="直線コネクタ 186">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25D6875-D0B8-497F-A4A3-82B350BE8C5B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BB000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13614,7 +13615,7 @@
               <xdr:cNvPr id="188" name="直線コネクタ 187">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F35398-4C5C-48FD-B5AF-BABC649BBBFC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BC000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13650,7 +13651,7 @@
             <xdr:cNvPr id="160" name="グループ化 159">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87437CBC-206A-460C-A203-DC544BC3332B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A0000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13669,7 +13670,7 @@
               <xdr:cNvPr id="181" name="直線コネクタ 180">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739770EA-D55F-46BE-B5F6-2A75DCA954B0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B5000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13704,7 +13705,7 @@
               <xdr:cNvPr id="182" name="直線コネクタ 181">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4BB4AB-9AB0-4F7C-B76E-AB0054B6952A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B6000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13739,7 +13740,7 @@
               <xdr:cNvPr id="183" name="直線コネクタ 182">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666C5EBB-E969-4B43-A479-FEDA56E32F94}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B7000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13774,7 +13775,7 @@
               <xdr:cNvPr id="184" name="直線コネクタ 183">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE1E179-B77F-4A91-A477-E5FA133B505B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B8000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13810,7 +13811,7 @@
             <xdr:cNvPr id="161" name="グループ化 160">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CD43C4-A449-4F8C-880A-ECE89573ECB1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A1000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13829,7 +13830,7 @@
               <xdr:cNvPr id="177" name="直線コネクタ 176">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89EF4D39-D3AF-4DCE-9053-F2ABF4CCBAFF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B1000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13864,7 +13865,7 @@
               <xdr:cNvPr id="178" name="直線コネクタ 177">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E8178D-4A3C-44A1-89E7-B60D059E3E8B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B2000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13899,7 +13900,7 @@
               <xdr:cNvPr id="179" name="直線コネクタ 178">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2EC39E-D00C-4E65-A8B7-7D14F9BF7204}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B3000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13934,7 +13935,7 @@
               <xdr:cNvPr id="180" name="直線コネクタ 179">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5337DB56-B1E7-4530-85B0-8D31D3B8F61D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B4000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13970,7 +13971,7 @@
             <xdr:cNvPr id="162" name="グループ化 161">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F4E482-58C7-46FA-A726-7859A3755BBE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A2000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13989,7 +13990,7 @@
               <xdr:cNvPr id="173" name="直線コネクタ 172">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A16FB8-EDC9-439F-9ECB-1CF94E6EE131}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AD000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14024,7 +14025,7 @@
               <xdr:cNvPr id="174" name="直線コネクタ 173">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198D31FF-3859-4AFC-84D7-BE3BEA793321}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AE000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14059,7 +14060,7 @@
               <xdr:cNvPr id="175" name="直線コネクタ 174">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14FC4BE-82E1-422E-88DA-092FEFAEA8D1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AF000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14094,7 +14095,7 @@
               <xdr:cNvPr id="176" name="直線コネクタ 175">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB413473-58E1-40B8-8A91-04F4DBB1D795}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B0000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14130,7 +14131,7 @@
             <xdr:cNvPr id="163" name="グループ化 162">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69003700-FB4A-4758-91A7-9B4FA95103DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A3000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14149,7 +14150,7 @@
               <xdr:cNvPr id="169" name="直線コネクタ 168">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A80CC11-30DC-45EF-B5B1-81A3E9BE5313}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A9000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14184,7 +14185,7 @@
               <xdr:cNvPr id="170" name="直線コネクタ 169">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C7FBB55-6BF1-4F66-9C33-3F31F922AEEC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AA000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14219,7 +14220,7 @@
               <xdr:cNvPr id="171" name="直線コネクタ 170">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75778D6D-D9F3-4F4A-8860-F7D00A886C71}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AB000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14254,7 +14255,7 @@
               <xdr:cNvPr id="172" name="直線コネクタ 171">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DDCBA4-ACFB-415C-BB58-BFFFCF0842EE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AC000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14290,7 +14291,7 @@
             <xdr:cNvPr id="164" name="グループ化 163">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F015DE-B4D9-4AF6-92B7-ED3178CC2FBE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A4000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14309,7 +14310,7 @@
               <xdr:cNvPr id="165" name="直線コネクタ 164">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AF086B-EE9E-44CC-9092-5A40BEF09878}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A5000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14344,7 +14345,7 @@
               <xdr:cNvPr id="166" name="直線コネクタ 165">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0929C412-67B6-48F4-AED3-20E5D80E493A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A6000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14379,7 +14380,7 @@
               <xdr:cNvPr id="167" name="直線コネクタ 166">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF041673-0717-4591-B0C3-E761AEC76784}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A7000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14414,7 +14415,7 @@
               <xdr:cNvPr id="168" name="直線コネクタ 167">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C614873-CA5A-42E4-9EB6-4062F21C4E45}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A8000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14451,7 +14452,7 @@
           <xdr:cNvPr id="189" name="グループ化 188">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCD2575-E25D-4A7A-9091-3610C642B8C0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BD000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14470,7 +14471,7 @@
             <xdr:cNvPr id="190" name="グループ化 189">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BEBDA1-AFEE-4672-9272-680CE4C55D7F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BE000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14489,7 +14490,7 @@
               <xdr:cNvPr id="216" name="直線コネクタ 215">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CB082A-C5D3-486A-BB4E-2068560AEC33}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D8000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14524,7 +14525,7 @@
               <xdr:cNvPr id="217" name="直線コネクタ 216">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423B5B75-7112-49F9-B12E-FE6D0BE7509E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D9000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14559,7 +14560,7 @@
               <xdr:cNvPr id="218" name="直線コネクタ 217">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E652D1-7A65-46F7-AD83-C61B3EE72E8D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DA000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14594,7 +14595,7 @@
               <xdr:cNvPr id="219" name="直線コネクタ 218">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24A419-D96C-45EB-87F6-4A82AF5B4FB6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DB000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14630,7 +14631,7 @@
             <xdr:cNvPr id="191" name="グループ化 190">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D917C2-1EC0-4643-BCB8-ED68D725B06B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BF000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14649,7 +14650,7 @@
               <xdr:cNvPr id="212" name="直線コネクタ 211">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288EABE1-A396-421F-A931-B5D9C9C7C0E6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D4000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14684,7 +14685,7 @@
               <xdr:cNvPr id="213" name="直線コネクタ 212">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923A16D3-52CF-49AA-9ED0-62CD576919F1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D5000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14719,7 +14720,7 @@
               <xdr:cNvPr id="214" name="直線コネクタ 213">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524435DA-66B7-449F-B1F5-8C2F2E0D1492}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D6000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14754,7 +14755,7 @@
               <xdr:cNvPr id="215" name="直線コネクタ 214">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA7384B-4B43-428D-9AEB-1D5FDEA6E4C1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D7000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14790,7 +14791,7 @@
             <xdr:cNvPr id="192" name="グループ化 191">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FFAD3C-5FF3-4803-A4ED-CB8881E7B6C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C0000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14809,7 +14810,7 @@
               <xdr:cNvPr id="208" name="直線コネクタ 207">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70F75AD-CCA0-4AED-8963-3D7B78DD2CD6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D0000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14844,7 +14845,7 @@
               <xdr:cNvPr id="209" name="直線コネクタ 208">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE1B69B-FFEE-47D6-B566-C202465D3855}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D1000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14879,7 +14880,7 @@
               <xdr:cNvPr id="210" name="直線コネクタ 209">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C2209F-677E-431B-8689-FD1ECF449196}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D2000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14914,7 +14915,7 @@
               <xdr:cNvPr id="211" name="直線コネクタ 210">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA41418-AEC9-4862-A073-E2B0E9B8FE8F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D3000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14950,7 +14951,7 @@
             <xdr:cNvPr id="193" name="グループ化 192">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24583D4-5ECB-4E58-B863-A22E1CDF6421}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C1000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14969,7 +14970,7 @@
               <xdr:cNvPr id="204" name="直線コネクタ 203">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C35D9F0-6DCD-486C-BB5F-6E5B3FFF4FF7}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CC000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15004,7 +15005,7 @@
               <xdr:cNvPr id="205" name="直線コネクタ 204">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D8EC50-9A7F-4D3E-8347-02B880B7C775}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CD000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15039,7 +15040,7 @@
               <xdr:cNvPr id="206" name="直線コネクタ 205">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C10517-08D0-4CC6-A7FF-B3DCC13416EA}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CE000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15074,7 +15075,7 @@
               <xdr:cNvPr id="207" name="直線コネクタ 206">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97E005F-E746-47E9-B75F-29E62B83358D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CF000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15110,7 +15111,7 @@
             <xdr:cNvPr id="194" name="グループ化 193">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9EE71E-2740-442C-8504-45BCE23A0572}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C2000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15129,7 +15130,7 @@
               <xdr:cNvPr id="200" name="直線コネクタ 199">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D45875-64C8-48B4-AA29-4A24ACA4EBFC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C8000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15164,7 +15165,7 @@
               <xdr:cNvPr id="201" name="直線コネクタ 200">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FE6FBC-5558-4E07-A925-AFF9FE0EF62A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C9000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15199,7 +15200,7 @@
               <xdr:cNvPr id="202" name="直線コネクタ 201">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23B9A3B-F75A-4096-8281-91B291E49929}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CA000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15234,7 +15235,7 @@
               <xdr:cNvPr id="203" name="直線コネクタ 202">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606D392F-48C7-4F7D-988A-02A9BB68BA67}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CB000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15270,7 +15271,7 @@
             <xdr:cNvPr id="195" name="グループ化 194">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA47C6A9-92E4-46F4-B6DE-235665F670D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C3000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15289,7 +15290,7 @@
               <xdr:cNvPr id="196" name="直線コネクタ 195">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229CE73A-EE4F-4F6B-AA49-26E1358F6D17}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C4000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15324,7 +15325,7 @@
               <xdr:cNvPr id="197" name="直線コネクタ 196">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01C38AD-B742-4B36-8391-7D653CF6FFBE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C5000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15359,7 +15360,7 @@
               <xdr:cNvPr id="198" name="直線コネクタ 197">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518251A7-DB89-46A0-ACF8-310B4171832D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C6000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15394,7 +15395,7 @@
               <xdr:cNvPr id="199" name="直線コネクタ 198">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F5D315-90EA-4E3F-BC03-41018B642FF1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C7000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15431,7 +15432,7 @@
           <xdr:cNvPr id="220" name="グループ化 219">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D78CC64-819B-4FAD-96C8-B0084AC2A4FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DC000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15450,7 +15451,7 @@
             <xdr:cNvPr id="221" name="グループ化 220">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298B083A-696A-435D-8086-7C60081D9C09}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DD000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15469,7 +15470,7 @@
               <xdr:cNvPr id="247" name="直線コネクタ 246">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BD5499-BEE1-4C3B-89C9-9EDF84F0FF6B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F7000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15504,7 +15505,7 @@
               <xdr:cNvPr id="248" name="直線コネクタ 247">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D22F12-DAE6-4699-B409-041B10E1B1AC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F8000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15539,7 +15540,7 @@
               <xdr:cNvPr id="249" name="直線コネクタ 248">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D014AA12-011E-49BD-940E-44492C84A040}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F9000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15574,7 +15575,7 @@
               <xdr:cNvPr id="250" name="直線コネクタ 249">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30453781-3147-4171-8392-9C8199DFA49B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FA000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15610,7 +15611,7 @@
             <xdr:cNvPr id="222" name="グループ化 221">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDE3BEB-EA6B-4ADD-9583-08F83FB8739F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DE000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15629,7 +15630,7 @@
               <xdr:cNvPr id="243" name="直線コネクタ 242">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B689AB-4BEF-4B7C-A57F-9C2A6E4D755F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F3000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15664,7 +15665,7 @@
               <xdr:cNvPr id="244" name="直線コネクタ 243">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00E1E07-9C54-49B8-A2E8-00871A7F1AFE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F4000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15699,7 +15700,7 @@
               <xdr:cNvPr id="245" name="直線コネクタ 244">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF426B77-1869-4851-B336-7F8F6D784184}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F5000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15734,7 +15735,7 @@
               <xdr:cNvPr id="246" name="直線コネクタ 245">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B547650-2F94-4D6D-B9A1-910A9F0A91A6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F6000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15770,7 +15771,7 @@
             <xdr:cNvPr id="223" name="グループ化 222">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEEB69E-5602-4358-A17F-1D07B6EA217D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DF000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15789,7 +15790,7 @@
               <xdr:cNvPr id="239" name="直線コネクタ 238">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA3C9D9-E7C8-41B2-B778-BAB43AFD9910}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EF000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15824,7 +15825,7 @@
               <xdr:cNvPr id="240" name="直線コネクタ 239">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C747765-7994-41B8-A60A-A9E47A5E35F5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F0000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15859,7 +15860,7 @@
               <xdr:cNvPr id="241" name="直線コネクタ 240">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5602C4AD-97A7-4155-BB9C-03CDBB288E56}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F1000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15894,7 +15895,7 @@
               <xdr:cNvPr id="242" name="直線コネクタ 241">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D7494B-A10E-4B1F-AF0D-DDFE9A7433A8}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F2000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15930,7 +15931,7 @@
             <xdr:cNvPr id="224" name="グループ化 223">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93F454E-5B19-4B88-9D59-FC985834A229}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E0000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15949,7 +15950,7 @@
               <xdr:cNvPr id="235" name="直線コネクタ 234">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0408E5-CF4B-4004-BCED-9C7454CAC22E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EB000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15984,7 +15985,7 @@
               <xdr:cNvPr id="236" name="直線コネクタ 235">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744F4EAC-1EED-4D8D-A95C-B2FBD6A5B150}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EC000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16019,7 +16020,7 @@
               <xdr:cNvPr id="237" name="直線コネクタ 236">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D235E716-0D5E-4922-B78F-CD48079258AA}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000ED000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16054,7 +16055,7 @@
               <xdr:cNvPr id="238" name="直線コネクタ 237">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3059C97-974C-444E-9E4A-D7DAE1DFA530}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EE000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16090,7 +16091,7 @@
             <xdr:cNvPr id="225" name="グループ化 224">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10DD4D0-DE5C-45B3-8245-7676200D83CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E1000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16109,7 +16110,7 @@
               <xdr:cNvPr id="231" name="直線コネクタ 230">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B6D728-1ACE-4D56-9AB3-FD15E646C6C3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E7000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16144,7 +16145,7 @@
               <xdr:cNvPr id="232" name="直線コネクタ 231">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934D84CA-942A-4905-9BE2-625B21566103}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E8000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16179,7 +16180,7 @@
               <xdr:cNvPr id="233" name="直線コネクタ 232">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3078D2D-DB07-4715-8A4C-DE66A5FD7193}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E9000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16214,7 +16215,7 @@
               <xdr:cNvPr id="234" name="直線コネクタ 233">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D75FA0-C689-4520-BD64-060FF7C3622B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EA000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16250,7 +16251,7 @@
             <xdr:cNvPr id="226" name="グループ化 225">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609DA929-22E4-405F-9F12-DE91D2855A51}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E2000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16269,7 +16270,7 @@
               <xdr:cNvPr id="227" name="直線コネクタ 226">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE895E92-32E1-4D7A-A146-12802DA92D0E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E3000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16304,7 +16305,7 @@
               <xdr:cNvPr id="228" name="直線コネクタ 227">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57AA41D5-AFDD-4FF8-ADD5-FDC231162B51}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E4000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16339,7 +16340,7 @@
               <xdr:cNvPr id="229" name="直線コネクタ 228">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278E60DE-FB73-408F-8DC3-3A1EEB23DA95}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E5000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16374,7 +16375,7 @@
               <xdr:cNvPr id="230" name="直線コネクタ 229">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC1947A-F0ED-4006-9B65-564A05DA2631}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E6000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16427,7 +16428,7 @@
         <xdr:cNvPr id="25" name="グループ化 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCAF6AB-0C6F-43B0-B4E7-841D9532EB0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16446,7 +16447,7 @@
           <xdr:cNvPr id="86" name="グループ化 85">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0A97A8-64C7-461F-B379-64564F3288FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000056000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16465,7 +16466,7 @@
             <xdr:cNvPr id="87" name="直線コネクタ 86">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0010B58B-3EA1-4262-A8F5-DEEC7628DEA4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000057000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16500,7 +16501,7 @@
             <xdr:cNvPr id="88" name="直線コネクタ 87">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19AFAF3D-E354-432B-BA7F-50BA0D579DB9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000058000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16535,7 +16536,7 @@
             <xdr:cNvPr id="89" name="直線コネクタ 88">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5659F4C8-EB3D-47ED-A4D4-7466A1EC5302}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000059000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16570,7 +16571,7 @@
             <xdr:cNvPr id="90" name="直線コネクタ 89">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B04CA25-D23E-4357-8037-E7590650C54F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16606,7 +16607,7 @@
           <xdr:cNvPr id="251" name="グループ化 250">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6B19E51-27D3-4EF5-A8BB-8130D1D80190}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16625,7 +16626,7 @@
             <xdr:cNvPr id="252" name="直線コネクタ 251">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE55CCF-DF8C-4ED0-8982-5EC7D5A076BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FC000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16660,7 +16661,7 @@
             <xdr:cNvPr id="253" name="直線コネクタ 252">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048FEAA7-B169-41C1-8C27-8E15063F5AE9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FD000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16695,7 +16696,7 @@
             <xdr:cNvPr id="254" name="直線コネクタ 253">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0DE3848-0632-4E34-8E87-025E4E06CF6B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FE000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16730,7 +16731,7 @@
             <xdr:cNvPr id="255" name="直線コネクタ 254">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98B01A7-100A-4F92-B906-51BBDD23B4DD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FF000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16766,7 +16767,7 @@
           <xdr:cNvPr id="256" name="グループ化 255">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEAA39F8-A448-45FF-B7C3-4C00F4F03F22}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000000010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16785,7 +16786,7 @@
             <xdr:cNvPr id="257" name="直線コネクタ 256">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFD69A2-200B-42A6-A8BE-7BCD629860BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16820,7 +16821,7 @@
             <xdr:cNvPr id="258" name="直線コネクタ 257">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A327C6F2-C13C-4C73-A2C9-41FBF32A0226}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16855,7 +16856,7 @@
             <xdr:cNvPr id="259" name="直線コネクタ 258">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92016E5E-9B47-41F2-8EF4-61BB5F722401}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16890,7 +16891,7 @@
             <xdr:cNvPr id="260" name="直線コネクタ 259">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D4D193-90A9-45B3-9296-6C74B512DA87}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16926,7 +16927,7 @@
           <xdr:cNvPr id="261" name="グループ化 260">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF10951-59BA-4C51-8C89-E3754FB61D17}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16945,7 +16946,7 @@
             <xdr:cNvPr id="262" name="直線コネクタ 261">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CA756C-EBAC-45C7-9D08-D3AE2B740A72}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16980,7 +16981,7 @@
             <xdr:cNvPr id="263" name="直線コネクタ 262">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D591C9-90F1-4E05-98DD-1FB9A479E466}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17015,7 +17016,7 @@
             <xdr:cNvPr id="264" name="直線コネクタ 263">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604D0988-97BC-4B5C-983A-934F5D32D662}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17050,7 +17051,7 @@
             <xdr:cNvPr id="265" name="直線コネクタ 264">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171D1AE1-9445-4224-A400-D21952B231CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17102,7 +17103,7 @@
         <xdr:cNvPr id="266" name="グループ化 265">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB5B9A8-6AFD-47E3-91AC-8B4428724568}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17121,7 +17122,7 @@
           <xdr:cNvPr id="267" name="グループ化 266">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B824E33-13D3-4020-8ECF-A21FCFF7B01B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17140,7 +17141,7 @@
             <xdr:cNvPr id="423" name="グループ化 422">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2801765-EF05-45DD-B15A-7D19418A2D61}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A7010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17159,7 +17160,7 @@
               <xdr:cNvPr id="449" name="直線コネクタ 448">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C3768E-8EDB-4A02-B9AD-23B38C20F054}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C1010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17194,7 +17195,7 @@
               <xdr:cNvPr id="450" name="直線コネクタ 449">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA15527-9817-43EB-BFB3-9ACBC85CFF78}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C2010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17229,7 +17230,7 @@
               <xdr:cNvPr id="451" name="直線コネクタ 450">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6B0604-7174-4456-97FF-3C52997798E9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C3010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17264,7 +17265,7 @@
               <xdr:cNvPr id="452" name="直線コネクタ 451">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BEB159-2F9A-42DB-A2CF-692DCE2D105E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C4010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17300,7 +17301,7 @@
             <xdr:cNvPr id="424" name="グループ化 423">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF6863E-F3B1-4E94-B68B-1B58C59A53C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A8010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17319,7 +17320,7 @@
               <xdr:cNvPr id="445" name="直線コネクタ 444">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F44F11-4969-46A3-8D25-546474DA9D86}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BD010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17354,7 +17355,7 @@
               <xdr:cNvPr id="446" name="直線コネクタ 445">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3982A0-4AC8-455D-A92C-6E2A23F38708}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BE010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17389,7 +17390,7 @@
               <xdr:cNvPr id="447" name="直線コネクタ 446">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1773E0-DEC0-4C3A-95EF-A9A35BB4492F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BF010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17424,7 +17425,7 @@
               <xdr:cNvPr id="448" name="直線コネクタ 447">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C47C36-3E93-4704-BC9B-35ECEC4EBB94}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C0010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17460,7 +17461,7 @@
             <xdr:cNvPr id="425" name="グループ化 424">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26865B33-AE4A-43D9-98F4-4D296A14EE59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A9010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17479,7 +17480,7 @@
               <xdr:cNvPr id="441" name="直線コネクタ 440">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB450EF-E095-4BB1-B714-B7252533D585}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B9010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17514,7 +17515,7 @@
               <xdr:cNvPr id="442" name="直線コネクタ 441">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C57097-86B5-4D57-8CDA-FFD49F379088}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BA010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17549,7 +17550,7 @@
               <xdr:cNvPr id="443" name="直線コネクタ 442">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0890BCFA-62A6-4FC4-9B39-FE993DBF9DB5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BB010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17584,7 +17585,7 @@
               <xdr:cNvPr id="444" name="直線コネクタ 443">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AAE69E-1E52-42ED-8742-0AA470C2CFB9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BC010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17620,7 +17621,7 @@
             <xdr:cNvPr id="426" name="グループ化 425">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913AC43C-F710-440B-8FAD-2FC4041D6E97}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AA010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17639,7 +17640,7 @@
               <xdr:cNvPr id="437" name="直線コネクタ 436">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03477D09-B8E6-4CCF-8E50-06D069458856}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B5010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17674,7 +17675,7 @@
               <xdr:cNvPr id="438" name="直線コネクタ 437">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223FF221-2980-4CAF-9202-CF255D4FC0C3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B6010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17709,7 +17710,7 @@
               <xdr:cNvPr id="439" name="直線コネクタ 438">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066BA3B9-2F30-4416-A4FB-DAEB555FAA93}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B7010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17744,7 +17745,7 @@
               <xdr:cNvPr id="440" name="直線コネクタ 439">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E16B00-93AA-4C28-977B-1B44B3C899C4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B8010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17780,7 +17781,7 @@
             <xdr:cNvPr id="427" name="グループ化 426">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28EF9C4-A9B3-45FA-ADB7-0B55EB324C62}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AB010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17799,7 +17800,7 @@
               <xdr:cNvPr id="433" name="直線コネクタ 432">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A55F031-8DFD-4C74-ACA0-800755999B97}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B1010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17834,7 +17835,7 @@
               <xdr:cNvPr id="434" name="直線コネクタ 433">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFA7A02-F62C-46DF-814E-69F1079F56F0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B2010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17869,7 +17870,7 @@
               <xdr:cNvPr id="435" name="直線コネクタ 434">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3A7714-F2AE-4C62-9D5C-EDF227C5680A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B3010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17904,7 +17905,7 @@
               <xdr:cNvPr id="436" name="直線コネクタ 435">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C4C33F-C50C-4D16-9CED-ECF8C444535C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B4010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17940,7 +17941,7 @@
             <xdr:cNvPr id="428" name="グループ化 427">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E482784-C9BA-4C9F-B25B-1D931746DD59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AC010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17959,7 +17960,7 @@
               <xdr:cNvPr id="429" name="直線コネクタ 428">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764C005B-714E-44D7-B8F3-9BD555E89C57}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AD010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17994,7 +17995,7 @@
               <xdr:cNvPr id="430" name="直線コネクタ 429">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA49DE9F-92D7-4820-8B52-EE9016711FA4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AE010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18029,7 +18030,7 @@
               <xdr:cNvPr id="431" name="直線コネクタ 430">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D58E9F-367B-4194-A384-ACD992BF617E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AF010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18064,7 +18065,7 @@
               <xdr:cNvPr id="432" name="直線コネクタ 431">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697BF8C1-68E2-4407-871E-E3E3DCE9D66E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B0010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18101,7 +18102,7 @@
           <xdr:cNvPr id="268" name="グループ化 267">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98326526-EB16-431B-A867-38C9A2464E8E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18120,7 +18121,7 @@
             <xdr:cNvPr id="393" name="グループ化 392">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E09DF1A-E847-4080-A452-7268BF6F5DAA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000089010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18139,7 +18140,7 @@
               <xdr:cNvPr id="419" name="直線コネクタ 418">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484D8F62-F7EE-44DD-834F-E6A85A8BEF1C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A3010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18174,7 +18175,7 @@
               <xdr:cNvPr id="420" name="直線コネクタ 419">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B930916-F395-4CA1-9FBF-1B8F6A91FF4F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A4010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18209,7 +18210,7 @@
               <xdr:cNvPr id="421" name="直線コネクタ 420">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9508B6D3-0DD7-4188-B9FD-8B8F96991C79}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A5010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18244,7 +18245,7 @@
               <xdr:cNvPr id="422" name="直線コネクタ 421">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86776682-E773-4976-9CD0-511999A9FF70}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A6010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18280,7 +18281,7 @@
             <xdr:cNvPr id="394" name="グループ化 393">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4606F6F1-B399-4753-A5FB-91F44E98861F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008A010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18299,7 +18300,7 @@
               <xdr:cNvPr id="415" name="直線コネクタ 414">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D246F675-839E-4093-B542-E2A91A33674C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009F010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18334,7 +18335,7 @@
               <xdr:cNvPr id="416" name="直線コネクタ 415">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183A08AB-5162-4833-926E-6B86EE2EC6C6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A0010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18369,7 +18370,7 @@
               <xdr:cNvPr id="417" name="直線コネクタ 416">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35857D29-DC29-4C40-A36C-AFD8204AD849}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A1010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18404,7 +18405,7 @@
               <xdr:cNvPr id="418" name="直線コネクタ 417">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C0B48D1-322B-4959-83F9-6A8C3D77D775}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A2010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18440,7 +18441,7 @@
             <xdr:cNvPr id="395" name="グループ化 394">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3993289B-7362-4966-A113-1426EBB62DFC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008B010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18459,7 +18460,7 @@
               <xdr:cNvPr id="411" name="直線コネクタ 410">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55153D3-3881-41E1-AACA-A8CFD73DB183}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009B010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18494,7 +18495,7 @@
               <xdr:cNvPr id="412" name="直線コネクタ 411">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD99556F-CD89-4E43-BD64-9F6D1FDBE144}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009C010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18529,7 +18530,7 @@
               <xdr:cNvPr id="413" name="直線コネクタ 412">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB340C4-7BDE-431F-BFA5-1CC7A66C635E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009D010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18564,7 +18565,7 @@
               <xdr:cNvPr id="414" name="直線コネクタ 413">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7321A89D-3F22-4748-AE1A-BBFA08E53A26}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009E010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18600,7 +18601,7 @@
             <xdr:cNvPr id="396" name="グループ化 395">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DC1F3E-12DD-4E56-8ED6-DEDA706A5B4C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008C010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18619,7 +18620,7 @@
               <xdr:cNvPr id="407" name="直線コネクタ 406">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA8C3FC-10B2-4EC7-A41C-57BD00F3AC4F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000097010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18654,7 +18655,7 @@
               <xdr:cNvPr id="408" name="直線コネクタ 407">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8784B0-6C22-42DE-BF15-5D5BEE24CE55}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000098010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18689,7 +18690,7 @@
               <xdr:cNvPr id="409" name="直線コネクタ 408">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E62E724-4E03-4005-8509-B8476EB04210}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000099010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18724,7 +18725,7 @@
               <xdr:cNvPr id="410" name="直線コネクタ 409">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE22C7C0-4423-445E-8F03-3044DCED59E2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009A010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18760,7 +18761,7 @@
             <xdr:cNvPr id="397" name="グループ化 396">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A7738A-6064-4FAA-9026-652B54C4AF99}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008D010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18779,7 +18780,7 @@
               <xdr:cNvPr id="403" name="直線コネクタ 402">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8300C73F-1546-4D17-91D6-A2DF8EC9C23C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000093010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18814,7 +18815,7 @@
               <xdr:cNvPr id="404" name="直線コネクタ 403">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B9BEB1-2A7F-4369-8378-225460F87F67}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000094010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18849,7 +18850,7 @@
               <xdr:cNvPr id="405" name="直線コネクタ 404">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41B3878-AC70-470A-91E3-486CDF1A1919}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000095010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18884,7 +18885,7 @@
               <xdr:cNvPr id="406" name="直線コネクタ 405">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395E5CAE-7C8F-4EA4-83B3-E70CA523F541}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000096010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18920,7 +18921,7 @@
             <xdr:cNvPr id="398" name="グループ化 397">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCD8AA7-CF01-4ED7-ABF8-38A310F1328E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008E010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18939,7 +18940,7 @@
               <xdr:cNvPr id="399" name="直線コネクタ 398">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A30F76E-6868-4C58-B636-5ED0682FFE01}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008F010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18974,7 +18975,7 @@
               <xdr:cNvPr id="400" name="直線コネクタ 399">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9BEC4D-DBBE-43E3-9059-35A876515B35}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000090010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19009,7 +19010,7 @@
               <xdr:cNvPr id="401" name="直線コネクタ 400">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69EB657-8A94-433A-A021-9A1B9628E66E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000091010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19044,7 +19045,7 @@
               <xdr:cNvPr id="402" name="直線コネクタ 401">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C8032E-617F-4108-90A5-6019D1800A5F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000092010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19081,7 +19082,7 @@
           <xdr:cNvPr id="269" name="グループ化 268">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63CBFA6E-4185-4426-B694-2752541EB7E4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19100,7 +19101,7 @@
             <xdr:cNvPr id="363" name="グループ化 362">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40803997-4D44-4C81-B5BB-1430A68921EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006B010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19119,7 +19120,7 @@
               <xdr:cNvPr id="389" name="直線コネクタ 388">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86467069-FB4F-415B-8C89-16D4ED541DDD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000085010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19154,7 +19155,7 @@
               <xdr:cNvPr id="390" name="直線コネクタ 389">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A58FAC-0A33-48ED-AC74-53041A533712}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000086010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19189,7 +19190,7 @@
               <xdr:cNvPr id="391" name="直線コネクタ 390">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EA3555-C411-47AF-B9C1-3397E87CC03F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000087010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19224,7 +19225,7 @@
               <xdr:cNvPr id="392" name="直線コネクタ 391">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459F5447-54C3-4536-800B-7095D715AE4B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000088010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19260,7 +19261,7 @@
             <xdr:cNvPr id="364" name="グループ化 363">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277D466B-83BA-4C9F-A129-52AAB819B337}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006C010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19279,7 +19280,7 @@
               <xdr:cNvPr id="385" name="直線コネクタ 384">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05BA3E6-BD34-4935-81C7-6B0C929287E3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000081010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19314,7 +19315,7 @@
               <xdr:cNvPr id="386" name="直線コネクタ 385">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D36D73-4273-41AD-99ED-865FB20421C3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000082010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19349,7 +19350,7 @@
               <xdr:cNvPr id="387" name="直線コネクタ 386">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DE86AA-A23C-4308-8F2E-A93C4D028672}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000083010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19384,7 +19385,7 @@
               <xdr:cNvPr id="388" name="直線コネクタ 387">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E840A12-B7CA-42BB-A229-7FA3A2306E67}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000084010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19420,7 +19421,7 @@
             <xdr:cNvPr id="365" name="グループ化 364">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F11934-E246-4EC4-A1CD-FD606D391B0D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006D010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19439,7 +19440,7 @@
               <xdr:cNvPr id="381" name="直線コネクタ 380">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC35422-447C-40CD-B02E-BFEA745941B3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007D010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19474,7 +19475,7 @@
               <xdr:cNvPr id="382" name="直線コネクタ 381">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D626E5-8112-4969-87A8-9D47B96DA414}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007E010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19509,7 +19510,7 @@
               <xdr:cNvPr id="383" name="直線コネクタ 382">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E60063-2048-4665-9380-74AF051A3FF4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007F010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19544,7 +19545,7 @@
               <xdr:cNvPr id="384" name="直線コネクタ 383">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2135CB34-62BA-4691-8491-991320AAB4A5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000080010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19580,7 +19581,7 @@
             <xdr:cNvPr id="366" name="グループ化 365">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E7996C-0913-4E68-A60E-4870029B6239}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006E010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19599,7 +19600,7 @@
               <xdr:cNvPr id="377" name="直線コネクタ 376">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8D8D1B-39E7-4929-9C93-AD31BDBF8A60}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000079010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19634,7 +19635,7 @@
               <xdr:cNvPr id="378" name="直線コネクタ 377">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4628FD68-E948-4481-B2B2-AAA493DD4B4A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007A010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19669,7 +19670,7 @@
               <xdr:cNvPr id="379" name="直線コネクタ 378">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF98478-417B-4726-8E65-470731EBF261}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007B010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19704,7 +19705,7 @@
               <xdr:cNvPr id="380" name="直線コネクタ 379">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0AAF53-6B4C-4346-A0A7-A2E10A8A80D4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007C010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19740,7 +19741,7 @@
             <xdr:cNvPr id="367" name="グループ化 366">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885D0A64-7BA7-4C2E-979E-2340B769F591}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006F010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19759,7 +19760,7 @@
               <xdr:cNvPr id="373" name="直線コネクタ 372">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66E44B2-6A96-4D4C-A7F2-FBDDEC74401D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000075010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19794,7 +19795,7 @@
               <xdr:cNvPr id="374" name="直線コネクタ 373">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD20A88-24B5-46C3-A194-93B470FCB1B3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000076010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19829,7 +19830,7 @@
               <xdr:cNvPr id="375" name="直線コネクタ 374">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB79AEA9-0487-4DE0-BF85-4B2F73D393FA}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000077010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19864,7 +19865,7 @@
               <xdr:cNvPr id="376" name="直線コネクタ 375">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF79763D-9127-4E4B-820F-74B22749E71D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000078010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19900,7 +19901,7 @@
             <xdr:cNvPr id="368" name="グループ化 367">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49F7870-30E6-4D4B-8806-A6C63D70D748}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000070010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19919,7 +19920,7 @@
               <xdr:cNvPr id="369" name="直線コネクタ 368">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A0FE80-CCCF-4ED3-BE22-9A01972DAB41}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000071010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19954,7 +19955,7 @@
               <xdr:cNvPr id="370" name="直線コネクタ 369">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FB5293-660A-4342-8DDE-26E23F756F5B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000072010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -19989,7 +19990,7 @@
               <xdr:cNvPr id="371" name="直線コネクタ 370">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12064C8B-8449-4311-94A3-14A8F5797F43}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000073010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20024,7 +20025,7 @@
               <xdr:cNvPr id="372" name="直線コネクタ 371">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6324452C-FE7F-4F99-8BBE-80B48061A548}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000074010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20061,7 +20062,7 @@
           <xdr:cNvPr id="270" name="グループ化 269">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0412BC8-4F46-43CB-9BF3-B3092094FF62}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20080,7 +20081,7 @@
             <xdr:cNvPr id="333" name="グループ化 332">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280D31C3-8E44-4C41-89A0-D1BF30204280}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004D010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20099,7 +20100,7 @@
               <xdr:cNvPr id="359" name="直線コネクタ 358">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DEF817-29A3-4740-B4B4-B5445AA0D356}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000067010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20134,7 +20135,7 @@
               <xdr:cNvPr id="360" name="直線コネクタ 359">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8260BA-5450-44F2-9216-8DCA4951F5F1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000068010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20169,7 +20170,7 @@
               <xdr:cNvPr id="361" name="直線コネクタ 360">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946CDB84-7F8A-42AA-8CEB-8E6C0B62D1BD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000069010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20204,7 +20205,7 @@
               <xdr:cNvPr id="362" name="直線コネクタ 361">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F685BDA-95E1-44A1-938E-8BC2FAB46C33}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006A010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20240,7 +20241,7 @@
             <xdr:cNvPr id="334" name="グループ化 333">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6565C797-38ED-48E6-8855-4A88DFC08884}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004E010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20259,7 +20260,7 @@
               <xdr:cNvPr id="355" name="直線コネクタ 354">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BFA6FC-AA0C-49DF-950E-3401D2D18E92}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000063010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20294,7 +20295,7 @@
               <xdr:cNvPr id="356" name="直線コネクタ 355">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CD221D-3283-4297-855B-57955615CFAB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000064010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20329,7 +20330,7 @@
               <xdr:cNvPr id="357" name="直線コネクタ 356">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E50878B-142B-4EB7-A216-80A8F437B0DE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000065010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20364,7 +20365,7 @@
               <xdr:cNvPr id="358" name="直線コネクタ 357">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31445472-256A-4C4A-9062-0E87152CAF8E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000066010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20400,7 +20401,7 @@
             <xdr:cNvPr id="335" name="グループ化 334">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C287897-4D0F-4689-B477-50B446F2196C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004F010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20419,7 +20420,7 @@
               <xdr:cNvPr id="351" name="直線コネクタ 350">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E58C884-852A-4C45-A877-45FD344381C2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005F010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20454,7 +20455,7 @@
               <xdr:cNvPr id="352" name="直線コネクタ 351">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CBF4E4-2BD3-4BFC-BFA9-3CFBDDBF9BD7}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000060010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20489,7 +20490,7 @@
               <xdr:cNvPr id="353" name="直線コネクタ 352">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1325FCC6-2B58-41F4-9F13-37481026E0D4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000061010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20524,7 +20525,7 @@
               <xdr:cNvPr id="354" name="直線コネクタ 353">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349A0796-B878-48F3-966B-5952A49F7F91}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000062010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20560,7 +20561,7 @@
             <xdr:cNvPr id="336" name="グループ化 335">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E6BC77-807B-4125-BEE0-604E727DFF7E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000050010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20579,7 +20580,7 @@
               <xdr:cNvPr id="347" name="直線コネクタ 346">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A302F7-BB87-445C-8F07-E5C277A9CF25}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005B010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20614,7 +20615,7 @@
               <xdr:cNvPr id="348" name="直線コネクタ 347">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D8FD68-1F9A-45A7-B60C-0C610D22932D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005C010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20649,7 +20650,7 @@
               <xdr:cNvPr id="349" name="直線コネクタ 348">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A047AFFD-5A5D-484E-917F-637CE94A7FE2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005D010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20684,7 +20685,7 @@
               <xdr:cNvPr id="350" name="直線コネクタ 349">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408B6E6F-0938-44BB-865B-7C0E96D1A4BE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005E010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20720,7 +20721,7 @@
             <xdr:cNvPr id="337" name="グループ化 336">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD94800-C5DB-4E2B-9D89-0875E4801DA7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000051010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20739,7 +20740,7 @@
               <xdr:cNvPr id="343" name="直線コネクタ 342">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8A5111-32D4-41D9-8677-D5F583959C82}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000057010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20774,7 +20775,7 @@
               <xdr:cNvPr id="344" name="直線コネクタ 343">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FECE2DA-7642-4DE1-ADFC-FD7EBEB5016E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000058010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20809,7 +20810,7 @@
               <xdr:cNvPr id="345" name="直線コネクタ 344">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFA8803-5D66-457B-A6E9-12D7DAC1DBF4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000059010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20844,7 +20845,7 @@
               <xdr:cNvPr id="346" name="直線コネクタ 345">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6FFC10-A416-4CDD-9E07-11D5417B4F3C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005A010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20880,7 +20881,7 @@
             <xdr:cNvPr id="338" name="グループ化 337">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5082E7-201C-4FCF-9E80-47D724BFB106}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000052010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20899,7 +20900,7 @@
               <xdr:cNvPr id="339" name="直線コネクタ 338">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1656AB3C-E1C3-42AE-A025-9D2B67B61DCB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000053010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20934,7 +20935,7 @@
               <xdr:cNvPr id="340" name="直線コネクタ 339">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3C0E08-2DAB-4189-A9E4-5004F082DE94}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000054010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20969,7 +20970,7 @@
               <xdr:cNvPr id="341" name="直線コネクタ 340">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283F0056-2747-4D54-A9EB-FA30A17F293D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000055010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21004,7 +21005,7 @@
               <xdr:cNvPr id="342" name="直線コネクタ 341">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127952FB-29E4-4BD9-98C5-CF20BDCB0C1C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000056010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21041,7 +21042,7 @@
           <xdr:cNvPr id="271" name="グループ化 270">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10051355-3B51-4FAC-9D1C-09F6C4CCC2A9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21060,7 +21061,7 @@
             <xdr:cNvPr id="303" name="グループ化 302">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B45489-B2BE-4519-8F3A-356A4D8C3D8E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21079,7 +21080,7 @@
               <xdr:cNvPr id="329" name="直線コネクタ 328">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81482F43-F3E9-4623-A4EB-88AB94B5F46D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000049010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21114,7 +21115,7 @@
               <xdr:cNvPr id="330" name="直線コネクタ 329">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7E0649-7FF8-4C27-B082-5876DC41509D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004A010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21149,7 +21150,7 @@
               <xdr:cNvPr id="331" name="直線コネクタ 330">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BA11FF-FFB8-455E-9F9C-81303DBECB2C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004B010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21184,7 +21185,7 @@
               <xdr:cNvPr id="332" name="直線コネクタ 331">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C52EDC-BF8F-4F44-855C-D4B63216F544}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004C010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21220,7 +21221,7 @@
             <xdr:cNvPr id="304" name="グループ化 303">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2CC57F-CBA4-4A2F-A8E0-0E2C0E9BFF7F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000030010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21239,7 +21240,7 @@
               <xdr:cNvPr id="325" name="直線コネクタ 324">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554F4353-839C-43D9-9A8F-249335D625F1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000045010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21274,7 +21275,7 @@
               <xdr:cNvPr id="326" name="直線コネクタ 325">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB5D04E-70A8-474C-B09E-89F329E4A1E3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000046010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21309,7 +21310,7 @@
               <xdr:cNvPr id="327" name="直線コネクタ 326">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8801FA-B715-4F29-ADA1-EDDF2ABBD5A0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000047010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21344,7 +21345,7 @@
               <xdr:cNvPr id="328" name="直線コネクタ 327">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C94B86D-EC1D-4B3E-8810-C0A982DC9E9B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000048010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21380,7 +21381,7 @@
             <xdr:cNvPr id="305" name="グループ化 304">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE45F5BA-57D7-48CF-9D45-36BC276E6432}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21399,7 +21400,7 @@
               <xdr:cNvPr id="321" name="直線コネクタ 320">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A1A9D9-0DC8-443C-BF5B-9BA0AEA242EB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000041010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21434,7 +21435,7 @@
               <xdr:cNvPr id="322" name="直線コネクタ 321">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C650897-ACC4-46E1-AAB8-FBBBE552762E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000042010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21469,7 +21470,7 @@
               <xdr:cNvPr id="323" name="直線コネクタ 322">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF28C34-54E1-4B38-B3D4-127BB5BB06BF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000043010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21504,7 +21505,7 @@
               <xdr:cNvPr id="324" name="直線コネクタ 323">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD3259F-D985-4BAB-B9AB-60E6404E1B31}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000044010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21540,7 +21541,7 @@
             <xdr:cNvPr id="306" name="グループ化 305">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8DFC74-BAB9-4BAA-B497-A6C16C059943}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000032010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21559,7 +21560,7 @@
               <xdr:cNvPr id="317" name="直線コネクタ 316">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701DD090-7BC2-45EA-883D-6EDE281F081D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003D010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21594,7 +21595,7 @@
               <xdr:cNvPr id="318" name="直線コネクタ 317">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8E1393-D55B-4405-B425-FA99D439ECD9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003E010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21629,7 +21630,7 @@
               <xdr:cNvPr id="319" name="直線コネクタ 318">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A93BDD-1B98-4CD2-8EAC-696BA2960550}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003F010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21664,7 +21665,7 @@
               <xdr:cNvPr id="320" name="直線コネクタ 319">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65431717-2A60-4E47-ACD1-B8E4793BA729}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000040010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21700,7 +21701,7 @@
             <xdr:cNvPr id="307" name="グループ化 306">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97FB740-5A6D-4CC3-B8C9-0001FD19255D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000033010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21719,7 +21720,7 @@
               <xdr:cNvPr id="313" name="直線コネクタ 312">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074E2EE0-FBEA-4732-86DC-222EDF808BFE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21754,7 +21755,7 @@
               <xdr:cNvPr id="314" name="直線コネクタ 313">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C749C7-A6CB-499D-9851-D116EE9000BD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003A010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21789,7 +21790,7 @@
               <xdr:cNvPr id="315" name="直線コネクタ 314">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769D14BB-4446-49B7-87D1-54BF394794A5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003B010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21824,7 +21825,7 @@
               <xdr:cNvPr id="316" name="直線コネクタ 315">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C1553C-7A66-4C3E-B40B-A2AB891DA7E8}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003C010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21860,7 +21861,7 @@
             <xdr:cNvPr id="308" name="グループ化 307">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEF870C-7B79-4C10-8EBD-321DB5C7C9D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000034010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21879,7 +21880,7 @@
               <xdr:cNvPr id="309" name="直線コネクタ 308">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B86EFB1-AE6C-436F-893C-ED45310C5F34}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000035010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21914,7 +21915,7 @@
               <xdr:cNvPr id="310" name="直線コネクタ 309">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D399002-CDD5-4E12-BCF5-5406E89EDD0F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21949,7 +21950,7 @@
               <xdr:cNvPr id="311" name="直線コネクタ 310">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D5F882-8784-4355-9C3B-91CC99723A93}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21984,7 +21985,7 @@
               <xdr:cNvPr id="312" name="直線コネクタ 311">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB2FF53-1A50-428C-AF9A-8F4036D68612}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000038010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22021,7 +22022,7 @@
           <xdr:cNvPr id="272" name="グループ化 271">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93247C04-D3A0-49A3-8956-5D36DFCFEE41}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22040,7 +22041,7 @@
             <xdr:cNvPr id="273" name="グループ化 272">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FDB04A-E99C-4897-A07F-E648F5386AB5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22059,7 +22060,7 @@
               <xdr:cNvPr id="299" name="直線コネクタ 298">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF98F9D-86DA-4313-8605-2543E043AE82}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22094,7 +22095,7 @@
               <xdr:cNvPr id="300" name="直線コネクタ 299">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA2AF34-947E-44B4-B428-71B7A5729560}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22129,7 +22130,7 @@
               <xdr:cNvPr id="301" name="直線コネクタ 300">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26D185F-4DCC-4963-B2BD-2A6638EEBAB6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22164,7 +22165,7 @@
               <xdr:cNvPr id="302" name="直線コネクタ 301">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA28649-768A-4241-8AD1-696943A63EBC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22200,7 +22201,7 @@
             <xdr:cNvPr id="274" name="グループ化 273">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73970388-3848-4353-B921-F5BC11C2DC5C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22219,7 +22220,7 @@
               <xdr:cNvPr id="295" name="直線コネクタ 294">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8057B8AC-B613-4E04-B467-1DBDC2436293}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000027010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22254,7 +22255,7 @@
               <xdr:cNvPr id="296" name="直線コネクタ 295">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27D4A5B-7874-4733-B06A-2E7F0B637E7E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22289,7 +22290,7 @@
               <xdr:cNvPr id="297" name="直線コネクタ 296">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04286054-5C08-407D-9A06-9FF739CF9AA1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22324,7 +22325,7 @@
               <xdr:cNvPr id="298" name="直線コネクタ 297">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EF9213-0537-468D-A4F8-F03E1A046374}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002A010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22360,7 +22361,7 @@
             <xdr:cNvPr id="275" name="グループ化 274">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC2ECBE-5464-47F7-8BF9-5DE584B61814}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22379,7 +22380,7 @@
               <xdr:cNvPr id="291" name="直線コネクタ 290">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0450D57-B29D-4AF5-BD5A-ED823617589F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22414,7 +22415,7 @@
               <xdr:cNvPr id="292" name="直線コネクタ 291">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86243362-A090-4F99-BBF1-4865C2028AE5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000024010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22449,7 +22450,7 @@
               <xdr:cNvPr id="293" name="直線コネクタ 292">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866636E3-C04E-46D4-BDB5-3A4E526F50DC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22484,7 +22485,7 @@
               <xdr:cNvPr id="294" name="直線コネクタ 293">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EFC563-40A1-4A79-A324-7ED4F2EB0F6D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22520,7 +22521,7 @@
             <xdr:cNvPr id="276" name="グループ化 275">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A4BD3A-5FCB-49DF-8E4F-DDAA82D1775D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22539,7 +22540,7 @@
               <xdr:cNvPr id="287" name="直線コネクタ 286">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECB4271-D5C0-48BD-B6A1-FA68AF723A13}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22574,7 +22575,7 @@
               <xdr:cNvPr id="288" name="直線コネクタ 287">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E082BC-0A37-4DD7-9375-C825DEF4133D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22609,7 +22610,7 @@
               <xdr:cNvPr id="289" name="直線コネクタ 288">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A9695C-8F12-4827-BC03-69C2F9F73B93}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22644,7 +22645,7 @@
               <xdr:cNvPr id="290" name="直線コネクタ 289">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9023D70-7164-4E22-B952-CD014FB254EF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22680,7 +22681,7 @@
             <xdr:cNvPr id="277" name="グループ化 276">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AC456E-DEEB-4ECD-9565-4BD35239D9C5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22699,7 +22700,7 @@
               <xdr:cNvPr id="283" name="直線コネクタ 282">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA459CB-07BB-4245-8B6E-719E1C9DEB7B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22734,7 +22735,7 @@
               <xdr:cNvPr id="284" name="直線コネクタ 283">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0CFAA6-6356-4E7D-A578-BE633049CC4E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22769,7 +22770,7 @@
               <xdr:cNvPr id="285" name="直線コネクタ 284">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76951CCB-4848-4C70-81D1-8F380A904181}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22804,7 +22805,7 @@
               <xdr:cNvPr id="286" name="直線コネクタ 285">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3282120-A866-40AC-A3B4-90977FB612CB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22840,7 +22841,7 @@
             <xdr:cNvPr id="278" name="グループ化 277">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A96B39B-2A11-4CAE-A6A5-0C7596B6E6C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22859,7 +22860,7 @@
               <xdr:cNvPr id="279" name="直線コネクタ 278">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0361E332-7ED0-4C80-A6B8-2C4B4623035F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22894,7 +22895,7 @@
               <xdr:cNvPr id="280" name="直線コネクタ 279">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB785A3A-8382-4DBF-B7BF-8CBED1690F10}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22929,7 +22930,7 @@
               <xdr:cNvPr id="281" name="直線コネクタ 280">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F559FA-D4D5-4C92-BDD6-21A41B57CA8C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -22964,7 +22965,7 @@
               <xdr:cNvPr id="282" name="直線コネクタ 281">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627D5853-3887-449D-A6F1-BB06E2AE33E3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A010000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -23017,7 +23018,7 @@
         <xdr:cNvPr id="453" name="グループ化 452">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A0822A-1923-463E-B494-3034A4D78930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23036,7 +23037,7 @@
           <xdr:cNvPr id="454" name="グループ化 453">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EE0D6F-6021-4F79-AB26-14589D03E55F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C6010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23055,7 +23056,7 @@
             <xdr:cNvPr id="470" name="直線コネクタ 469">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C9A540-3A0E-4A6C-B5AB-4255C8B5D3A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D6010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23090,7 +23091,7 @@
             <xdr:cNvPr id="471" name="直線コネクタ 470">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565F0203-14BD-4AB3-9484-47F9B8CC63BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D7010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23125,7 +23126,7 @@
             <xdr:cNvPr id="472" name="直線コネクタ 471">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC36536-039B-4280-B758-1146F575AA1F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D8010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23160,7 +23161,7 @@
             <xdr:cNvPr id="473" name="直線コネクタ 472">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F71F8B-4E55-4738-B828-68666AEC99EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D9010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23196,7 +23197,7 @@
           <xdr:cNvPr id="455" name="グループ化 454">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2866DE0-5731-45FC-87C3-7967C8E07A69}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C7010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23215,7 +23216,7 @@
             <xdr:cNvPr id="466" name="直線コネクタ 465">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AFBCC3-7136-4309-90B1-F110E326D703}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D2010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23250,7 +23251,7 @@
             <xdr:cNvPr id="467" name="直線コネクタ 466">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08591E88-D680-42CD-9AEC-EA21E87043A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D3010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23285,7 +23286,7 @@
             <xdr:cNvPr id="468" name="直線コネクタ 467">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5980885A-5F97-41D4-920F-B3E95DA2DD5A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D4010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23320,7 +23321,7 @@
             <xdr:cNvPr id="469" name="直線コネクタ 468">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9E75E2-B2ED-4E0F-ACC9-E28DDD6D2A73}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D5010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23356,7 +23357,7 @@
           <xdr:cNvPr id="456" name="グループ化 455">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC0A9D4-0E4F-447C-A495-41742D52B6E9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C8010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23375,7 +23376,7 @@
             <xdr:cNvPr id="462" name="直線コネクタ 461">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95911A4-8657-4E5F-AB6E-F38805904B8A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CE010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23410,7 +23411,7 @@
             <xdr:cNvPr id="463" name="直線コネクタ 462">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4244B270-AA36-489C-957E-6B44881ED460}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CF010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23445,7 +23446,7 @@
             <xdr:cNvPr id="464" name="直線コネクタ 463">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C16588-7F6D-4A14-A1D3-09BDE963EE05}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D0010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23480,7 +23481,7 @@
             <xdr:cNvPr id="465" name="直線コネクタ 464">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76739EC7-36C8-407B-A3E5-7D0D0EC575BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D1010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23516,7 +23517,7 @@
           <xdr:cNvPr id="457" name="グループ化 456">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D54952-D7E8-467E-9201-A79D7BED0C72}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C9010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23535,7 +23536,7 @@
             <xdr:cNvPr id="458" name="直線コネクタ 457">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E9C9FD-569D-44B4-9C47-DA4322F83F46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CA010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23570,7 +23571,7 @@
             <xdr:cNvPr id="459" name="直線コネクタ 458">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED5A918-D599-4551-A93A-FE9B1B79DC74}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CB010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23605,7 +23606,7 @@
             <xdr:cNvPr id="460" name="直線コネクタ 459">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90507058-2CCB-4241-9BCF-67ADC1100A63}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CC010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23640,7 +23641,7 @@
             <xdr:cNvPr id="461" name="直線コネクタ 460">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C280CD-45CD-4546-925B-A3C554F0EDB2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CD010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23692,7 +23693,7 @@
         <xdr:cNvPr id="474" name="グループ化 473">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1976F385-9FB9-4ACE-830E-AEBCA67A4CAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23711,7 +23712,7 @@
           <xdr:cNvPr id="475" name="グループ化 474">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6ECA63-0009-4AFC-9E1F-D58E57EFB6A9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DB010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23730,7 +23731,7 @@
             <xdr:cNvPr id="491" name="直線コネクタ 490">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEF526F-1972-4EBF-B97B-4A8BEE481E11}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EB010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23765,7 +23766,7 @@
             <xdr:cNvPr id="492" name="直線コネクタ 491">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D7CC66-5E16-4714-AE74-8B6EAF60C53B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EC010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23800,7 +23801,7 @@
             <xdr:cNvPr id="493" name="直線コネクタ 492">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79A557F-809C-4C06-A025-BBA2E9048085}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000ED010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23835,7 +23836,7 @@
             <xdr:cNvPr id="494" name="直線コネクタ 493">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8934FBCD-F319-4ABA-89AC-D34F32E73505}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EE010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23871,7 +23872,7 @@
           <xdr:cNvPr id="476" name="グループ化 475">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1953D869-75AA-4918-BA8F-83355B91C1A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DC010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23890,7 +23891,7 @@
             <xdr:cNvPr id="487" name="直線コネクタ 486">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1794E3-2BBD-47EA-9FCF-DA8F06E80435}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E7010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23925,7 +23926,7 @@
             <xdr:cNvPr id="488" name="直線コネクタ 487">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451D7CCD-F790-49DA-8A6B-960B33EAF353}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E8010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23960,7 +23961,7 @@
             <xdr:cNvPr id="489" name="直線コネクタ 488">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD25B7D-B414-4473-AFE8-BAFBDE765D57}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E9010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23995,7 +23996,7 @@
             <xdr:cNvPr id="490" name="直線コネクタ 489">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F03321CF-155F-4342-B86A-8F2831BB100A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EA010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24031,7 +24032,7 @@
           <xdr:cNvPr id="477" name="グループ化 476">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E5F73F-3EB1-4B12-B943-361C700729E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DD010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24050,7 +24051,7 @@
             <xdr:cNvPr id="483" name="直線コネクタ 482">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5D79E0-9C0D-40BF-8A02-CB34DBA1E8B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E3010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24085,7 +24086,7 @@
             <xdr:cNvPr id="484" name="直線コネクタ 483">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929C69A5-D7C2-44F2-B960-BE581D343813}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E4010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24120,7 +24121,7 @@
             <xdr:cNvPr id="485" name="直線コネクタ 484">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF00F1EA-E622-4A0B-9417-97C9BA051E02}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E5010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24155,7 +24156,7 @@
             <xdr:cNvPr id="486" name="直線コネクタ 485">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1483CCF-0BC2-420C-8377-CDB08AE4AAA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E6010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24191,7 +24192,7 @@
           <xdr:cNvPr id="478" name="グループ化 477">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C42BA1-CF3D-4516-BB71-AE01E2885F78}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DE010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24210,7 +24211,7 @@
             <xdr:cNvPr id="479" name="直線コネクタ 478">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D57B1D2-A8DF-4034-99EC-031479CD330F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DF010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24245,7 +24246,7 @@
             <xdr:cNvPr id="480" name="直線コネクタ 479">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F8081A-3E10-40A5-986E-B80D0829F5F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E0010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24280,7 +24281,7 @@
             <xdr:cNvPr id="481" name="直線コネクタ 480">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC9C87C-5FD1-427B-AF04-6BF207643E75}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E1010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24315,7 +24316,7 @@
             <xdr:cNvPr id="482" name="直線コネクタ 481">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D8D6A8-0120-4863-AA7A-10732C19456A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E2010000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24367,7 +24368,7 @@
         <xdr:cNvPr id="27" name="稲妻 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CAE87A3-A0A2-44E9-B4D4-A43FCBBACEF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24427,7 +24428,7 @@
         <xdr:cNvPr id="31" name="矢印: 上 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97AF30B-927E-436D-ACAA-396D0022BCC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24487,7 +24488,7 @@
         <xdr:cNvPr id="495" name="矢印: 上 494">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC96DBAB-5DAE-4DDD-AFE6-E6B01DD7F3F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EF010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24549,7 +24550,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24621,7 +24628,7 @@
         <xdr:cNvPr id="4" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24683,7 +24690,7 @@
         <xdr:cNvPr id="5" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24745,7 +24752,7 @@
         <xdr:cNvPr id="7" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24804,7 +24811,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Down Arrow 7"/>
+        <xdr:cNvPr id="8" name="Down Arrow 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24861,7 +24874,7 @@
         <xdr:cNvPr id="9" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24924,7 +24937,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Notched Right Arrow 5"/>
+        <xdr:cNvPr id="6" name="Notched Right Arrow 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24981,7 +25000,7 @@
         <xdr:cNvPr id="10" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25043,7 +25062,7 @@
         <xdr:cNvPr id="11" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25105,7 +25124,7 @@
         <xdr:cNvPr id="12" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25167,7 +25186,7 @@
         <xdr:cNvPr id="13" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25230,7 +25249,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25302,7 +25327,7 @@
         <xdr:cNvPr id="15" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25361,20 +25386,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="Group 19"/>
+        <xdr:cNvPr id="20" name="Group 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12582451" y="6651356"/>
-          <a:ext cx="219795" cy="1565173"/>
+          <a:off x="14487451" y="6021737"/>
+          <a:ext cx="284371" cy="1444093"/>
           <a:chOff x="12589723" y="8631839"/>
           <a:chExt cx="219795" cy="3121042"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Freeform 17"/>
+          <xdr:cNvPr id="18" name="Freeform 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -25493,7 +25530,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Freeform 18"/>
+          <xdr:cNvPr id="19" name="Freeform 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -25631,7 +25674,7 @@
         <xdr:cNvPr id="21" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25693,7 +25736,7 @@
         <xdr:cNvPr id="22" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25755,7 +25798,7 @@
         <xdr:cNvPr id="23" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25817,7 +25860,7 @@
         <xdr:cNvPr id="25" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25879,7 +25922,7 @@
         <xdr:cNvPr id="26" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25941,7 +25984,7 @@
         <xdr:cNvPr id="27" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26003,7 +26046,7 @@
         <xdr:cNvPr id="28" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26062,20 +26105,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="Group 29"/>
+        <xdr:cNvPr id="30" name="Group 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12592373" y="8225403"/>
-          <a:ext cx="219795" cy="1565173"/>
+          <a:off x="14529661" y="7474703"/>
+          <a:ext cx="252083" cy="1444094"/>
           <a:chOff x="12589723" y="8631839"/>
           <a:chExt cx="219795" cy="3121042"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="Freeform 30"/>
+          <xdr:cNvPr id="31" name="Freeform 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -26194,7 +26249,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="Freeform 31"/>
+          <xdr:cNvPr id="32" name="Freeform 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -26332,7 +26393,7 @@
         <xdr:cNvPr id="33" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C519B-1962-4DC2-86CE-BD026F3F5941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26395,7 +26456,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Curved Up Arrow 2"/>
+        <xdr:cNvPr id="3" name="Curved Up Arrow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26451,7 +26518,7 @@
         <xdr:cNvPr id="2" name="画像 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C437E868-BB38-486A-8A21-C79364787D32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26485,7 +26552,7 @@
         <xdr:cNvPr id="3" name="画像 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843307F5-4A92-405E-8012-3F12E6C62793}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26519,7 +26586,7 @@
         <xdr:cNvPr id="4" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E064301B-81DD-4965-8E4B-A6C361503422}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26563,7 +26630,7 @@
         <xdr:cNvPr id="5" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B601C4-4F9C-43DD-B00E-5AD95D07C60D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26607,7 +26674,7 @@
         <xdr:cNvPr id="6" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC47F31-AECB-48C8-AC07-0E7CF60CD9D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26651,7 +26718,7 @@
         <xdr:cNvPr id="7" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16FD91A-778C-43B1-A355-78C6E23D31A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26695,7 +26762,7 @@
         <xdr:cNvPr id="8" name="画像 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E6F8EE-7193-4942-9FA8-1EA7B7B1E933}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26729,7 +26796,7 @@
         <xdr:cNvPr id="9" name="画像 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABB616B-E2DA-4236-8B69-19BFA0D194AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26763,7 +26830,7 @@
         <xdr:cNvPr id="10" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9313EC1B-ECE2-4793-8557-3D8CCDFE8463}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26807,7 +26874,7 @@
         <xdr:cNvPr id="11" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4D8E81-D39E-40F5-89B9-4A8CF1A2F7DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26851,7 +26918,7 @@
         <xdr:cNvPr id="12" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE7ED60-0DD3-461C-8C93-E211351ACA05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26895,7 +26962,7 @@
         <xdr:cNvPr id="13" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F743D999-E4AE-4454-A67F-59BF7363011E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26939,7 +27006,7 @@
         <xdr:cNvPr id="14" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1688B424-5FEE-4DA9-9FD5-B8AE43C4CFB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26983,7 +27050,7 @@
         <xdr:cNvPr id="15" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA20598-F7C1-4B0B-A1E9-B62C1156E65A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27027,7 +27094,7 @@
         <xdr:cNvPr id="16" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E5DC773-04C9-4DF9-999D-8A34494C7380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27071,7 +27138,7 @@
         <xdr:cNvPr id="17" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9993E7BC-ED04-442D-81FF-02CF3A80C16B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27115,7 +27182,7 @@
         <xdr:cNvPr id="18" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41CC502-6FFA-4D1B-8D28-155BD8B5B6B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27159,7 +27226,7 @@
         <xdr:cNvPr id="19" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DC4A61-F832-495E-8C10-F849B484DD46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27203,7 +27270,7 @@
         <xdr:cNvPr id="20" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034AFE29-9612-4E35-BF6E-D0DAF61164C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27247,7 +27314,7 @@
         <xdr:cNvPr id="21" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C49169-ACEE-427E-952A-5F540268FD90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27291,7 +27358,7 @@
         <xdr:cNvPr id="22" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A396AB-7B24-407C-B36C-BB2947E5B6BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27335,7 +27402,7 @@
         <xdr:cNvPr id="23" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C85E4C-D6D7-46E1-9C81-FADD0DCD830E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27379,7 +27446,7 @@
         <xdr:cNvPr id="24" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9A3CCC-89ED-4C89-8835-FC2FCC90D1FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27423,7 +27490,7 @@
         <xdr:cNvPr id="25" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99BFEA2D-566C-41B7-B1D4-7C254F4D4B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27467,7 +27534,7 @@
         <xdr:cNvPr id="26" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBB493B-945B-49DB-9C5A-F49BFB354252}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27511,7 +27578,7 @@
         <xdr:cNvPr id="27" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2875BC5-B7D0-4533-9CD2-1CC4A620319C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27555,7 +27622,7 @@
         <xdr:cNvPr id="28" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8987E004-14FC-42D4-9B1D-33E3942BBD8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27599,7 +27666,7 @@
         <xdr:cNvPr id="29" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA30F38-5B65-4E0F-B706-B46B193FBAB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27643,7 +27710,7 @@
         <xdr:cNvPr id="30" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BE5407-BC21-47DD-9BCB-294A8687C83A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27687,7 +27754,7 @@
         <xdr:cNvPr id="31" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20302BB-5990-49DD-9FAE-34A71CD397CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27731,7 +27798,7 @@
         <xdr:cNvPr id="32" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A63A47D2-C776-4AC8-8B39-2C81CC6C6F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27775,7 +27842,7 @@
         <xdr:cNvPr id="33" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A745EB-BE05-4FB6-AE70-FB6F194FFA28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27819,7 +27886,7 @@
         <xdr:cNvPr id="34" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7979308C-D89D-4BBD-95BA-C821C1732E55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27863,7 +27930,7 @@
         <xdr:cNvPr id="35" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC7E0EA-14E9-43FA-898B-6496A22D375A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27907,7 +27974,7 @@
         <xdr:cNvPr id="36" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96E2782-7519-4890-9465-E50A01B8E5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27951,7 +28018,7 @@
         <xdr:cNvPr id="37" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43350510-45D7-4246-9082-A9727824F47B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27995,7 +28062,7 @@
         <xdr:cNvPr id="38" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D268C9-F95D-4359-B55E-38291689E586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28039,7 +28106,7 @@
         <xdr:cNvPr id="39" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D363F0B9-A16E-4B4F-9F4B-898D07DCE0F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28083,7 +28150,7 @@
         <xdr:cNvPr id="40" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A985FA03-A611-4D9A-A6C2-AC17DD10AD89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28127,7 +28194,7 @@
         <xdr:cNvPr id="41" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BFAFE1-64CC-44C5-8F84-B01F861CEC3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28171,7 +28238,7 @@
         <xdr:cNvPr id="42" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01187D83-5347-43FE-94EF-22819B43BB2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28215,7 +28282,7 @@
         <xdr:cNvPr id="43" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E73C49F-EF61-4D77-A24B-EA08DDEC78C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28259,7 +28326,7 @@
         <xdr:cNvPr id="44" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9E74C5-4CCA-4F0B-99F0-2941DB86EB19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28303,7 +28370,7 @@
         <xdr:cNvPr id="45" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AF8A37-223E-4A2D-A17C-638AD4BAC27A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28347,7 +28414,7 @@
         <xdr:cNvPr id="46" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EF1CFA-2408-4726-9324-3BF9BA71DDCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28391,7 +28458,7 @@
         <xdr:cNvPr id="47" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91432C70-A7F4-44EA-816E-1031F9AE892F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28435,7 +28502,7 @@
         <xdr:cNvPr id="48" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E597AE-FCB8-4A70-B06C-3D929E9836E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28479,7 +28546,7 @@
         <xdr:cNvPr id="49" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E0CD14-F75D-4BE6-8B74-F5A74710BA5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28523,7 +28590,7 @@
         <xdr:cNvPr id="50" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72737E41-6EF4-4DC7-853D-E1A1E81C12F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28567,7 +28634,7 @@
         <xdr:cNvPr id="51" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64D80C1-49E6-4EB0-92A7-24A44DCE23BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28636,7 +28703,7 @@
         <xdr:cNvPr id="52" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF68FEC5-CA5C-44FD-ADCB-AD3F74B0E8EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28680,7 +28747,7 @@
         <xdr:cNvPr id="53" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827A3DDC-DE5A-4424-8F9E-B7CF92F05184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28724,7 +28791,7 @@
         <xdr:cNvPr id="54" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AF36A3-C540-4EE9-907C-4F17AB59AEC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28768,7 +28835,7 @@
         <xdr:cNvPr id="55" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABA6A74-267C-4512-8E8D-F82A103EBD65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28812,7 +28879,7 @@
         <xdr:cNvPr id="56" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B21FC8-7DDA-4DA2-8936-AB37B0017212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28856,7 +28923,7 @@
         <xdr:cNvPr id="57" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDD1548-1B70-48F0-9E22-1C930FD701FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28900,7 +28967,7 @@
         <xdr:cNvPr id="58" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DFCAA7-B421-4743-B54E-8F479ACD744C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28944,7 +29011,7 @@
         <xdr:cNvPr id="59" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B765C305-E733-4E49-A428-1C25CF32D0F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28988,7 +29055,7 @@
         <xdr:cNvPr id="60" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513E6EE3-C4B8-47BE-BDF7-AAFA562166E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29032,7 +29099,7 @@
         <xdr:cNvPr id="61" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD297D1-7D0F-4989-B14E-57CF9371042F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29076,7 +29143,7 @@
         <xdr:cNvPr id="62" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272C5969-5DAC-4148-BD42-859471EDAC03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29120,7 +29187,7 @@
         <xdr:cNvPr id="63" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6B24BE-C24D-493C-B41A-97F1E2E45026}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29164,7 +29231,7 @@
         <xdr:cNvPr id="64" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23799EE7-5FC1-45AB-B7D0-D50B777DD5C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29208,7 +29275,7 @@
         <xdr:cNvPr id="65" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BF46CA-6B18-42FC-B14B-6717A0AC6A35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29252,7 +29319,7 @@
         <xdr:cNvPr id="66" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A05B181-EC08-4E52-9481-3239FAC9AC78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29296,7 +29363,7 @@
         <xdr:cNvPr id="67" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9A5679-222F-4CDF-975C-98E4EDC7F54A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29340,7 +29407,7 @@
         <xdr:cNvPr id="68" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8471F68-F520-43A7-A474-C48C6546D0CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29384,7 +29451,7 @@
         <xdr:cNvPr id="69" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D55D23D-BFC6-46DB-A479-F90A85C7B50C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29428,7 +29495,7 @@
         <xdr:cNvPr id="70" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05869EB5-FAF9-4358-A1FC-07A007D691F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29472,7 +29539,7 @@
         <xdr:cNvPr id="71" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC483B59-8CFA-43D1-BE47-F5817EE8ABB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29516,7 +29583,7 @@
         <xdr:cNvPr id="72" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D571B8A-37A1-449E-A102-FFAB9423F09A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29560,7 +29627,7 @@
         <xdr:cNvPr id="73" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE7A5D1-F294-4698-90C2-8456A4ACC4D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29604,7 +29671,7 @@
         <xdr:cNvPr id="74" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C5289F-FC7C-4214-A5CA-4DB096CF1053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29648,7 +29715,7 @@
         <xdr:cNvPr id="75" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D697564-01BB-42DD-AB93-943C6A3D1673}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29692,7 +29759,7 @@
         <xdr:cNvPr id="76" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6C1775-8274-48C9-B8EC-87995372362A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29736,7 +29803,7 @@
         <xdr:cNvPr id="77" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71861F59-DDF6-4778-8ECC-E06C9DC2DB42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29780,7 +29847,7 @@
         <xdr:cNvPr id="78" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B533EAF1-5CDF-4395-A0F8-B8E09F718A85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29824,7 +29891,7 @@
         <xdr:cNvPr id="79" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A5806F-BE52-4457-9301-2B040E6C0E0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29868,7 +29935,7 @@
         <xdr:cNvPr id="80" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47409DAE-CF59-4923-AADA-8274CC0B2405}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29912,7 +29979,7 @@
         <xdr:cNvPr id="81" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353B9031-DF22-41CD-9F87-01585887EA6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29956,7 +30023,7 @@
         <xdr:cNvPr id="82" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85508AB0-999C-46CF-8AB0-B43A6FA6FA9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30000,7 +30067,7 @@
         <xdr:cNvPr id="83" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95E4083-B506-4BE1-ADEE-A5EA14CF8686}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30044,7 +30111,7 @@
         <xdr:cNvPr id="84" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A269AB-6560-4501-A132-95C8DC829E2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30088,7 +30155,7 @@
         <xdr:cNvPr id="85" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F0BCF6-1E10-4574-A0E7-2C6B31D05132}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30132,7 +30199,7 @@
         <xdr:cNvPr id="86" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A07FA64-2286-4B60-9636-9599137C539D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30176,7 +30243,7 @@
         <xdr:cNvPr id="87" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB53E90-E86A-4F05-8BF7-BB2E456B89CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30220,7 +30287,7 @@
         <xdr:cNvPr id="88" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CD607A-0185-401F-BBCB-13501CC2B22F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30264,7 +30331,7 @@
         <xdr:cNvPr id="89" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88AE6C5-F3C6-4496-931A-1707147C702C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30308,7 +30375,7 @@
         <xdr:cNvPr id="90" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE20BC8-7C9C-4DEC-AF74-A20CFBB35908}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30352,7 +30419,7 @@
         <xdr:cNvPr id="91" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8DCF5E-78CF-4726-95B9-6EAAE69CF133}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30396,7 +30463,7 @@
         <xdr:cNvPr id="92" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7617C891-8068-4A7B-9C42-D33462B55E30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30440,7 +30507,7 @@
         <xdr:cNvPr id="93" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7293531A-C3E1-4F32-A30F-EA3F17CFB406}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30484,7 +30551,7 @@
         <xdr:cNvPr id="94" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D03BE40-2911-42DF-BF9F-E58EC094BA2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30528,7 +30595,7 @@
         <xdr:cNvPr id="95" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF21BD71-DB13-40FE-BADD-604CF5D2C124}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30572,7 +30639,7 @@
         <xdr:cNvPr id="96" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E571C9D5-C966-4248-B563-BBBFA02CFE30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30616,7 +30683,7 @@
         <xdr:cNvPr id="97" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905DA2F7-AD29-4965-A6E6-B76D000DFB6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30660,7 +30727,7 @@
         <xdr:cNvPr id="98" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7851CA9F-2C06-47DA-B5EB-72FD64F0AD8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30704,7 +30771,7 @@
         <xdr:cNvPr id="99" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192963AB-77E5-4CF1-9D5A-D1812501BB5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30748,7 +30815,7 @@
         <xdr:cNvPr id="100" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA8CF33-073F-4ACA-B79F-E72697BB114C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30792,7 +30859,7 @@
         <xdr:cNvPr id="101" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F392D7E4-F1EE-4D9F-B4B7-1BD0EB1C2971}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30836,7 +30903,7 @@
         <xdr:cNvPr id="102" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EC61BE-4B18-4DF4-8FA9-83770893923E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30880,7 +30947,7 @@
         <xdr:cNvPr id="103" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B80A1F-D783-42E6-B28F-7423CEB25693}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30924,7 +30991,7 @@
         <xdr:cNvPr id="104" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B274DA0-A65F-4081-BEC3-6D95DB05F7C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30968,7 +31035,7 @@
         <xdr:cNvPr id="105" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF55FAF9-4654-4A6D-A4A9-242D76105D48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31012,7 +31079,7 @@
         <xdr:cNvPr id="106" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2784E05F-8130-4BD8-A9F4-0061ACEE4091}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31056,7 +31123,7 @@
         <xdr:cNvPr id="107" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D00DD02-A40D-4C00-8621-8BA036E0C3B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31100,7 +31167,7 @@
         <xdr:cNvPr id="108" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D682ABFB-3EC9-44A2-A272-B916480190A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31144,7 +31211,7 @@
         <xdr:cNvPr id="109" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37379052-FF52-49F2-A744-D7BCF02A548B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31188,7 +31255,7 @@
         <xdr:cNvPr id="110" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B22648F-CA39-4685-B5EB-FBCEA77A92AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31232,7 +31299,7 @@
         <xdr:cNvPr id="111" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C1FB88-81FB-4272-A962-2DCA7A25F5CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31276,7 +31343,7 @@
         <xdr:cNvPr id="112" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D1AE6B-22DA-4944-96AF-E4334DD7684C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31320,7 +31387,7 @@
         <xdr:cNvPr id="113" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D128277E-73B3-4BFC-9D9D-62D9BE5451A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31364,7 +31431,7 @@
         <xdr:cNvPr id="114" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B03C479-DD59-4E54-91B4-EC703693D414}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31408,7 +31475,7 @@
         <xdr:cNvPr id="115" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65032EDE-0484-4B22-A1A1-DC7D34D68DC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31452,7 +31519,7 @@
         <xdr:cNvPr id="116" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EC058F-AE62-4DC7-962C-7CF30FA9A6A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31496,7 +31563,7 @@
         <xdr:cNvPr id="117" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2261E2A1-961B-4A52-B91A-C52877AD4117}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31540,7 +31607,7 @@
         <xdr:cNvPr id="118" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5FABF2-F437-4C81-BE5F-7FA8E7B4B3D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31588,7 +31655,7 @@
         <xdr:cNvPr id="119" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8DC3CA-89E7-41B6-A39E-BC1EFBBC0B1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31636,7 +31703,7 @@
         <xdr:cNvPr id="120" name="画像 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6B5AD8-5DA6-44AB-9DEF-4FA81DCCCDD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31675,7 +31742,7 @@
         <xdr:cNvPr id="121" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24946333-9CF3-422D-890B-BF77426600FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31703,6 +31770,499 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5478E436-7FCA-435F-AEF5-8CC0427844C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="714375"/>
+          <a:ext cx="7010400" cy="4286250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53923B7-3329-4A8C-A986-9120867810F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5486400"/>
+          <a:ext cx="8210550" cy="5915025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B165588-8E07-461A-B08D-B24F3DCCFB98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12344400"/>
+          <a:ext cx="7886700" cy="6057900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FA1E03-9704-4759-85A7-4E4728C932A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9601200" y="4286250"/>
+          <a:ext cx="9877425" cy="7610475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAB6B96-FA63-4F5B-8C3A-C2140B3ADD46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19545300"/>
+          <a:ext cx="7219950" cy="4638675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6FBD42-2D32-4D05-AE12-A66F8AE4208D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8496300" y="18916650"/>
+          <a:ext cx="7648575" cy="5772150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1486A7-8036-46C8-911A-B8B969051A33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="5534025" cy="7534275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8002C851-740A-4E2A-A48D-F887517971EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6619875" y="4314825"/>
+          <a:ext cx="5600700" cy="3267075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -31968,14 +32528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="H8:AB22"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="8" spans="11:28">
       <c r="Q8" t="s">
@@ -32013,14 +32573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="L17:AB18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="17" spans="12:28">
       <c r="L17" t="s">
@@ -32046,21 +32606,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="3.875" customWidth="1"/>
+    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
@@ -32369,14 +32929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32385,14 +32945,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="J11:BM32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="11" spans="27:57">
       <c r="AA11" t="s">
@@ -32469,14 +33029,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="F5:BP85"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="5" spans="8:36">
       <c r="M5" t="s">
@@ -32834,14 +33394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:BJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="2:47">
       <c r="B3" t="s">
@@ -33537,7 +34097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A47:DP82"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
@@ -33712,4 +34272,20 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A101DEFA-7B39-4483-96DE-1AB772A391D9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>